--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15649" uniqueCount="5223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15645" uniqueCount="5223">
   <si>
     <t>Vehicles</t>
   </si>
@@ -2240,6 +2240,30 @@
     <t>КВ-1 (Л-11)</t>
   </si>
   <si>
+    <t>ussr_t_34_1941</t>
+  </si>
+  <si>
+    <t>T-34 (1941)</t>
+  </si>
+  <si>
+    <t>Т-34 (1941)</t>
+  </si>
+  <si>
+    <t>ussr_t_34_1941_cast_turret</t>
+  </si>
+  <si>
+    <t>T-34 (1st Gv.T.Br.)</t>
+  </si>
+  <si>
+    <t>Т-34 (1 Гв.Т.Бр.)</t>
+  </si>
+  <si>
+    <t>T-34 1941 (1st Gv.T.Br.)</t>
+  </si>
+  <si>
+    <t>Т-34 1941 (1 Гв.Т.Бр.)</t>
+  </si>
+  <si>
     <t>ussr_smk</t>
   </si>
   <si>
@@ -2256,30 +2280,6 @@
   </si>
   <si>
     <t>Т-34Э</t>
-  </si>
-  <si>
-    <t>ussr_t_34_1941</t>
-  </si>
-  <si>
-    <t>T-34 (1941)</t>
-  </si>
-  <si>
-    <t>Т-34 (1941)</t>
-  </si>
-  <si>
-    <t>ussr_t_34_1941_cast_turret</t>
-  </si>
-  <si>
-    <t>T-34 (1st Gv.T.Br.)</t>
-  </si>
-  <si>
-    <t>Т-34 (1 Гв.Т.Бр.)</t>
-  </si>
-  <si>
-    <t>T-34 1941 (1st Gv.T.Br.)</t>
-  </si>
-  <si>
-    <t>Т-34 1941 (1 Гв.Т.Бр.)</t>
   </si>
   <si>
     <t>ussr_t_34E_STZ</t>
@@ -22989,9 +22989,6 @@
       <c r="J236" t="s">
         <v>27</v>
       </c>
-      <c r="K236" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
@@ -23013,21 +23010,18 @@
         <v>747</v>
       </c>
       <c r="G237" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H237" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J237" t="s">
         <v>27</v>
       </c>
-      <c r="K237" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B238" t="s">
         <v>22</v>
@@ -23039,24 +23033,24 @@
         <v>698</v>
       </c>
       <c r="E238" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F238" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G238" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H238" t="s">
-        <v>750</v>
-      </c>
-      <c r="J238" t="s">
+        <v>752</v>
+      </c>
+      <c r="K238" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B239" t="s">
         <v>22</v>
@@ -23068,10 +23062,10 @@
         <v>698</v>
       </c>
       <c r="E239" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F239" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G239" t="s">
         <v>754</v>
@@ -23079,7 +23073,7 @@
       <c r="H239" t="s">
         <v>755</v>
       </c>
-      <c r="J239" t="s">
+      <c r="K239" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23198,9 +23192,6 @@
       <c r="H243" t="s">
         <v>767</v>
       </c>
-      <c r="J243" t="s">
-        <v>27</v>
-      </c>
       <c r="K243" t="s">
         <v>27</v>
       </c>
@@ -23421,9 +23412,6 @@
       </c>
       <c r="H250" t="s">
         <v>787</v>
-      </c>
-      <c r="J250" t="s">
-        <v>27</v>
       </c>
       <c r="K250" t="s">
         <v>27</v>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15645" uniqueCount="5223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15632" uniqueCount="5223">
   <si>
     <t>Vehicles</t>
   </si>
@@ -3839,6 +3839,15 @@
     <t>"Пантера"</t>
   </si>
   <si>
+    <t>sw_strv_74</t>
+  </si>
+  <si>
+    <t>Strv 74</t>
+  </si>
+  <si>
+    <t>Stridsvagn 74</t>
+  </si>
+  <si>
     <t>sw_ikv_103</t>
   </si>
   <si>
@@ -3846,15 +3855,6 @@
   </si>
   <si>
     <t>Infanterikanonvagn 103</t>
-  </si>
-  <si>
-    <t>sw_strv_74</t>
-  </si>
-  <si>
-    <t>Strv 74</t>
-  </si>
-  <si>
-    <t>Stridsvagn 74</t>
   </si>
   <si>
     <t>uk_a_43_black_prince</t>
@@ -21869,9 +21869,6 @@
       <c r="L201" t="s">
         <v>64</v>
       </c>
-      <c r="M201" t="s">
-        <v>64</v>
-      </c>
       <c r="N201" t="s">
         <v>64</v>
       </c>
@@ -22765,9 +22762,6 @@
       <c r="L229" t="s">
         <v>64</v>
       </c>
-      <c r="M229" t="s">
-        <v>64</v>
-      </c>
       <c r="N229" t="s">
         <v>64</v>
       </c>
@@ -25093,6 +25087,9 @@
       <c r="L304" t="s">
         <v>64</v>
       </c>
+      <c r="M304" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
@@ -25186,9 +25183,6 @@
       <c r="L307" t="s">
         <v>27</v>
       </c>
-      <c r="M307" t="s">
-        <v>27</v>
-      </c>
       <c r="N307" t="s">
         <v>27</v>
       </c>
@@ -25288,9 +25282,6 @@
       <c r="L310" t="s">
         <v>27</v>
       </c>
-      <c r="M310" t="s">
-        <v>27</v>
-      </c>
       <c r="N310" t="s">
         <v>27</v>
       </c>
@@ -26096,9 +26087,6 @@
       <c r="H336" t="s">
         <v>1047</v>
       </c>
-      <c r="M336" t="s">
-        <v>27</v>
-      </c>
       <c r="N336" t="s">
         <v>27</v>
       </c>
@@ -26881,6 +26869,9 @@
       <c r="L361" t="s">
         <v>64</v>
       </c>
+      <c r="M361" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
@@ -27061,9 +27052,6 @@
       <c r="L367" t="s">
         <v>27</v>
       </c>
-      <c r="M367" t="s">
-        <v>27</v>
-      </c>
       <c r="N367" t="s">
         <v>27</v>
       </c>
@@ -27163,9 +27151,6 @@
       <c r="H370" t="s">
         <v>1141</v>
       </c>
-      <c r="M370" t="s">
-        <v>27</v>
-      </c>
       <c r="N370" t="s">
         <v>27</v>
       </c>
@@ -28657,9 +28642,6 @@
       <c r="N418" t="s">
         <v>27</v>
       </c>
-      <c r="O418" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
@@ -28686,11 +28668,11 @@
       <c r="H419" t="s">
         <v>1280</v>
       </c>
-      <c r="M419" t="s">
-        <v>27</v>
-      </c>
       <c r="N419" t="s">
         <v>27</v>
+      </c>
+      <c r="O419" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="420">
@@ -29976,9 +29958,6 @@
       <c r="H461" t="s">
         <v>1399</v>
       </c>
-      <c r="M461" t="s">
-        <v>27</v>
-      </c>
       <c r="N461" t="s">
         <v>27</v>
       </c>
@@ -30139,9 +30118,6 @@
       <c r="H466" t="s">
         <v>1412</v>
       </c>
-      <c r="M466" t="s">
-        <v>64</v>
-      </c>
       <c r="N466" t="s">
         <v>64</v>
       </c>
@@ -30174,9 +30150,6 @@
       <c r="H467" t="s">
         <v>1414</v>
       </c>
-      <c r="M467" t="s">
-        <v>64</v>
-      </c>
       <c r="N467" t="s">
         <v>64</v>
       </c>
@@ -30305,9 +30278,6 @@
       <c r="H471" t="s">
         <v>1427</v>
       </c>
-      <c r="M471" t="s">
-        <v>27</v>
-      </c>
       <c r="N471" t="s">
         <v>27</v>
       </c>
@@ -31618,9 +31588,6 @@
       <c r="H514" t="s">
         <v>1550</v>
       </c>
-      <c r="M514" t="s">
-        <v>64</v>
-      </c>
       <c r="N514" t="s">
         <v>64</v>
       </c>
@@ -31851,9 +31818,6 @@
       <c r="H521" t="s">
         <v>1570</v>
       </c>
-      <c r="M521" t="s">
-        <v>27</v>
-      </c>
       <c r="N521" t="s">
         <v>27</v>
       </c>
@@ -31885,9 +31849,6 @@
       </c>
       <c r="H522" t="s">
         <v>1573</v>
-      </c>
-      <c r="M522" t="s">
-        <v>27</v>
       </c>
       <c r="N522" t="s">
         <v>27</v>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15632" uniqueCount="5223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15643" uniqueCount="5223">
   <si>
     <t>Vehicles</t>
   </si>
@@ -21869,6 +21869,9 @@
       <c r="L201" t="s">
         <v>64</v>
       </c>
+      <c r="M201" t="s">
+        <v>64</v>
+      </c>
       <c r="N201" t="s">
         <v>64</v>
       </c>
@@ -22762,6 +22765,9 @@
       <c r="L229" t="s">
         <v>64</v>
       </c>
+      <c r="M229" t="s">
+        <v>64</v>
+      </c>
       <c r="N229" t="s">
         <v>64</v>
       </c>
@@ -25183,6 +25189,9 @@
       <c r="L307" t="s">
         <v>27</v>
       </c>
+      <c r="M307" t="s">
+        <v>27</v>
+      </c>
       <c r="N307" t="s">
         <v>27</v>
       </c>
@@ -25282,6 +25291,9 @@
       <c r="L310" t="s">
         <v>27</v>
       </c>
+      <c r="M310" t="s">
+        <v>27</v>
+      </c>
       <c r="N310" t="s">
         <v>27</v>
       </c>
@@ -28668,6 +28680,9 @@
       <c r="H419" t="s">
         <v>1280</v>
       </c>
+      <c r="M419" t="s">
+        <v>27</v>
+      </c>
       <c r="N419" t="s">
         <v>27</v>
       </c>
@@ -29958,6 +29973,9 @@
       <c r="H461" t="s">
         <v>1399</v>
       </c>
+      <c r="M461" t="s">
+        <v>27</v>
+      </c>
       <c r="N461" t="s">
         <v>27</v>
       </c>
@@ -30118,6 +30136,9 @@
       <c r="H466" t="s">
         <v>1412</v>
       </c>
+      <c r="M466" t="s">
+        <v>64</v>
+      </c>
       <c r="N466" t="s">
         <v>64</v>
       </c>
@@ -30150,6 +30171,9 @@
       <c r="H467" t="s">
         <v>1414</v>
       </c>
+      <c r="M467" t="s">
+        <v>64</v>
+      </c>
       <c r="N467" t="s">
         <v>64</v>
       </c>
@@ -30278,6 +30302,9 @@
       <c r="H471" t="s">
         <v>1427</v>
       </c>
+      <c r="M471" t="s">
+        <v>27</v>
+      </c>
       <c r="N471" t="s">
         <v>27</v>
       </c>
@@ -31588,6 +31615,9 @@
       <c r="H514" t="s">
         <v>1550</v>
       </c>
+      <c r="M514" t="s">
+        <v>64</v>
+      </c>
       <c r="N514" t="s">
         <v>64</v>
       </c>
@@ -31652,9 +31682,6 @@
       <c r="H516" t="s">
         <v>1556</v>
       </c>
-      <c r="M516" t="s">
-        <v>64</v>
-      </c>
       <c r="N516" t="s">
         <v>64</v>
       </c>
@@ -31818,6 +31845,9 @@
       <c r="H521" t="s">
         <v>1570</v>
       </c>
+      <c r="M521" t="s">
+        <v>27</v>
+      </c>
       <c r="N521" t="s">
         <v>27</v>
       </c>
@@ -31849,6 +31879,9 @@
       </c>
       <c r="H522" t="s">
         <v>1573</v>
+      </c>
+      <c r="M522" t="s">
+        <v>27</v>
       </c>
       <c r="N522" t="s">
         <v>27</v>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15677" uniqueCount="5233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15676" uniqueCount="5233">
   <si>
     <t>Vehicles</t>
   </si>
@@ -32088,9 +32088,6 @@
       <c r="P527" t="s">
         <v>64</v>
       </c>
-      <c r="Q527" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11465" uniqueCount="3483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11466" uniqueCount="3483">
   <si>
     <t>Vehicles</t>
   </si>
@@ -8723,6 +8723,12 @@
     <t>Tank, Combat, Full Tracked, 105-mm Gun IPM1</t>
   </si>
   <si>
+    <t>us_m60a3_slep</t>
+  </si>
+  <si>
+    <t>M60 AMBT</t>
+  </si>
+  <si>
     <t>f-104g_china</t>
   </si>
   <si>
@@ -10437,12 +10443,6 @@
   </si>
   <si>
     <t>md_460_usa</t>
-  </si>
-  <si>
-    <t>us_m60a3_slep</t>
-  </si>
-  <si>
-    <t>M60 AMBT</t>
   </si>
   <si>
     <t>germ_leopard_2a5_yt_cup_2019</t>
@@ -43274,10 +43274,10 @@
         <v>2903</v>
       </c>
       <c r="B1474" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C1474" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D1474" t="s">
         <v>2873</v>
@@ -43286,7 +43286,7 @@
         <v>2904</v>
       </c>
       <c r="O1474" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1475">
@@ -43297,7 +43297,7 @@
         <v>113</v>
       </c>
       <c r="C1475" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1475" t="s">
         <v>2873</v>
@@ -43306,7 +43306,7 @@
         <v>2906</v>
       </c>
       <c r="O1475" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1476">
@@ -43323,7 +43323,7 @@
         <v>2873</v>
       </c>
       <c r="E1476" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="O1476" t="s">
         <v>48</v>
@@ -43331,19 +43331,19 @@
     </row>
     <row r="1477">
       <c r="A1477" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="B1477" t="s">
         <v>113</v>
       </c>
       <c r="C1477" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1477" t="s">
         <v>2873</v>
       </c>
       <c r="E1477" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="O1477" t="s">
         <v>48</v>
@@ -43357,7 +43357,7 @@
         <v>113</v>
       </c>
       <c r="C1478" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1478" t="s">
         <v>2873</v>
@@ -43394,10 +43394,10 @@
         <v>2914</v>
       </c>
       <c r="B1480" t="s">
-        <v>2519</v>
+        <v>113</v>
       </c>
       <c r="C1480" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D1480" t="s">
         <v>2873</v>
@@ -43406,9 +43406,6 @@
         <v>2915</v>
       </c>
       <c r="O1480" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1480" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43443,7 +43440,7 @@
         <v>2519</v>
       </c>
       <c r="C1482" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1482" t="s">
         <v>2873</v>
@@ -43466,7 +43463,7 @@
         <v>2519</v>
       </c>
       <c r="C1483" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D1483" t="s">
         <v>2873</v>
@@ -43475,6 +43472,9 @@
         <v>2921</v>
       </c>
       <c r="O1483" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1483" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43486,7 +43486,7 @@
         <v>2519</v>
       </c>
       <c r="C1484" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1484" t="s">
         <v>2873</v>
@@ -43495,10 +43495,7 @@
         <v>2923</v>
       </c>
       <c r="O1484" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1484" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1485">
@@ -43532,7 +43529,7 @@
         <v>2519</v>
       </c>
       <c r="C1486" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1486" t="s">
         <v>2873</v>
@@ -43541,7 +43538,10 @@
         <v>2927</v>
       </c>
       <c r="O1486" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1486" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1487">
@@ -43552,7 +43552,7 @@
         <v>2519</v>
       </c>
       <c r="C1487" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1487" t="s">
         <v>2873</v>
@@ -43561,9 +43561,6 @@
         <v>2929</v>
       </c>
       <c r="O1487" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1487" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43586,6 +43583,9 @@
       <c r="O1488" t="s">
         <v>48</v>
       </c>
+      <c r="P1488" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="s">
@@ -43632,41 +43632,41 @@
         <v>2936</v>
       </c>
       <c r="B1491" t="s">
-        <v>19</v>
+        <v>2519</v>
       </c>
       <c r="C1491" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D1491" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E1491" t="s">
         <v>2937</v>
       </c>
-      <c r="E1491" t="s">
-        <v>2938</v>
-      </c>
       <c r="O1491" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1491" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1492" t="s">
         <v>2939</v>
-      </c>
-      <c r="B1492" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1492" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1492" t="s">
-        <v>2937</v>
       </c>
       <c r="E1492" t="s">
         <v>2940</v>
       </c>
       <c r="O1492" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1492" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43678,19 +43678,16 @@
         <v>19</v>
       </c>
       <c r="C1493" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D1493" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1493" t="s">
         <v>2942</v>
       </c>
       <c r="O1493" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1493" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1494">
@@ -43704,7 +43701,7 @@
         <v>74</v>
       </c>
       <c r="D1494" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1494" t="s">
         <v>2944</v>
@@ -43724,16 +43721,19 @@
         <v>19</v>
       </c>
       <c r="C1495" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D1495" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1495" t="s">
         <v>2946</v>
       </c>
       <c r="O1495" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1495" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1496">
@@ -43747,7 +43747,7 @@
         <v>88</v>
       </c>
       <c r="D1496" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1496" t="s">
         <v>2948</v>
@@ -43764,18 +43764,15 @@
         <v>19</v>
       </c>
       <c r="C1497" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D1497" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1497" t="s">
         <v>2950</v>
       </c>
       <c r="O1497" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1497" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43790,12 +43787,15 @@
         <v>95</v>
       </c>
       <c r="D1498" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1498" t="s">
         <v>2952</v>
       </c>
       <c r="O1498" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1498" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43807,18 +43807,15 @@
         <v>19</v>
       </c>
       <c r="C1499" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1499" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1499" t="s">
         <v>2954</v>
       </c>
       <c r="O1499" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1499" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43833,7 +43830,7 @@
         <v>104</v>
       </c>
       <c r="D1500" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1500" t="s">
         <v>2956</v>
@@ -43856,7 +43853,7 @@
         <v>104</v>
       </c>
       <c r="D1501" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1501" t="s">
         <v>2958</v>
@@ -43873,19 +43870,22 @@
         <v>2959</v>
       </c>
       <c r="B1502" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C1502" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D1502" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1502" t="s">
         <v>2960</v>
       </c>
       <c r="O1502" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1502" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1503">
@@ -43899,7 +43899,7 @@
         <v>20</v>
       </c>
       <c r="D1503" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1503" t="s">
         <v>2962</v>
@@ -43916,16 +43916,16 @@
         <v>113</v>
       </c>
       <c r="C1504" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1504" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1504" t="s">
         <v>2964</v>
       </c>
       <c r="O1504" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1505">
@@ -43936,10 +43936,10 @@
         <v>113</v>
       </c>
       <c r="C1505" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1505" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1505" t="s">
         <v>2966</v>
@@ -43956,10 +43956,10 @@
         <v>113</v>
       </c>
       <c r="C1506" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D1506" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1506" t="s">
         <v>2968</v>
@@ -43976,16 +43976,16 @@
         <v>113</v>
       </c>
       <c r="C1507" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1507" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1507" t="s">
         <v>2970</v>
       </c>
       <c r="O1507" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1508">
@@ -43999,7 +43999,7 @@
         <v>74</v>
       </c>
       <c r="D1508" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1508" t="s">
         <v>2972</v>
@@ -44019,7 +44019,7 @@
         <v>74</v>
       </c>
       <c r="D1509" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1509" t="s">
         <v>2974</v>
@@ -44036,16 +44036,16 @@
         <v>113</v>
       </c>
       <c r="C1510" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D1510" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1510" t="s">
         <v>2976</v>
       </c>
       <c r="O1510" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1511">
@@ -44056,10 +44056,10 @@
         <v>113</v>
       </c>
       <c r="C1511" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D1511" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1511" t="s">
         <v>2978</v>
@@ -44079,7 +44079,7 @@
         <v>95</v>
       </c>
       <c r="D1512" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1512" t="s">
         <v>2980</v>
@@ -44096,10 +44096,10 @@
         <v>113</v>
       </c>
       <c r="C1513" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1513" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1513" t="s">
         <v>2982</v>
@@ -44119,7 +44119,7 @@
         <v>104</v>
       </c>
       <c r="D1514" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1514" t="s">
         <v>2984</v>
@@ -44133,22 +44133,19 @@
         <v>2985</v>
       </c>
       <c r="B1515" t="s">
-        <v>2519</v>
+        <v>113</v>
       </c>
       <c r="C1515" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D1515" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1515" t="s">
         <v>2986</v>
       </c>
       <c r="O1515" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1515" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1516">
@@ -44162,12 +44159,15 @@
         <v>74</v>
       </c>
       <c r="D1516" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1516" t="s">
         <v>2988</v>
       </c>
       <c r="O1516" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1516" t="s">
         <v>23</v>
       </c>
     </row>
@@ -44176,21 +44176,24 @@
         <v>2989</v>
       </c>
       <c r="B1517" t="s">
-        <v>19</v>
+        <v>2519</v>
       </c>
       <c r="C1517" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D1517" t="s">
-        <v>21</v>
+        <v>2939</v>
       </c>
       <c r="E1517" t="s">
-        <v>75</v>
+        <v>2990</v>
+      </c>
+      <c r="O1517" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="B1518" t="s">
         <v>19</v>
@@ -44202,24 +44205,24 @@
         <v>21</v>
       </c>
       <c r="E1518" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="B1519" t="s">
         <v>19</v>
       </c>
       <c r="C1519" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D1519" t="s">
         <v>21</v>
       </c>
       <c r="E1519" t="s">
-        <v>2992</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1520">
@@ -44227,24 +44230,24 @@
         <v>2993</v>
       </c>
       <c r="B1520" t="s">
-        <v>2994</v>
+        <v>19</v>
       </c>
       <c r="C1520" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D1520" t="s">
         <v>21</v>
       </c>
       <c r="E1520" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1521" t="s">
         <v>2996</v>
-      </c>
-      <c r="B1521" t="s">
-        <v>2994</v>
       </c>
       <c r="C1521" t="s">
         <v>46</v>
@@ -44261,10 +44264,10 @@
         <v>2998</v>
       </c>
       <c r="B1522" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1522" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1522" t="s">
         <v>21</v>
@@ -44278,7 +44281,7 @@
         <v>3000</v>
       </c>
       <c r="B1523" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1523" t="s">
         <v>56</v>
@@ -44295,10 +44298,10 @@
         <v>3002</v>
       </c>
       <c r="B1524" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1524" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1524" t="s">
         <v>21</v>
@@ -44312,7 +44315,7 @@
         <v>3004</v>
       </c>
       <c r="B1525" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1525" t="s">
         <v>67</v>
@@ -44329,7 +44332,7 @@
         <v>3006</v>
       </c>
       <c r="B1526" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1526" t="s">
         <v>67</v>
@@ -44346,10 +44349,10 @@
         <v>3008</v>
       </c>
       <c r="B1527" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1527" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1527" t="s">
         <v>21</v>
@@ -44363,7 +44366,7 @@
         <v>3010</v>
       </c>
       <c r="B1528" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1528" t="s">
         <v>74</v>
@@ -44380,7 +44383,7 @@
         <v>3012</v>
       </c>
       <c r="B1529" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1529" t="s">
         <v>74</v>
@@ -44397,10 +44400,10 @@
         <v>3014</v>
       </c>
       <c r="B1530" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1530" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1530" t="s">
         <v>21</v>
@@ -44414,7 +44417,7 @@
         <v>3016</v>
       </c>
       <c r="B1531" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1531" t="s">
         <v>95</v>
@@ -44431,10 +44434,10 @@
         <v>3018</v>
       </c>
       <c r="B1532" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1532" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1532" t="s">
         <v>21</v>
@@ -44448,7 +44451,7 @@
         <v>3020</v>
       </c>
       <c r="B1533" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1533" t="s">
         <v>104</v>
@@ -44465,13 +44468,13 @@
         <v>3022</v>
       </c>
       <c r="B1534" t="s">
-        <v>19</v>
+        <v>2996</v>
       </c>
       <c r="C1534" t="s">
         <v>104</v>
       </c>
       <c r="D1534" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="E1534" t="s">
         <v>3023</v>
@@ -44482,10 +44485,10 @@
         <v>3024</v>
       </c>
       <c r="B1535" t="s">
-        <v>2994</v>
+        <v>19</v>
       </c>
       <c r="C1535" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D1535" t="s">
         <v>195</v>
@@ -44499,7 +44502,7 @@
         <v>3026</v>
       </c>
       <c r="B1536" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1536" t="s">
         <v>56</v>
@@ -44516,10 +44519,10 @@
         <v>3028</v>
       </c>
       <c r="B1537" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1537" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D1537" t="s">
         <v>195</v>
@@ -44533,7 +44536,7 @@
         <v>3030</v>
       </c>
       <c r="B1538" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1538" t="s">
         <v>74</v>
@@ -44550,7 +44553,7 @@
         <v>3032</v>
       </c>
       <c r="B1539" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1539" t="s">
         <v>74</v>
@@ -44567,10 +44570,10 @@
         <v>3034</v>
       </c>
       <c r="B1540" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1540" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1540" t="s">
         <v>195</v>
@@ -44584,13 +44587,13 @@
         <v>3036</v>
       </c>
       <c r="B1541" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1541" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D1541" t="s">
-        <v>349</v>
+        <v>195</v>
       </c>
       <c r="E1541" t="s">
         <v>3037</v>
@@ -44601,7 +44604,7 @@
         <v>3038</v>
       </c>
       <c r="B1542" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1542" t="s">
         <v>46</v>
@@ -44618,7 +44621,7 @@
         <v>3040</v>
       </c>
       <c r="B1543" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1543" t="s">
         <v>46</v>
@@ -44635,7 +44638,7 @@
         <v>3042</v>
       </c>
       <c r="B1544" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1544" t="s">
         <v>46</v>
@@ -44652,10 +44655,10 @@
         <v>3044</v>
       </c>
       <c r="B1545" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1545" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1545" t="s">
         <v>349</v>
@@ -44669,7 +44672,7 @@
         <v>3046</v>
       </c>
       <c r="B1546" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1546" t="s">
         <v>56</v>
@@ -44686,10 +44689,10 @@
         <v>3048</v>
       </c>
       <c r="B1547" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1547" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1547" t="s">
         <v>349</v>
@@ -44703,7 +44706,7 @@
         <v>3050</v>
       </c>
       <c r="B1548" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1548" t="s">
         <v>67</v>
@@ -44720,7 +44723,7 @@
         <v>3052</v>
       </c>
       <c r="B1549" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1549" t="s">
         <v>67</v>
@@ -44737,7 +44740,7 @@
         <v>3054</v>
       </c>
       <c r="B1550" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1550" t="s">
         <v>67</v>
@@ -44754,7 +44757,7 @@
         <v>3056</v>
       </c>
       <c r="B1551" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1551" t="s">
         <v>67</v>
@@ -44771,10 +44774,10 @@
         <v>3058</v>
       </c>
       <c r="B1552" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1552" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1552" t="s">
         <v>349</v>
@@ -44788,7 +44791,7 @@
         <v>3060</v>
       </c>
       <c r="B1553" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1553" t="s">
         <v>74</v>
@@ -44805,7 +44808,7 @@
         <v>3062</v>
       </c>
       <c r="B1554" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1554" t="s">
         <v>74</v>
@@ -44822,10 +44825,10 @@
         <v>3064</v>
       </c>
       <c r="B1555" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1555" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1555" t="s">
         <v>349</v>
@@ -44839,7 +44842,7 @@
         <v>3066</v>
       </c>
       <c r="B1556" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1556" t="s">
         <v>95</v>
@@ -44856,7 +44859,7 @@
         <v>3068</v>
       </c>
       <c r="B1557" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1557" t="s">
         <v>95</v>
@@ -44873,10 +44876,10 @@
         <v>3070</v>
       </c>
       <c r="B1558" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1558" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1558" t="s">
         <v>349</v>
@@ -44890,7 +44893,7 @@
         <v>3072</v>
       </c>
       <c r="B1559" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1559" t="s">
         <v>104</v>
@@ -44907,7 +44910,7 @@
         <v>3074</v>
       </c>
       <c r="B1560" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1560" t="s">
         <v>104</v>
@@ -44924,13 +44927,13 @@
         <v>3076</v>
       </c>
       <c r="B1561" t="s">
-        <v>19</v>
+        <v>2996</v>
       </c>
       <c r="C1561" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1561" t="s">
-        <v>446</v>
+        <v>349</v>
       </c>
       <c r="E1561" t="s">
         <v>3077</v>
@@ -44941,10 +44944,10 @@
         <v>3078</v>
       </c>
       <c r="B1562" t="s">
-        <v>2994</v>
+        <v>19</v>
       </c>
       <c r="C1562" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D1562" t="s">
         <v>446</v>
@@ -44958,7 +44961,7 @@
         <v>3080</v>
       </c>
       <c r="B1563" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1563" t="s">
         <v>67</v>
@@ -44975,10 +44978,10 @@
         <v>3082</v>
       </c>
       <c r="B1564" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1564" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1564" t="s">
         <v>446</v>
@@ -44992,7 +44995,7 @@
         <v>3084</v>
       </c>
       <c r="B1565" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1565" t="s">
         <v>74</v>
@@ -45009,7 +45012,7 @@
         <v>3086</v>
       </c>
       <c r="B1566" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1566" t="s">
         <v>74</v>
@@ -45026,10 +45029,10 @@
         <v>3088</v>
       </c>
       <c r="B1567" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1567" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1567" t="s">
         <v>446</v>
@@ -45043,7 +45046,7 @@
         <v>3090</v>
       </c>
       <c r="B1568" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1568" t="s">
         <v>95</v>
@@ -45060,7 +45063,7 @@
         <v>3092</v>
       </c>
       <c r="B1569" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1569" t="s">
         <v>95</v>
@@ -45077,7 +45080,7 @@
         <v>3094</v>
       </c>
       <c r="B1570" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1570" t="s">
         <v>95</v>
@@ -45094,10 +45097,10 @@
         <v>3096</v>
       </c>
       <c r="B1571" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1571" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1571" t="s">
         <v>446</v>
@@ -45111,7 +45114,7 @@
         <v>3098</v>
       </c>
       <c r="B1572" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1572" t="s">
         <v>104</v>
@@ -45128,7 +45131,7 @@
         <v>3100</v>
       </c>
       <c r="B1573" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1573" t="s">
         <v>104</v>
@@ -45145,7 +45148,7 @@
         <v>3102</v>
       </c>
       <c r="B1574" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1574" t="s">
         <v>104</v>
@@ -45162,13 +45165,13 @@
         <v>3104</v>
       </c>
       <c r="B1575" t="s">
-        <v>19</v>
+        <v>2996</v>
       </c>
       <c r="C1575" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1575" t="s">
-        <v>592</v>
+        <v>446</v>
       </c>
       <c r="E1575" t="s">
         <v>3105</v>
@@ -45182,18 +45185,18 @@
         <v>19</v>
       </c>
       <c r="C1576" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D1576" t="s">
         <v>592</v>
       </c>
       <c r="E1576" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="B1577" t="s">
         <v>19</v>
@@ -45205,41 +45208,41 @@
         <v>592</v>
       </c>
       <c r="E1577" t="s">
-        <v>2154</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="B1578" t="s">
         <v>19</v>
       </c>
       <c r="C1578" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D1578" t="s">
         <v>592</v>
       </c>
       <c r="E1578" t="s">
-        <v>3105</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="B1579" t="s">
-        <v>2994</v>
+        <v>19</v>
       </c>
       <c r="C1579" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1579" t="s">
         <v>592</v>
       </c>
       <c r="E1579" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1580">
@@ -45247,7 +45250,7 @@
         <v>3111</v>
       </c>
       <c r="B1580" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1580" t="s">
         <v>46</v>
@@ -45264,7 +45267,7 @@
         <v>3113</v>
       </c>
       <c r="B1581" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1581" t="s">
         <v>46</v>
@@ -45281,10 +45284,10 @@
         <v>3115</v>
       </c>
       <c r="B1582" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1582" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1582" t="s">
         <v>592</v>
@@ -45298,7 +45301,7 @@
         <v>3117</v>
       </c>
       <c r="B1583" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1583" t="s">
         <v>56</v>
@@ -45315,10 +45318,10 @@
         <v>3119</v>
       </c>
       <c r="B1584" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1584" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1584" t="s">
         <v>592</v>
@@ -45332,7 +45335,7 @@
         <v>3121</v>
       </c>
       <c r="B1585" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1585" t="s">
         <v>67</v>
@@ -45349,7 +45352,7 @@
         <v>3123</v>
       </c>
       <c r="B1586" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1586" t="s">
         <v>67</v>
@@ -45366,7 +45369,7 @@
         <v>3125</v>
       </c>
       <c r="B1587" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1587" t="s">
         <v>67</v>
@@ -45383,10 +45386,10 @@
         <v>3127</v>
       </c>
       <c r="B1588" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1588" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1588" t="s">
         <v>592</v>
@@ -45400,7 +45403,7 @@
         <v>3129</v>
       </c>
       <c r="B1589" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1589" t="s">
         <v>74</v>
@@ -45417,7 +45420,7 @@
         <v>3131</v>
       </c>
       <c r="B1590" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1590" t="s">
         <v>74</v>
@@ -45434,7 +45437,7 @@
         <v>3133</v>
       </c>
       <c r="B1591" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1591" t="s">
         <v>74</v>
@@ -45451,7 +45454,7 @@
         <v>3135</v>
       </c>
       <c r="B1592" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1592" t="s">
         <v>74</v>
@@ -45468,7 +45471,7 @@
         <v>3137</v>
       </c>
       <c r="B1593" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1593" t="s">
         <v>74</v>
@@ -45485,10 +45488,10 @@
         <v>3139</v>
       </c>
       <c r="B1594" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1594" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1594" t="s">
         <v>592</v>
@@ -45502,7 +45505,7 @@
         <v>3141</v>
       </c>
       <c r="B1595" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1595" t="s">
         <v>95</v>
@@ -45519,10 +45522,10 @@
         <v>3143</v>
       </c>
       <c r="B1596" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1596" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1596" t="s">
         <v>592</v>
@@ -45536,13 +45539,13 @@
         <v>3145</v>
       </c>
       <c r="B1597" t="s">
-        <v>19</v>
+        <v>2996</v>
       </c>
       <c r="C1597" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1597" t="s">
-        <v>769</v>
+        <v>592</v>
       </c>
       <c r="E1597" t="s">
         <v>3146</v>
@@ -45553,7 +45556,7 @@
         <v>3147</v>
       </c>
       <c r="B1598" t="s">
-        <v>2994</v>
+        <v>19</v>
       </c>
       <c r="C1598" t="s">
         <v>46</v>
@@ -45570,7 +45573,7 @@
         <v>3149</v>
       </c>
       <c r="B1599" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1599" t="s">
         <v>46</v>
@@ -45587,7 +45590,7 @@
         <v>3151</v>
       </c>
       <c r="B1600" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1600" t="s">
         <v>46</v>
@@ -45604,7 +45607,7 @@
         <v>3153</v>
       </c>
       <c r="B1601" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1601" t="s">
         <v>46</v>
@@ -45621,10 +45624,10 @@
         <v>3155</v>
       </c>
       <c r="B1602" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1602" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1602" t="s">
         <v>769</v>
@@ -45638,10 +45641,10 @@
         <v>3157</v>
       </c>
       <c r="B1603" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1603" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D1603" t="s">
         <v>769</v>
@@ -45655,7 +45658,7 @@
         <v>3159</v>
       </c>
       <c r="B1604" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1604" t="s">
         <v>74</v>
@@ -45672,7 +45675,7 @@
         <v>3161</v>
       </c>
       <c r="B1605" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1605" t="s">
         <v>74</v>
@@ -45689,7 +45692,7 @@
         <v>3163</v>
       </c>
       <c r="B1606" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1606" t="s">
         <v>74</v>
@@ -45706,10 +45709,10 @@
         <v>3165</v>
       </c>
       <c r="B1607" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1607" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1607" t="s">
         <v>769</v>
@@ -45723,7 +45726,7 @@
         <v>3167</v>
       </c>
       <c r="B1608" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1608" t="s">
         <v>95</v>
@@ -45740,10 +45743,10 @@
         <v>3169</v>
       </c>
       <c r="B1609" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1609" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1609" t="s">
         <v>769</v>
@@ -45757,7 +45760,7 @@
         <v>3171</v>
       </c>
       <c r="B1610" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1610" t="s">
         <v>104</v>
@@ -45774,13 +45777,13 @@
         <v>3173</v>
       </c>
       <c r="B1611" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1611" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1611" t="s">
-        <v>909</v>
+        <v>769</v>
       </c>
       <c r="E1611" t="s">
         <v>3174</v>
@@ -45791,7 +45794,7 @@
         <v>3175</v>
       </c>
       <c r="B1612" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1612" t="s">
         <v>46</v>
@@ -45808,7 +45811,7 @@
         <v>3177</v>
       </c>
       <c r="B1613" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1613" t="s">
         <v>46</v>
@@ -45825,10 +45828,10 @@
         <v>3179</v>
       </c>
       <c r="B1614" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1614" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1614" t="s">
         <v>909</v>
@@ -45842,10 +45845,10 @@
         <v>3181</v>
       </c>
       <c r="B1615" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1615" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D1615" t="s">
         <v>909</v>
@@ -45859,7 +45862,7 @@
         <v>3183</v>
       </c>
       <c r="B1616" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1616" t="s">
         <v>74</v>
@@ -45876,10 +45879,10 @@
         <v>3185</v>
       </c>
       <c r="B1617" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1617" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1617" t="s">
         <v>909</v>
@@ -45893,7 +45896,7 @@
         <v>3187</v>
       </c>
       <c r="B1618" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1618" t="s">
         <v>95</v>
@@ -45910,7 +45913,7 @@
         <v>3189</v>
       </c>
       <c r="B1619" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1619" t="s">
         <v>95</v>
@@ -45927,10 +45930,10 @@
         <v>3191</v>
       </c>
       <c r="B1620" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1620" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1620" t="s">
         <v>909</v>
@@ -45944,7 +45947,7 @@
         <v>3193</v>
       </c>
       <c r="B1621" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1621" t="s">
         <v>104</v>
@@ -45961,7 +45964,7 @@
         <v>3195</v>
       </c>
       <c r="B1622" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1622" t="s">
         <v>104</v>
@@ -45978,13 +45981,13 @@
         <v>3197</v>
       </c>
       <c r="B1623" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1623" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1623" t="s">
-        <v>1059</v>
+        <v>909</v>
       </c>
       <c r="E1623" t="s">
         <v>3198</v>
@@ -45995,10 +45998,10 @@
         <v>3199</v>
       </c>
       <c r="B1624" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1624" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1624" t="s">
         <v>1059</v>
@@ -46012,10 +46015,10 @@
         <v>3201</v>
       </c>
       <c r="B1625" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1625" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1625" t="s">
         <v>1059</v>
@@ -46029,7 +46032,7 @@
         <v>3203</v>
       </c>
       <c r="B1626" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1626" t="s">
         <v>67</v>
@@ -46046,7 +46049,7 @@
         <v>3205</v>
       </c>
       <c r="B1627" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1627" t="s">
         <v>67</v>
@@ -46063,7 +46066,7 @@
         <v>3207</v>
       </c>
       <c r="B1628" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1628" t="s">
         <v>67</v>
@@ -46080,10 +46083,10 @@
         <v>3209</v>
       </c>
       <c r="B1629" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1629" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1629" t="s">
         <v>1059</v>
@@ -46097,7 +46100,7 @@
         <v>3211</v>
       </c>
       <c r="B1630" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1630" t="s">
         <v>74</v>
@@ -46114,7 +46117,7 @@
         <v>3213</v>
       </c>
       <c r="B1631" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1631" t="s">
         <v>74</v>
@@ -46131,10 +46134,10 @@
         <v>3215</v>
       </c>
       <c r="B1632" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1632" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1632" t="s">
         <v>1059</v>
@@ -46148,7 +46151,7 @@
         <v>3217</v>
       </c>
       <c r="B1633" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1633" t="s">
         <v>95</v>
@@ -46165,10 +46168,10 @@
         <v>3219</v>
       </c>
       <c r="B1634" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1634" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1634" t="s">
         <v>1059</v>
@@ -46182,33 +46185,33 @@
         <v>3221</v>
       </c>
       <c r="B1635" t="s">
-        <v>19</v>
+        <v>2996</v>
       </c>
       <c r="C1635" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1635" t="s">
-        <v>1191</v>
+        <v>1059</v>
       </c>
       <c r="E1635" t="s">
-        <v>1248</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="B1636" t="s">
-        <v>2994</v>
+        <v>19</v>
       </c>
       <c r="C1636" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D1636" t="s">
         <v>1191</v>
       </c>
       <c r="E1636" t="s">
-        <v>3223</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1637">
@@ -46216,7 +46219,7 @@
         <v>3224</v>
       </c>
       <c r="B1637" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1637" t="s">
         <v>46</v>
@@ -46233,7 +46236,7 @@
         <v>3226</v>
       </c>
       <c r="B1638" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1638" t="s">
         <v>46</v>
@@ -46250,7 +46253,7 @@
         <v>3228</v>
       </c>
       <c r="B1639" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1639" t="s">
         <v>46</v>
@@ -46267,7 +46270,7 @@
         <v>3230</v>
       </c>
       <c r="B1640" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1640" t="s">
         <v>46</v>
@@ -46284,7 +46287,7 @@
         <v>3232</v>
       </c>
       <c r="B1641" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1641" t="s">
         <v>46</v>
@@ -46301,7 +46304,7 @@
         <v>3234</v>
       </c>
       <c r="B1642" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1642" t="s">
         <v>46</v>
@@ -46318,10 +46321,10 @@
         <v>3236</v>
       </c>
       <c r="B1643" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1643" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1643" t="s">
         <v>1191</v>
@@ -46335,10 +46338,10 @@
         <v>3238</v>
       </c>
       <c r="B1644" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1644" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1644" t="s">
         <v>1191</v>
@@ -46352,7 +46355,7 @@
         <v>3240</v>
       </c>
       <c r="B1645" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1645" t="s">
         <v>67</v>
@@ -46369,10 +46372,10 @@
         <v>3242</v>
       </c>
       <c r="B1646" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1646" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1646" t="s">
         <v>1191</v>
@@ -46386,10 +46389,10 @@
         <v>3244</v>
       </c>
       <c r="B1647" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1647" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1647" t="s">
         <v>1191</v>
@@ -46403,7 +46406,7 @@
         <v>3246</v>
       </c>
       <c r="B1648" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1648" t="s">
         <v>95</v>
@@ -46420,7 +46423,7 @@
         <v>3248</v>
       </c>
       <c r="B1649" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1649" t="s">
         <v>95</v>
@@ -46437,7 +46440,7 @@
         <v>3250</v>
       </c>
       <c r="B1650" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1650" t="s">
         <v>95</v>
@@ -46454,10 +46457,10 @@
         <v>3252</v>
       </c>
       <c r="B1651" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1651" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1651" t="s">
         <v>1191</v>
@@ -46471,7 +46474,7 @@
         <v>3254</v>
       </c>
       <c r="B1652" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1652" t="s">
         <v>104</v>
@@ -46488,7 +46491,7 @@
         <v>3256</v>
       </c>
       <c r="B1653" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1653" t="s">
         <v>104</v>
@@ -46505,7 +46508,7 @@
         <v>3258</v>
       </c>
       <c r="B1654" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1654" t="s">
         <v>104</v>
@@ -46522,13 +46525,13 @@
         <v>3260</v>
       </c>
       <c r="B1655" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1655" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1655" t="s">
-        <v>1341</v>
+        <v>1191</v>
       </c>
       <c r="E1655" t="s">
         <v>3261</v>
@@ -46539,7 +46542,7 @@
         <v>3262</v>
       </c>
       <c r="B1656" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1656" t="s">
         <v>46</v>
@@ -46556,10 +46559,10 @@
         <v>3264</v>
       </c>
       <c r="B1657" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1657" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1657" t="s">
         <v>1341</v>
@@ -46573,7 +46576,7 @@
         <v>3266</v>
       </c>
       <c r="B1658" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1658" t="s">
         <v>56</v>
@@ -46590,10 +46593,10 @@
         <v>3268</v>
       </c>
       <c r="B1659" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1659" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1659" t="s">
         <v>1341</v>
@@ -46607,7 +46610,7 @@
         <v>3270</v>
       </c>
       <c r="B1660" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1660" t="s">
         <v>67</v>
@@ -46624,7 +46627,7 @@
         <v>3272</v>
       </c>
       <c r="B1661" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1661" t="s">
         <v>67</v>
@@ -46641,10 +46644,10 @@
         <v>3274</v>
       </c>
       <c r="B1662" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1662" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1662" t="s">
         <v>1341</v>
@@ -46658,7 +46661,7 @@
         <v>3276</v>
       </c>
       <c r="B1663" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1663" t="s">
         <v>74</v>
@@ -46675,10 +46678,10 @@
         <v>3278</v>
       </c>
       <c r="B1664" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1664" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1664" t="s">
         <v>1341</v>
@@ -46692,7 +46695,7 @@
         <v>3280</v>
       </c>
       <c r="B1665" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1665" t="s">
         <v>95</v>
@@ -46709,7 +46712,7 @@
         <v>3282</v>
       </c>
       <c r="B1666" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1666" t="s">
         <v>95</v>
@@ -46726,10 +46729,10 @@
         <v>3284</v>
       </c>
       <c r="B1667" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1667" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1667" t="s">
         <v>1341</v>
@@ -46743,7 +46746,7 @@
         <v>3286</v>
       </c>
       <c r="B1668" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1668" t="s">
         <v>104</v>
@@ -46760,7 +46763,7 @@
         <v>3288</v>
       </c>
       <c r="B1669" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1669" t="s">
         <v>104</v>
@@ -46777,13 +46780,13 @@
         <v>3290</v>
       </c>
       <c r="B1670" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1670" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1670" t="s">
-        <v>1467</v>
+        <v>1341</v>
       </c>
       <c r="E1670" t="s">
         <v>3291</v>
@@ -46794,7 +46797,7 @@
         <v>3292</v>
       </c>
       <c r="B1671" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1671" t="s">
         <v>46</v>
@@ -46811,7 +46814,7 @@
         <v>3294</v>
       </c>
       <c r="B1672" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1672" t="s">
         <v>46</v>
@@ -46828,7 +46831,7 @@
         <v>3296</v>
       </c>
       <c r="B1673" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1673" t="s">
         <v>46</v>
@@ -46845,7 +46848,7 @@
         <v>3298</v>
       </c>
       <c r="B1674" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1674" t="s">
         <v>46</v>
@@ -46862,7 +46865,7 @@
         <v>3300</v>
       </c>
       <c r="B1675" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1675" t="s">
         <v>46</v>
@@ -46879,10 +46882,10 @@
         <v>3302</v>
       </c>
       <c r="B1676" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1676" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1676" t="s">
         <v>1467</v>
@@ -46896,7 +46899,7 @@
         <v>3304</v>
       </c>
       <c r="B1677" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1677" t="s">
         <v>56</v>
@@ -46913,7 +46916,7 @@
         <v>3306</v>
       </c>
       <c r="B1678" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1678" t="s">
         <v>56</v>
@@ -46930,10 +46933,10 @@
         <v>3308</v>
       </c>
       <c r="B1679" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1679" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1679" t="s">
         <v>1467</v>
@@ -46947,7 +46950,7 @@
         <v>3310</v>
       </c>
       <c r="B1680" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1680" t="s">
         <v>67</v>
@@ -46964,10 +46967,10 @@
         <v>3312</v>
       </c>
       <c r="B1681" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1681" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1681" t="s">
         <v>1467</v>
@@ -46981,7 +46984,7 @@
         <v>3314</v>
       </c>
       <c r="B1682" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1682" t="s">
         <v>74</v>
@@ -46998,7 +47001,7 @@
         <v>3316</v>
       </c>
       <c r="B1683" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1683" t="s">
         <v>74</v>
@@ -47015,7 +47018,7 @@
         <v>3318</v>
       </c>
       <c r="B1684" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1684" t="s">
         <v>74</v>
@@ -47032,7 +47035,7 @@
         <v>3320</v>
       </c>
       <c r="B1685" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1685" t="s">
         <v>74</v>
@@ -47049,7 +47052,7 @@
         <v>3322</v>
       </c>
       <c r="B1686" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1686" t="s">
         <v>74</v>
@@ -47066,7 +47069,7 @@
         <v>3324</v>
       </c>
       <c r="B1687" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1687" t="s">
         <v>74</v>
@@ -47083,10 +47086,10 @@
         <v>3326</v>
       </c>
       <c r="B1688" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1688" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1688" t="s">
         <v>1467</v>
@@ -47100,7 +47103,7 @@
         <v>3328</v>
       </c>
       <c r="B1689" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1689" t="s">
         <v>95</v>
@@ -47117,7 +47120,7 @@
         <v>3330</v>
       </c>
       <c r="B1690" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1690" t="s">
         <v>95</v>
@@ -47134,7 +47137,7 @@
         <v>3332</v>
       </c>
       <c r="B1691" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1691" t="s">
         <v>95</v>
@@ -47151,7 +47154,7 @@
         <v>3334</v>
       </c>
       <c r="B1692" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1692" t="s">
         <v>95</v>
@@ -47168,7 +47171,7 @@
         <v>3336</v>
       </c>
       <c r="B1693" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1693" t="s">
         <v>95</v>
@@ -47185,10 +47188,10 @@
         <v>3338</v>
       </c>
       <c r="B1694" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1694" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1694" t="s">
         <v>1467</v>
@@ -47202,7 +47205,7 @@
         <v>3340</v>
       </c>
       <c r="B1695" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1695" t="s">
         <v>104</v>
@@ -47219,7 +47222,7 @@
         <v>3342</v>
       </c>
       <c r="B1696" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1696" t="s">
         <v>104</v>
@@ -47236,7 +47239,7 @@
         <v>3344</v>
       </c>
       <c r="B1697" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1697" t="s">
         <v>104</v>
@@ -47253,13 +47256,13 @@
         <v>3346</v>
       </c>
       <c r="B1698" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1698" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1698" t="s">
-        <v>1555</v>
+        <v>1467</v>
       </c>
       <c r="E1698" t="s">
         <v>3347</v>
@@ -47270,10 +47273,10 @@
         <v>3348</v>
       </c>
       <c r="B1699" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1699" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D1699" t="s">
         <v>1555</v>
@@ -47287,10 +47290,10 @@
         <v>3350</v>
       </c>
       <c r="B1700" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1700" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1700" t="s">
         <v>1555</v>
@@ -47304,7 +47307,7 @@
         <v>3352</v>
       </c>
       <c r="B1701" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1701" t="s">
         <v>74</v>
@@ -47321,7 +47324,7 @@
         <v>3354</v>
       </c>
       <c r="B1702" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1702" t="s">
         <v>74</v>
@@ -47338,10 +47341,10 @@
         <v>3356</v>
       </c>
       <c r="B1703" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1703" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D1703" t="s">
         <v>1555</v>
@@ -47355,7 +47358,7 @@
         <v>3358</v>
       </c>
       <c r="B1704" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1704" t="s">
         <v>104</v>
@@ -47372,7 +47375,7 @@
         <v>3360</v>
       </c>
       <c r="B1705" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1705" t="s">
         <v>104</v>
@@ -47389,33 +47392,33 @@
         <v>3362</v>
       </c>
       <c r="B1706" t="s">
-        <v>19</v>
+        <v>2996</v>
       </c>
       <c r="C1706" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1706" t="s">
-        <v>1674</v>
+        <v>1555</v>
       </c>
       <c r="E1706" t="s">
-        <v>1586</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="B1707" t="s">
-        <v>2994</v>
+        <v>19</v>
       </c>
       <c r="C1707" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D1707" t="s">
         <v>1674</v>
       </c>
       <c r="E1707" t="s">
-        <v>3364</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1708">
@@ -47423,10 +47426,10 @@
         <v>3365</v>
       </c>
       <c r="B1708" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1708" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1708" t="s">
         <v>1674</v>
@@ -47440,10 +47443,10 @@
         <v>3367</v>
       </c>
       <c r="B1709" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1709" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1709" t="s">
         <v>1674</v>
@@ -47457,7 +47460,7 @@
         <v>3369</v>
       </c>
       <c r="B1710" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1710" t="s">
         <v>67</v>
@@ -47474,10 +47477,10 @@
         <v>3371</v>
       </c>
       <c r="B1711" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1711" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1711" t="s">
         <v>1674</v>
@@ -47491,7 +47494,7 @@
         <v>3373</v>
       </c>
       <c r="B1712" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1712" t="s">
         <v>74</v>
@@ -47508,10 +47511,10 @@
         <v>3375</v>
       </c>
       <c r="B1713" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1713" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1713" t="s">
         <v>1674</v>
@@ -47525,7 +47528,7 @@
         <v>3377</v>
       </c>
       <c r="B1714" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1714" t="s">
         <v>95</v>
@@ -47542,7 +47545,7 @@
         <v>3379</v>
       </c>
       <c r="B1715" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1715" t="s">
         <v>95</v>
@@ -47559,10 +47562,10 @@
         <v>3381</v>
       </c>
       <c r="B1716" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1716" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1716" t="s">
         <v>1674</v>
@@ -47576,7 +47579,7 @@
         <v>3383</v>
       </c>
       <c r="B1717" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1717" t="s">
         <v>104</v>
@@ -47593,13 +47596,13 @@
         <v>3385</v>
       </c>
       <c r="B1718" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1718" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1718" t="s">
-        <v>1775</v>
+        <v>1674</v>
       </c>
       <c r="E1718" t="s">
         <v>3386</v>
@@ -47610,10 +47613,10 @@
         <v>3387</v>
       </c>
       <c r="B1719" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1719" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1719" t="s">
         <v>1775</v>
@@ -47627,7 +47630,7 @@
         <v>3389</v>
       </c>
       <c r="B1720" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1720" t="s">
         <v>56</v>
@@ -47644,10 +47647,10 @@
         <v>3391</v>
       </c>
       <c r="B1721" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1721" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1721" t="s">
         <v>1775</v>
@@ -47661,7 +47664,7 @@
         <v>3393</v>
       </c>
       <c r="B1722" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1722" t="s">
         <v>67</v>
@@ -47678,10 +47681,10 @@
         <v>3395</v>
       </c>
       <c r="B1723" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1723" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D1723" t="s">
         <v>1775</v>
@@ -47695,7 +47698,7 @@
         <v>3397</v>
       </c>
       <c r="B1724" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1724" t="s">
         <v>95</v>
@@ -47712,7 +47715,7 @@
         <v>3399</v>
       </c>
       <c r="B1725" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1725" t="s">
         <v>95</v>
@@ -47729,7 +47732,7 @@
         <v>3401</v>
       </c>
       <c r="B1726" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1726" t="s">
         <v>95</v>
@@ -47746,10 +47749,10 @@
         <v>3403</v>
       </c>
       <c r="B1727" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1727" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1727" t="s">
         <v>1775</v>
@@ -47763,13 +47766,13 @@
         <v>3405</v>
       </c>
       <c r="B1728" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1728" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1728" t="s">
-        <v>1872</v>
+        <v>1775</v>
       </c>
       <c r="E1728" t="s">
         <v>3406</v>
@@ -47780,7 +47783,7 @@
         <v>3407</v>
       </c>
       <c r="B1729" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1729" t="s">
         <v>46</v>
@@ -47797,7 +47800,7 @@
         <v>3409</v>
       </c>
       <c r="B1730" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1730" t="s">
         <v>46</v>
@@ -47814,7 +47817,7 @@
         <v>3411</v>
       </c>
       <c r="B1731" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1731" t="s">
         <v>46</v>
@@ -47831,7 +47834,7 @@
         <v>3413</v>
       </c>
       <c r="B1732" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1732" t="s">
         <v>46</v>
@@ -47848,10 +47851,10 @@
         <v>3415</v>
       </c>
       <c r="B1733" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1733" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1733" t="s">
         <v>1872</v>
@@ -47865,10 +47868,10 @@
         <v>3417</v>
       </c>
       <c r="B1734" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1734" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1734" t="s">
         <v>1872</v>
@@ -47882,7 +47885,7 @@
         <v>3419</v>
       </c>
       <c r="B1735" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1735" t="s">
         <v>67</v>
@@ -47899,7 +47902,7 @@
         <v>3421</v>
       </c>
       <c r="B1736" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1736" t="s">
         <v>67</v>
@@ -47916,7 +47919,7 @@
         <v>3423</v>
       </c>
       <c r="B1737" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1737" t="s">
         <v>67</v>
@@ -47933,7 +47936,7 @@
         <v>3425</v>
       </c>
       <c r="B1738" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1738" t="s">
         <v>67</v>
@@ -47950,10 +47953,10 @@
         <v>3427</v>
       </c>
       <c r="B1739" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1739" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1739" t="s">
         <v>1872</v>
@@ -47967,7 +47970,7 @@
         <v>3429</v>
       </c>
       <c r="B1740" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1740" t="s">
         <v>74</v>
@@ -47984,7 +47987,7 @@
         <v>3431</v>
       </c>
       <c r="B1741" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1741" t="s">
         <v>74</v>
@@ -48001,10 +48004,10 @@
         <v>3433</v>
       </c>
       <c r="B1742" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1742" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1742" t="s">
         <v>1872</v>
@@ -48018,7 +48021,7 @@
         <v>3435</v>
       </c>
       <c r="B1743" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1743" t="s">
         <v>95</v>
@@ -48035,7 +48038,7 @@
         <v>3437</v>
       </c>
       <c r="B1744" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1744" t="s">
         <v>95</v>
@@ -48052,7 +48055,7 @@
         <v>3439</v>
       </c>
       <c r="B1745" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1745" t="s">
         <v>95</v>
@@ -48069,10 +48072,10 @@
         <v>3441</v>
       </c>
       <c r="B1746" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1746" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1746" t="s">
         <v>1872</v>
@@ -48086,7 +48089,7 @@
         <v>3443</v>
       </c>
       <c r="B1747" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1747" t="s">
         <v>104</v>
@@ -48103,7 +48106,7 @@
         <v>3445</v>
       </c>
       <c r="B1748" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1748" t="s">
         <v>104</v>
@@ -48120,7 +48123,7 @@
         <v>3447</v>
       </c>
       <c r="B1749" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1749" t="s">
         <v>104</v>
@@ -48137,7 +48140,7 @@
         <v>3449</v>
       </c>
       <c r="B1750" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="C1750" t="s">
         <v>104</v>
@@ -48154,13 +48157,13 @@
         <v>3451</v>
       </c>
       <c r="B1751" t="s">
-        <v>113</v>
+        <v>2996</v>
       </c>
       <c r="C1751" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D1751" t="s">
-        <v>2131</v>
+        <v>1872</v>
       </c>
       <c r="E1751" t="s">
         <v>3452</v>
@@ -48174,7 +48177,7 @@
         <v>113</v>
       </c>
       <c r="C1752" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D1752" t="s">
         <v>2131</v>
@@ -48188,24 +48191,24 @@
         <v>3455</v>
       </c>
       <c r="B1753" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C1753" t="s">
         <v>104</v>
       </c>
       <c r="D1753" t="s">
-        <v>2241</v>
+        <v>2131</v>
       </c>
       <c r="E1753" t="s">
-        <v>2244</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="B1754" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C1754" t="s">
         <v>104</v>
@@ -48214,7 +48217,7 @@
         <v>2241</v>
       </c>
       <c r="E1754" t="s">
-        <v>3457</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1755">
@@ -48225,10 +48228,10 @@
         <v>113</v>
       </c>
       <c r="C1755" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D1755" t="s">
-        <v>2329</v>
+        <v>2241</v>
       </c>
       <c r="E1755" t="s">
         <v>3459</v>
@@ -48242,30 +48245,30 @@
         <v>113</v>
       </c>
       <c r="C1756" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D1756" t="s">
         <v>2329</v>
       </c>
       <c r="E1756" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="B1757" t="s">
         <v>113</v>
       </c>
       <c r="C1757" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1757" t="s">
         <v>2329</v>
       </c>
       <c r="E1757" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1758">
@@ -48276,7 +48279,7 @@
         <v>113</v>
       </c>
       <c r="C1758" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1758" t="s">
         <v>2329</v>
@@ -48290,13 +48293,13 @@
         <v>3465</v>
       </c>
       <c r="B1759" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C1759" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D1759" t="s">
-        <v>2526</v>
+        <v>2329</v>
       </c>
       <c r="E1759" t="s">
         <v>3466</v>
@@ -48310,7 +48313,7 @@
         <v>19</v>
       </c>
       <c r="C1760" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D1760" t="s">
         <v>2526</v>
@@ -48327,18 +48330,18 @@
         <v>19</v>
       </c>
       <c r="C1761" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D1761" t="s">
         <v>2526</v>
       </c>
       <c r="E1761" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="B1762" t="s">
         <v>19</v>
@@ -48347,10 +48350,10 @@
         <v>104</v>
       </c>
       <c r="D1762" t="s">
-        <v>2648</v>
+        <v>2526</v>
       </c>
       <c r="E1762" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1763">
@@ -48358,67 +48361,67 @@
         <v>3472</v>
       </c>
       <c r="B1763" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C1763" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D1763" t="s">
         <v>2648</v>
       </c>
       <c r="E1763" t="s">
-        <v>2685</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="B1764" t="s">
         <v>113</v>
       </c>
       <c r="C1764" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1764" t="s">
         <v>2648</v>
       </c>
       <c r="E1764" t="s">
-        <v>2632</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="B1765" t="s">
         <v>113</v>
       </c>
       <c r="C1765" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D1765" t="s">
         <v>2648</v>
       </c>
       <c r="E1765" t="s">
-        <v>2685</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="B1766" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C1766" t="s">
         <v>104</v>
       </c>
       <c r="D1766" t="s">
-        <v>2873</v>
+        <v>2648</v>
       </c>
       <c r="E1766" t="s">
-        <v>3476</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1767">
@@ -48432,7 +48435,7 @@
         <v>46</v>
       </c>
       <c r="D1767" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1767" t="s">
         <v>2878</v>
@@ -48449,10 +48452,10 @@
         <v>74</v>
       </c>
       <c r="D1768" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1768" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1769">
@@ -48466,7 +48469,7 @@
         <v>95</v>
       </c>
       <c r="D1769" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1769" t="s">
         <v>3480</v>
@@ -48483,7 +48486,7 @@
         <v>104</v>
       </c>
       <c r="D1770" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E1770" t="s">
         <v>3482</v>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11442" uniqueCount="3483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11439" uniqueCount="3483">
   <si>
     <t>Vehicles</t>
   </si>
@@ -20832,9 +20832,6 @@
       <c r="H473" t="s">
         <v>23</v>
       </c>
-      <c r="L473" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -22456,9 +22453,6 @@
       <c r="K544" t="s">
         <v>48</v>
       </c>
-      <c r="L544" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
@@ -24050,9 +24044,6 @@
         <v>48</v>
       </c>
       <c r="K613" t="s">
-        <v>48</v>
-      </c>
-      <c r="L613" t="s">
         <v>48</v>
       </c>
     </row>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11439" uniqueCount="3483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10345" uniqueCount="3035">
   <si>
     <t>Vehicles</t>
   </si>
@@ -3479,6 +3479,12 @@
     <t>Ki-108</t>
   </si>
   <si>
+    <t>il_2_m82</t>
+  </si>
+  <si>
+    <t>IL-2 M-82</t>
+  </si>
+  <si>
     <t>la-5_type39</t>
   </si>
   <si>
@@ -3512,12 +3518,6 @@
     <t xml:space="preserve">Pe-2-1 Peshka </t>
   </si>
   <si>
-    <t>il_2_m82</t>
-  </si>
-  <si>
-    <t>IL-2 M-82</t>
-  </si>
-  <si>
     <t>saab_a21a_3</t>
   </si>
   <si>
@@ -9005,333 +9005,12 @@
     <t>Stridsvagn m/39 TD</t>
   </si>
   <si>
-    <t>germ_ls_class</t>
-  </si>
-  <si>
-    <t>SHIP</t>
-  </si>
-  <si>
-    <t>Leichte-Schnellboot LS 3</t>
-  </si>
-  <si>
-    <t>germ_ls4_class</t>
-  </si>
-  <si>
-    <t>Leichte-Schnellboot LS 4 Esau</t>
-  </si>
-  <si>
-    <t>it_mas_classe500_3</t>
-  </si>
-  <si>
-    <t>Velocissimo Classe 500 3 serie, MAS 555</t>
-  </si>
-  <si>
-    <t>it_mas_classe500_4</t>
-  </si>
-  <si>
-    <t>Velocissimo Classe 500 4 serie, MAS 569</t>
-  </si>
-  <si>
-    <t>jp_type_t1_1941</t>
-  </si>
-  <si>
-    <t>Type T-1</t>
-  </si>
-  <si>
-    <t>jp_t14_class</t>
-  </si>
-  <si>
-    <t>Type T-14</t>
-  </si>
-  <si>
-    <t>jp_t14_class_mod01</t>
-  </si>
-  <si>
-    <t>Type T-14 (Mod. 01)</t>
-  </si>
-  <si>
-    <t>ussr_g5_mtb</t>
-  </si>
-  <si>
-    <t>G-5 Type</t>
-  </si>
-  <si>
-    <t>ussr_g5_mtb_shvak</t>
-  </si>
-  <si>
-    <t>G-5 Type (ShVAK)</t>
-  </si>
-  <si>
-    <t>ussr_pr_123k_hydrofoils</t>
-  </si>
-  <si>
-    <t>Project 123K (A-11)</t>
-  </si>
-  <si>
-    <t>uk_mtb_1series</t>
-  </si>
-  <si>
-    <t>MTB-1 1 series</t>
-  </si>
-  <si>
-    <t>uk_mtb_2series</t>
-  </si>
-  <si>
-    <t>MTB-1 2 series</t>
-  </si>
-  <si>
-    <t>us_pt6</t>
-  </si>
-  <si>
-    <t>Higgins 81 ft PT-6</t>
-  </si>
-  <si>
-    <t>us_pt3</t>
-  </si>
-  <si>
-    <t>58 ft PT-3</t>
-  </si>
-  <si>
     <t>us_lvt_a_4</t>
   </si>
   <si>
     <t>LVT(A)(4)</t>
   </si>
   <si>
-    <t>it_ms15_1a</t>
-  </si>
-  <si>
-    <t>Motosiluranti, CRDA 60t type, 1a serie, MS-15</t>
-  </si>
-  <si>
-    <t>it_vas_baglietto_68t_1serie</t>
-  </si>
-  <si>
-    <t>Vedette antisommergibili, Baglietto 68 t. 1 serie, VAS 201</t>
-  </si>
-  <si>
-    <t>ussr_d3</t>
-  </si>
-  <si>
-    <t>D-3 Type</t>
-  </si>
-  <si>
-    <t>ussr_ya_5m</t>
-  </si>
-  <si>
-    <t>Ya-5M</t>
-  </si>
-  <si>
-    <t>ussr_g5_rct</t>
-  </si>
-  <si>
-    <t>G-5 Type XI-bis TKA 106</t>
-  </si>
-  <si>
-    <t>uk_mtb_vosper_1series</t>
-  </si>
-  <si>
-    <t>MTB Vosper 1 series</t>
-  </si>
-  <si>
-    <t>germ_rboot_r41</t>
-  </si>
-  <si>
-    <t>Räumboot R-41</t>
-  </si>
-  <si>
-    <t>germ_s38</t>
-  </si>
-  <si>
-    <t>Schnellboot S-38</t>
-  </si>
-  <si>
-    <t>germ_s38b</t>
-  </si>
-  <si>
-    <t>Schnellboot S-38b</t>
-  </si>
-  <si>
-    <t>germ_rboot_r130</t>
-  </si>
-  <si>
-    <t>Räumboot R-130</t>
-  </si>
-  <si>
-    <t>it_ms53_2a</t>
-  </si>
-  <si>
-    <t>Motosiluranti, CRDA 60t type, 2a serie, MS-53</t>
-  </si>
-  <si>
-    <t>it_mas_stefano_turr</t>
-  </si>
-  <si>
-    <t>Mototorpediniera, Stefano Turr type</t>
-  </si>
-  <si>
-    <t>jp_type38_1944</t>
-  </si>
-  <si>
-    <t>Type T-38</t>
-  </si>
-  <si>
-    <t>jp_karotei_type2</t>
-  </si>
-  <si>
-    <t>Type 4 Model 2, Kuchiku-Tei Ka-Ro</t>
-  </si>
-  <si>
-    <t>jp_abtei_pr1</t>
-  </si>
-  <si>
-    <t>Soukou-Tei Model 1927, Sakigake (1927)</t>
-  </si>
-  <si>
-    <t>jp_abtei_pr4</t>
-  </si>
-  <si>
-    <t>Soukou-Tei Model 1940, Soukou-Tei No.4 (1940)</t>
-  </si>
-  <si>
-    <t>jp_karotei_type4</t>
-  </si>
-  <si>
-    <t>Type 4 Model 4, Kuchiku-Tei Ka-Ro (1944)</t>
-  </si>
-  <si>
-    <t>ussr_pr_123bis</t>
-  </si>
-  <si>
-    <t>Project 123bis</t>
-  </si>
-  <si>
-    <t>ussr_mo_4</t>
-  </si>
-  <si>
-    <t>MO-4 Type</t>
-  </si>
-  <si>
-    <t>ussr_od_200</t>
-  </si>
-  <si>
-    <t>OD-200</t>
-  </si>
-  <si>
-    <t>uk_mtb_vosper_2series</t>
-  </si>
-  <si>
-    <t>MTB Vosper 2 series</t>
-  </si>
-  <si>
-    <t>uk_fairmile_a_ml100</t>
-  </si>
-  <si>
-    <t>Fairmile A (ML100)</t>
-  </si>
-  <si>
-    <t>uk_70ft_mgb</t>
-  </si>
-  <si>
-    <t>70 ft MGB-61</t>
-  </si>
-  <si>
-    <t>us_elco_77ft_pt20</t>
-  </si>
-  <si>
-    <t>Elco 77 ft PT-20</t>
-  </si>
-  <si>
-    <t>us_nasty_ptf</t>
-  </si>
-  <si>
-    <t>80 ft Nasty (PTF-7)</t>
-  </si>
-  <si>
-    <t>us_higgins_78ft_pt71</t>
-  </si>
-  <si>
-    <t>Higgins 78 ft PT-71</t>
-  </si>
-  <si>
-    <t>jp_sehatei_mod1</t>
-  </si>
-  <si>
-    <t>Ha-Go Fighting Boat Model 1</t>
-  </si>
-  <si>
-    <t>jp_type5_escortboat</t>
-  </si>
-  <si>
-    <t>Type 5</t>
-  </si>
-  <si>
-    <t>ussr_1124_art</t>
-  </si>
-  <si>
-    <t>Pr.1124 (1940)</t>
-  </si>
-  <si>
-    <t>ussr_mpk_122a</t>
-  </si>
-  <si>
-    <t>MPK pr. 122A</t>
-  </si>
-  <si>
-    <t>ussr_pr_123k</t>
-  </si>
-  <si>
-    <t>Project 123K "Komsomolets"</t>
-  </si>
-  <si>
-    <t>uk_dark_class</t>
-  </si>
-  <si>
-    <t>Dark Class, Dark Adventurer (FPB 1101)</t>
-  </si>
-  <si>
-    <t>uk_isles_class_trawler</t>
-  </si>
-  <si>
-    <t>Isles class, HMT Liscomb (T-285)</t>
-  </si>
-  <si>
-    <t>uk_fairmile_b_ml345</t>
-  </si>
-  <si>
-    <t>Fairmile B (ML345)</t>
-  </si>
-  <si>
-    <t>uk_71ft_mgb</t>
-  </si>
-  <si>
-    <t>71 ft MGB-75</t>
-  </si>
-  <si>
-    <t>us_elco_80ft_pt_boat</t>
-  </si>
-  <si>
-    <t>Elco 80 ft PT-103</t>
-  </si>
-  <si>
-    <t>us_elco_80ft_pt109_boat</t>
-  </si>
-  <si>
-    <t>Elco 80 ft PT-109</t>
-  </si>
-  <si>
-    <t>us_sc_497</t>
-  </si>
-  <si>
-    <t>110 ft SC-497 (1945)</t>
-  </si>
-  <si>
-    <t>us_pc_451</t>
-  </si>
-  <si>
-    <t>Experimental class sub-chaser PC-451</t>
-  </si>
-  <si>
     <t>germ_m4_sherman_tutorial</t>
   </si>
   <si>
@@ -9347,1032 +9026,18 @@
     <t>us_m4_sherman_tutorial</t>
   </si>
   <si>
-    <t>germ_s_100_class</t>
-  </si>
-  <si>
-    <t>Schnellboot S-100 (1945)</t>
-  </si>
-  <si>
-    <t>germ_s_100_s204_lang</t>
-  </si>
-  <si>
-    <t>Schnellboot S-100 (S204) Lang</t>
-  </si>
-  <si>
-    <t>germ_rboot_r301</t>
-  </si>
-  <si>
-    <t>Räumboot R-301</t>
-  </si>
-  <si>
-    <t>it_a1_vosper</t>
-  </si>
-  <si>
-    <t>Galleggianti Inseguimento Siluri, Vosper 70' 52 tn type</t>
-  </si>
-  <si>
-    <t>it_ms473_2a</t>
-  </si>
-  <si>
-    <t>Motosiluranti, CRDA 60t type, 1a serie, MS-472</t>
-  </si>
-  <si>
-    <t>jp_kusen_tei_13_1944</t>
-  </si>
-  <si>
-    <t>Type K-8 / No.13 Class, Kusentei (1944)</t>
-  </si>
-  <si>
-    <t>jp_no1_ch2</t>
-  </si>
-  <si>
-    <t>Type K-3 / No.1 Class, Kusentei</t>
-  </si>
-  <si>
-    <t>jp_no4_ch8</t>
-  </si>
-  <si>
-    <t>Type K-7 / No.4 Class, Kusentei</t>
-  </si>
-  <si>
-    <t>jp_t51b</t>
-  </si>
-  <si>
-    <t>Type T-51b</t>
-  </si>
-  <si>
-    <t>ussr_1124_rct</t>
-  </si>
-  <si>
-    <t>Pr.1124 MLRS</t>
-  </si>
-  <si>
-    <t>ussr_1124_ack</t>
-  </si>
-  <si>
-    <t>Pr.1124 (1945)</t>
-  </si>
-  <si>
-    <t>ussr_bmo</t>
-  </si>
-  <si>
-    <t>BMO</t>
-  </si>
-  <si>
-    <t>ussr_mpk_163</t>
-  </si>
-  <si>
-    <t>MPK-163</t>
-  </si>
-  <si>
-    <t>ussr_mpk_122bis</t>
-  </si>
-  <si>
-    <t>MPK Pr.122bis</t>
-  </si>
-  <si>
-    <t>ussr_pr_1204</t>
-  </si>
-  <si>
-    <t>Pr. 1204</t>
-  </si>
-  <si>
-    <t>uk_dark_class_mtb</t>
-  </si>
-  <si>
-    <t>Dark Class, Dark Agressor (FPB 1102)</t>
-  </si>
-  <si>
-    <t>uk_flower_class</t>
-  </si>
-  <si>
-    <t>Flower class, HMCS Brantford (K-218)</t>
-  </si>
-  <si>
-    <t>us_pc_466_carmi</t>
-  </si>
-  <si>
-    <t>PC-461-class</t>
-  </si>
-  <si>
     <t>us_m4a2_1944</t>
   </si>
   <si>
     <t>Medium Tank M4A2 Sherman (1944)</t>
   </si>
   <si>
-    <t>germ_s_100_s_174_class</t>
-  </si>
-  <si>
-    <t>Schnellboot S-100 (1944)</t>
-  </si>
-  <si>
-    <t>germ_artilleriefahrprahm_typ_d1</t>
-  </si>
-  <si>
-    <t>Artilleriefährprahm Typ D1</t>
-  </si>
-  <si>
-    <t>germ_sf40_leichte_flakkampffaehre</t>
-  </si>
-  <si>
-    <t>Siebelfähre 40 Leichte Flakkampffähre</t>
-  </si>
-  <si>
-    <t>germ_sf40_schwere_flakkampffaehre</t>
-  </si>
-  <si>
-    <t>Siebelfähre 40 Schwere Flakkampffähre</t>
-  </si>
-  <si>
-    <t>it_ms471_1a</t>
-  </si>
-  <si>
-    <t>Motosiluranti, CRDA 60t type, 1a serie, MV-611</t>
-  </si>
-  <si>
-    <t>ussr_pr_191m</t>
-  </si>
-  <si>
-    <t>Pr.191M</t>
-  </si>
-  <si>
-    <t>ussr_pr_1204_late</t>
-  </si>
-  <si>
-    <t>Pr. 1204 late modification</t>
-  </si>
-  <si>
-    <t>ussr_pr_191</t>
-  </si>
-  <si>
-    <t>Pr.191</t>
-  </si>
-  <si>
-    <t>ussr_mbk_161_1943</t>
-  </si>
-  <si>
-    <t>MBK-161 (1943 series)</t>
-  </si>
-  <si>
-    <t>uk_fairmile_c</t>
-  </si>
-  <si>
-    <t>Fairmile C (312)</t>
-  </si>
-  <si>
-    <t>uk_fairmile_d_617_632</t>
-  </si>
-  <si>
-    <t>Fairmile D (617)</t>
-  </si>
-  <si>
-    <t>us_elco_80ft_pt_boat_mod01</t>
-  </si>
-  <si>
-    <t>Elco 80 ft PT-314</t>
-  </si>
-  <si>
-    <t>us_higgins_78ft_pt625</t>
-  </si>
-  <si>
-    <t>Higgins 78 ft PT-200</t>
-  </si>
-  <si>
-    <t>germ_vs8_hydrofoil</t>
-  </si>
-  <si>
-    <t>Tragflügel-Versuchs-Schnellboot VS-8 Schell I</t>
-  </si>
-  <si>
-    <t>germ_vs10_hydrofoil</t>
-  </si>
-  <si>
-    <t>Tragflügel-Versuchs-Schnellboot VS-10</t>
-  </si>
-  <si>
-    <t>germ_artilleriefahrprahm_typ_d3</t>
-  </si>
-  <si>
-    <t>Artilleriefährprahm Typ D3</t>
-  </si>
-  <si>
-    <t>it_ms473_2a_art</t>
-  </si>
-  <si>
-    <t>Motovedetta, CRDA 60t type, 1a serie, MS-473</t>
-  </si>
-  <si>
-    <t>ussr_mkl_186</t>
-  </si>
-  <si>
-    <t>MBK pr.186</t>
-  </si>
-  <si>
-    <t>ussr_mkl_186_mk85</t>
-  </si>
-  <si>
-    <t>MBK pr.186 (MK 85)</t>
-  </si>
-  <si>
-    <t>uk_fairmile_d_601_616</t>
-  </si>
-  <si>
-    <t>Fairmile D (601)</t>
-  </si>
-  <si>
-    <t>uk_sgb_304</t>
-  </si>
-  <si>
-    <t>SGB Grey Fox (S304)</t>
-  </si>
-  <si>
-    <t>uk_sgb_309</t>
-  </si>
-  <si>
-    <t>SGB Grey Goose (S309)</t>
-  </si>
-  <si>
-    <t>us_elco_80ft_pt_boat_mod02</t>
-  </si>
-  <si>
-    <t>Elco 80 ft PT-565</t>
-  </si>
-  <si>
-    <t>us_elco_77ft_pt59</t>
-  </si>
-  <si>
-    <t>Elco 77 ft PT-59</t>
-  </si>
-  <si>
-    <t>us_elco_80ft_pt_boat_thunderbolt</t>
-  </si>
-  <si>
-    <t>Elco 80 ft PT-556 Thunderbolt</t>
-  </si>
-  <si>
-    <t>germ_escort_typem1943</t>
-  </si>
-  <si>
-    <t>Minensuchboot Typ 43</t>
-  </si>
-  <si>
-    <t>it_mc490_folgore</t>
-  </si>
-  <si>
-    <t>Motocannoniera convertibile, MC 490 type, Folgore P-490</t>
-  </si>
-  <si>
-    <t>jp_type_11_pt_15</t>
-  </si>
-  <si>
-    <t>PT-15, Type 11</t>
-  </si>
-  <si>
-    <t>jp_escort_chikugo_class</t>
-  </si>
-  <si>
-    <t>Chikugo-class</t>
-  </si>
-  <si>
-    <t>jp_escort_hiburi_class_syonan</t>
-  </si>
-  <si>
-    <t>Hiburi-class, Syonan, 1944</t>
-  </si>
-  <si>
-    <t>jp_escort_ikazuchi_class</t>
-  </si>
-  <si>
-    <t>Ikazuchi-class</t>
-  </si>
-  <si>
-    <t>ussr_pr_183</t>
-  </si>
-  <si>
-    <t>Project 183 "Bolshevik"</t>
-  </si>
-  <si>
-    <t>ussr_mbk_161_1944</t>
-  </si>
-  <si>
-    <t>MBK-161 (1944 series)</t>
-  </si>
-  <si>
-    <t>ussr_skr_groza_1943</t>
-  </si>
-  <si>
-    <t>SKR Groza, Uragan type (1943)</t>
-  </si>
-  <si>
-    <t>uk_brave_borderer</t>
-  </si>
-  <si>
-    <t>Brave class, Brave Borderer (P1011)</t>
-  </si>
-  <si>
-    <t>uk_fairmile_c_332</t>
-  </si>
-  <si>
-    <t>Fairmile C (332)</t>
-  </si>
-  <si>
-    <t>us_tucumcari_pgh2</t>
-  </si>
-  <si>
-    <t>USS Tucumcari (PGH-2)</t>
-  </si>
-  <si>
     <t>uk_centaur_aa_mk_2</t>
   </si>
   <si>
-    <t>germ_mz_1</t>
-  </si>
-  <si>
-    <t>Mehrzweckboot MZ1</t>
-  </si>
-  <si>
-    <t>germ_type140_jaguar</t>
-  </si>
-  <si>
-    <t>Schnellboot Jaguar-Klasse (140)</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1924_leopard1932</t>
-  </si>
-  <si>
-    <t>Type 1924 Leopard, modernization of 1932</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1939_t22</t>
-  </si>
-  <si>
-    <t>Flottentorpedoboot 1939 (T22)</t>
-  </si>
-  <si>
-    <t>germ_kanonenboot_k2</t>
-  </si>
-  <si>
-    <t>K-2</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1939_t31</t>
-  </si>
-  <si>
-    <t>Flottentorpedoboot 1939 (T31)</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1924_jaguar1941</t>
-  </si>
-  <si>
-    <t>Type 1924 Jaguar, 1941</t>
-  </si>
-  <si>
-    <t>it_p420_sparviero</t>
-  </si>
-  <si>
-    <t>Aliscafo, P 420 Sparviero type</t>
-  </si>
-  <si>
-    <t>jp_pg02</t>
-  </si>
-  <si>
-    <t>PG 02</t>
-  </si>
-  <si>
-    <t>jp_destroyer_mutsuki</t>
-  </si>
-  <si>
-    <t>Mutsuki class (1941)</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_frunze</t>
-  </si>
-  <si>
-    <t>Frunze, 1940 ("Schastlivy" type)</t>
-  </si>
-  <si>
-    <t>uk_fairmile_d_697_800</t>
-  </si>
-  <si>
-    <t>Fairmile D (697)</t>
-  </si>
-  <si>
-    <t>uk_destroyer_clemson_churchill</t>
-  </si>
-  <si>
-    <t>Clemson class, HMS Churchill (L45)</t>
-  </si>
-  <si>
-    <t>uk_fairmile_d_5001_5029</t>
-  </si>
-  <si>
-    <t>Fairmile D (5001)</t>
-  </si>
-  <si>
-    <t>uk_frigate_river</t>
-  </si>
-  <si>
-    <t>River class, HMS Spey (K-246)</t>
-  </si>
-  <si>
-    <t>us_pt810</t>
-  </si>
-  <si>
-    <t>89 ft PT-810</t>
-  </si>
-  <si>
-    <t>us_pt811</t>
-  </si>
-  <si>
-    <t>94 ft PT-811</t>
-  </si>
-  <si>
-    <t>us_destroyer_clemson_litchfield</t>
-  </si>
-  <si>
-    <t>Clemson class, USS Litchfield (DD-336)</t>
-  </si>
-  <si>
-    <t>us_destroyer_clemson_barker</t>
-  </si>
-  <si>
-    <t>Clemson class, USS Barker (DD-213)</t>
-  </si>
-  <si>
-    <t>germ_type143_albatros</t>
-  </si>
-  <si>
-    <t>Schnellboot Albatros-Klasse (143)</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1934a_1944</t>
-  </si>
-  <si>
-    <t>Type Zerstörer 1934A, modernization 1944</t>
-  </si>
-  <si>
-    <t>it_destroyer_dardo</t>
-  </si>
-  <si>
-    <t>Cacciatorpediniere, Dardo type</t>
-  </si>
-  <si>
-    <t>it_destroyer_turbine</t>
-  </si>
-  <si>
-    <t>Cacciatorpediniere, Turbine type</t>
-  </si>
-  <si>
-    <t>jp_destroyer_isuzu</t>
-  </si>
-  <si>
-    <t>Isuzu-class</t>
-  </si>
-  <si>
-    <t>jp_destroyer_fubuki</t>
-  </si>
-  <si>
-    <t>Fubuki class, 2 group, Ayanami (1936)</t>
-  </si>
-  <si>
-    <t>jp_destroyer_yuudachi</t>
-  </si>
-  <si>
-    <t>Shiratsuyu-class, Yuudachi type (1942)</t>
-  </si>
-  <si>
-    <t>ussr_skr_pr159</t>
-  </si>
-  <si>
-    <t>SKR Project 159</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_pr30_ognevoy</t>
-  </si>
-  <si>
-    <t>Project 30 Ognevoy</t>
-  </si>
-  <si>
-    <t>uk_destroyer_g_grafton</t>
-  </si>
-  <si>
-    <t>G-class, HMS Grafton (H89)</t>
-  </si>
-  <si>
-    <t>uk_destroyer_hunt_2series</t>
-  </si>
-  <si>
-    <t>Hunt class 2 series, HMS Calpe (L71)</t>
-  </si>
-  <si>
-    <t>uk_destroyer_hunt_4series</t>
-  </si>
-  <si>
-    <t>Hunt class 4 series, HMS Brissenden (L79)</t>
-  </si>
-  <si>
-    <t>us_ashville_class</t>
-  </si>
-  <si>
-    <t>USS Asheville Patrol Gunboat (PGM-84)</t>
-  </si>
-  <si>
-    <t>us_lcs_l_3</t>
-  </si>
-  <si>
-    <t>Landing Craft Support (Large) (Mark 3)</t>
-  </si>
-  <si>
-    <t>us_destroyer_farragut_1942</t>
-  </si>
-  <si>
-    <t>Farragut class, USS Aylwin (DD-355)</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1936_z20</t>
-  </si>
-  <si>
-    <t>Type Zerstörer 1936, modernization 1941</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1936_z20_karlgalster</t>
-  </si>
-  <si>
-    <t>Zerstörer 1936 Z-20 Karl Galster (1945)</t>
-  </si>
-  <si>
-    <t>germ_pr_206</t>
-  </si>
-  <si>
-    <t>Torpedo-Schnellboot "Shershen" (Projekt 206)</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1934a_1940</t>
-  </si>
-  <si>
-    <t>Type Zerstörer 1934A, modernization 1940</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1936b</t>
-  </si>
-  <si>
-    <t>Type Zerstörer 1936B</t>
-  </si>
-  <si>
-    <t>germ_frigate_koln</t>
-  </si>
-  <si>
-    <t>Köln-class, Köln F220 (1960)</t>
-  </si>
-  <si>
-    <t>it_destroyer_soldati_serie1_camicianera</t>
-  </si>
-  <si>
-    <t>Corazziere, Soldati type 1 serie (1943)</t>
-  </si>
-  <si>
-    <t>it_destroyer_soldati_serie1_geniere</t>
-  </si>
-  <si>
-    <t>Geniere, Soldati type 1 serie</t>
-  </si>
-  <si>
-    <t>it_p494_saetta</t>
-  </si>
-  <si>
-    <t>Motocannoniere convertibili, MC 591 type, Saetta P-494</t>
-  </si>
-  <si>
-    <t>jp_destroyer_yugumo</t>
-  </si>
-  <si>
-    <t>Yugumo class (1942)</t>
-  </si>
-  <si>
-    <t>jp_destroyer_kiyoshimo</t>
-  </si>
-  <si>
-    <t>Yugumo class, Kiyoshimo (1944)</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_7y</t>
-  </si>
-  <si>
-    <t>Project 7U</t>
-  </si>
-  <si>
-    <t>ussr_pr_206</t>
-  </si>
-  <si>
-    <t>Project 206 "Shershen"</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_7y_stroyny</t>
-  </si>
-  <si>
-    <t>Project 7U Stroyny</t>
-  </si>
-  <si>
-    <t>ussr_pr_206m</t>
-  </si>
-  <si>
-    <t>Pr. 206M "Shtorm"</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_moskva</t>
-  </si>
-  <si>
-    <t>"Leningrad" type, "Moskva" leader, 1941</t>
-  </si>
-  <si>
-    <t>ussr_skr_pr35</t>
-  </si>
-  <si>
-    <t>SKR Project 35</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_leningrad</t>
-  </si>
-  <si>
-    <t>Leader "Leningrad", 1944</t>
-  </si>
-  <si>
-    <t>uk_destroyer_tribal</t>
-  </si>
-  <si>
-    <t>Tribal Class, HMS Eskimo (F75)</t>
-  </si>
-  <si>
-    <t>uk_destroyer_haida</t>
-  </si>
-  <si>
-    <t>Tribal class, HMCS Haida (G63)</t>
-  </si>
-  <si>
-    <t>uk_destroyer_battle_2series</t>
-  </si>
-  <si>
-    <t>Battle class, HMS Armada (D14)</t>
-  </si>
-  <si>
-    <t>uk_destroyer_n_class</t>
-  </si>
-  <si>
-    <t>N class, HMS Nepal (G25) 1942</t>
-  </si>
-  <si>
-    <t>uk_destroyer_k_class</t>
-  </si>
-  <si>
-    <t>K class, HMS Kelvin (F37) 1939</t>
-  </si>
-  <si>
-    <t>uk_destroyer_battle_tobruk</t>
-  </si>
-  <si>
-    <t>Australian Battle class, HMAS Tobruk (D37) 1944</t>
-  </si>
-  <si>
-    <t>us_destroyer_fletcher</t>
-  </si>
-  <si>
-    <t>Fletcher class, USS Fletcher (DD-445)</t>
-  </si>
-  <si>
-    <t>us_destroyer_fletcher_bennion</t>
-  </si>
-  <si>
-    <t>Fletcher class, USS Bennion (DD-662)</t>
-  </si>
-  <si>
-    <t>us_destroyer_fletcher_cowell</t>
-  </si>
-  <si>
-    <t>Fletcher class, USS Cowell (DD-547)</t>
-  </si>
-  <si>
-    <t>us_destroyer_porter_1944</t>
-  </si>
-  <si>
-    <t>Porter class, USS Phelps (DD-360), 1944</t>
-  </si>
-  <si>
-    <t>germ_destroyer_class1936a_mob_z32</t>
-  </si>
-  <si>
-    <t>Type Zerstörer 1936A (Mob), Z32</t>
-  </si>
-  <si>
-    <t>jp_destroyer_akizuki</t>
-  </si>
-  <si>
-    <t>Akizuki class (1944)</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_pr20_tashkent</t>
-  </si>
-  <si>
-    <t>Project 20 "Tashkent" leader, 1942</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_pr41_neustrashimy</t>
-  </si>
-  <si>
-    <t>Pr. 41 Neustrashimy (1960)</t>
-  </si>
-  <si>
-    <t>ussr_destroyer_pr56_spokoinyy</t>
-  </si>
-  <si>
-    <t>Pr. 56 Spokoinyy (1956)</t>
-  </si>
-  <si>
-    <t>us_destroyer_sumner</t>
-  </si>
-  <si>
-    <t>Allan M. Sumner class, USS Sumner (DD-692)</t>
-  </si>
-  <si>
-    <t>us_destroyer_somers</t>
-  </si>
-  <si>
-    <t>Somers class, USS Somers (DD-381)</t>
-  </si>
-  <si>
-    <t>us_destroyer_porter_1941</t>
-  </si>
-  <si>
-    <t>Porter class, USS Porter (DD-356)</t>
-  </si>
-  <si>
     <t>uk_centaur_aa_mk_1</t>
   </si>
   <si>
-    <t>germ_cruiser_emden_1944</t>
-  </si>
-  <si>
-    <t>Emden (1944)</t>
-  </si>
-  <si>
-    <t>it_cruiser_capitani_romani_class_attilio_regolo</t>
-  </si>
-  <si>
-    <t>Attilio Regolo,Capitani Romani type</t>
-  </si>
-  <si>
-    <t>jp_cruiser_kuma</t>
-  </si>
-  <si>
-    <t>Kuma class (1941)</t>
-  </si>
-  <si>
-    <t>jp_cruiser_sendai</t>
-  </si>
-  <si>
-    <t>IJN Sendai, 1942</t>
-  </si>
-  <si>
-    <t>ussr_cruiser_krasnyi_kavkaz</t>
-  </si>
-  <si>
-    <t>Krasny Kavkaz, 1944</t>
-  </si>
-  <si>
-    <t>ussr_cruiser_krasnyi_krim</t>
-  </si>
-  <si>
-    <t>Krasny Krym, 1943</t>
-  </si>
-  <si>
-    <t>uk_cruiser_enterprise_d52</t>
-  </si>
-  <si>
-    <t>HMS Enterprise D52, 1944</t>
-  </si>
-  <si>
-    <t>uk_cruiser_dido</t>
-  </si>
-  <si>
-    <t>HMS Dido (37), 1941</t>
-  </si>
-  <si>
-    <t>uk_cruiser_arethusa</t>
-  </si>
-  <si>
-    <t>HMS Arethusa (26), 1943</t>
-  </si>
-  <si>
-    <t>us_cruiser_omaha_class_trenton</t>
-  </si>
-  <si>
-    <t>Omaha class, USS Trenton (CL-11)</t>
-  </si>
-  <si>
-    <t>us_cruiser_omaha_class_raleigh</t>
-  </si>
-  <si>
-    <t>Omaha class, USS Raleigh (CL-7)</t>
-  </si>
-  <si>
-    <t>germ_cruiser_koln</t>
-  </si>
-  <si>
-    <t>Köln (1940)</t>
-  </si>
-  <si>
-    <t>it_cruiser_bartolomeocolleoni_1940</t>
-  </si>
-  <si>
-    <t>Bartolomeo Colleoni, Alberto da Giussano type</t>
-  </si>
-  <si>
-    <t>it_cruiser_montecuccoli</t>
-  </si>
-  <si>
-    <t>Raimondo Montecuccoli, Raimondo Montecuccoli class</t>
-  </si>
-  <si>
-    <t>jp_cruiser_kako</t>
-  </si>
-  <si>
-    <t>Furutaka-class, Kako (1935)</t>
-  </si>
-  <si>
-    <t>jp_cruiser_agano</t>
-  </si>
-  <si>
-    <t>Agano-class (1944)</t>
-  </si>
-  <si>
-    <t>uk_cruiser_hawkins</t>
-  </si>
-  <si>
-    <t>Hawkins-class, HMS Hawkins (D86), 1942</t>
-  </si>
-  <si>
-    <t>uk_cruiser_leander</t>
-  </si>
-  <si>
-    <t>HMNZS Leander, 1942</t>
-  </si>
-  <si>
-    <t>uk_cruiser_belfast</t>
-  </si>
-  <si>
-    <t>Town-class, Belfast C35 (1959)</t>
-  </si>
-  <si>
-    <t>uk_cruiser_york</t>
-  </si>
-  <si>
-    <t>York-class, HMS York (90), 1941</t>
-  </si>
-  <si>
-    <t>us_cruiser_atlanta_class_atlanta</t>
-  </si>
-  <si>
-    <t>Atlanta class, USS Atlanta (CL-51)</t>
-  </si>
-  <si>
-    <t>germ_cruiser_nurnberg</t>
-  </si>
-  <si>
-    <t>Nürnberg (1944)</t>
-  </si>
-  <si>
-    <t>germ_cruiser_admiral_hipper</t>
-  </si>
-  <si>
-    <t>Admiral Hipper (1942)</t>
-  </si>
-  <si>
-    <t>germ_cruiser_prinz_eugen</t>
-  </si>
-  <si>
-    <t>Prinz Eugen (1945)</t>
-  </si>
-  <si>
-    <t>germ_cruiser_admiral_graf_spee</t>
-  </si>
-  <si>
-    <t>Admiral Graf Spee (1939)</t>
-  </si>
-  <si>
-    <t>germ_cruiser_leipzig</t>
-  </si>
-  <si>
-    <t>Leipzig (1944)</t>
-  </si>
-  <si>
-    <t>it_cruiser_trento</t>
-  </si>
-  <si>
-    <t>Incrociatori pesanti, Trento type</t>
-  </si>
-  <si>
-    <t>jp_cruiser_furutaka</t>
-  </si>
-  <si>
-    <t>Furutaka-class (1942)</t>
-  </si>
-  <si>
-    <t>jp_cruiser_mogami</t>
-  </si>
-  <si>
-    <t>Mogami-class, 1940</t>
-  </si>
-  <si>
-    <t>jp_cruiser_mogami_suzuya</t>
-  </si>
-  <si>
-    <t>Mogami-class, Suzuya type (1937)</t>
-  </si>
-  <si>
-    <t>jp_cruiser_mogami_mikuma</t>
-  </si>
-  <si>
-    <t>Mogami-class, Mikuma type (1939)</t>
-  </si>
-  <si>
-    <t>jp_cruiser_tone</t>
-  </si>
-  <si>
-    <t>IJN Tone (1945)</t>
-  </si>
-  <si>
-    <t>ussr_cruiser_kirov</t>
-  </si>
-  <si>
-    <t>Kirov, 1941</t>
-  </si>
-  <si>
-    <t>ussr_cruiser_chapayev</t>
-  </si>
-  <si>
-    <t>Chapayev (pr.68K), 1950</t>
-  </si>
-  <si>
-    <t>ussr_cruiser_sverdlov</t>
-  </si>
-  <si>
-    <t>Sverdlov (pr.68-bis), 1952</t>
-  </si>
-  <si>
-    <t>uk_cruiser_southampton</t>
-  </si>
-  <si>
-    <t>Town-class, Southampton C83 (1940)</t>
-  </si>
-  <si>
-    <t>uk_cruiser_tiger</t>
-  </si>
-  <si>
-    <t>HMS Tiger C20, 1960</t>
-  </si>
-  <si>
-    <t>uk_cruiser_kent</t>
-  </si>
-  <si>
-    <t>County-class, HMS Kent (54), 1934</t>
-  </si>
-  <si>
-    <t>uk_cruiser_london</t>
-  </si>
-  <si>
-    <t>County-class, HMS London (69), 1945</t>
-  </si>
-  <si>
-    <t>us_cruiser_brooklyn_class_brooklyn</t>
-  </si>
-  <si>
-    <t>Brooklyn class, USS Brooklyn (CL-40)</t>
-  </si>
-  <si>
-    <t>us_cruiser_brooklyn_class_helena</t>
-  </si>
-  <si>
-    <t>Brooklyn-class, USS Helena (CL-50), 1943</t>
-  </si>
-  <si>
-    <t>us_cruiser_pensacola_class</t>
-  </si>
-  <si>
-    <t>Pensacola-class, USS Pensacola (CA-24), 1941</t>
-  </si>
-  <si>
-    <t>us_cruiser_portland_class</t>
-  </si>
-  <si>
-    <t>Portland-class, USS Portland (CA-33), 1942</t>
-  </si>
-  <si>
-    <t>us_cruiser_cleveland_class_cleveland</t>
-  </si>
-  <si>
-    <t>Cleveland class, USSCleveland (CL-52)</t>
-  </si>
-  <si>
     <t>g8n1</t>
   </si>
   <si>
@@ -10419,15 +9084,6 @@
   </si>
   <si>
     <t>Type 69-IIa</t>
-  </si>
-  <si>
-    <t>ussr_m551_football</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>us_m551_football</t>
   </si>
   <si>
     <t>us_xm1_chrysler</t>
@@ -10507,7 +9163,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" ref="A2:P1770" displayName="Test_Table" name="Test">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" ref="A2:P1546" displayName="Test_Table" name="Test">
   <tableColumns count="16">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Type"/>
@@ -10532,7 +9188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1770"/>
+  <dimension ref="A1:P1546"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -13358,6 +12014,9 @@
       <c r="F138" t="s">
         <v>48</v>
       </c>
+      <c r="G138" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -15700,6 +14359,9 @@
       <c r="G247" t="s">
         <v>48</v>
       </c>
+      <c r="H247" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -16436,6 +15098,9 @@
       <c r="G279" t="s">
         <v>23</v>
       </c>
+      <c r="H279" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -17512,6 +16177,9 @@
       <c r="E328" t="s">
         <v>667</v>
       </c>
+      <c r="F328" t="s">
+        <v>48</v>
+      </c>
       <c r="G328" t="s">
         <v>48</v>
       </c>
@@ -17541,6 +16209,9 @@
       <c r="H329" t="s">
         <v>48</v>
       </c>
+      <c r="I329" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
@@ -17719,6 +16390,9 @@
       <c r="E337" t="s">
         <v>667</v>
       </c>
+      <c r="F337" t="s">
+        <v>48</v>
+      </c>
       <c r="G337" t="s">
         <v>48</v>
       </c>
@@ -18593,6 +17267,9 @@
       <c r="E375" t="s">
         <v>755</v>
       </c>
+      <c r="F375" t="s">
+        <v>23</v>
+      </c>
       <c r="G375" t="s">
         <v>23</v>
       </c>
@@ -19363,6 +18040,9 @@
       <c r="H409" t="s">
         <v>48</v>
       </c>
+      <c r="I409" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
@@ -21147,6 +19827,9 @@
       <c r="E488" t="s">
         <v>973</v>
       </c>
+      <c r="G488" t="s">
+        <v>48</v>
+      </c>
       <c r="H488" t="s">
         <v>48</v>
       </c>
@@ -21170,6 +19853,9 @@
       <c r="E489" t="s">
         <v>975</v>
       </c>
+      <c r="G489" t="s">
+        <v>48</v>
+      </c>
       <c r="H489" t="s">
         <v>48</v>
       </c>
@@ -21564,6 +20250,9 @@
       <c r="E506" t="s">
         <v>1007</v>
       </c>
+      <c r="G506" t="s">
+        <v>23</v>
+      </c>
       <c r="H506" t="s">
         <v>23</v>
       </c>
@@ -21840,6 +20529,9 @@
       <c r="E518" t="s">
         <v>1031</v>
       </c>
+      <c r="G518" t="s">
+        <v>23</v>
+      </c>
       <c r="H518" t="s">
         <v>23</v>
       </c>
@@ -23347,6 +22039,9 @@
       <c r="E583" t="s">
         <v>1156</v>
       </c>
+      <c r="G583" t="s">
+        <v>23</v>
+      </c>
       <c r="H583" t="s">
         <v>23</v>
       </c>
@@ -23368,7 +22063,7 @@
         <v>1061</v>
       </c>
       <c r="E584" t="s">
-        <v>1138</v>
+        <v>1158</v>
       </c>
       <c r="H584" t="s">
         <v>23</v>
@@ -23379,7 +22074,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B585" t="s">
         <v>113</v>
@@ -23391,7 +22086,7 @@
         <v>1061</v>
       </c>
       <c r="E585" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="H585" t="s">
         <v>23</v>
@@ -23557,6 +22252,9 @@
       <c r="E592" t="s">
         <v>1173</v>
       </c>
+      <c r="G592" t="s">
+        <v>23</v>
+      </c>
       <c r="H592" t="s">
         <v>23</v>
       </c>
@@ -24616,6 +23314,9 @@
       <c r="I640" t="s">
         <v>48</v>
       </c>
+      <c r="J640" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
@@ -24676,6 +23377,9 @@
       <c r="I643" t="s">
         <v>48</v>
       </c>
+      <c r="J643" t="s">
+        <v>48</v>
+      </c>
       <c r="L643" t="s">
         <v>48</v>
       </c>
@@ -25222,6 +23926,9 @@
       <c r="E670" t="s">
         <v>1328</v>
       </c>
+      <c r="H670" t="s">
+        <v>23</v>
+      </c>
       <c r="I670" t="s">
         <v>23</v>
       </c>
@@ -26497,6 +25204,9 @@
       <c r="E727" t="s">
         <v>1438</v>
       </c>
+      <c r="H727" t="s">
+        <v>23</v>
+      </c>
       <c r="I727" t="s">
         <v>23</v>
       </c>
@@ -27296,6 +26006,9 @@
       <c r="J762" t="s">
         <v>23</v>
       </c>
+      <c r="K762" t="s">
+        <v>23</v>
+      </c>
       <c r="L762" t="s">
         <v>23</v>
       </c>
@@ -27485,6 +26198,12 @@
       <c r="E771" t="s">
         <v>1526</v>
       </c>
+      <c r="H771" t="s">
+        <v>48</v>
+      </c>
+      <c r="I771" t="s">
+        <v>48</v>
+      </c>
       <c r="J771" t="s">
         <v>48</v>
       </c>
@@ -28361,6 +27080,9 @@
       <c r="J810" t="s">
         <v>23</v>
       </c>
+      <c r="K810" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="s">
@@ -28478,6 +27200,9 @@
       <c r="E816" t="s">
         <v>1615</v>
       </c>
+      <c r="I816" t="s">
+        <v>48</v>
+      </c>
       <c r="J816" t="s">
         <v>48</v>
       </c>
@@ -28702,6 +27427,9 @@
       <c r="J826" t="s">
         <v>48</v>
       </c>
+      <c r="K826" t="s">
+        <v>48</v>
+      </c>
       <c r="L826" t="s">
         <v>48</v>
       </c>
@@ -28968,6 +27696,9 @@
       <c r="E839" t="s">
         <v>1655</v>
       </c>
+      <c r="I839" t="s">
+        <v>23</v>
+      </c>
       <c r="J839" t="s">
         <v>23</v>
       </c>
@@ -32453,6 +31184,9 @@
       <c r="E993" t="s">
         <v>1634</v>
       </c>
+      <c r="J993" t="s">
+        <v>48</v>
+      </c>
       <c r="K993" t="s">
         <v>48</v>
       </c>
@@ -44183,4232 +42917,424 @@
         <v>2997</v>
       </c>
       <c r="B1522" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1522" t="s">
         <v>2998</v>
-      </c>
-      <c r="C1522" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1522" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1522" t="s">
-        <v>2999</v>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B1523" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1523" t="s">
         <v>46</v>
       </c>
       <c r="D1523" t="s">
-        <v>21</v>
+        <v>594</v>
       </c>
       <c r="E1523" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1524" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1524" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D1524" t="s">
-        <v>21</v>
+        <v>594</v>
       </c>
       <c r="E1524" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B1525" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1525" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D1525" t="s">
-        <v>21</v>
+        <v>594</v>
       </c>
       <c r="E1525" t="s">
-        <v>3005</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="B1526" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1526" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D1526" t="s">
-        <v>21</v>
+        <v>594</v>
       </c>
       <c r="E1526" t="s">
-        <v>3007</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="B1527" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1527" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D1527" t="s">
-        <v>21</v>
+        <v>771</v>
       </c>
       <c r="E1527" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="B1528" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1528" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D1528" t="s">
-        <v>21</v>
+        <v>1193</v>
       </c>
       <c r="E1528" t="s">
-        <v>3011</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="s">
-        <v>3012</v>
+        <v>3007</v>
       </c>
       <c r="B1529" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1529" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D1529" t="s">
-        <v>21</v>
+        <v>1676</v>
       </c>
       <c r="E1529" t="s">
-        <v>3013</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="s">
-        <v>3014</v>
+        <v>3008</v>
       </c>
       <c r="B1530" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1530" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1530" t="s">
-        <v>21</v>
+        <v>2133</v>
       </c>
       <c r="E1530" t="s">
-        <v>3015</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="s">
-        <v>3016</v>
+        <v>3010</v>
       </c>
       <c r="B1531" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1531" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D1531" t="s">
-        <v>21</v>
+        <v>2133</v>
       </c>
       <c r="E1531" t="s">
-        <v>3017</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="s">
-        <v>3018</v>
+        <v>3012</v>
       </c>
       <c r="B1532" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1532" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1532" t="s">
-        <v>21</v>
+        <v>2243</v>
       </c>
       <c r="E1532" t="s">
-        <v>3019</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="B1533" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1533" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1533" t="s">
-        <v>21</v>
+        <v>2243</v>
       </c>
       <c r="E1533" t="s">
-        <v>3021</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="s">
-        <v>3022</v>
+        <v>3015</v>
       </c>
       <c r="B1534" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1534" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D1534" t="s">
-        <v>21</v>
+        <v>2331</v>
       </c>
       <c r="E1534" t="s">
-        <v>3023</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="s">
-        <v>3024</v>
+        <v>3017</v>
       </c>
       <c r="B1535" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1535" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D1535" t="s">
-        <v>21</v>
+        <v>2331</v>
       </c>
       <c r="E1535" t="s">
-        <v>3025</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="s">
-        <v>3026</v>
+        <v>3018</v>
       </c>
       <c r="B1536" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C1536" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D1536" t="s">
-        <v>195</v>
+        <v>2331</v>
       </c>
       <c r="E1536" t="s">
-        <v>3027</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>3028</v>
+        <v>3020</v>
       </c>
       <c r="B1537" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1537" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D1537" t="s">
-        <v>195</v>
+        <v>2331</v>
       </c>
       <c r="E1537" t="s">
-        <v>3029</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="s">
-        <v>3030</v>
+        <v>3022</v>
       </c>
       <c r="B1538" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1538" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D1538" t="s">
-        <v>195</v>
+        <v>2528</v>
       </c>
       <c r="E1538" t="s">
-        <v>3031</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="s">
-        <v>3032</v>
+        <v>3024</v>
       </c>
       <c r="B1539" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1539" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D1539" t="s">
-        <v>195</v>
+        <v>2650</v>
       </c>
       <c r="E1539" t="s">
-        <v>3033</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="s">
-        <v>3034</v>
+        <v>3026</v>
       </c>
       <c r="B1540" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1540" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D1540" t="s">
-        <v>195</v>
+        <v>2650</v>
       </c>
       <c r="E1540" t="s">
-        <v>3035</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="B1541" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1541" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D1541" t="s">
-        <v>195</v>
+        <v>2650</v>
       </c>
       <c r="E1541" t="s">
-        <v>3037</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="B1542" t="s">
-        <v>2998</v>
+        <v>113</v>
       </c>
       <c r="C1542" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1542" t="s">
-        <v>195</v>
+        <v>2650</v>
       </c>
       <c r="E1542" t="s">
-        <v>3039</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="s">
-        <v>3040</v>
+        <v>3029</v>
       </c>
       <c r="B1543" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1543" t="s">
         <v>46</v>
       </c>
       <c r="D1543" t="s">
-        <v>349</v>
+        <v>2941</v>
       </c>
       <c r="E1543" t="s">
-        <v>3041</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="s">
-        <v>3042</v>
+        <v>3030</v>
       </c>
       <c r="B1544" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1544" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D1544" t="s">
-        <v>349</v>
+        <v>2941</v>
       </c>
       <c r="E1544" t="s">
-        <v>3043</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="s">
-        <v>3044</v>
+        <v>3031</v>
       </c>
       <c r="B1545" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1545" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D1545" t="s">
-        <v>349</v>
+        <v>2941</v>
       </c>
       <c r="E1545" t="s">
-        <v>3045</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="s">
-        <v>3046</v>
+        <v>3033</v>
       </c>
       <c r="B1546" t="s">
-        <v>2998</v>
+        <v>19</v>
       </c>
       <c r="C1546" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D1546" t="s">
-        <v>349</v>
+        <v>2941</v>
       </c>
       <c r="E1546" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="s">
-        <v>3048</v>
-      </c>
-      <c r="B1547" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1547" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1547" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1547" t="s">
-        <v>3049</v>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="s">
-        <v>3050</v>
-      </c>
-      <c r="B1548" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1548" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1548" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1548" t="s">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="s">
-        <v>3052</v>
-      </c>
-      <c r="B1549" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1549" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1549" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1549" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="s">
-        <v>3054</v>
-      </c>
-      <c r="B1550" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1550" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1550" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1550" t="s">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="s">
-        <v>3056</v>
-      </c>
-      <c r="B1551" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1551" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1551" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1551" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="s">
-        <v>3058</v>
-      </c>
-      <c r="B1552" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1552" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1552" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1552" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B1553" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1553" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1553" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1553" t="s">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B1554" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1554" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1554" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1554" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B1555" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1555" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1555" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1555" t="s">
-        <v>3065</v>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B1556" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1556" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1556" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1556" t="s">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="s">
-        <v>3068</v>
-      </c>
-      <c r="B1557" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1557" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1557" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1557" t="s">
-        <v>3069</v>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="s">
-        <v>3070</v>
-      </c>
-      <c r="B1558" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1558" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1558" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1558" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="s">
-        <v>3072</v>
-      </c>
-      <c r="B1559" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1559" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1559" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1559" t="s">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="s">
-        <v>3074</v>
-      </c>
-      <c r="B1560" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1560" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1560" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1560" t="s">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="s">
-        <v>3076</v>
-      </c>
-      <c r="B1561" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1561" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1561" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1561" t="s">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="s">
-        <v>3078</v>
-      </c>
-      <c r="B1562" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1562" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1562" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1562" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="s">
-        <v>3080</v>
-      </c>
-      <c r="B1563" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1563" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1563" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1563" t="s">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="s">
-        <v>3082</v>
-      </c>
-      <c r="B1564" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1564" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1564" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1564" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="s">
-        <v>3084</v>
-      </c>
-      <c r="B1565" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1565" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1565" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1565" t="s">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B1566" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1566" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1566" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1566" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B1567" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1567" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1567" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1567" t="s">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="s">
-        <v>3090</v>
-      </c>
-      <c r="B1568" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1568" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1568" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1568" t="s">
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="s">
-        <v>3092</v>
-      </c>
-      <c r="B1569" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1569" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1569" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1569" t="s">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="s">
-        <v>3094</v>
-      </c>
-      <c r="B1570" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1570" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1570" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1570" t="s">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B1571" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1571" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1571" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1571" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="s">
-        <v>3098</v>
-      </c>
-      <c r="B1572" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1572" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1572" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1572" t="s">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="s">
-        <v>3100</v>
-      </c>
-      <c r="B1573" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1573" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1573" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1573" t="s">
-        <v>3101</v>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="s">
-        <v>3102</v>
-      </c>
-      <c r="B1574" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1574" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1574" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1574" t="s">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="s">
-        <v>3104</v>
-      </c>
-      <c r="B1575" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1575" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1575" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1575" t="s">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="s">
-        <v>3106</v>
-      </c>
-      <c r="B1576" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1576" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1576" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1576" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="s">
-        <v>3108</v>
-      </c>
-      <c r="B1577" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1577" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1577" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1577" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="s">
-        <v>3109</v>
-      </c>
-      <c r="B1578" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1578" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1578" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1578" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B1579" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1579" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1579" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1579" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="s">
-        <v>3111</v>
-      </c>
-      <c r="B1580" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1580" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1580" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1580" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="s">
-        <v>3113</v>
-      </c>
-      <c r="B1581" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1581" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1581" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1581" t="s">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B1582" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1582" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1582" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1582" t="s">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="s">
-        <v>3117</v>
-      </c>
-      <c r="B1583" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1583" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1583" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1583" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="s">
-        <v>3119</v>
-      </c>
-      <c r="B1584" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1584" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1584" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1584" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="s">
-        <v>3121</v>
-      </c>
-      <c r="B1585" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1585" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1585" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1585" t="s">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="s">
-        <v>3123</v>
-      </c>
-      <c r="B1586" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1586" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1586" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1586" t="s">
-        <v>3124</v>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="s">
-        <v>3125</v>
-      </c>
-      <c r="B1587" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1587" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1587" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1587" t="s">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="s">
-        <v>3127</v>
-      </c>
-      <c r="B1588" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1588" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1588" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1588" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B1589" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1589" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1589" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1589" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B1590" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1590" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1590" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1590" t="s">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B1591" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1591" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1591" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1591" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="s">
-        <v>3135</v>
-      </c>
-      <c r="B1592" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1592" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1592" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1592" t="s">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="s">
-        <v>3137</v>
-      </c>
-      <c r="B1593" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1593" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1593" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1593" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="s">
-        <v>3139</v>
-      </c>
-      <c r="B1594" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1594" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1594" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1594" t="s">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="s">
-        <v>3141</v>
-      </c>
-      <c r="B1595" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1595" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1595" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1595" t="s">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="s">
-        <v>3143</v>
-      </c>
-      <c r="B1596" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1596" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1596" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1596" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="s">
-        <v>3145</v>
-      </c>
-      <c r="B1597" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1597" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1597" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1597" t="s">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="s">
-        <v>3147</v>
-      </c>
-      <c r="B1598" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1598" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1598" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1598" t="s">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="s">
-        <v>3149</v>
-      </c>
-      <c r="B1599" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1599" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1599" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1599" t="s">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="s">
-        <v>3151</v>
-      </c>
-      <c r="B1600" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1600" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1600" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1600" t="s">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B1601" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1601" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1601" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1601" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B1602" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1602" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1602" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1602" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B1603" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1603" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1603" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1603" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B1604" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1604" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1604" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1604" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="1605">
-      <c r="A1605" t="s">
-        <v>3161</v>
-      </c>
-      <c r="B1605" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1605" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1605" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1605" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="1606">
-      <c r="A1606" t="s">
-        <v>3163</v>
-      </c>
-      <c r="B1606" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1606" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1606" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1606" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="1607">
-      <c r="A1607" t="s">
-        <v>3165</v>
-      </c>
-      <c r="B1607" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1607" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1607" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1607" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B1608" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1608" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1608" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1608" t="s">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="s">
-        <v>3169</v>
-      </c>
-      <c r="B1609" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1609" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1609" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1609" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B1610" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1610" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1610" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1610" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B1611" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1611" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1611" t="s">
-        <v>771</v>
-      </c>
-      <c r="E1611" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="s">
-        <v>3175</v>
-      </c>
-      <c r="B1612" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1612" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1612" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1612" t="s">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B1613" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1613" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1613" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1613" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B1614" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1614" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1614" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1614" t="s">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="s">
-        <v>3181</v>
-      </c>
-      <c r="B1615" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1615" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1615" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1615" t="s">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="s">
-        <v>3183</v>
-      </c>
-      <c r="B1616" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1616" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1616" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1616" t="s">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="s">
-        <v>3185</v>
-      </c>
-      <c r="B1617" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1617" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1617" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1617" t="s">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="s">
-        <v>3187</v>
-      </c>
-      <c r="B1618" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1618" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1618" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1618" t="s">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="s">
-        <v>3189</v>
-      </c>
-      <c r="B1619" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1619" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1619" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1619" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B1620" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1620" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1620" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1620" t="s">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="s">
-        <v>3193</v>
-      </c>
-      <c r="B1621" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1621" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1621" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1621" t="s">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="s">
-        <v>3195</v>
-      </c>
-      <c r="B1622" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1622" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1622" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1622" t="s">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B1623" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1623" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1623" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1623" t="s">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B1624" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1624" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1624" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1624" t="s">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="s">
-        <v>3201</v>
-      </c>
-      <c r="B1625" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1625" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1625" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1625" t="s">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="s">
-        <v>3203</v>
-      </c>
-      <c r="B1626" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1626" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1626" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1626" t="s">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B1627" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1627" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1627" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1627" t="s">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="s">
-        <v>3207</v>
-      </c>
-      <c r="B1628" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1628" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1628" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1628" t="s">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="s">
-        <v>3209</v>
-      </c>
-      <c r="B1629" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1629" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1629" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1629" t="s">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="s">
-        <v>3211</v>
-      </c>
-      <c r="B1630" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1630" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1630" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1630" t="s">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="s">
-        <v>3213</v>
-      </c>
-      <c r="B1631" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1631" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1631" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1631" t="s">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="s">
-        <v>3215</v>
-      </c>
-      <c r="B1632" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1632" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1632" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1632" t="s">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="s">
-        <v>3217</v>
-      </c>
-      <c r="B1633" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1633" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1633" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1633" t="s">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="s">
-        <v>3219</v>
-      </c>
-      <c r="B1634" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1634" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1634" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1634" t="s">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="s">
-        <v>3221</v>
-      </c>
-      <c r="B1635" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1635" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1635" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1635" t="s">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="s">
-        <v>3223</v>
-      </c>
-      <c r="B1636" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1636" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1636" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1636" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="s">
-        <v>3224</v>
-      </c>
-      <c r="B1637" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1637" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1637" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1637" t="s">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="s">
-        <v>3226</v>
-      </c>
-      <c r="B1638" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1638" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1638" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1638" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="s">
-        <v>3228</v>
-      </c>
-      <c r="B1639" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1639" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1639" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1639" t="s">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="s">
-        <v>3230</v>
-      </c>
-      <c r="B1640" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1640" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1640" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1640" t="s">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B1641" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1641" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1641" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1641" t="s">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="s">
-        <v>3234</v>
-      </c>
-      <c r="B1642" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1642" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1642" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1642" t="s">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="s">
-        <v>3236</v>
-      </c>
-      <c r="B1643" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1643" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1643" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1643" t="s">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="s">
-        <v>3238</v>
-      </c>
-      <c r="B1644" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1644" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1644" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1644" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="s">
-        <v>3240</v>
-      </c>
-      <c r="B1645" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1645" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1645" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1645" t="s">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="s">
-        <v>3242</v>
-      </c>
-      <c r="B1646" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1646" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1646" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1646" t="s">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="s">
-        <v>3244</v>
-      </c>
-      <c r="B1647" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1647" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1647" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1647" t="s">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="s">
-        <v>3246</v>
-      </c>
-      <c r="B1648" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1648" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1648" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1648" t="s">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="s">
-        <v>3248</v>
-      </c>
-      <c r="B1649" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1649" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1649" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1649" t="s">
-        <v>3249</v>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="s">
-        <v>3250</v>
-      </c>
-      <c r="B1650" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1650" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1650" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1650" t="s">
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="s">
-        <v>3252</v>
-      </c>
-      <c r="B1651" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1651" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1651" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1651" t="s">
-        <v>3253</v>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="s">
-        <v>3254</v>
-      </c>
-      <c r="B1652" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1652" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1652" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1652" t="s">
-        <v>3255</v>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="s">
-        <v>3256</v>
-      </c>
-      <c r="B1653" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1653" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1653" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1653" t="s">
-        <v>3257</v>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="s">
-        <v>3258</v>
-      </c>
-      <c r="B1654" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1654" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1654" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1654" t="s">
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="s">
-        <v>3260</v>
-      </c>
-      <c r="B1655" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1655" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1655" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1655" t="s">
-        <v>3261</v>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="s">
-        <v>3262</v>
-      </c>
-      <c r="B1656" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1656" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1656" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1656" t="s">
-        <v>3263</v>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="s">
-        <v>3264</v>
-      </c>
-      <c r="B1657" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1657" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1657" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1657" t="s">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="s">
-        <v>3266</v>
-      </c>
-      <c r="B1658" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1658" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1658" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1658" t="s">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="s">
-        <v>3268</v>
-      </c>
-      <c r="B1659" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1659" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1659" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1659" t="s">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="s">
-        <v>3270</v>
-      </c>
-      <c r="B1660" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1660" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1660" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1660" t="s">
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="s">
-        <v>3272</v>
-      </c>
-      <c r="B1661" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1661" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1661" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1661" t="s">
-        <v>3273</v>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="s">
-        <v>3274</v>
-      </c>
-      <c r="B1662" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1662" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1662" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1662" t="s">
-        <v>3275</v>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="s">
-        <v>3276</v>
-      </c>
-      <c r="B1663" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1663" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1663" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1663" t="s">
-        <v>3277</v>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="s">
-        <v>3278</v>
-      </c>
-      <c r="B1664" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1664" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1664" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1664" t="s">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="s">
-        <v>3280</v>
-      </c>
-      <c r="B1665" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1665" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1665" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1665" t="s">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="s">
-        <v>3282</v>
-      </c>
-      <c r="B1666" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1666" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1666" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1666" t="s">
-        <v>3283</v>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="s">
-        <v>3284</v>
-      </c>
-      <c r="B1667" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1667" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1667" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1667" t="s">
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="s">
-        <v>3286</v>
-      </c>
-      <c r="B1668" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1668" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1668" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1668" t="s">
-        <v>3287</v>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="s">
-        <v>3288</v>
-      </c>
-      <c r="B1669" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1669" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1669" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1669" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="s">
-        <v>3290</v>
-      </c>
-      <c r="B1670" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1670" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1670" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E1670" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="s">
-        <v>3292</v>
-      </c>
-      <c r="B1671" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1671" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1671" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1671" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="s">
-        <v>3294</v>
-      </c>
-      <c r="B1672" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1672" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1672" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1672" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="s">
-        <v>3296</v>
-      </c>
-      <c r="B1673" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1673" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1673" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1673" t="s">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="s">
-        <v>3298</v>
-      </c>
-      <c r="B1674" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1674" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1674" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1674" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="s">
-        <v>3300</v>
-      </c>
-      <c r="B1675" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1675" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1675" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1675" t="s">
-        <v>3301</v>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="s">
-        <v>3302</v>
-      </c>
-      <c r="B1676" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1676" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1676" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1676" t="s">
-        <v>3303</v>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="s">
-        <v>3304</v>
-      </c>
-      <c r="B1677" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1677" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1677" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1677" t="s">
-        <v>3305</v>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="s">
-        <v>3306</v>
-      </c>
-      <c r="B1678" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1678" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1678" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1678" t="s">
-        <v>3307</v>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="s">
-        <v>3308</v>
-      </c>
-      <c r="B1679" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1679" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1679" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1679" t="s">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="s">
-        <v>3310</v>
-      </c>
-      <c r="B1680" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1680" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1680" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1680" t="s">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="s">
-        <v>3312</v>
-      </c>
-      <c r="B1681" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1681" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1681" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1681" t="s">
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B1682" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1682" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1682" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1682" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="s">
-        <v>3316</v>
-      </c>
-      <c r="B1683" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1683" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1683" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1683" t="s">
-        <v>3317</v>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="s">
-        <v>3318</v>
-      </c>
-      <c r="B1684" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1684" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1684" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1684" t="s">
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="s">
-        <v>3320</v>
-      </c>
-      <c r="B1685" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1685" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1685" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1685" t="s">
-        <v>3321</v>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="s">
-        <v>3322</v>
-      </c>
-      <c r="B1686" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1686" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1686" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1686" t="s">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="s">
-        <v>3324</v>
-      </c>
-      <c r="B1687" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1687" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1687" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1687" t="s">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="s">
-        <v>3326</v>
-      </c>
-      <c r="B1688" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1688" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1688" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1688" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="s">
-        <v>3328</v>
-      </c>
-      <c r="B1689" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1689" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1689" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1689" t="s">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="s">
-        <v>3330</v>
-      </c>
-      <c r="B1690" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1690" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1690" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1690" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="s">
-        <v>3332</v>
-      </c>
-      <c r="B1691" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1691" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1691" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1691" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="s">
-        <v>3334</v>
-      </c>
-      <c r="B1692" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1692" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1692" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1692" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="s">
-        <v>3336</v>
-      </c>
-      <c r="B1693" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1693" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1693" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1693" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="s">
-        <v>3338</v>
-      </c>
-      <c r="B1694" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1694" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1694" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1694" t="s">
-        <v>3339</v>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="s">
-        <v>3340</v>
-      </c>
-      <c r="B1695" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1695" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1695" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1695" t="s">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="s">
-        <v>3342</v>
-      </c>
-      <c r="B1696" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1696" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1696" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1696" t="s">
-        <v>3343</v>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="s">
-        <v>3344</v>
-      </c>
-      <c r="B1697" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1697" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1697" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1697" t="s">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="s">
-        <v>3346</v>
-      </c>
-      <c r="B1698" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1698" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1698" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E1698" t="s">
-        <v>3347</v>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="s">
-        <v>3348</v>
-      </c>
-      <c r="B1699" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1699" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1699" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E1699" t="s">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="s">
-        <v>3350</v>
-      </c>
-      <c r="B1700" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1700" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1700" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E1700" t="s">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="s">
-        <v>3352</v>
-      </c>
-      <c r="B1701" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1701" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1701" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E1701" t="s">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="s">
-        <v>3354</v>
-      </c>
-      <c r="B1702" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1702" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1702" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E1702" t="s">
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="s">
-        <v>3356</v>
-      </c>
-      <c r="B1703" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1703" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1703" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E1703" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="s">
-        <v>3358</v>
-      </c>
-      <c r="B1704" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1704" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1704" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E1704" t="s">
-        <v>3359</v>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="s">
-        <v>3360</v>
-      </c>
-      <c r="B1705" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1705" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1705" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E1705" t="s">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="s">
-        <v>3362</v>
-      </c>
-      <c r="B1706" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1706" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1706" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E1706" t="s">
-        <v>3363</v>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="s">
-        <v>3364</v>
-      </c>
-      <c r="B1707" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1707" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1707" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1707" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="s">
-        <v>3365</v>
-      </c>
-      <c r="B1708" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1708" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1708" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1708" t="s">
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="s">
-        <v>3367</v>
-      </c>
-      <c r="B1709" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1709" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1709" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1709" t="s">
-        <v>3368</v>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="s">
-        <v>3369</v>
-      </c>
-      <c r="B1710" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1710" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1710" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1710" t="s">
-        <v>3370</v>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="s">
-        <v>3371</v>
-      </c>
-      <c r="B1711" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1711" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1711" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1711" t="s">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="s">
-        <v>3373</v>
-      </c>
-      <c r="B1712" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1712" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1712" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1712" t="s">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="s">
-        <v>3375</v>
-      </c>
-      <c r="B1713" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1713" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1713" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1713" t="s">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="s">
-        <v>3377</v>
-      </c>
-      <c r="B1714" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1714" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1714" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1714" t="s">
-        <v>3378</v>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="s">
-        <v>3379</v>
-      </c>
-      <c r="B1715" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1715" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1715" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1715" t="s">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="s">
-        <v>3381</v>
-      </c>
-      <c r="B1716" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1716" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1716" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1716" t="s">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" t="s">
-        <v>3383</v>
-      </c>
-      <c r="B1717" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1717" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1717" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1717" t="s">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="s">
-        <v>3385</v>
-      </c>
-      <c r="B1718" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1718" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1718" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E1718" t="s">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="s">
-        <v>3387</v>
-      </c>
-      <c r="B1719" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1719" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1719" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1719" t="s">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="s">
-        <v>3389</v>
-      </c>
-      <c r="B1720" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1720" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1720" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1720" t="s">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="s">
-        <v>3391</v>
-      </c>
-      <c r="B1721" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1721" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1721" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1721" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="s">
-        <v>3393</v>
-      </c>
-      <c r="B1722" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1722" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1722" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1722" t="s">
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="s">
-        <v>3395</v>
-      </c>
-      <c r="B1723" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1723" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1723" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1723" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="s">
-        <v>3397</v>
-      </c>
-      <c r="B1724" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1724" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1724" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1724" t="s">
-        <v>3398</v>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" t="s">
-        <v>3399</v>
-      </c>
-      <c r="B1725" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1725" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1725" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1725" t="s">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" t="s">
-        <v>3401</v>
-      </c>
-      <c r="B1726" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1726" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1726" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1726" t="s">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" t="s">
-        <v>3403</v>
-      </c>
-      <c r="B1727" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1727" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1727" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1727" t="s">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" t="s">
-        <v>3405</v>
-      </c>
-      <c r="B1728" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1728" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1728" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E1728" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="1729">
-      <c r="A1729" t="s">
-        <v>3407</v>
-      </c>
-      <c r="B1729" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1729" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1729" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1729" t="s">
-        <v>3408</v>
-      </c>
-    </row>
-    <row r="1730">
-      <c r="A1730" t="s">
-        <v>3409</v>
-      </c>
-      <c r="B1730" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1730" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1730" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1730" t="s">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="1731">
-      <c r="A1731" t="s">
-        <v>3411</v>
-      </c>
-      <c r="B1731" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1731" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1731" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1731" t="s">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="1732">
-      <c r="A1732" t="s">
-        <v>3413</v>
-      </c>
-      <c r="B1732" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1732" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1732" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1732" t="s">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="1733">
-      <c r="A1733" t="s">
-        <v>3415</v>
-      </c>
-      <c r="B1733" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1733" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1733" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1733" t="s">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="1734">
-      <c r="A1734" t="s">
-        <v>3417</v>
-      </c>
-      <c r="B1734" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1734" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1734" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1734" t="s">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="1735">
-      <c r="A1735" t="s">
-        <v>3419</v>
-      </c>
-      <c r="B1735" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1735" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1735" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1735" t="s">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="1736">
-      <c r="A1736" t="s">
-        <v>3421</v>
-      </c>
-      <c r="B1736" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1736" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1736" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1736" t="s">
-        <v>3422</v>
-      </c>
-    </row>
-    <row r="1737">
-      <c r="A1737" t="s">
-        <v>3423</v>
-      </c>
-      <c r="B1737" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1737" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1737" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1737" t="s">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="1738">
-      <c r="A1738" t="s">
-        <v>3425</v>
-      </c>
-      <c r="B1738" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1738" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1738" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1738" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="1739">
-      <c r="A1739" t="s">
-        <v>3427</v>
-      </c>
-      <c r="B1739" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1739" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1739" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1739" t="s">
-        <v>3428</v>
-      </c>
-    </row>
-    <row r="1740">
-      <c r="A1740" t="s">
-        <v>3429</v>
-      </c>
-      <c r="B1740" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1740" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1740" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1740" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="1741">
-      <c r="A1741" t="s">
-        <v>3431</v>
-      </c>
-      <c r="B1741" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1741" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1741" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1741" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="1742">
-      <c r="A1742" t="s">
-        <v>3433</v>
-      </c>
-      <c r="B1742" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1742" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1742" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1742" t="s">
-        <v>3434</v>
-      </c>
-    </row>
-    <row r="1743">
-      <c r="A1743" t="s">
-        <v>3435</v>
-      </c>
-      <c r="B1743" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1743" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1743" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1743" t="s">
-        <v>3436</v>
-      </c>
-    </row>
-    <row r="1744">
-      <c r="A1744" t="s">
-        <v>3437</v>
-      </c>
-      <c r="B1744" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1744" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1744" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1744" t="s">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="1745">
-      <c r="A1745" t="s">
-        <v>3439</v>
-      </c>
-      <c r="B1745" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1745" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1745" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1745" t="s">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="1746">
-      <c r="A1746" t="s">
-        <v>3441</v>
-      </c>
-      <c r="B1746" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1746" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1746" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1746" t="s">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="1747">
-      <c r="A1747" t="s">
-        <v>3443</v>
-      </c>
-      <c r="B1747" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1747" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1747" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1747" t="s">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="1748">
-      <c r="A1748" t="s">
-        <v>3445</v>
-      </c>
-      <c r="B1748" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1748" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1748" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1748" t="s">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="1749">
-      <c r="A1749" t="s">
-        <v>3447</v>
-      </c>
-      <c r="B1749" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1749" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1749" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1749" t="s">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="1750">
-      <c r="A1750" t="s">
-        <v>3449</v>
-      </c>
-      <c r="B1750" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1750" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1750" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1750" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="1751">
-      <c r="A1751" t="s">
-        <v>3451</v>
-      </c>
-      <c r="B1751" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C1751" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1751" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1751" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="1752">
-      <c r="A1752" t="s">
-        <v>3453</v>
-      </c>
-      <c r="B1752" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1752" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1752" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E1752" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="1753">
-      <c r="A1753" t="s">
-        <v>3455</v>
-      </c>
-      <c r="B1753" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1753" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1753" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E1753" t="s">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="1754">
-      <c r="A1754" t="s">
-        <v>3457</v>
-      </c>
-      <c r="B1754" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1754" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1754" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E1754" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="1755">
-      <c r="A1755" t="s">
-        <v>3458</v>
-      </c>
-      <c r="B1755" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1755" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1755" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E1755" t="s">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="1756">
-      <c r="A1756" t="s">
-        <v>3460</v>
-      </c>
-      <c r="B1756" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1756" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1756" t="s">
-        <v>2331</v>
-      </c>
-      <c r="E1756" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="1757">
-      <c r="A1757" t="s">
-        <v>3462</v>
-      </c>
-      <c r="B1757" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1757" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1757" t="s">
-        <v>2331</v>
-      </c>
-      <c r="E1757" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="1758">
-      <c r="A1758" t="s">
-        <v>3463</v>
-      </c>
-      <c r="B1758" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1758" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1758" t="s">
-        <v>2331</v>
-      </c>
-      <c r="E1758" t="s">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="1759">
-      <c r="A1759" t="s">
-        <v>3465</v>
-      </c>
-      <c r="B1759" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1759" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1759" t="s">
-        <v>2331</v>
-      </c>
-      <c r="E1759" t="s">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="1760">
-      <c r="A1760" t="s">
-        <v>3467</v>
-      </c>
-      <c r="B1760" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1760" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1760" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E1760" t="s">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="1761">
-      <c r="A1761" t="s">
-        <v>3469</v>
-      </c>
-      <c r="B1761" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1761" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1761" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E1761" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="1762">
-      <c r="A1762" t="s">
-        <v>3471</v>
-      </c>
-      <c r="B1762" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1762" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1762" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E1762" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="1763">
-      <c r="A1763" t="s">
-        <v>3472</v>
-      </c>
-      <c r="B1763" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1763" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1763" t="s">
-        <v>2650</v>
-      </c>
-      <c r="E1763" t="s">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="1764">
-      <c r="A1764" t="s">
-        <v>3474</v>
-      </c>
-      <c r="B1764" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1764" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1764" t="s">
-        <v>2650</v>
-      </c>
-      <c r="E1764" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="1765">
-      <c r="A1765" t="s">
-        <v>3475</v>
-      </c>
-      <c r="B1765" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1765" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1765" t="s">
-        <v>2650</v>
-      </c>
-      <c r="E1765" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="1766">
-      <c r="A1766" t="s">
-        <v>3476</v>
-      </c>
-      <c r="B1766" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1766" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1766" t="s">
-        <v>2650</v>
-      </c>
-      <c r="E1766" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="1767">
-      <c r="A1767" t="s">
-        <v>3477</v>
-      </c>
-      <c r="B1767" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1767" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1767" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E1767" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="1768">
-      <c r="A1768" t="s">
-        <v>3478</v>
-      </c>
-      <c r="B1768" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1768" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1768" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E1768" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="1769">
-      <c r="A1769" t="s">
-        <v>3479</v>
-      </c>
-      <c r="B1769" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1769" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1769" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E1769" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="1770">
-      <c r="A1770" t="s">
-        <v>3481</v>
-      </c>
-      <c r="B1770" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1770" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1770" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E1770" t="s">
-        <v>3482</v>
+        <v>3034</v>
       </c>
     </row>
   </sheetData>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10345" uniqueCount="3035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10316" uniqueCount="3035">
   <si>
     <t>Vehicles</t>
   </si>
@@ -12014,9 +12014,6 @@
       <c r="F138" t="s">
         <v>48</v>
       </c>
-      <c r="G138" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -14359,9 +14356,6 @@
       <c r="G247" t="s">
         <v>48</v>
       </c>
-      <c r="H247" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -15098,9 +15092,6 @@
       <c r="G279" t="s">
         <v>23</v>
       </c>
-      <c r="H279" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -16177,9 +16168,6 @@
       <c r="E328" t="s">
         <v>667</v>
       </c>
-      <c r="F328" t="s">
-        <v>48</v>
-      </c>
       <c r="G328" t="s">
         <v>48</v>
       </c>
@@ -16209,9 +16197,6 @@
       <c r="H329" t="s">
         <v>48</v>
       </c>
-      <c r="I329" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
@@ -16390,9 +16375,6 @@
       <c r="E337" t="s">
         <v>667</v>
       </c>
-      <c r="F337" t="s">
-        <v>48</v>
-      </c>
       <c r="G337" t="s">
         <v>48</v>
       </c>
@@ -17267,9 +17249,6 @@
       <c r="E375" t="s">
         <v>755</v>
       </c>
-      <c r="F375" t="s">
-        <v>23</v>
-      </c>
       <c r="G375" t="s">
         <v>23</v>
       </c>
@@ -18040,9 +18019,6 @@
       <c r="H409" t="s">
         <v>48</v>
       </c>
-      <c r="I409" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
@@ -19827,9 +19803,6 @@
       <c r="E488" t="s">
         <v>973</v>
       </c>
-      <c r="G488" t="s">
-        <v>48</v>
-      </c>
       <c r="H488" t="s">
         <v>48</v>
       </c>
@@ -19853,9 +19826,6 @@
       <c r="E489" t="s">
         <v>975</v>
       </c>
-      <c r="G489" t="s">
-        <v>48</v>
-      </c>
       <c r="H489" t="s">
         <v>48</v>
       </c>
@@ -20250,9 +20220,6 @@
       <c r="E506" t="s">
         <v>1007</v>
       </c>
-      <c r="G506" t="s">
-        <v>23</v>
-      </c>
       <c r="H506" t="s">
         <v>23</v>
       </c>
@@ -20529,9 +20496,6 @@
       <c r="E518" t="s">
         <v>1031</v>
       </c>
-      <c r="G518" t="s">
-        <v>23</v>
-      </c>
       <c r="H518" t="s">
         <v>23</v>
       </c>
@@ -22039,9 +22003,6 @@
       <c r="E583" t="s">
         <v>1156</v>
       </c>
-      <c r="G583" t="s">
-        <v>23</v>
-      </c>
       <c r="H583" t="s">
         <v>23</v>
       </c>
@@ -22252,9 +22213,6 @@
       <c r="E592" t="s">
         <v>1173</v>
       </c>
-      <c r="G592" t="s">
-        <v>23</v>
-      </c>
       <c r="H592" t="s">
         <v>23</v>
       </c>
@@ -23314,9 +23272,6 @@
       <c r="I640" t="s">
         <v>48</v>
       </c>
-      <c r="J640" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
@@ -23377,9 +23332,6 @@
       <c r="I643" t="s">
         <v>48</v>
       </c>
-      <c r="J643" t="s">
-        <v>48</v>
-      </c>
       <c r="L643" t="s">
         <v>48</v>
       </c>
@@ -23926,9 +23878,6 @@
       <c r="E670" t="s">
         <v>1328</v>
       </c>
-      <c r="H670" t="s">
-        <v>23</v>
-      </c>
       <c r="I670" t="s">
         <v>23</v>
       </c>
@@ -25204,9 +25153,6 @@
       <c r="E727" t="s">
         <v>1438</v>
       </c>
-      <c r="H727" t="s">
-        <v>23</v>
-      </c>
       <c r="I727" t="s">
         <v>23</v>
       </c>
@@ -26006,9 +25952,6 @@
       <c r="J762" t="s">
         <v>23</v>
       </c>
-      <c r="K762" t="s">
-        <v>23</v>
-      </c>
       <c r="L762" t="s">
         <v>23</v>
       </c>
@@ -26198,12 +26141,6 @@
       <c r="E771" t="s">
         <v>1526</v>
       </c>
-      <c r="H771" t="s">
-        <v>48</v>
-      </c>
-      <c r="I771" t="s">
-        <v>48</v>
-      </c>
       <c r="J771" t="s">
         <v>48</v>
       </c>
@@ -27080,9 +27017,6 @@
       <c r="J810" t="s">
         <v>23</v>
       </c>
-      <c r="K810" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="811">
       <c r="A811" t="s">
@@ -27200,9 +27134,6 @@
       <c r="E816" t="s">
         <v>1615</v>
       </c>
-      <c r="I816" t="s">
-        <v>48</v>
-      </c>
       <c r="J816" t="s">
         <v>48</v>
       </c>
@@ -27427,9 +27358,6 @@
       <c r="J826" t="s">
         <v>48</v>
       </c>
-      <c r="K826" t="s">
-        <v>48</v>
-      </c>
       <c r="L826" t="s">
         <v>48</v>
       </c>
@@ -27696,9 +27624,6 @@
       <c r="E839" t="s">
         <v>1655</v>
       </c>
-      <c r="I839" t="s">
-        <v>23</v>
-      </c>
       <c r="J839" t="s">
         <v>23</v>
       </c>
@@ -28146,9 +28071,6 @@
       <c r="L860" t="s">
         <v>48</v>
       </c>
-      <c r="M860" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="861">
       <c r="A861" t="s">
@@ -29484,9 +29406,6 @@
       <c r="L917" t="s">
         <v>23</v>
       </c>
-      <c r="M917" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="918">
       <c r="A918" t="s">
@@ -29556,9 +29475,6 @@
       <c r="L920" t="s">
         <v>23</v>
       </c>
-      <c r="M920" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="921">
       <c r="A921" t="s">
@@ -31184,9 +31100,6 @@
       <c r="E993" t="s">
         <v>1634</v>
       </c>
-      <c r="J993" t="s">
-        <v>48</v>
-      </c>
       <c r="K993" t="s">
         <v>48</v>
       </c>
@@ -33743,9 +33656,6 @@
       <c r="K1107" t="s">
         <v>48</v>
       </c>
-      <c r="M1107" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="s">
@@ -33788,6 +33698,9 @@
       </c>
       <c r="E1109" t="s">
         <v>2178</v>
+      </c>
+      <c r="K1109" t="s">
+        <v>48</v>
       </c>
       <c r="L1109" t="s">
         <v>48</v>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10316" uniqueCount="3035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10320" uniqueCount="3035">
   <si>
     <t>Vehicles</t>
   </si>
@@ -28071,6 +28071,9 @@
       <c r="L860" t="s">
         <v>48</v>
       </c>
+      <c r="M860" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="s">
@@ -29406,6 +29409,9 @@
       <c r="L917" t="s">
         <v>23</v>
       </c>
+      <c r="M917" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="s">
@@ -29475,6 +29481,9 @@
       <c r="L920" t="s">
         <v>23</v>
       </c>
+      <c r="M920" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" t="s">
@@ -33654,6 +33663,9 @@
         <v>48</v>
       </c>
       <c r="K1107" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1107" t="s">
         <v>48</v>
       </c>
     </row>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10320" uniqueCount="3035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10336" uniqueCount="3035">
   <si>
     <t>Vehicles</t>
   </si>
@@ -19488,6 +19488,9 @@
       <c r="H473" t="s">
         <v>23</v>
       </c>
+      <c r="L473" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -21106,6 +21109,9 @@
       <c r="I544" t="s">
         <v>48</v>
       </c>
+      <c r="J544" t="s">
+        <v>48</v>
+      </c>
       <c r="K544" t="s">
         <v>48</v>
       </c>
@@ -22699,6 +22705,9 @@
       <c r="I613" t="s">
         <v>48</v>
       </c>
+      <c r="J613" t="s">
+        <v>48</v>
+      </c>
       <c r="K613" t="s">
         <v>48</v>
       </c>
@@ -26755,6 +26764,9 @@
       <c r="I799" t="s">
         <v>23</v>
       </c>
+      <c r="J799" t="s">
+        <v>23</v>
+      </c>
       <c r="K799" t="s">
         <v>23</v>
       </c>
@@ -26827,6 +26839,9 @@
       <c r="I802" t="s">
         <v>23</v>
       </c>
+      <c r="J802" t="s">
+        <v>23</v>
+      </c>
       <c r="K802" t="s">
         <v>23</v>
       </c>
@@ -28065,6 +28080,9 @@
       <c r="E860" t="s">
         <v>1695</v>
       </c>
+      <c r="J860" t="s">
+        <v>23</v>
+      </c>
       <c r="K860" t="s">
         <v>23</v>
       </c>
@@ -29403,6 +29421,9 @@
       <c r="I917" t="s">
         <v>23</v>
       </c>
+      <c r="J917" t="s">
+        <v>23</v>
+      </c>
       <c r="K917" t="s">
         <v>23</v>
       </c>
@@ -29475,6 +29496,9 @@
       <c r="E920" t="s">
         <v>1811</v>
       </c>
+      <c r="J920" t="s">
+        <v>23</v>
+      </c>
       <c r="K920" t="s">
         <v>23</v>
       </c>
@@ -30802,6 +30826,9 @@
       <c r="E979" t="s">
         <v>1926</v>
       </c>
+      <c r="J979" t="s">
+        <v>23</v>
+      </c>
       <c r="K979" t="s">
         <v>23</v>
       </c>
@@ -32335,6 +32362,9 @@
       <c r="E1048" t="s">
         <v>2058</v>
       </c>
+      <c r="J1048" t="s">
+        <v>23</v>
+      </c>
       <c r="K1048" t="s">
         <v>23</v>
       </c>
@@ -32450,6 +32480,9 @@
       <c r="E1053" t="s">
         <v>2068</v>
       </c>
+      <c r="J1053" t="s">
+        <v>48</v>
+      </c>
       <c r="K1053" t="s">
         <v>48</v>
       </c>
@@ -32473,6 +32506,9 @@
       <c r="E1054" t="s">
         <v>2070</v>
       </c>
+      <c r="J1054" t="s">
+        <v>48</v>
+      </c>
       <c r="K1054" t="s">
         <v>48</v>
       </c>
@@ -32565,6 +32601,9 @@
       <c r="E1058" t="s">
         <v>2078</v>
       </c>
+      <c r="J1058" t="s">
+        <v>23</v>
+      </c>
       <c r="K1058" t="s">
         <v>23</v>
       </c>
@@ -33613,6 +33652,9 @@
       <c r="E1105" t="s">
         <v>2170</v>
       </c>
+      <c r="J1105" t="s">
+        <v>48</v>
+      </c>
       <c r="K1105" t="s">
         <v>48</v>
       </c>
@@ -33783,6 +33825,9 @@
       <c r="E1112" t="s">
         <v>2183</v>
       </c>
+      <c r="J1112" t="s">
+        <v>23</v>
+      </c>
       <c r="K1112" t="s">
         <v>23</v>
       </c>
@@ -33805,6 +33850,9 @@
       </c>
       <c r="E1113" t="s">
         <v>2185</v>
+      </c>
+      <c r="J1113" t="s">
+        <v>23</v>
       </c>
       <c r="K1113" t="s">
         <v>23</v>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10336" uniqueCount="3035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10333" uniqueCount="3027">
   <si>
     <t>Vehicles</t>
   </si>
@@ -2705,6 +2705,12 @@
     <t>Wellington Mk Ic</t>
   </si>
   <si>
+    <t>tbf-1c</t>
+  </si>
+  <si>
+    <t>TBF-1C Avenger</t>
+  </si>
+  <si>
     <t>p-40f_10</t>
   </si>
   <si>
@@ -2717,12 +2723,6 @@
     <t>A-36 Apache</t>
   </si>
   <si>
-    <t>tbf-1c</t>
-  </si>
-  <si>
-    <t>TBF-1C Avenger</t>
-  </si>
-  <si>
     <t>p-36g</t>
   </si>
   <si>
@@ -9050,9 +9050,6 @@
     <t>B-17G-60-VE Flying Fortress</t>
   </si>
   <si>
-    <t>us_amx_13_90</t>
-  </si>
-  <si>
     <t>b-29</t>
   </si>
   <si>
@@ -9092,31 +9089,10 @@
     <t>Tank, Combat, Full-Tracked, 105-mm Gun XM-1 (Chrysler)</t>
   </si>
   <si>
-    <t>md_460_yt_cup_2019</t>
-  </si>
-  <si>
     <t>mig-15bis_nr23_german</t>
   </si>
   <si>
     <t>md_460_usa</t>
-  </si>
-  <si>
-    <t>germ_leopard_2a5_yt_cup_2019</t>
-  </si>
-  <si>
-    <t>ussr_t_80u_yt_cup_2019</t>
-  </si>
-  <si>
-    <t>uk_challenger_II_yt_cup_2019</t>
-  </si>
-  <si>
-    <t>Challenger 2</t>
-  </si>
-  <si>
-    <t>us_m1a1_abrams_yt_cup_2019</t>
-  </si>
-  <si>
-    <t>M1A1</t>
   </si>
 </sst>
 </file>
@@ -9163,7 +9139,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" ref="A2:P1546" displayName="Test_Table" name="Test">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" ref="A2:P1540" displayName="Test_Table" name="Test">
   <tableColumns count="16">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Type"/>
@@ -9188,7 +9164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1546"/>
+  <dimension ref="A1:P1540"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -12014,6 +11990,9 @@
       <c r="F138" t="s">
         <v>48</v>
       </c>
+      <c r="G138" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -14356,6 +14335,9 @@
       <c r="G247" t="s">
         <v>48</v>
       </c>
+      <c r="H247" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -15092,6 +15074,9 @@
       <c r="G279" t="s">
         <v>23</v>
       </c>
+      <c r="H279" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -16168,6 +16153,9 @@
       <c r="E328" t="s">
         <v>667</v>
       </c>
+      <c r="F328" t="s">
+        <v>48</v>
+      </c>
       <c r="G328" t="s">
         <v>48</v>
       </c>
@@ -16197,6 +16185,9 @@
       <c r="H329" t="s">
         <v>48</v>
       </c>
+      <c r="I329" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
@@ -16375,6 +16366,9 @@
       <c r="E337" t="s">
         <v>667</v>
       </c>
+      <c r="F337" t="s">
+        <v>48</v>
+      </c>
       <c r="G337" t="s">
         <v>48</v>
       </c>
@@ -17249,6 +17243,9 @@
       <c r="E375" t="s">
         <v>755</v>
       </c>
+      <c r="F375" t="s">
+        <v>23</v>
+      </c>
       <c r="G375" t="s">
         <v>23</v>
       </c>
@@ -18019,6 +18016,9 @@
       <c r="H409" t="s">
         <v>48</v>
       </c>
+      <c r="I409" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
@@ -18956,6 +18956,9 @@
       <c r="E450" t="s">
         <v>898</v>
       </c>
+      <c r="F450" t="s">
+        <v>23</v>
+      </c>
       <c r="G450" t="s">
         <v>23</v>
       </c>
@@ -19806,6 +19809,9 @@
       <c r="E488" t="s">
         <v>973</v>
       </c>
+      <c r="G488" t="s">
+        <v>48</v>
+      </c>
       <c r="H488" t="s">
         <v>48</v>
       </c>
@@ -19829,6 +19835,9 @@
       <c r="E489" t="s">
         <v>975</v>
       </c>
+      <c r="G489" t="s">
+        <v>48</v>
+      </c>
       <c r="H489" t="s">
         <v>48</v>
       </c>
@@ -20223,6 +20232,9 @@
       <c r="E506" t="s">
         <v>1007</v>
       </c>
+      <c r="G506" t="s">
+        <v>23</v>
+      </c>
       <c r="H506" t="s">
         <v>23</v>
       </c>
@@ -20499,6 +20511,9 @@
       <c r="E518" t="s">
         <v>1031</v>
       </c>
+      <c r="G518" t="s">
+        <v>23</v>
+      </c>
       <c r="H518" t="s">
         <v>23</v>
       </c>
@@ -22009,6 +22024,9 @@
       <c r="E583" t="s">
         <v>1156</v>
       </c>
+      <c r="G583" t="s">
+        <v>23</v>
+      </c>
       <c r="H583" t="s">
         <v>23</v>
       </c>
@@ -22219,6 +22237,9 @@
       <c r="E592" t="s">
         <v>1173</v>
       </c>
+      <c r="G592" t="s">
+        <v>23</v>
+      </c>
       <c r="H592" t="s">
         <v>23</v>
       </c>
@@ -23281,6 +23302,9 @@
       <c r="I640" t="s">
         <v>48</v>
       </c>
+      <c r="J640" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
@@ -23341,6 +23365,9 @@
       <c r="I643" t="s">
         <v>48</v>
       </c>
+      <c r="J643" t="s">
+        <v>48</v>
+      </c>
       <c r="L643" t="s">
         <v>48</v>
       </c>
@@ -23887,6 +23914,9 @@
       <c r="E670" t="s">
         <v>1328</v>
       </c>
+      <c r="H670" t="s">
+        <v>23</v>
+      </c>
       <c r="I670" t="s">
         <v>23</v>
       </c>
@@ -25162,6 +25192,9 @@
       <c r="E727" t="s">
         <v>1438</v>
       </c>
+      <c r="H727" t="s">
+        <v>23</v>
+      </c>
       <c r="I727" t="s">
         <v>23</v>
       </c>
@@ -25961,6 +25994,9 @@
       <c r="J762" t="s">
         <v>23</v>
       </c>
+      <c r="K762" t="s">
+        <v>23</v>
+      </c>
       <c r="L762" t="s">
         <v>23</v>
       </c>
@@ -26150,6 +26186,12 @@
       <c r="E771" t="s">
         <v>1526</v>
       </c>
+      <c r="H771" t="s">
+        <v>48</v>
+      </c>
+      <c r="I771" t="s">
+        <v>48</v>
+      </c>
       <c r="J771" t="s">
         <v>48</v>
       </c>
@@ -27032,6 +27074,9 @@
       <c r="J810" t="s">
         <v>23</v>
       </c>
+      <c r="K810" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="s">
@@ -27149,6 +27194,9 @@
       <c r="E816" t="s">
         <v>1615</v>
       </c>
+      <c r="I816" t="s">
+        <v>48</v>
+      </c>
       <c r="J816" t="s">
         <v>48</v>
       </c>
@@ -27373,6 +27421,9 @@
       <c r="J826" t="s">
         <v>48</v>
       </c>
+      <c r="K826" t="s">
+        <v>48</v>
+      </c>
       <c r="L826" t="s">
         <v>48</v>
       </c>
@@ -27639,6 +27690,9 @@
       <c r="E839" t="s">
         <v>1655</v>
       </c>
+      <c r="I839" t="s">
+        <v>23</v>
+      </c>
       <c r="J839" t="s">
         <v>23</v>
       </c>
@@ -31136,6 +31190,9 @@
       <c r="E993" t="s">
         <v>1634</v>
       </c>
+      <c r="J993" t="s">
+        <v>48</v>
+      </c>
       <c r="K993" t="s">
         <v>48</v>
       </c>
@@ -43060,7 +43117,7 @@
         <v>3012</v>
       </c>
       <c r="B1532" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C1532" t="s">
         <v>104</v>
@@ -43069,41 +43126,41 @@
         <v>2243</v>
       </c>
       <c r="E1532" t="s">
-        <v>2246</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="B1533" t="s">
         <v>113</v>
       </c>
       <c r="C1533" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D1533" t="s">
-        <v>2243</v>
+        <v>2331</v>
       </c>
       <c r="E1533" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="B1534" t="s">
         <v>113</v>
       </c>
       <c r="C1534" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D1534" t="s">
         <v>2331</v>
       </c>
       <c r="E1534" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1535">
@@ -43114,81 +43171,81 @@
         <v>113</v>
       </c>
       <c r="C1535" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D1535" t="s">
         <v>2331</v>
       </c>
       <c r="E1535" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="B1536" t="s">
         <v>113</v>
       </c>
       <c r="C1536" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1536" t="s">
         <v>2331</v>
       </c>
       <c r="E1536" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="B1537" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C1537" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D1537" t="s">
-        <v>2331</v>
+        <v>2528</v>
       </c>
       <c r="E1537" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="B1538" t="s">
         <v>19</v>
       </c>
       <c r="C1538" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D1538" t="s">
-        <v>2528</v>
+        <v>2650</v>
       </c>
       <c r="E1538" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="B1539" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C1539" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D1539" t="s">
         <v>2650</v>
       </c>
       <c r="E1539" t="s">
-        <v>3025</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1540">
@@ -43199,115 +43256,13 @@
         <v>113</v>
       </c>
       <c r="C1540" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D1540" t="s">
         <v>2650</v>
       </c>
       <c r="E1540" t="s">
         <v>2687</v>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="s">
-        <v>3027</v>
-      </c>
-      <c r="B1541" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1541" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1541" t="s">
-        <v>2650</v>
-      </c>
-      <c r="E1541" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B1542" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1542" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1542" t="s">
-        <v>2650</v>
-      </c>
-      <c r="E1542" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="s">
-        <v>3029</v>
-      </c>
-      <c r="B1543" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1543" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1543" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E1543" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="s">
-        <v>3030</v>
-      </c>
-      <c r="B1544" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1544" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1544" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E1544" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="s">
-        <v>3031</v>
-      </c>
-      <c r="B1545" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1545" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1545" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E1545" t="s">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="s">
-        <v>3033</v>
-      </c>
-      <c r="B1546" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1546" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1546" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E1546" t="s">
-        <v>3034</v>
       </c>
     </row>
   </sheetData>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10433" uniqueCount="3073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10443" uniqueCount="3073">
   <si>
     <t>Vehicles</t>
   </si>
@@ -8108,6 +8108,12 @@
     <t>Radkampfwagen 90</t>
   </si>
   <si>
+    <t>germ_leopard_c2_mexas</t>
+  </si>
+  <si>
+    <t>Leopard C2A1 MEXAS</t>
+  </si>
+  <si>
     <t>it_of_40_mtca</t>
   </si>
   <si>
@@ -8291,6 +8297,12 @@
     <t>A-4B</t>
   </si>
   <si>
+    <t>f11f_1_late</t>
+  </si>
+  <si>
+    <t>F11F-1 Tiger</t>
+  </si>
+  <si>
     <t>sa_316b</t>
   </si>
   <si>
@@ -8336,6 +8348,12 @@
     <t>Kampfpanzer M48 Super</t>
   </si>
   <si>
+    <t>germ_thyssen_henschel_tam_2c</t>
+  </si>
+  <si>
+    <t>Tanque Argentino Mediano 2C</t>
+  </si>
+  <si>
     <t>ussr_t_64a_1971</t>
   </si>
   <si>
@@ -8507,6 +8525,12 @@
     <t>T-72B</t>
   </si>
   <si>
+    <t>ussr_t_72b_1989</t>
+  </si>
+  <si>
+    <t>T-72B (1989)</t>
+  </si>
+  <si>
     <t>sw_lvrbv_701</t>
   </si>
   <si>
@@ -8579,6 +8603,12 @@
     <t>F-100D</t>
   </si>
   <si>
+    <t>jaguar_a</t>
+  </si>
+  <si>
+    <t>Jaguar A</t>
+  </si>
+  <si>
     <t>fiat_g91_ys</t>
   </si>
   <si>
@@ -8591,6 +8621,12 @@
     <t>Su-7B</t>
   </si>
   <si>
+    <t>su-7bkl</t>
+  </si>
+  <si>
+    <t>Su-7BKL</t>
+  </si>
+  <si>
     <t>saab_j32b</t>
   </si>
   <si>
@@ -8615,6 +8651,12 @@
     <t>Lightning F.6</t>
   </si>
   <si>
+    <t>jaguar_gr1</t>
+  </si>
+  <si>
+    <t>Jaguar GR.1</t>
+  </si>
+  <si>
     <t>f-100d</t>
   </si>
   <si>
@@ -8873,6 +8915,12 @@
     <t>J-7II</t>
   </si>
   <si>
+    <t>q_5_early</t>
+  </si>
+  <si>
+    <t>Q-5 early</t>
+  </si>
+  <si>
     <t>mirage_3c</t>
   </si>
   <si>
@@ -9008,6 +9056,12 @@
     <t>T-80U</t>
   </si>
   <si>
+    <t>ussr_t_72b3_2011</t>
+  </si>
+  <si>
+    <t>T-72B3</t>
+  </si>
+  <si>
     <t>sw_strv_122</t>
   </si>
   <si>
@@ -9170,12 +9224,6 @@
     <t>mig-15bis_nr23_german</t>
   </si>
   <si>
-    <t>germ_leopard_c2_mexas</t>
-  </si>
-  <si>
-    <t>Leopard C2A1 MEXAS</t>
-  </si>
-  <si>
     <t>us_xm1_chrysler</t>
   </si>
   <si>
@@ -9183,54 +9231,6 @@
   </si>
   <si>
     <t>md_460_usa</t>
-  </si>
-  <si>
-    <t>f11f_1_late</t>
-  </si>
-  <si>
-    <t>F11F-1 Tiger</t>
-  </si>
-  <si>
-    <t>germ_thyssen_henschel_tam_2c</t>
-  </si>
-  <si>
-    <t>Tanque Argentino Mediano 2C</t>
-  </si>
-  <si>
-    <t>ussr_t_72b_1989</t>
-  </si>
-  <si>
-    <t>T-72B (1989)</t>
-  </si>
-  <si>
-    <t>jaguar_a</t>
-  </si>
-  <si>
-    <t>Jaguar A</t>
-  </si>
-  <si>
-    <t>su-7bkl</t>
-  </si>
-  <si>
-    <t>Su-7BKL</t>
-  </si>
-  <si>
-    <t>jaguar_gr1</t>
-  </si>
-  <si>
-    <t>Jaguar GR.1</t>
-  </si>
-  <si>
-    <t>q_5_early</t>
-  </si>
-  <si>
-    <t>Q-5 early</t>
-  </si>
-  <si>
-    <t>ussr_t_72b3_2011</t>
-  </si>
-  <si>
-    <t>T-72B3</t>
   </si>
 </sst>
 </file>
@@ -36895,9 +36895,6 @@
       <c r="N1243" t="s">
         <v>23</v>
       </c>
-      <c r="O1243" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="1244">
       <c r="A1244" t="s">
@@ -37554,6 +37551,9 @@
       <c r="N1271" t="s">
         <v>48</v>
       </c>
+      <c r="O1271" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" t="s">
@@ -38091,6 +38091,9 @@
       <c r="N1295" t="s">
         <v>23</v>
       </c>
+      <c r="O1295" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" t="s">
@@ -39751,7 +39754,7 @@
         <v>19</v>
       </c>
       <c r="C1370" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1370" t="s">
         <v>2690</v>
@@ -39759,13 +39762,7 @@
       <c r="E1370" t="s">
         <v>2699</v>
       </c>
-      <c r="N1370" t="s">
-        <v>48</v>
-      </c>
       <c r="O1370" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1370" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39785,6 +39782,9 @@
       <c r="E1371" t="s">
         <v>2701</v>
       </c>
+      <c r="N1371" t="s">
+        <v>48</v>
+      </c>
       <c r="O1371" t="s">
         <v>48</v>
       </c>
@@ -39800,16 +39800,13 @@
         <v>19</v>
       </c>
       <c r="C1372" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1372" t="s">
         <v>2690</v>
       </c>
       <c r="E1372" t="s">
         <v>2703</v>
-      </c>
-      <c r="N1372" t="s">
-        <v>48</v>
       </c>
       <c r="O1372" t="s">
         <v>48</v>
@@ -39834,6 +39831,9 @@
       <c r="E1373" t="s">
         <v>2705</v>
       </c>
+      <c r="N1373" t="s">
+        <v>48</v>
+      </c>
       <c r="O1373" t="s">
         <v>48</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>19</v>
       </c>
       <c r="C1374" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1374" t="s">
         <v>2690</v>
@@ -39858,7 +39858,10 @@
         <v>2707</v>
       </c>
       <c r="O1374" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1374" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1375">
@@ -39869,7 +39872,7 @@
         <v>19</v>
       </c>
       <c r="C1375" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1375" t="s">
         <v>2690</v>
@@ -39878,7 +39881,7 @@
         <v>2709</v>
       </c>
       <c r="O1375" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1376">
@@ -39889,7 +39892,7 @@
         <v>19</v>
       </c>
       <c r="C1376" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1376" t="s">
         <v>2690</v>
@@ -39898,9 +39901,6 @@
         <v>2711</v>
       </c>
       <c r="O1376" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1376" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39912,7 +39912,7 @@
         <v>19</v>
       </c>
       <c r="C1377" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1377" t="s">
         <v>2690</v>
@@ -39920,7 +39920,10 @@
       <c r="E1377" t="s">
         <v>2713</v>
       </c>
-      <c r="N1377" t="s">
+      <c r="O1377" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1377" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39960,10 +39963,7 @@
       <c r="E1379" t="s">
         <v>2717</v>
       </c>
-      <c r="O1379" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1379" t="s">
+      <c r="N1379" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39972,10 +39972,10 @@
         <v>2718</v>
       </c>
       <c r="B1380" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1380" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1380" t="s">
         <v>2690</v>
@@ -39983,8 +39983,11 @@
       <c r="E1380" t="s">
         <v>2719</v>
       </c>
-      <c r="N1380" t="s">
-        <v>23</v>
+      <c r="O1380" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1380" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1381">
@@ -39995,7 +39998,7 @@
         <v>126</v>
       </c>
       <c r="C1381" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1381" t="s">
         <v>2690</v>
@@ -40003,8 +40006,8 @@
       <c r="E1381" t="s">
         <v>2721</v>
       </c>
-      <c r="O1381" t="s">
-        <v>48</v>
+      <c r="N1381" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1382">
@@ -40075,16 +40078,13 @@
         <v>126</v>
       </c>
       <c r="C1385" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1385" t="s">
         <v>2690</v>
       </c>
       <c r="E1385" t="s">
         <v>2729</v>
-      </c>
-      <c r="N1385" t="s">
-        <v>48</v>
       </c>
       <c r="O1385" t="s">
         <v>48</v>
@@ -40106,6 +40106,9 @@
       <c r="E1386" t="s">
         <v>2731</v>
       </c>
+      <c r="N1386" t="s">
+        <v>48</v>
+      </c>
       <c r="O1386" t="s">
         <v>48</v>
       </c>
@@ -40138,16 +40141,13 @@
         <v>126</v>
       </c>
       <c r="C1388" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1388" t="s">
         <v>2690</v>
       </c>
       <c r="E1388" t="s">
         <v>2735</v>
-      </c>
-      <c r="N1388" t="s">
-        <v>48</v>
       </c>
       <c r="O1388" t="s">
         <v>48</v>
@@ -40167,7 +40167,10 @@
         <v>2690</v>
       </c>
       <c r="E1389" t="s">
-        <v>2733</v>
+        <v>2737</v>
+      </c>
+      <c r="N1389" t="s">
+        <v>48</v>
       </c>
       <c r="O1389" t="s">
         <v>48</v>
@@ -40175,25 +40178,22 @@
     </row>
     <row r="1390">
       <c r="A1390" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="B1390" t="s">
         <v>126</v>
       </c>
       <c r="C1390" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1390" t="s">
         <v>2690</v>
       </c>
       <c r="E1390" t="s">
-        <v>2738</v>
-      </c>
-      <c r="N1390" t="s">
-        <v>23</v>
+        <v>2735</v>
       </c>
       <c r="O1390" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1391">
@@ -40235,6 +40235,9 @@
       <c r="E1392" t="s">
         <v>2742</v>
       </c>
+      <c r="N1392" t="s">
+        <v>23</v>
+      </c>
       <c r="O1392" t="s">
         <v>23</v>
       </c>
@@ -40247,7 +40250,7 @@
         <v>126</v>
       </c>
       <c r="C1393" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1393" t="s">
         <v>2690</v>
@@ -40255,11 +40258,8 @@
       <c r="E1393" t="s">
         <v>2744</v>
       </c>
-      <c r="N1393" t="s">
-        <v>48</v>
-      </c>
       <c r="O1393" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1394">
@@ -40270,7 +40270,7 @@
         <v>126</v>
       </c>
       <c r="C1394" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1394" t="s">
         <v>2690</v>
@@ -40316,7 +40316,7 @@
         <v>126</v>
       </c>
       <c r="C1396" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1396" t="s">
         <v>2690</v>
@@ -40370,6 +40370,9 @@
       <c r="E1398" t="s">
         <v>2754</v>
       </c>
+      <c r="N1398" t="s">
+        <v>48</v>
+      </c>
       <c r="O1398" t="s">
         <v>48</v>
       </c>
@@ -40419,10 +40422,10 @@
         <v>2759</v>
       </c>
       <c r="B1401" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1401" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1401" t="s">
         <v>2690</v>
@@ -40430,13 +40433,7 @@
       <c r="E1401" t="s">
         <v>2760</v>
       </c>
-      <c r="N1401" t="s">
-        <v>48</v>
-      </c>
       <c r="O1401" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1401" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40445,10 +40442,10 @@
         <v>2761</v>
       </c>
       <c r="B1402" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1402" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1402" t="s">
         <v>2690</v>
@@ -40456,10 +40453,7 @@
       <c r="E1402" t="s">
         <v>2762</v>
       </c>
-      <c r="N1402" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1402" t="s">
+      <c r="O1402" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40471,7 +40465,7 @@
         <v>2541</v>
       </c>
       <c r="C1403" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D1403" t="s">
         <v>2690</v>
@@ -40480,10 +40474,13 @@
         <v>2764</v>
       </c>
       <c r="N1403" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="O1403" t="s">
+        <v>48</v>
       </c>
       <c r="P1403" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1404">
@@ -40491,62 +40488,65 @@
         <v>2765</v>
       </c>
       <c r="B1404" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1404" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D1404" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E1404" t="s">
         <v>2766</v>
       </c>
-      <c r="E1404" t="s">
-        <v>2767</v>
-      </c>
-      <c r="O1404" t="s">
-        <v>23</v>
+      <c r="N1404" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1404" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E1405" t="s">
         <v>2768</v>
       </c>
-      <c r="B1405" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1405" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1405" t="s">
-        <v>2766</v>
-      </c>
-      <c r="E1405" t="s">
-        <v>2769</v>
-      </c>
-      <c r="O1405" t="s">
-        <v>48</v>
+      <c r="N1405" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1405" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1406" t="s">
         <v>2770</v>
-      </c>
-      <c r="B1406" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1406" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1406" t="s">
-        <v>2766</v>
       </c>
       <c r="E1406" t="s">
         <v>2771</v>
       </c>
       <c r="O1406" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1406" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1407">
@@ -40557,10 +40557,10 @@
         <v>19</v>
       </c>
       <c r="C1407" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1407" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1407" t="s">
         <v>2773</v>
@@ -40577,22 +40577,19 @@
         <v>19</v>
       </c>
       <c r="C1408" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1408" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1408" t="s">
         <v>2775</v>
       </c>
-      <c r="N1408" t="s">
-        <v>23</v>
-      </c>
       <c r="O1408" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1408" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1409">
@@ -40603,19 +40600,16 @@
         <v>19</v>
       </c>
       <c r="C1409" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1409" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1409" t="s">
         <v>2777</v>
       </c>
       <c r="O1409" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1409" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1410">
@@ -40626,16 +40620,16 @@
         <v>19</v>
       </c>
       <c r="C1410" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1410" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1410" t="s">
         <v>2779</v>
       </c>
       <c r="O1410" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1411">
@@ -40646,19 +40640,22 @@
         <v>19</v>
       </c>
       <c r="C1411" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1411" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1411" t="s">
         <v>2781</v>
       </c>
+      <c r="N1411" t="s">
+        <v>23</v>
+      </c>
       <c r="O1411" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1411" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1412">
@@ -40669,19 +40666,19 @@
         <v>19</v>
       </c>
       <c r="C1412" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1412" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1412" t="s">
         <v>2783</v>
       </c>
       <c r="O1412" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1412" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1413">
@@ -40689,13 +40686,13 @@
         <v>2784</v>
       </c>
       <c r="B1413" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1413" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D1413" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1413" t="s">
         <v>2785</v>
@@ -40709,19 +40706,22 @@
         <v>2786</v>
       </c>
       <c r="B1414" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1414" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1414" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1414" t="s">
         <v>2787</v>
       </c>
       <c r="O1414" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1414" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1415">
@@ -40729,18 +40729,21 @@
         <v>2788</v>
       </c>
       <c r="B1415" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1415" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1415" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1415" t="s">
         <v>2789</v>
       </c>
       <c r="O1415" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1415" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40752,16 +40755,16 @@
         <v>126</v>
       </c>
       <c r="C1416" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1416" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1416" t="s">
         <v>2791</v>
       </c>
       <c r="O1416" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1417">
@@ -40772,16 +40775,16 @@
         <v>126</v>
       </c>
       <c r="C1417" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1417" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1417" t="s">
         <v>2793</v>
       </c>
       <c r="O1417" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1418">
@@ -40792,13 +40795,13 @@
         <v>126</v>
       </c>
       <c r="C1418" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1418" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1418" t="s">
-        <v>2789</v>
+        <v>2795</v>
       </c>
       <c r="O1418" t="s">
         <v>48</v>
@@ -40806,19 +40809,19 @@
     </row>
     <row r="1419">
       <c r="A1419" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="B1419" t="s">
         <v>126</v>
       </c>
       <c r="C1419" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D1419" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1419" t="s">
-        <v>2789</v>
+        <v>2797</v>
       </c>
       <c r="O1419" t="s">
         <v>48</v>
@@ -40826,19 +40829,19 @@
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="B1420" t="s">
         <v>126</v>
       </c>
       <c r="C1420" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1420" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1420" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="O1420" t="s">
         <v>48</v>
@@ -40846,19 +40849,19 @@
     </row>
     <row r="1421">
       <c r="A1421" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="B1421" t="s">
         <v>126</v>
       </c>
       <c r="C1421" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1421" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1421" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
       <c r="O1421" t="s">
         <v>48</v>
@@ -40866,19 +40869,19 @@
     </row>
     <row r="1422">
       <c r="A1422" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="B1422" t="s">
         <v>126</v>
       </c>
       <c r="C1422" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D1422" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1422" t="s">
-        <v>2801</v>
+        <v>2795</v>
       </c>
       <c r="O1422" t="s">
         <v>48</v>
@@ -40889,24 +40892,18 @@
         <v>2802</v>
       </c>
       <c r="B1423" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1423" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D1423" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1423" t="s">
         <v>2803</v>
       </c>
-      <c r="N1423" t="s">
-        <v>48</v>
-      </c>
       <c r="O1423" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1423" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40915,13 +40912,13 @@
         <v>2804</v>
       </c>
       <c r="B1424" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1424" t="s">
         <v>73</v>
       </c>
       <c r="D1424" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1424" t="s">
         <v>2805</v>
@@ -40935,22 +40932,19 @@
         <v>2806</v>
       </c>
       <c r="B1425" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1425" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D1425" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1425" t="s">
         <v>2807</v>
       </c>
-      <c r="N1425" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1425" t="s">
-        <v>23</v>
+      <c r="O1425" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1426">
@@ -40961,10 +40955,10 @@
         <v>2541</v>
       </c>
       <c r="C1426" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="D1426" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1426" t="s">
         <v>2809</v>
@@ -40987,21 +40981,15 @@
         <v>2541</v>
       </c>
       <c r="C1427" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D1427" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1427" t="s">
         <v>2811</v>
       </c>
-      <c r="N1427" t="s">
-        <v>48</v>
-      </c>
       <c r="O1427" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1427" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41010,36 +40998,42 @@
         <v>2812</v>
       </c>
       <c r="B1428" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1428" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D1428" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E1428" t="s">
         <v>2813</v>
       </c>
-      <c r="E1428" t="s">
-        <v>2814</v>
-      </c>
-      <c r="O1428" t="s">
+      <c r="N1428" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1428" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E1429" t="s">
         <v>2815</v>
       </c>
-      <c r="B1429" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1429" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1429" t="s">
-        <v>2813</v>
-      </c>
-      <c r="E1429" t="s">
-        <v>2816</v>
+      <c r="N1429" t="s">
+        <v>48</v>
       </c>
       <c r="O1429" t="s">
         <v>48</v>
@@ -41050,19 +41044,22 @@
     </row>
     <row r="1430">
       <c r="A1430" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E1430" t="s">
         <v>2817</v>
       </c>
-      <c r="B1430" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1430" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1430" t="s">
-        <v>2813</v>
-      </c>
-      <c r="E1430" t="s">
-        <v>2818</v>
+      <c r="N1430" t="s">
+        <v>48</v>
       </c>
       <c r="O1430" t="s">
         <v>48</v>
@@ -41073,25 +41070,22 @@
     </row>
     <row r="1431">
       <c r="A1431" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1431" t="s">
         <v>2819</v>
-      </c>
-      <c r="B1431" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1431" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1431" t="s">
-        <v>2813</v>
       </c>
       <c r="E1431" t="s">
         <v>2820</v>
       </c>
       <c r="O1431" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1431" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1432">
@@ -41102,10 +41096,10 @@
         <v>19</v>
       </c>
       <c r="C1432" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1432" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1432" t="s">
         <v>2822</v>
@@ -41125,10 +41119,10 @@
         <v>19</v>
       </c>
       <c r="C1433" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D1433" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1433" t="s">
         <v>2824</v>
@@ -41148,15 +41142,18 @@
         <v>19</v>
       </c>
       <c r="C1434" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1434" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1434" t="s">
         <v>2826</v>
       </c>
       <c r="O1434" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1434" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41168,19 +41165,19 @@
         <v>19</v>
       </c>
       <c r="C1435" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1435" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1435" t="s">
         <v>2828</v>
       </c>
       <c r="O1435" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1435" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1436">
@@ -41191,16 +41188,19 @@
         <v>19</v>
       </c>
       <c r="C1436" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1436" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1436" t="s">
         <v>2830</v>
       </c>
       <c r="O1436" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1436" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1437">
@@ -41211,10 +41211,10 @@
         <v>19</v>
       </c>
       <c r="C1437" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D1437" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1437" t="s">
         <v>2832</v>
@@ -41231,16 +41231,19 @@
         <v>19</v>
       </c>
       <c r="C1438" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1438" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1438" t="s">
         <v>2834</v>
       </c>
       <c r="O1438" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1438" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1439">
@@ -41251,16 +41254,16 @@
         <v>19</v>
       </c>
       <c r="C1439" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1439" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1439" t="s">
         <v>2836</v>
       </c>
       <c r="O1439" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1440">
@@ -41271,19 +41274,16 @@
         <v>19</v>
       </c>
       <c r="C1440" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D1440" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1440" t="s">
         <v>2838</v>
       </c>
       <c r="O1440" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1440" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1441">
@@ -41294,18 +41294,15 @@
         <v>19</v>
       </c>
       <c r="C1441" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1441" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1441" t="s">
         <v>2840</v>
       </c>
       <c r="O1441" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1441" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41317,18 +41314,15 @@
         <v>19</v>
       </c>
       <c r="C1442" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1442" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1442" t="s">
         <v>2842</v>
       </c>
       <c r="O1442" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1442" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41340,18 +41334,15 @@
         <v>19</v>
       </c>
       <c r="C1443" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1443" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1443" t="s">
         <v>2844</v>
       </c>
       <c r="O1443" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1443" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41363,15 +41354,18 @@
         <v>19</v>
       </c>
       <c r="C1444" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1444" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1444" t="s">
         <v>2846</v>
       </c>
       <c r="O1444" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1444" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41383,15 +41377,18 @@
         <v>19</v>
       </c>
       <c r="C1445" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1445" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1445" t="s">
         <v>2848</v>
       </c>
       <c r="O1445" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1445" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41400,19 +41397,22 @@
         <v>2849</v>
       </c>
       <c r="B1446" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1446" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D1446" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1446" t="s">
         <v>2850</v>
       </c>
       <c r="O1446" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1446" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1447">
@@ -41420,19 +41420,22 @@
         <v>2851</v>
       </c>
       <c r="B1447" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1447" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D1447" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1447" t="s">
         <v>2852</v>
       </c>
       <c r="O1447" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1447" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1448">
@@ -41440,13 +41443,13 @@
         <v>2853</v>
       </c>
       <c r="B1448" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1448" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1448" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1448" t="s">
         <v>2854</v>
@@ -41460,13 +41463,13 @@
         <v>2855</v>
       </c>
       <c r="B1449" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1449" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D1449" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1449" t="s">
         <v>2856</v>
@@ -41483,10 +41486,10 @@
         <v>126</v>
       </c>
       <c r="C1450" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1450" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1450" t="s">
         <v>2858</v>
@@ -41503,16 +41506,16 @@
         <v>126</v>
       </c>
       <c r="C1451" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D1451" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1451" t="s">
         <v>2860</v>
       </c>
       <c r="O1451" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1452">
@@ -41523,10 +41526,10 @@
         <v>126</v>
       </c>
       <c r="C1452" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D1452" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1452" t="s">
         <v>2862</v>
@@ -41543,10 +41546,10 @@
         <v>126</v>
       </c>
       <c r="C1453" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D1453" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1453" t="s">
         <v>2864</v>
@@ -41563,10 +41566,10 @@
         <v>126</v>
       </c>
       <c r="C1454" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="D1454" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1454" t="s">
         <v>2866</v>
@@ -41583,53 +41586,53 @@
         <v>126</v>
       </c>
       <c r="C1455" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1455" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1455" t="s">
-        <v>2854</v>
+        <v>2868</v>
       </c>
       <c r="O1455" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="B1456" t="s">
         <v>126</v>
       </c>
       <c r="C1456" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1456" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1456" t="s">
-        <v>2852</v>
+        <v>2870</v>
       </c>
       <c r="O1456" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="B1457" t="s">
         <v>126</v>
       </c>
       <c r="C1457" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D1457" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1457" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="O1457" t="s">
         <v>48</v>
@@ -41637,142 +41640,121 @@
     </row>
     <row r="1458">
       <c r="A1458" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="B1458" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1458" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="D1458" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1458" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="O1458" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1458" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="B1459" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1459" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="D1459" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1459" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="O1459" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1459" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="B1460" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1460" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D1460" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1460" t="s">
-        <v>2876</v>
-      </c>
-      <c r="N1460" t="s">
-        <v>48</v>
+        <v>2878</v>
       </c>
       <c r="O1460" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1460" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="B1461" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1461" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D1461" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1461" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="O1461" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1461" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="B1462" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1462" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1462" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1462" t="s">
-        <v>2880</v>
+        <v>2862</v>
       </c>
       <c r="O1462" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1462" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="B1463" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1463" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1463" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1463" t="s">
-        <v>2882</v>
+        <v>2860</v>
       </c>
       <c r="O1463" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1463" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41781,21 +41763,18 @@
         <v>2883</v>
       </c>
       <c r="B1464" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1464" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1464" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1464" t="s">
         <v>2884</v>
       </c>
       <c r="O1464" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1464" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41807,10 +41786,10 @@
         <v>2541</v>
       </c>
       <c r="C1465" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D1465" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1465" t="s">
         <v>2886</v>
@@ -41830,10 +41809,10 @@
         <v>2541</v>
       </c>
       <c r="C1466" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D1466" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1466" t="s">
         <v>2888</v>
@@ -41853,15 +41832,21 @@
         <v>2541</v>
       </c>
       <c r="C1467" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1467" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1467" t="s">
         <v>2890</v>
       </c>
+      <c r="N1467" t="s">
+        <v>48</v>
+      </c>
       <c r="O1467" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1467" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41873,76 +41858,85 @@
         <v>2541</v>
       </c>
       <c r="C1468" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1468" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1468" t="s">
-        <v>2882</v>
+        <v>2892</v>
       </c>
       <c r="O1468" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1468" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="B1469" t="s">
         <v>2541</v>
       </c>
       <c r="C1469" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1469" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1469" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="O1469" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1469" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="B1470" t="s">
         <v>2541</v>
       </c>
       <c r="C1470" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1470" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1470" t="s">
-        <v>2895</v>
+        <v>2896</v>
+      </c>
+      <c r="O1470" t="s">
+        <v>48</v>
       </c>
       <c r="P1470" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="B1471" t="s">
         <v>2541</v>
       </c>
       <c r="C1471" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D1471" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="E1471" t="s">
-        <v>2897</v>
+        <v>2898</v>
+      </c>
+      <c r="O1471" t="s">
+        <v>48</v>
       </c>
       <c r="P1471" t="s">
         <v>48</v>
@@ -41950,16 +41944,16 @@
     </row>
     <row r="1472">
       <c r="A1472" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="B1472" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1472" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D1472" t="s">
-        <v>2899</v>
+        <v>2819</v>
       </c>
       <c r="E1472" t="s">
         <v>2900</v>
@@ -41976,13 +41970,13 @@
         <v>2901</v>
       </c>
       <c r="B1473" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1473" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D1473" t="s">
-        <v>2899</v>
+        <v>2819</v>
       </c>
       <c r="E1473" t="s">
         <v>2902</v>
@@ -41999,22 +41993,19 @@
         <v>2903</v>
       </c>
       <c r="B1474" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1474" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1474" t="s">
-        <v>2899</v>
+        <v>2819</v>
       </c>
       <c r="E1474" t="s">
         <v>2904</v>
       </c>
       <c r="O1474" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1474" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1475">
@@ -42022,82 +42013,79 @@
         <v>2905</v>
       </c>
       <c r="B1475" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1475" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1475" t="s">
-        <v>2899</v>
+        <v>2819</v>
       </c>
       <c r="E1475" t="s">
-        <v>2906</v>
+        <v>2896</v>
       </c>
       <c r="O1475" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1475" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1476" t="s">
         <v>2907</v>
       </c>
-      <c r="B1476" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1476" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1476" t="s">
-        <v>2899</v>
-      </c>
-      <c r="E1476" t="s">
-        <v>2908</v>
-      </c>
       <c r="O1476" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1477" t="s">
         <v>2909</v>
       </c>
-      <c r="B1477" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1477" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1477" t="s">
-        <v>2899</v>
-      </c>
-      <c r="E1477" t="s">
-        <v>2910</v>
-      </c>
-      <c r="O1477" t="s">
-        <v>48</v>
-      </c>
       <c r="P1477" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B1478" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1478" t="s">
         <v>116</v>
       </c>
       <c r="D1478" t="s">
-        <v>2899</v>
+        <v>2819</v>
       </c>
       <c r="E1478" t="s">
-        <v>2912</v>
-      </c>
-      <c r="O1478" t="s">
-        <v>48</v>
+        <v>2911</v>
       </c>
       <c r="P1478" t="s">
         <v>48</v>
@@ -42105,22 +42093,25 @@
     </row>
     <row r="1479">
       <c r="A1479" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1479" t="s">
         <v>2913</v>
-      </c>
-      <c r="B1479" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1479" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1479" t="s">
-        <v>2899</v>
       </c>
       <c r="E1479" t="s">
         <v>2914</v>
       </c>
       <c r="O1479" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1479" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1480">
@@ -42128,18 +42119,21 @@
         <v>2915</v>
       </c>
       <c r="B1480" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1480" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D1480" t="s">
-        <v>2899</v>
+        <v>2913</v>
       </c>
       <c r="E1480" t="s">
         <v>2916</v>
       </c>
       <c r="O1480" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1480" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42148,36 +42142,39 @@
         <v>2917</v>
       </c>
       <c r="B1481" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1481" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D1481" t="s">
-        <v>2899</v>
+        <v>2913</v>
       </c>
       <c r="E1481" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
       <c r="O1481" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1481" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="B1482" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1482" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D1482" t="s">
-        <v>2899</v>
+        <v>2913</v>
       </c>
       <c r="E1482" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="O1482" t="s">
         <v>48</v>
@@ -42185,19 +42182,19 @@
     </row>
     <row r="1483">
       <c r="A1483" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="B1483" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1483" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D1483" t="s">
-        <v>2899</v>
+        <v>2913</v>
       </c>
       <c r="E1483" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="O1483" t="s">
         <v>48</v>
@@ -42205,19 +42202,19 @@
     </row>
     <row r="1484">
       <c r="A1484" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="B1484" t="s">
-        <v>2541</v>
+        <v>19</v>
       </c>
       <c r="C1484" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D1484" t="s">
-        <v>2899</v>
+        <v>2913</v>
       </c>
       <c r="E1484" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="O1484" t="s">
         <v>48</v>
@@ -42228,19 +42225,19 @@
     </row>
     <row r="1485">
       <c r="A1485" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="B1485" t="s">
-        <v>2541</v>
+        <v>19</v>
       </c>
       <c r="C1485" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D1485" t="s">
-        <v>2899</v>
+        <v>2913</v>
       </c>
       <c r="E1485" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="O1485" t="s">
         <v>48</v>
@@ -42251,47 +42248,41 @@
     </row>
     <row r="1486">
       <c r="A1486" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="B1486" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1486" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D1486" t="s">
-        <v>2899</v>
+        <v>2913</v>
       </c>
       <c r="E1486" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="O1486" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1486" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="B1487" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1487" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1487" t="s">
-        <v>2929</v>
+        <v>2913</v>
       </c>
       <c r="E1487" t="s">
         <v>2930</v>
       </c>
       <c r="O1487" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1487" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42300,39 +42291,36 @@
         <v>2931</v>
       </c>
       <c r="B1488" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1488" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1488" t="s">
-        <v>2929</v>
+        <v>2913</v>
       </c>
       <c r="E1488" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="O1488" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1488" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B1489" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1489" t="s">
         <v>60</v>
       </c>
       <c r="D1489" t="s">
-        <v>2929</v>
+        <v>2913</v>
       </c>
       <c r="E1489" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="O1489" t="s">
         <v>48</v>
@@ -42340,102 +42328,105 @@
     </row>
     <row r="1490">
       <c r="A1490" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1490" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1490" t="s">
         <v>73</v>
       </c>
       <c r="D1490" t="s">
-        <v>2929</v>
+        <v>2913</v>
       </c>
       <c r="E1490" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="O1490" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1490" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E1491" t="s">
         <v>2937</v>
       </c>
-      <c r="B1491" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1491" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1491" t="s">
-        <v>2929</v>
-      </c>
-      <c r="E1491" t="s">
-        <v>2938</v>
-      </c>
       <c r="O1491" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1491" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E1492" t="s">
         <v>2939</v>
       </c>
-      <c r="B1492" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1492" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1492" t="s">
-        <v>2929</v>
-      </c>
-      <c r="E1492" t="s">
-        <v>2940</v>
-      </c>
       <c r="O1492" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1492" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E1493" t="s">
         <v>2941</v>
       </c>
-      <c r="B1493" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1493" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1493" t="s">
-        <v>2929</v>
-      </c>
-      <c r="E1493" t="s">
-        <v>2942</v>
-      </c>
       <c r="O1493" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1493" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1494" t="s">
         <v>2943</v>
-      </c>
-      <c r="B1494" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1494" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1494" t="s">
-        <v>2929</v>
       </c>
       <c r="E1494" t="s">
         <v>2944</v>
@@ -42455,10 +42446,10 @@
         <v>19</v>
       </c>
       <c r="C1495" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D1495" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1495" t="s">
         <v>2946</v>
@@ -42478,18 +42469,15 @@
         <v>19</v>
       </c>
       <c r="C1496" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D1496" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1496" t="s">
         <v>2948</v>
       </c>
       <c r="O1496" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1496" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42498,19 +42486,22 @@
         <v>2949</v>
       </c>
       <c r="B1497" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1497" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D1497" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1497" t="s">
         <v>2950</v>
       </c>
       <c r="O1497" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1497" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1498">
@@ -42518,19 +42509,19 @@
         <v>2951</v>
       </c>
       <c r="B1498" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1498" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D1498" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1498" t="s">
         <v>2952</v>
       </c>
       <c r="O1498" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1499">
@@ -42538,19 +42529,22 @@
         <v>2953</v>
       </c>
       <c r="B1499" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1499" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D1499" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1499" t="s">
         <v>2954</v>
       </c>
       <c r="O1499" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1499" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1500">
@@ -42558,13 +42552,13 @@
         <v>2955</v>
       </c>
       <c r="B1500" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1500" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D1500" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1500" t="s">
         <v>2956</v>
@@ -42578,18 +42572,21 @@
         <v>2957</v>
       </c>
       <c r="B1501" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1501" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D1501" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1501" t="s">
         <v>2958</v>
       </c>
       <c r="O1501" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1501" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42598,18 +42595,21 @@
         <v>2959</v>
       </c>
       <c r="B1502" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1502" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D1502" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1502" t="s">
         <v>2960</v>
       </c>
       <c r="O1502" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1502" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42618,19 +42618,22 @@
         <v>2961</v>
       </c>
       <c r="B1503" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1503" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D1503" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1503" t="s">
         <v>2962</v>
       </c>
       <c r="O1503" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1503" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1504">
@@ -42641,10 +42644,10 @@
         <v>126</v>
       </c>
       <c r="C1504" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1504" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1504" t="s">
         <v>2964</v>
@@ -42661,10 +42664,10 @@
         <v>126</v>
       </c>
       <c r="C1505" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1505" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1505" t="s">
         <v>2966</v>
@@ -42681,16 +42684,16 @@
         <v>126</v>
       </c>
       <c r="C1506" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D1506" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1506" t="s">
         <v>2968</v>
       </c>
       <c r="O1506" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1507">
@@ -42701,10 +42704,10 @@
         <v>126</v>
       </c>
       <c r="C1507" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D1507" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1507" t="s">
         <v>2970</v>
@@ -42721,10 +42724,10 @@
         <v>126</v>
       </c>
       <c r="C1508" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D1508" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1508" t="s">
         <v>2972</v>
@@ -42741,10 +42744,10 @@
         <v>126</v>
       </c>
       <c r="C1509" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D1509" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1509" t="s">
         <v>2974</v>
@@ -42761,10 +42764,10 @@
         <v>126</v>
       </c>
       <c r="C1510" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D1510" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1510" t="s">
         <v>2976</v>
@@ -42778,22 +42781,19 @@
         <v>2977</v>
       </c>
       <c r="B1511" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1511" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D1511" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1511" t="s">
         <v>2978</v>
       </c>
       <c r="O1511" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1511" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1512">
@@ -42801,19 +42801,19 @@
         <v>2979</v>
       </c>
       <c r="B1512" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1512" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D1512" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1512" t="s">
         <v>2980</v>
       </c>
       <c r="O1512" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1513">
@@ -42821,21 +42821,18 @@
         <v>2981</v>
       </c>
       <c r="B1513" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1513" t="s">
         <v>84</v>
       </c>
       <c r="D1513" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1513" t="s">
         <v>2982</v>
       </c>
       <c r="O1513" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1513" t="s">
         <v>23</v>
       </c>
     </row>
@@ -42844,22 +42841,19 @@
         <v>2983</v>
       </c>
       <c r="B1514" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1514" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D1514" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1514" t="s">
         <v>2984</v>
       </c>
       <c r="O1514" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1514" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1515">
@@ -42867,13 +42861,13 @@
         <v>2985</v>
       </c>
       <c r="B1515" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1515" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1515" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1515" t="s">
         <v>2986</v>
@@ -42887,13 +42881,13 @@
         <v>2987</v>
       </c>
       <c r="B1516" t="s">
-        <v>2541</v>
+        <v>126</v>
       </c>
       <c r="C1516" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1516" t="s">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="E1516" t="s">
         <v>2988</v>
@@ -42907,62 +42901,56 @@
         <v>2989</v>
       </c>
       <c r="B1517" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1517" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1517" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E1517" t="s">
         <v>2990</v>
       </c>
-      <c r="E1517" t="s">
-        <v>2991</v>
-      </c>
       <c r="O1517" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1517" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E1518" t="s">
         <v>2992</v>
       </c>
-      <c r="B1518" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1518" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1518" t="s">
-        <v>2990</v>
-      </c>
-      <c r="E1518" t="s">
-        <v>2993</v>
-      </c>
       <c r="O1518" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1518" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E1519" t="s">
         <v>2994</v>
-      </c>
-      <c r="B1519" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1519" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1519" t="s">
-        <v>2990</v>
-      </c>
-      <c r="E1519" t="s">
-        <v>2995</v>
       </c>
       <c r="O1519" t="s">
         <v>48</v>
@@ -42973,125 +42961,122 @@
     </row>
     <row r="1520">
       <c r="A1520" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E1520" t="s">
         <v>2996</v>
       </c>
-      <c r="B1520" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1520" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1520" t="s">
-        <v>2990</v>
-      </c>
-      <c r="E1520" t="s">
-        <v>2997</v>
-      </c>
       <c r="O1520" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1520" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E1521" t="s">
         <v>2998</v>
       </c>
-      <c r="B1521" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1521" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1521" t="s">
-        <v>2990</v>
-      </c>
-      <c r="E1521" t="s">
-        <v>2999</v>
-      </c>
       <c r="O1521" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1521" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E1522" t="s">
         <v>3000</v>
       </c>
-      <c r="B1522" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1522" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1522" t="s">
-        <v>2990</v>
-      </c>
-      <c r="E1522" t="s">
-        <v>3001</v>
-      </c>
       <c r="O1522" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1522" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1523" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1523" t="s">
         <v>116</v>
       </c>
       <c r="D1523" t="s">
-        <v>2990</v>
+        <v>2943</v>
       </c>
       <c r="E1523" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="O1523" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1523" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B1524" t="s">
         <v>2541</v>
       </c>
       <c r="C1524" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1524" t="s">
-        <v>2990</v>
+        <v>2943</v>
       </c>
       <c r="E1524" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="O1524" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1524" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1525" t="s">
         <v>3006</v>
-      </c>
-      <c r="B1525" t="s">
-        <v>2541</v>
-      </c>
-      <c r="C1525" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1525" t="s">
-        <v>2990</v>
       </c>
       <c r="E1525" t="s">
         <v>3007</v>
@@ -43108,22 +43093,22 @@
         <v>3008</v>
       </c>
       <c r="B1526" t="s">
-        <v>2541</v>
+        <v>19</v>
       </c>
       <c r="C1526" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1526" t="s">
-        <v>2990</v>
+        <v>3006</v>
       </c>
       <c r="E1526" t="s">
         <v>3009</v>
       </c>
       <c r="O1526" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1526" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1527">
@@ -43131,19 +43116,22 @@
         <v>3010</v>
       </c>
       <c r="B1527" t="s">
-        <v>2541</v>
+        <v>19</v>
       </c>
       <c r="C1527" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1527" t="s">
-        <v>2990</v>
+        <v>3006</v>
       </c>
       <c r="E1527" t="s">
         <v>3011</v>
       </c>
       <c r="O1527" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1527" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1528">
@@ -43151,19 +43139,22 @@
         <v>3012</v>
       </c>
       <c r="B1528" t="s">
-        <v>2541</v>
+        <v>19</v>
       </c>
       <c r="C1528" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D1528" t="s">
-        <v>2990</v>
+        <v>3006</v>
       </c>
       <c r="E1528" t="s">
         <v>3013</v>
       </c>
       <c r="O1528" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1528" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1529">
@@ -43171,19 +43162,19 @@
         <v>3014</v>
       </c>
       <c r="B1529" t="s">
-        <v>2541</v>
+        <v>19</v>
       </c>
       <c r="C1529" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1529" t="s">
-        <v>2990</v>
+        <v>3006</v>
       </c>
       <c r="E1529" t="s">
         <v>3015</v>
       </c>
       <c r="O1529" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1530">
@@ -43194,299 +43185,338 @@
         <v>19</v>
       </c>
       <c r="C1530" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D1530" t="s">
-        <v>21</v>
+        <v>3006</v>
       </c>
       <c r="E1530" t="s">
-        <v>85</v>
+        <v>3017</v>
+      </c>
+      <c r="O1530" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="B1531" t="s">
         <v>19</v>
       </c>
       <c r="C1531" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D1531" t="s">
-        <v>21</v>
+        <v>3006</v>
       </c>
       <c r="E1531" t="s">
-        <v>76</v>
+        <v>3019</v>
+      </c>
+      <c r="O1531" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="B1532" t="s">
         <v>19</v>
       </c>
       <c r="C1532" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D1532" t="s">
-        <v>21</v>
+        <v>3006</v>
       </c>
       <c r="E1532" t="s">
-        <v>3019</v>
+        <v>3021</v>
+      </c>
+      <c r="O1532" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1532" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="B1533" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1533" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="D1533" t="s">
-        <v>202</v>
+        <v>3006</v>
       </c>
       <c r="E1533" t="s">
-        <v>3021</v>
+        <v>3023</v>
+      </c>
+      <c r="O1533" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1533" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="B1534" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1534" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1534" t="s">
-        <v>360</v>
+        <v>3006</v>
       </c>
       <c r="E1534" t="s">
-        <v>3023</v>
+        <v>3025</v>
+      </c>
+      <c r="O1534" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1534" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="B1535" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1535" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D1535" t="s">
-        <v>602</v>
+        <v>3006</v>
       </c>
       <c r="E1535" t="s">
-        <v>3025</v>
+        <v>3027</v>
+      </c>
+      <c r="O1535" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1535" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="B1536" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1536" t="s">
         <v>84</v>
       </c>
       <c r="D1536" t="s">
-        <v>602</v>
+        <v>3006</v>
       </c>
       <c r="E1536" t="s">
-        <v>3025</v>
+        <v>3029</v>
+      </c>
+      <c r="O1536" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>3027</v>
+        <v>3030</v>
       </c>
       <c r="B1537" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1537" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D1537" t="s">
-        <v>602</v>
+        <v>3006</v>
       </c>
       <c r="E1537" t="s">
-        <v>2182</v>
+        <v>3031</v>
+      </c>
+      <c r="O1537" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="s">
-        <v>3028</v>
+        <v>3032</v>
       </c>
       <c r="B1538" t="s">
-        <v>19</v>
+        <v>2541</v>
       </c>
       <c r="C1538" t="s">
         <v>116</v>
       </c>
       <c r="D1538" t="s">
-        <v>602</v>
+        <v>3006</v>
       </c>
       <c r="E1538" t="s">
-        <v>3025</v>
+        <v>3033</v>
+      </c>
+      <c r="O1538" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="s">
-        <v>3029</v>
+        <v>3034</v>
       </c>
       <c r="B1539" t="s">
         <v>19</v>
       </c>
       <c r="C1539" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1539" t="s">
-        <v>795</v>
+        <v>21</v>
       </c>
       <c r="E1539" t="s">
-        <v>3030</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="B1540" t="s">
         <v>19</v>
       </c>
       <c r="C1540" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D1540" t="s">
-        <v>938</v>
+        <v>21</v>
       </c>
       <c r="E1540" t="s">
-        <v>3032</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="B1541" t="s">
         <v>19</v>
       </c>
       <c r="C1541" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1541" t="s">
-        <v>1204</v>
+        <v>21</v>
       </c>
       <c r="E1541" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="B1542" t="s">
         <v>19</v>
       </c>
       <c r="C1542" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D1542" t="s">
-        <v>1693</v>
+        <v>202</v>
       </c>
       <c r="E1542" t="s">
-        <v>1611</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="s">
-        <v>3036</v>
+        <v>3040</v>
       </c>
       <c r="B1543" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1543" t="s">
         <v>73</v>
       </c>
       <c r="D1543" t="s">
-        <v>2157</v>
+        <v>360</v>
       </c>
       <c r="E1543" t="s">
-        <v>3037</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="s">
-        <v>3038</v>
+        <v>3042</v>
       </c>
       <c r="B1544" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1544" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D1544" t="s">
-        <v>2157</v>
+        <v>602</v>
       </c>
       <c r="E1544" t="s">
-        <v>3039</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="s">
-        <v>3040</v>
+        <v>3044</v>
       </c>
       <c r="B1545" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1545" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1545" t="s">
-        <v>2266</v>
+        <v>602</v>
       </c>
       <c r="E1545" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="B1546" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1546" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D1546" t="s">
-        <v>2356</v>
+        <v>602</v>
       </c>
       <c r="E1546" t="s">
-        <v>3043</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="B1547" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1547" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D1547" t="s">
-        <v>2356</v>
+        <v>602</v>
       </c>
       <c r="E1547" t="s">
         <v>3043</v>
@@ -43494,109 +43524,109 @@
     </row>
     <row r="1548">
       <c r="A1548" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="B1548" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1548" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D1548" t="s">
-        <v>2356</v>
+        <v>795</v>
       </c>
       <c r="E1548" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="B1549" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1549" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D1549" t="s">
-        <v>2356</v>
+        <v>938</v>
       </c>
       <c r="E1549" t="s">
-        <v>3048</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="B1550" t="s">
         <v>19</v>
       </c>
       <c r="C1550" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D1550" t="s">
-        <v>2546</v>
+        <v>1204</v>
       </c>
       <c r="E1550" t="s">
-        <v>3050</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="B1551" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1551" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D1551" t="s">
-        <v>2620</v>
+        <v>1693</v>
       </c>
       <c r="E1551" t="s">
-        <v>2669</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="B1552" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1552" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D1552" t="s">
-        <v>2690</v>
+        <v>2157</v>
       </c>
       <c r="E1552" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="B1553" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1553" t="s">
         <v>116</v>
       </c>
       <c r="D1553" t="s">
-        <v>2690</v>
+        <v>2157</v>
       </c>
       <c r="E1553" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="s">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="B1554" t="s">
         <v>126</v>
@@ -43605,146 +43635,146 @@
         <v>116</v>
       </c>
       <c r="D1554" t="s">
-        <v>2690</v>
+        <v>2266</v>
       </c>
       <c r="E1554" t="s">
-        <v>2721</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="s">
-        <v>3057</v>
+        <v>3060</v>
       </c>
       <c r="B1555" t="s">
         <v>126</v>
       </c>
       <c r="C1555" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D1555" t="s">
-        <v>2690</v>
+        <v>2356</v>
       </c>
       <c r="E1555" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="s">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="B1556" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1556" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D1556" t="s">
-        <v>2766</v>
+        <v>2356</v>
       </c>
       <c r="E1556" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="B1557" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1557" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D1557" t="s">
-        <v>2813</v>
+        <v>2356</v>
       </c>
       <c r="E1557" t="s">
-        <v>3062</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="s">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="B1558" t="s">
         <v>126</v>
       </c>
       <c r="C1558" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1558" t="s">
-        <v>2813</v>
+        <v>2356</v>
       </c>
       <c r="E1558" t="s">
-        <v>3064</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
       <c r="B1559" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1559" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1559" t="s">
-        <v>2813</v>
+        <v>2546</v>
       </c>
       <c r="E1559" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="s">
-        <v>3067</v>
+        <v>3069</v>
       </c>
       <c r="B1560" t="s">
         <v>126</v>
       </c>
       <c r="C1560" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D1560" t="s">
-        <v>2813</v>
+        <v>2620</v>
       </c>
       <c r="E1560" t="s">
-        <v>3068</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="B1561" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1561" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1561" t="s">
-        <v>2929</v>
+        <v>2690</v>
       </c>
       <c r="E1561" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="B1562" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1562" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D1562" t="s">
-        <v>2990</v>
+        <v>2690</v>
       </c>
       <c r="E1562" t="s">
-        <v>3072</v>
+        <v>2723</v>
       </c>
     </row>
   </sheetData>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10445" uniqueCount="3073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10446" uniqueCount="3073">
   <si>
     <t>Vehicles</t>
   </si>
@@ -19984,6 +19984,9 @@
       <c r="E490" t="s">
         <v>979</v>
       </c>
+      <c r="G490" t="s">
+        <v>23</v>
+      </c>
       <c r="H490" t="s">
         <v>23</v>
       </c>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10446" uniqueCount="3073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10448" uniqueCount="3073">
   <si>
     <t>Vehicles</t>
   </si>
@@ -21508,6 +21508,9 @@
       <c r="K556" t="s">
         <v>48</v>
       </c>
+      <c r="L556" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -22961,6 +22964,9 @@
         <v>48</v>
       </c>
       <c r="K619" t="s">
+        <v>48</v>
+      </c>
+      <c r="L619" t="s">
         <v>48</v>
       </c>
     </row>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10461" uniqueCount="3077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10476" uniqueCount="3083">
   <si>
     <t>Vehicles</t>
   </si>
@@ -9146,6 +9146,12 @@
     <t>cn_type_95_ha_go</t>
   </si>
   <si>
+    <t>germ_sdkfz_251_10</t>
+  </si>
+  <si>
+    <t>m.Schütz.Pz.Wg. (Sd.Kfz.251/10)</t>
+  </si>
+  <si>
     <t>sw_strv_m39_td</t>
   </si>
   <si>
@@ -9194,6 +9200,12 @@
     <t>G8N1 Renzan</t>
   </si>
   <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
     <t>b-17g</t>
   </si>
   <si>
@@ -9243,6 +9255,12 @@
   </si>
   <si>
     <t>md_460_usa</t>
+  </si>
+  <si>
+    <t>us_merkava_mk_3d</t>
+  </si>
+  <si>
+    <t>Merkava Mk.3D</t>
   </si>
 </sst>
 </file>
@@ -9289,7 +9307,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" ref="A2:P1564" displayName="Test_Table" name="Test">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" ref="A2:P1567" displayName="Test_Table" name="Test">
   <tableColumns count="16">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Type"/>
@@ -9314,7 +9332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1564"/>
+  <dimension ref="A1:P1567"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -43515,7 +43533,7 @@
         <v>19</v>
       </c>
       <c r="C1545" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D1545" t="s">
         <v>21</v>
@@ -43532,10 +43550,10 @@
         <v>19</v>
       </c>
       <c r="C1546" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D1546" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="E1546" t="s">
         <v>3047</v>
@@ -43549,10 +43567,10 @@
         <v>19</v>
       </c>
       <c r="C1547" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1547" t="s">
-        <v>602</v>
+        <v>202</v>
       </c>
       <c r="E1547" t="s">
         <v>3049</v>
@@ -43566,18 +43584,18 @@
         <v>19</v>
       </c>
       <c r="C1548" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1548" t="s">
         <v>602</v>
       </c>
       <c r="E1548" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="B1549" t="s">
         <v>19</v>
@@ -43589,41 +43607,41 @@
         <v>602</v>
       </c>
       <c r="E1549" t="s">
-        <v>2190</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="B1550" t="s">
         <v>19</v>
       </c>
       <c r="C1550" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1550" t="s">
         <v>602</v>
       </c>
       <c r="E1550" t="s">
-        <v>3049</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="B1551" t="s">
         <v>19</v>
       </c>
       <c r="C1551" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1551" t="s">
-        <v>795</v>
+        <v>602</v>
       </c>
       <c r="E1551" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1552">
@@ -43634,10 +43652,10 @@
         <v>19</v>
       </c>
       <c r="C1552" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D1552" t="s">
-        <v>1208</v>
+        <v>795</v>
       </c>
       <c r="E1552" t="s">
         <v>3056</v>
@@ -43654,27 +43672,27 @@
         <v>107</v>
       </c>
       <c r="D1553" t="s">
-        <v>1701</v>
+        <v>1208</v>
       </c>
       <c r="E1553" t="s">
-        <v>1619</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="B1554" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1554" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D1554" t="s">
-        <v>2165</v>
+        <v>1701</v>
       </c>
       <c r="E1554" t="s">
-        <v>3059</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1555">
@@ -43685,7 +43703,7 @@
         <v>126</v>
       </c>
       <c r="C1555" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D1555" t="s">
         <v>2165</v>
@@ -43702,10 +43720,10 @@
         <v>126</v>
       </c>
       <c r="C1556" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1556" t="s">
-        <v>2274</v>
+        <v>2165</v>
       </c>
       <c r="E1556" t="s">
         <v>3063</v>
@@ -43719,10 +43737,10 @@
         <v>126</v>
       </c>
       <c r="C1557" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1557" t="s">
-        <v>2364</v>
+        <v>2165</v>
       </c>
       <c r="E1557" t="s">
         <v>3065</v>
@@ -43736,47 +43754,47 @@
         <v>126</v>
       </c>
       <c r="C1558" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D1558" t="s">
-        <v>2364</v>
+        <v>2274</v>
       </c>
       <c r="E1558" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="B1559" t="s">
         <v>126</v>
       </c>
       <c r="C1559" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D1559" t="s">
         <v>2364</v>
       </c>
       <c r="E1559" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="B1560" t="s">
         <v>126</v>
       </c>
       <c r="C1560" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1560" t="s">
         <v>2364</v>
       </c>
       <c r="E1560" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1561">
@@ -43784,13 +43802,13 @@
         <v>3071</v>
       </c>
       <c r="B1561" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1561" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D1561" t="s">
-        <v>2554</v>
+        <v>2364</v>
       </c>
       <c r="E1561" t="s">
         <v>3072</v>
@@ -43804,47 +43822,98 @@
         <v>126</v>
       </c>
       <c r="C1562" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1562" t="s">
-        <v>2630</v>
+        <v>2364</v>
       </c>
       <c r="E1562" t="s">
-        <v>2677</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="B1563" t="s">
         <v>19</v>
       </c>
       <c r="C1563" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D1563" t="s">
-        <v>2698</v>
+        <v>2554</v>
       </c>
       <c r="E1563" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="B1564" t="s">
         <v>126</v>
       </c>
       <c r="C1564" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1565" t="s">
         <v>116</v>
       </c>
-      <c r="D1564" t="s">
+      <c r="D1565" t="s">
         <v>2698</v>
       </c>
-      <c r="E1564" t="s">
+      <c r="E1565" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E1566" t="s">
         <v>2731</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>3082</v>
       </c>
     </row>
   </sheetData>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10476" uniqueCount="3083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10475" uniqueCount="3083">
   <si>
     <t>Vehicles</t>
   </si>
@@ -33409,9 +33409,6 @@
       <c r="K1087" t="s">
         <v>23</v>
       </c>
-      <c r="L1087" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="1088">
       <c r="A1088" t="s">

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10477" uniqueCount="3083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10478" uniqueCount="3083">
   <si>
     <t>Vehicles</t>
   </si>
@@ -6827,6 +6827,12 @@
     <t>Yak-15P</t>
   </si>
   <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
     <t>saab_j21ra</t>
   </si>
   <si>
@@ -9204,12 +9210,6 @@
   </si>
   <si>
     <t>G8N1 Renzan</t>
-  </si>
-  <si>
-    <t>bi</t>
-  </si>
-  <si>
-    <t>BI</t>
   </si>
   <si>
     <t>b-17g</t>
@@ -34984,7 +34984,7 @@
         <v>128</v>
       </c>
       <c r="C1157" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1157" t="s">
         <v>2167</v>
@@ -34993,7 +34993,7 @@
         <v>2272</v>
       </c>
       <c r="M1157" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1158">
@@ -35021,22 +35021,16 @@
         <v>2275</v>
       </c>
       <c r="B1159" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1159" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D1159" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E1159" t="s">
         <v>2276</v>
-      </c>
-      <c r="E1159" t="s">
-        <v>2277</v>
-      </c>
-      <c r="K1159" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1159" t="s">
-        <v>48</v>
       </c>
       <c r="M1159" t="s">
         <v>48</v>
@@ -35044,7 +35038,7 @@
     </row>
     <row r="1160">
       <c r="A1160" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B1160" t="s">
         <v>19</v>
@@ -35053,15 +35047,18 @@
         <v>29</v>
       </c>
       <c r="D1160" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1160" t="s">
         <v>2279</v>
       </c>
+      <c r="K1160" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1160" t="s">
+        <v>48</v>
+      </c>
       <c r="M1160" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1160" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35073,21 +35070,18 @@
         <v>19</v>
       </c>
       <c r="C1161" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D1161" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1161" t="s">
         <v>2281</v>
       </c>
-      <c r="K1161" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1161" t="s">
-        <v>48</v>
-      </c>
       <c r="M1161" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1161" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35102,10 +35096,13 @@
         <v>75</v>
       </c>
       <c r="D1162" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1162" t="s">
         <v>2283</v>
+      </c>
+      <c r="K1162" t="s">
+        <v>48</v>
       </c>
       <c r="L1162" t="s">
         <v>48</v>
@@ -35125,10 +35122,13 @@
         <v>75</v>
       </c>
       <c r="D1163" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1163" t="s">
         <v>2285</v>
+      </c>
+      <c r="L1163" t="s">
+        <v>48</v>
       </c>
       <c r="M1163" t="s">
         <v>48</v>
@@ -35142,19 +35142,16 @@
         <v>19</v>
       </c>
       <c r="C1164" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1164" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1164" t="s">
         <v>2287</v>
       </c>
-      <c r="K1164" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1164" t="s">
-        <v>23</v>
+      <c r="M1164" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1165">
@@ -35165,19 +35162,19 @@
         <v>19</v>
       </c>
       <c r="C1165" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1165" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1165" t="s">
         <v>2289</v>
       </c>
+      <c r="K1165" t="s">
+        <v>23</v>
+      </c>
       <c r="L1165" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1165" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1166">
@@ -35188,10 +35185,10 @@
         <v>19</v>
       </c>
       <c r="C1166" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1166" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1166" t="s">
         <v>2291</v>
@@ -35200,9 +35197,6 @@
         <v>48</v>
       </c>
       <c r="M1166" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1166" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35217,12 +35211,18 @@
         <v>109</v>
       </c>
       <c r="D1167" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1167" t="s">
         <v>2293</v>
       </c>
+      <c r="L1167" t="s">
+        <v>48</v>
+      </c>
       <c r="M1167" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1167" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35237,15 +35237,12 @@
         <v>109</v>
       </c>
       <c r="D1168" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1168" t="s">
         <v>2295</v>
       </c>
-      <c r="N1168" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1168" t="s">
+      <c r="M1168" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35257,18 +35254,18 @@
         <v>19</v>
       </c>
       <c r="C1169" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1169" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1169" t="s">
         <v>2297</v>
       </c>
-      <c r="L1169" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1169" t="s">
+      <c r="N1169" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1169" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35277,21 +35274,21 @@
         <v>2298</v>
       </c>
       <c r="B1170" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1170" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1170" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1170" t="s">
         <v>2299</v>
       </c>
+      <c r="L1170" t="s">
+        <v>48</v>
+      </c>
       <c r="M1170" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1170" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35306,7 +35303,7 @@
         <v>46</v>
       </c>
       <c r="D1171" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1171" t="s">
         <v>2301</v>
@@ -35326,10 +35323,10 @@
         <v>128</v>
       </c>
       <c r="C1172" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D1172" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1172" t="s">
         <v>2303</v>
@@ -35338,9 +35335,6 @@
         <v>48</v>
       </c>
       <c r="N1172" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1172" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35352,19 +35346,22 @@
         <v>128</v>
       </c>
       <c r="C1173" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1173" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1173" t="s">
         <v>2305</v>
       </c>
       <c r="M1173" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N1173" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="O1173" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1174">
@@ -35375,19 +35372,19 @@
         <v>128</v>
       </c>
       <c r="C1174" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D1174" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1174" t="s">
         <v>2307</v>
       </c>
       <c r="M1174" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N1174" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1175">
@@ -35398,18 +35395,18 @@
         <v>128</v>
       </c>
       <c r="C1175" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1175" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1175" t="s">
         <v>2309</v>
       </c>
-      <c r="L1175" t="s">
-        <v>48</v>
-      </c>
       <c r="M1175" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1175" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35424,15 +35421,15 @@
         <v>118</v>
       </c>
       <c r="D1176" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1176" t="s">
         <v>2311</v>
       </c>
+      <c r="L1176" t="s">
+        <v>48</v>
+      </c>
       <c r="M1176" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1176" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35447,7 +35444,7 @@
         <v>118</v>
       </c>
       <c r="D1177" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1177" t="s">
         <v>2313</v>
@@ -35464,24 +35461,27 @@
         <v>2314</v>
       </c>
       <c r="B1178" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1178" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1178" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E1178" t="s">
         <v>2315</v>
       </c>
-      <c r="E1178" t="s">
-        <v>2316</v>
-      </c>
       <c r="M1178" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="N1178" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B1179" t="s">
         <v>19</v>
@@ -35490,12 +35490,12 @@
         <v>20</v>
       </c>
       <c r="D1179" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1179" t="s">
         <v>2318</v>
       </c>
-      <c r="N1179" t="s">
+      <c r="M1179" t="s">
         <v>23</v>
       </c>
     </row>
@@ -35507,19 +35507,16 @@
         <v>19</v>
       </c>
       <c r="C1180" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1180" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1180" t="s">
         <v>2320</v>
       </c>
-      <c r="K1180" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1180" t="s">
-        <v>48</v>
+      <c r="N1180" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1181">
@@ -35533,18 +35530,15 @@
         <v>29</v>
       </c>
       <c r="D1181" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1181" t="s">
         <v>2322</v>
       </c>
+      <c r="K1181" t="s">
+        <v>23</v>
+      </c>
       <c r="L1181" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1181" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1181" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35559,7 +35553,7 @@
         <v>29</v>
       </c>
       <c r="D1182" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1182" t="s">
         <v>2324</v>
@@ -35568,6 +35562,9 @@
         <v>48</v>
       </c>
       <c r="M1182" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1182" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35579,10 +35576,10 @@
         <v>19</v>
       </c>
       <c r="C1183" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1183" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1183" t="s">
         <v>2326</v>
@@ -35605,7 +35602,7 @@
         <v>46</v>
       </c>
       <c r="D1184" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1184" t="s">
         <v>2328</v>
@@ -35628,12 +35625,15 @@
         <v>46</v>
       </c>
       <c r="D1185" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1185" t="s">
         <v>2330</v>
       </c>
-      <c r="N1185" t="s">
+      <c r="L1185" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1185" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35645,18 +35645,15 @@
         <v>19</v>
       </c>
       <c r="C1186" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1186" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1186" t="s">
         <v>2332</v>
       </c>
-      <c r="L1186" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1186" t="s">
+      <c r="N1186" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35671,7 +35668,7 @@
         <v>62</v>
       </c>
       <c r="D1187" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1187" t="s">
         <v>2334</v>
@@ -35680,9 +35677,6 @@
         <v>48</v>
       </c>
       <c r="M1187" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1187" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35694,19 +35688,22 @@
         <v>19</v>
       </c>
       <c r="C1188" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D1188" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1188" t="s">
         <v>2336</v>
       </c>
       <c r="L1188" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M1188" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="N1188" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1189">
@@ -35720,7 +35717,7 @@
         <v>86</v>
       </c>
       <c r="D1189" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1189" t="s">
         <v>2338</v>
@@ -35743,12 +35740,15 @@
         <v>86</v>
       </c>
       <c r="D1190" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1190" t="s">
         <v>2340</v>
       </c>
-      <c r="N1190" t="s">
+      <c r="L1190" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1190" t="s">
         <v>23</v>
       </c>
     </row>
@@ -35760,19 +35760,16 @@
         <v>19</v>
       </c>
       <c r="C1191" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D1191" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1191" t="s">
         <v>2342</v>
       </c>
-      <c r="M1191" t="s">
-        <v>48</v>
-      </c>
       <c r="N1191" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1192">
@@ -35783,18 +35780,18 @@
         <v>19</v>
       </c>
       <c r="C1192" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1192" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1192" t="s">
         <v>2344</v>
       </c>
-      <c r="L1192" t="s">
-        <v>48</v>
-      </c>
       <c r="M1192" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1192" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35809,12 +35806,15 @@
         <v>118</v>
       </c>
       <c r="D1193" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1193" t="s">
         <v>2346</v>
       </c>
       <c r="L1193" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1193" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35829,33 +35829,33 @@
         <v>118</v>
       </c>
       <c r="D1194" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1194" t="s">
-        <v>2316</v>
-      </c>
-      <c r="M1194" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L1194" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="B1195" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1195" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1195" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1195" t="s">
-        <v>2349</v>
+        <v>2318</v>
       </c>
       <c r="M1195" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1196">
@@ -35866,19 +35866,16 @@
         <v>128</v>
       </c>
       <c r="C1196" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1196" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1196" t="s">
         <v>2351</v>
       </c>
       <c r="M1196" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1196" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1197">
@@ -35889,10 +35886,10 @@
         <v>128</v>
       </c>
       <c r="C1197" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D1197" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1197" t="s">
         <v>2353</v>
@@ -35901,9 +35898,6 @@
         <v>48</v>
       </c>
       <c r="N1197" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1197" t="s">
         <v>48</v>
       </c>
     </row>
@@ -35915,42 +35909,45 @@
         <v>128</v>
       </c>
       <c r="C1198" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1198" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1198" t="s">
-        <v>2349</v>
+        <v>2355</v>
       </c>
       <c r="M1198" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N1198" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="O1198" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="B1199" t="s">
         <v>128</v>
       </c>
       <c r="C1199" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D1199" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1199" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="M1199" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N1199" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1200">
@@ -35964,10 +35961,13 @@
         <v>109</v>
       </c>
       <c r="D1200" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1200" t="s">
         <v>2358</v>
+      </c>
+      <c r="M1200" t="s">
+        <v>48</v>
       </c>
       <c r="N1200" t="s">
         <v>48</v>
@@ -35984,7 +35984,7 @@
         <v>109</v>
       </c>
       <c r="D1201" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1201" t="s">
         <v>2360</v>
@@ -36001,16 +36001,13 @@
         <v>128</v>
       </c>
       <c r="C1202" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1202" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1202" t="s">
         <v>2362</v>
-      </c>
-      <c r="M1202" t="s">
-        <v>48</v>
       </c>
       <c r="N1202" t="s">
         <v>48</v>
@@ -36027,7 +36024,7 @@
         <v>118</v>
       </c>
       <c r="D1203" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="E1203" t="s">
         <v>2364</v>
@@ -36044,30 +36041,27 @@
         <v>2365</v>
       </c>
       <c r="B1204" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1204" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1204" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E1204" t="s">
         <v>2366</v>
       </c>
-      <c r="E1204" t="s">
-        <v>2367</v>
-      </c>
       <c r="M1204" t="s">
         <v>48</v>
       </c>
       <c r="N1204" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1204" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1205" t="s">
         <v>19</v>
@@ -36076,7 +36070,7 @@
         <v>29</v>
       </c>
       <c r="D1205" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1205" t="s">
         <v>2369</v>
@@ -36085,6 +36079,9 @@
         <v>48</v>
       </c>
       <c r="N1205" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1205" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36096,15 +36093,18 @@
         <v>19</v>
       </c>
       <c r="C1206" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1206" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1206" t="s">
         <v>2371</v>
       </c>
-      <c r="L1206" t="s">
+      <c r="M1206" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1206" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36119,7 +36119,7 @@
         <v>46</v>
       </c>
       <c r="D1207" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1207" t="s">
         <v>2373</v>
@@ -36139,15 +36139,12 @@
         <v>46</v>
       </c>
       <c r="D1208" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1208" t="s">
         <v>2375</v>
       </c>
-      <c r="M1208" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1208" t="s">
+      <c r="L1208" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36162,7 +36159,7 @@
         <v>46</v>
       </c>
       <c r="D1209" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1209" t="s">
         <v>2377</v>
@@ -36182,10 +36179,10 @@
         <v>19</v>
       </c>
       <c r="C1210" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1210" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1210" t="s">
         <v>2379</v>
@@ -36208,10 +36205,13 @@
         <v>62</v>
       </c>
       <c r="D1211" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1211" t="s">
         <v>2381</v>
+      </c>
+      <c r="M1211" t="s">
+        <v>48</v>
       </c>
       <c r="N1211" t="s">
         <v>48</v>
@@ -36225,10 +36225,10 @@
         <v>19</v>
       </c>
       <c r="C1212" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1212" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1212" t="s">
         <v>2383</v>
@@ -36245,16 +36245,16 @@
         <v>19</v>
       </c>
       <c r="C1213" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1213" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1213" t="s">
         <v>2385</v>
       </c>
-      <c r="L1213" t="s">
-        <v>23</v>
+      <c r="N1213" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1214">
@@ -36268,7 +36268,7 @@
         <v>86</v>
       </c>
       <c r="D1214" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1214" t="s">
         <v>2387</v>
@@ -36288,15 +36288,12 @@
         <v>86</v>
       </c>
       <c r="D1215" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1215" t="s">
         <v>2389</v>
       </c>
       <c r="L1215" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1215" t="s">
         <v>23</v>
       </c>
     </row>
@@ -36311,7 +36308,7 @@
         <v>86</v>
       </c>
       <c r="D1216" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1216" t="s">
         <v>2391</v>
@@ -36334,10 +36331,13 @@
         <v>86</v>
       </c>
       <c r="D1217" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1217" t="s">
         <v>2393</v>
+      </c>
+      <c r="L1217" t="s">
+        <v>23</v>
       </c>
       <c r="M1217" t="s">
         <v>23</v>
@@ -36354,18 +36354,12 @@
         <v>86</v>
       </c>
       <c r="D1218" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1218" t="s">
         <v>2395</v>
       </c>
       <c r="M1218" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1218" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1218" t="s">
         <v>23</v>
       </c>
     </row>
@@ -36380,15 +36374,15 @@
         <v>86</v>
       </c>
       <c r="D1219" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1219" t="s">
         <v>2397</v>
       </c>
+      <c r="M1219" t="s">
+        <v>23</v>
+      </c>
       <c r="N1219" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1219" t="s">
         <v>23</v>
       </c>
       <c r="P1219" t="s">
@@ -36403,19 +36397,22 @@
         <v>19</v>
       </c>
       <c r="C1220" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1220" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1220" t="s">
         <v>2399</v>
       </c>
-      <c r="L1220" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1220" t="s">
-        <v>48</v>
+      <c r="N1220" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1220" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1220" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1221">
@@ -36429,10 +36426,13 @@
         <v>102</v>
       </c>
       <c r="D1221" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1221" t="s">
         <v>2401</v>
+      </c>
+      <c r="L1221" t="s">
+        <v>48</v>
       </c>
       <c r="M1221" t="s">
         <v>48</v>
@@ -36449,7 +36449,7 @@
         <v>102</v>
       </c>
       <c r="D1222" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1222" t="s">
         <v>2403</v>
@@ -36469,12 +36469,12 @@
         <v>102</v>
       </c>
       <c r="D1223" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1223" t="s">
         <v>2405</v>
       </c>
-      <c r="N1223" t="s">
+      <c r="M1223" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36486,18 +36486,15 @@
         <v>19</v>
       </c>
       <c r="C1224" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1224" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1224" t="s">
         <v>2407</v>
       </c>
-      <c r="L1224" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1224" t="s">
+      <c r="N1224" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36512,7 +36509,7 @@
         <v>109</v>
       </c>
       <c r="D1225" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1225" t="s">
         <v>2409</v>
@@ -36535,15 +36532,15 @@
         <v>109</v>
       </c>
       <c r="D1226" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1226" t="s">
         <v>2411</v>
       </c>
-      <c r="N1226" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1226" t="s">
+      <c r="L1226" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1226" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36555,15 +36552,18 @@
         <v>19</v>
       </c>
       <c r="C1227" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1227" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1227" t="s">
         <v>2413</v>
       </c>
-      <c r="L1227" t="s">
+      <c r="N1227" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1227" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36578,15 +36578,12 @@
         <v>118</v>
       </c>
       <c r="D1228" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1228" t="s">
         <v>2415</v>
       </c>
-      <c r="M1228" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1228" t="s">
+      <c r="L1228" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36601,7 +36598,7 @@
         <v>118</v>
       </c>
       <c r="D1229" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1229" t="s">
         <v>2417</v>
@@ -36624,12 +36621,15 @@
         <v>118</v>
       </c>
       <c r="D1230" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1230" t="s">
         <v>2419</v>
       </c>
       <c r="M1230" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1230" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36644,12 +36644,12 @@
         <v>118</v>
       </c>
       <c r="D1231" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1231" t="s">
         <v>2421</v>
       </c>
-      <c r="N1231" t="s">
+      <c r="M1231" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36658,19 +36658,19 @@
         <v>2422</v>
       </c>
       <c r="B1232" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1232" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1232" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1232" t="s">
         <v>2423</v>
       </c>
-      <c r="M1232" t="s">
-        <v>23</v>
+      <c r="N1232" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1233">
@@ -36681,19 +36681,16 @@
         <v>128</v>
       </c>
       <c r="C1233" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1233" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1233" t="s">
         <v>2425</v>
       </c>
       <c r="M1233" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1233" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1234">
@@ -36707,7 +36704,7 @@
         <v>29</v>
       </c>
       <c r="D1234" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1234" t="s">
         <v>2427</v>
@@ -36727,10 +36724,10 @@
         <v>128</v>
       </c>
       <c r="C1235" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1235" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1235" t="s">
         <v>2429</v>
@@ -36753,7 +36750,7 @@
         <v>46</v>
       </c>
       <c r="D1236" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1236" t="s">
         <v>2431</v>
@@ -36773,13 +36770,16 @@
         <v>128</v>
       </c>
       <c r="C1237" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1237" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1237" t="s">
         <v>2433</v>
+      </c>
+      <c r="M1237" t="s">
+        <v>48</v>
       </c>
       <c r="N1237" t="s">
         <v>48</v>
@@ -36793,21 +36793,15 @@
         <v>128</v>
       </c>
       <c r="C1238" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1238" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1238" t="s">
         <v>2435</v>
       </c>
-      <c r="M1238" t="s">
-        <v>48</v>
-      </c>
       <c r="N1238" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1238" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36819,19 +36813,22 @@
         <v>128</v>
       </c>
       <c r="C1239" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1239" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1239" t="s">
         <v>2437</v>
       </c>
       <c r="M1239" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N1239" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="O1239" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1240">
@@ -36845,7 +36842,7 @@
         <v>86</v>
       </c>
       <c r="D1240" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1240" t="s">
         <v>2439</v>
@@ -36854,9 +36851,6 @@
         <v>23</v>
       </c>
       <c r="N1240" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1240" t="s">
         <v>23</v>
       </c>
     </row>
@@ -36868,16 +36862,22 @@
         <v>128</v>
       </c>
       <c r="C1241" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1241" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1241" t="s">
         <v>2441</v>
       </c>
       <c r="M1241" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="N1241" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1241" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1242">
@@ -36888,18 +36888,15 @@
         <v>128</v>
       </c>
       <c r="C1242" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1242" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1242" t="s">
         <v>2443</v>
       </c>
       <c r="M1242" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1242" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36914,10 +36911,13 @@
         <v>109</v>
       </c>
       <c r="D1243" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1243" t="s">
         <v>2445</v>
+      </c>
+      <c r="M1243" t="s">
+        <v>48</v>
       </c>
       <c r="N1243" t="s">
         <v>48</v>
@@ -36931,16 +36931,13 @@
         <v>128</v>
       </c>
       <c r="C1244" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1244" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1244" t="s">
         <v>2447</v>
-      </c>
-      <c r="M1244" t="s">
-        <v>48</v>
       </c>
       <c r="N1244" t="s">
         <v>48</v>
@@ -36951,27 +36948,27 @@
         <v>2448</v>
       </c>
       <c r="B1245" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1245" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1245" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E1245" t="s">
         <v>2449</v>
       </c>
-      <c r="E1245" t="s">
-        <v>2450</v>
-      </c>
       <c r="M1245" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N1245" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B1246" t="s">
         <v>19</v>
@@ -36980,7 +36977,7 @@
         <v>20</v>
       </c>
       <c r="D1246" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1246" t="s">
         <v>2452</v>
@@ -36989,9 +36986,6 @@
         <v>23</v>
       </c>
       <c r="N1246" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1246" t="s">
         <v>23</v>
       </c>
     </row>
@@ -37006,12 +37000,18 @@
         <v>20</v>
       </c>
       <c r="D1247" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1247" t="s">
         <v>2454</v>
       </c>
+      <c r="M1247" t="s">
+        <v>23</v>
+      </c>
       <c r="N1247" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1247" t="s">
         <v>23</v>
       </c>
     </row>
@@ -37026,7 +37026,7 @@
         <v>20</v>
       </c>
       <c r="D1248" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1248" t="s">
         <v>2456</v>
@@ -37043,22 +37043,16 @@
         <v>19</v>
       </c>
       <c r="C1249" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1249" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1249" t="s">
         <v>2458</v>
       </c>
-      <c r="L1249" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1249" t="s">
-        <v>48</v>
-      </c>
       <c r="N1249" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1250">
@@ -37072,7 +37066,7 @@
         <v>29</v>
       </c>
       <c r="D1250" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1250" t="s">
         <v>2460</v>
@@ -37098,15 +37092,18 @@
         <v>29</v>
       </c>
       <c r="D1251" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1251" t="s">
         <v>2462</v>
       </c>
+      <c r="L1251" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1251" t="s">
+        <v>48</v>
+      </c>
       <c r="N1251" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1251" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37121,15 +37118,12 @@
         <v>29</v>
       </c>
       <c r="D1252" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1252" t="s">
         <v>2464</v>
       </c>
       <c r="N1252" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1252" t="s">
         <v>48</v>
       </c>
       <c r="P1252" t="s">
@@ -37144,15 +37138,18 @@
         <v>19</v>
       </c>
       <c r="C1253" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1253" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1253" t="s">
         <v>2466</v>
       </c>
       <c r="N1253" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1253" t="s">
         <v>48</v>
       </c>
       <c r="P1253" t="s">
@@ -37167,16 +37164,13 @@
         <v>19</v>
       </c>
       <c r="C1254" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1254" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1254" t="s">
         <v>2468</v>
-      </c>
-      <c r="M1254" t="s">
-        <v>48</v>
       </c>
       <c r="N1254" t="s">
         <v>48</v>
@@ -37196,12 +37190,18 @@
         <v>62</v>
       </c>
       <c r="D1255" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1255" t="s">
         <v>2470</v>
       </c>
+      <c r="M1255" t="s">
+        <v>48</v>
+      </c>
       <c r="N1255" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1255" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37216,7 +37216,7 @@
         <v>62</v>
       </c>
       <c r="D1256" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1256" t="s">
         <v>2472</v>
@@ -37236,7 +37236,7 @@
         <v>62</v>
       </c>
       <c r="D1257" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1257" t="s">
         <v>2474</v>
@@ -37253,21 +37253,15 @@
         <v>19</v>
       </c>
       <c r="C1258" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1258" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1258" t="s">
         <v>2476</v>
       </c>
       <c r="N1258" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1258" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1258" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37279,19 +37273,22 @@
         <v>19</v>
       </c>
       <c r="C1259" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1259" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1259" t="s">
         <v>2478</v>
       </c>
       <c r="N1259" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="O1259" t="s">
+        <v>48</v>
       </c>
       <c r="P1259" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1260">
@@ -37305,15 +37302,12 @@
         <v>86</v>
       </c>
       <c r="D1260" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1260" t="s">
         <v>2480</v>
       </c>
       <c r="N1260" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1260" t="s">
         <v>23</v>
       </c>
       <c r="P1260" t="s">
@@ -37328,16 +37322,22 @@
         <v>19</v>
       </c>
       <c r="C1261" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1261" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1261" t="s">
         <v>2482</v>
       </c>
       <c r="N1261" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="O1261" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1261" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1262">
@@ -37351,7 +37351,7 @@
         <v>102</v>
       </c>
       <c r="D1262" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1262" t="s">
         <v>2484</v>
@@ -37368,21 +37368,15 @@
         <v>19</v>
       </c>
       <c r="C1263" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1263" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1263" t="s">
         <v>2486</v>
       </c>
       <c r="N1263" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1263" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1263" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37397,12 +37391,15 @@
         <v>109</v>
       </c>
       <c r="D1264" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1264" t="s">
         <v>2488</v>
       </c>
       <c r="N1264" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1264" t="s">
         <v>48</v>
       </c>
       <c r="P1264" t="s">
@@ -37417,18 +37414,18 @@
         <v>19</v>
       </c>
       <c r="C1265" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1265" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1265" t="s">
         <v>2490</v>
       </c>
-      <c r="M1265" t="s">
-        <v>48</v>
-      </c>
       <c r="N1265" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1265" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37443,15 +37440,15 @@
         <v>118</v>
       </c>
       <c r="D1266" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1266" t="s">
         <v>2492</v>
       </c>
+      <c r="M1266" t="s">
+        <v>48</v>
+      </c>
       <c r="N1266" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1266" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37466,15 +37463,12 @@
         <v>118</v>
       </c>
       <c r="D1267" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1267" t="s">
         <v>2494</v>
       </c>
       <c r="N1267" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1267" t="s">
         <v>48</v>
       </c>
       <c r="P1267" t="s">
@@ -37492,7 +37486,7 @@
         <v>118</v>
       </c>
       <c r="D1268" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1268" t="s">
         <v>2496</v>
@@ -37518,12 +37512,15 @@
         <v>118</v>
       </c>
       <c r="D1269" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1269" t="s">
         <v>2498</v>
       </c>
       <c r="N1269" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1269" t="s">
         <v>48</v>
       </c>
       <c r="P1269" t="s">
@@ -37541,12 +37538,15 @@
         <v>118</v>
       </c>
       <c r="D1270" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1270" t="s">
         <v>2500</v>
       </c>
       <c r="N1270" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1270" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37555,25 +37555,19 @@
         <v>2501</v>
       </c>
       <c r="B1271" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1271" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1271" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1271" t="s">
         <v>2502</v>
       </c>
-      <c r="M1271" t="s">
-        <v>23</v>
-      </c>
       <c r="N1271" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1271" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1272">
@@ -37587,10 +37581,13 @@
         <v>20</v>
       </c>
       <c r="D1272" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1272" t="s">
         <v>2504</v>
+      </c>
+      <c r="M1272" t="s">
+        <v>23</v>
       </c>
       <c r="N1272" t="s">
         <v>23</v>
@@ -37607,22 +37604,19 @@
         <v>128</v>
       </c>
       <c r="C1273" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1273" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1273" t="s">
         <v>2506</v>
       </c>
-      <c r="M1273" t="s">
-        <v>48</v>
-      </c>
       <c r="N1273" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1273" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1274">
@@ -37633,10 +37627,10 @@
         <v>128</v>
       </c>
       <c r="C1274" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1274" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1274" t="s">
         <v>2508</v>
@@ -37645,6 +37639,9 @@
         <v>48</v>
       </c>
       <c r="N1274" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1274" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37659,7 +37656,7 @@
         <v>46</v>
       </c>
       <c r="D1275" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1275" t="s">
         <v>2510</v>
@@ -37682,15 +37679,15 @@
         <v>46</v>
       </c>
       <c r="D1276" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1276" t="s">
         <v>2512</v>
       </c>
+      <c r="M1276" t="s">
+        <v>48</v>
+      </c>
       <c r="N1276" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1276" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37705,10 +37702,13 @@
         <v>46</v>
       </c>
       <c r="D1277" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1277" t="s">
         <v>2514</v>
+      </c>
+      <c r="N1277" t="s">
+        <v>48</v>
       </c>
       <c r="O1277" t="s">
         <v>48</v>
@@ -37722,19 +37722,13 @@
         <v>128</v>
       </c>
       <c r="C1278" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1278" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1278" t="s">
-        <v>2502</v>
-      </c>
-      <c r="M1278" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1278" t="s">
-        <v>48</v>
+        <v>2516</v>
       </c>
       <c r="O1278" t="s">
         <v>48</v>
@@ -37742,24 +37736,27 @@
     </row>
     <row r="1279">
       <c r="A1279" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="B1279" t="s">
         <v>128</v>
       </c>
       <c r="C1279" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1279" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1279" t="s">
-        <v>2517</v>
+        <v>2504</v>
       </c>
       <c r="M1279" t="s">
         <v>48</v>
       </c>
       <c r="N1279" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1279" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37771,24 +37768,24 @@
         <v>128</v>
       </c>
       <c r="C1280" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1280" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1280" t="s">
-        <v>2512</v>
+        <v>2519</v>
+      </c>
+      <c r="M1280" t="s">
+        <v>48</v>
       </c>
       <c r="N1280" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1280" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B1281" t="s">
         <v>128</v>
@@ -37797,10 +37794,10 @@
         <v>86</v>
       </c>
       <c r="D1281" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1281" t="s">
-        <v>2520</v>
+        <v>2514</v>
       </c>
       <c r="N1281" t="s">
         <v>23</v>
@@ -37820,7 +37817,7 @@
         <v>86</v>
       </c>
       <c r="D1282" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1282" t="s">
         <v>2522</v>
@@ -37843,7 +37840,7 @@
         <v>86</v>
       </c>
       <c r="D1283" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1283" t="s">
         <v>2524</v>
@@ -37866,7 +37863,7 @@
         <v>86</v>
       </c>
       <c r="D1284" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1284" t="s">
         <v>2526</v>
@@ -37889,7 +37886,7 @@
         <v>86</v>
       </c>
       <c r="D1285" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1285" t="s">
         <v>2528</v>
@@ -37912,7 +37909,7 @@
         <v>86</v>
       </c>
       <c r="D1286" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1286" t="s">
         <v>2530</v>
@@ -37932,19 +37929,19 @@
         <v>128</v>
       </c>
       <c r="C1287" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1287" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1287" t="s">
         <v>2532</v>
       </c>
       <c r="N1287" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1287" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1288">
@@ -37955,15 +37952,18 @@
         <v>128</v>
       </c>
       <c r="C1288" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1288" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1288" t="s">
         <v>2534</v>
       </c>
       <c r="N1288" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1288" t="s">
         <v>48</v>
       </c>
     </row>
@@ -37978,15 +37978,12 @@
         <v>109</v>
       </c>
       <c r="D1289" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1289" t="s">
         <v>2536</v>
       </c>
       <c r="N1289" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1289" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38001,7 +37998,7 @@
         <v>109</v>
       </c>
       <c r="D1290" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1290" t="s">
         <v>2538</v>
@@ -38024,12 +38021,15 @@
         <v>109</v>
       </c>
       <c r="D1291" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1291" t="s">
         <v>2540</v>
       </c>
       <c r="N1291" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1291" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38044,15 +38044,12 @@
         <v>109</v>
       </c>
       <c r="D1292" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1292" t="s">
         <v>2542</v>
       </c>
       <c r="N1292" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1292" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38064,18 +38061,18 @@
         <v>128</v>
       </c>
       <c r="C1293" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1293" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1293" t="s">
         <v>2544</v>
       </c>
-      <c r="M1293" t="s">
-        <v>48</v>
-      </c>
       <c r="N1293" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1293" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38090,24 +38087,21 @@
         <v>118</v>
       </c>
       <c r="D1294" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1294" t="s">
-        <v>2502</v>
+        <v>2546</v>
       </c>
       <c r="M1294" t="s">
         <v>48</v>
       </c>
       <c r="N1294" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1294" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="B1295" t="s">
         <v>128</v>
@@ -38116,12 +38110,18 @@
         <v>118</v>
       </c>
       <c r="D1295" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1295" t="s">
-        <v>2547</v>
+        <v>2504</v>
+      </c>
+      <c r="M1295" t="s">
+        <v>48</v>
       </c>
       <c r="N1295" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1295" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38136,15 +38136,12 @@
         <v>118</v>
       </c>
       <c r="D1296" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1296" t="s">
         <v>2549</v>
       </c>
       <c r="N1296" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1296" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38153,41 +38150,41 @@
         <v>2550</v>
       </c>
       <c r="B1297" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E1297" t="s">
         <v>2551</v>
       </c>
-      <c r="C1297" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1297" t="s">
-        <v>2449</v>
-      </c>
-      <c r="E1297" t="s">
-        <v>2552</v>
-      </c>
       <c r="N1297" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1297" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1298" t="s">
         <v>2553</v>
       </c>
-      <c r="B1298" t="s">
-        <v>2551</v>
-      </c>
       <c r="C1298" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D1298" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1298" t="s">
         <v>2554</v>
       </c>
       <c r="N1298" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1298" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38196,24 +38193,27 @@
         <v>2555</v>
       </c>
       <c r="B1299" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1299" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1299" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E1299" t="s">
         <v>2556</v>
       </c>
-      <c r="E1299" t="s">
-        <v>2557</v>
-      </c>
       <c r="N1299" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1299" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B1300" t="s">
         <v>19</v>
@@ -38222,15 +38222,12 @@
         <v>20</v>
       </c>
       <c r="D1300" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1300" t="s">
         <v>2559</v>
       </c>
       <c r="N1300" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1300" t="s">
         <v>23</v>
       </c>
     </row>
@@ -38242,19 +38239,19 @@
         <v>19</v>
       </c>
       <c r="C1301" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1301" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1301" t="s">
         <v>2561</v>
       </c>
       <c r="N1301" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1301" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="O1301" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1302">
@@ -38268,7 +38265,7 @@
         <v>29</v>
       </c>
       <c r="D1302" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1302" t="s">
         <v>2563</v>
@@ -38288,15 +38285,18 @@
         <v>19</v>
       </c>
       <c r="C1303" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1303" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1303" t="s">
         <v>2565</v>
       </c>
       <c r="N1303" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1303" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38311,15 +38311,12 @@
         <v>46</v>
       </c>
       <c r="D1304" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1304" t="s">
         <v>2567</v>
       </c>
       <c r="N1304" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1304" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38334,12 +38331,15 @@
         <v>46</v>
       </c>
       <c r="D1305" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1305" t="s">
         <v>2569</v>
       </c>
       <c r="N1305" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1305" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38351,21 +38351,15 @@
         <v>19</v>
       </c>
       <c r="C1306" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D1306" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1306" t="s">
         <v>2571</v>
       </c>
       <c r="N1306" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1306" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1306" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38377,19 +38371,22 @@
         <v>19</v>
       </c>
       <c r="C1307" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1307" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1307" t="s">
         <v>2573</v>
       </c>
-      <c r="M1307" t="s">
-        <v>23</v>
-      </c>
       <c r="N1307" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="O1307" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1307" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1308">
@@ -38403,10 +38400,13 @@
         <v>86</v>
       </c>
       <c r="D1308" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1308" t="s">
         <v>2575</v>
+      </c>
+      <c r="M1308" t="s">
+        <v>23</v>
       </c>
       <c r="N1308" t="s">
         <v>23</v>
@@ -38423,18 +38423,12 @@
         <v>86</v>
       </c>
       <c r="D1309" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1309" t="s">
         <v>2577</v>
       </c>
       <c r="N1309" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1309" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1309" t="s">
         <v>23</v>
       </c>
     </row>
@@ -38449,12 +38443,18 @@
         <v>86</v>
       </c>
       <c r="D1310" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1310" t="s">
         <v>2579</v>
       </c>
       <c r="N1310" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1310" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1310" t="s">
         <v>23</v>
       </c>
     </row>
@@ -38469,7 +38469,7 @@
         <v>86</v>
       </c>
       <c r="D1311" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1311" t="s">
         <v>2581</v>
@@ -38489,15 +38489,12 @@
         <v>86</v>
       </c>
       <c r="D1312" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1312" t="s">
         <v>2583</v>
       </c>
       <c r="N1312" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1312" t="s">
         <v>23</v>
       </c>
     </row>
@@ -38512,7 +38509,7 @@
         <v>86</v>
       </c>
       <c r="D1313" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1313" t="s">
         <v>2585</v>
@@ -38532,16 +38529,19 @@
         <v>19</v>
       </c>
       <c r="C1314" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1314" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1314" t="s">
         <v>2587</v>
       </c>
       <c r="N1314" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1314" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1315">
@@ -38555,7 +38555,7 @@
         <v>102</v>
       </c>
       <c r="D1315" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1315" t="s">
         <v>2589</v>
@@ -38572,18 +38572,15 @@
         <v>19</v>
       </c>
       <c r="C1316" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1316" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1316" t="s">
         <v>2591</v>
       </c>
       <c r="N1316" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1316" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38598,12 +38595,15 @@
         <v>109</v>
       </c>
       <c r="D1317" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1317" t="s">
         <v>2593</v>
       </c>
       <c r="N1317" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1317" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38618,7 +38618,7 @@
         <v>109</v>
       </c>
       <c r="D1318" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1318" t="s">
         <v>2595</v>
@@ -38638,7 +38638,7 @@
         <v>109</v>
       </c>
       <c r="D1319" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1319" t="s">
         <v>2597</v>
@@ -38658,15 +38658,12 @@
         <v>109</v>
       </c>
       <c r="D1320" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1320" t="s">
         <v>2599</v>
       </c>
-      <c r="O1320" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1320" t="s">
+      <c r="N1320" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38678,15 +38675,15 @@
         <v>19</v>
       </c>
       <c r="C1321" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1321" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1321" t="s">
         <v>2601</v>
       </c>
-      <c r="N1321" t="s">
+      <c r="O1321" t="s">
         <v>48</v>
       </c>
       <c r="P1321" t="s">
@@ -38704,12 +38701,15 @@
         <v>118</v>
       </c>
       <c r="D1322" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1322" t="s">
         <v>2603</v>
       </c>
       <c r="N1322" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1322" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38718,18 +38718,18 @@
         <v>2604</v>
       </c>
       <c r="B1323" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1323" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1323" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1323" t="s">
         <v>2605</v>
       </c>
-      <c r="O1323" t="s">
+      <c r="N1323" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38741,18 +38741,15 @@
         <v>128</v>
       </c>
       <c r="C1324" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1324" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1324" t="s">
         <v>2607</v>
       </c>
-      <c r="M1324" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1324" t="s">
+      <c r="O1324" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38764,18 +38761,18 @@
         <v>128</v>
       </c>
       <c r="C1325" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1325" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1325" t="s">
         <v>2609</v>
       </c>
+      <c r="M1325" t="s">
+        <v>48</v>
+      </c>
       <c r="N1325" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1325" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38787,19 +38784,19 @@
         <v>128</v>
       </c>
       <c r="C1326" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D1326" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1326" t="s">
         <v>2611</v>
       </c>
       <c r="N1326" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O1326" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1327">
@@ -38810,19 +38807,19 @@
         <v>128</v>
       </c>
       <c r="C1327" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1327" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1327" t="s">
         <v>2613</v>
       </c>
       <c r="N1327" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1327" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1328">
@@ -38836,7 +38833,7 @@
         <v>102</v>
       </c>
       <c r="D1328" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1328" t="s">
         <v>2615</v>
@@ -38859,10 +38856,13 @@
         <v>102</v>
       </c>
       <c r="D1329" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1329" t="s">
         <v>2617</v>
+      </c>
+      <c r="N1329" t="s">
+        <v>48</v>
       </c>
       <c r="O1329" t="s">
         <v>48</v>
@@ -38876,16 +38876,13 @@
         <v>128</v>
       </c>
       <c r="C1330" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1330" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1330" t="s">
         <v>2619</v>
-      </c>
-      <c r="N1330" t="s">
-        <v>48</v>
       </c>
       <c r="O1330" t="s">
         <v>48</v>
@@ -38899,15 +38896,18 @@
         <v>128</v>
       </c>
       <c r="C1331" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1331" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1331" t="s">
         <v>2621</v>
       </c>
       <c r="N1331" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1331" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38922,7 +38922,7 @@
         <v>118</v>
       </c>
       <c r="D1332" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1332" t="s">
         <v>2623</v>
@@ -38942,12 +38942,12 @@
         <v>118</v>
       </c>
       <c r="D1333" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1333" t="s">
         <v>2625</v>
       </c>
-      <c r="O1333" t="s">
+      <c r="N1333" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38956,18 +38956,18 @@
         <v>2626</v>
       </c>
       <c r="B1334" t="s">
-        <v>2551</v>
+        <v>128</v>
       </c>
       <c r="C1334" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1334" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1334" t="s">
         <v>2627</v>
       </c>
-      <c r="P1334" t="s">
+      <c r="O1334" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38976,22 +38976,19 @@
         <v>2628</v>
       </c>
       <c r="B1335" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1335" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D1335" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1335" t="s">
         <v>2629</v>
       </c>
-      <c r="N1335" t="s">
-        <v>23</v>
-      </c>
       <c r="P1335" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1336">
@@ -38999,50 +38996,50 @@
         <v>2630</v>
       </c>
       <c r="B1336" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1336" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D1336" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1336" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="N1336" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1336" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="B1337" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1337" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1337" t="s">
-        <v>2632</v>
+        <v>2558</v>
       </c>
       <c r="E1337" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="N1337" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1337" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1337" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B1338" t="s">
         <v>19</v>
@@ -39051,7 +39048,7 @@
         <v>20</v>
       </c>
       <c r="D1338" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1338" t="s">
         <v>2635</v>
@@ -39074,7 +39071,7 @@
         <v>20</v>
       </c>
       <c r="D1339" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1339" t="s">
         <v>2637</v>
@@ -39094,22 +39091,19 @@
         <v>19</v>
       </c>
       <c r="C1340" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1340" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1340" t="s">
         <v>2639</v>
       </c>
       <c r="N1340" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1340" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1340" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1341">
@@ -39123,12 +39117,15 @@
         <v>29</v>
       </c>
       <c r="D1341" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1341" t="s">
         <v>2641</v>
       </c>
       <c r="N1341" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1341" t="s">
         <v>48</v>
       </c>
       <c r="P1341" t="s">
@@ -39143,10 +39140,10 @@
         <v>19</v>
       </c>
       <c r="C1342" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1342" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1342" t="s">
         <v>2643</v>
@@ -39169,7 +39166,7 @@
         <v>46</v>
       </c>
       <c r="D1343" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1343" t="s">
         <v>2645</v>
@@ -39192,15 +39189,12 @@
         <v>46</v>
       </c>
       <c r="D1344" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1344" t="s">
         <v>2647</v>
       </c>
       <c r="N1344" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1344" t="s">
         <v>48</v>
       </c>
       <c r="P1344" t="s">
@@ -39215,15 +39209,18 @@
         <v>19</v>
       </c>
       <c r="C1345" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1345" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1345" t="s">
         <v>2649</v>
       </c>
       <c r="N1345" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1345" t="s">
         <v>48</v>
       </c>
       <c r="P1345" t="s">
@@ -39238,10 +39235,10 @@
         <v>19</v>
       </c>
       <c r="C1346" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1346" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1346" t="s">
         <v>2651</v>
@@ -39261,16 +39258,19 @@
         <v>19</v>
       </c>
       <c r="C1347" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1347" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1347" t="s">
         <v>2653</v>
       </c>
       <c r="N1347" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1347" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1348">
@@ -39284,18 +39284,12 @@
         <v>86</v>
       </c>
       <c r="D1348" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1348" t="s">
         <v>2655</v>
       </c>
       <c r="N1348" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1348" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1348" t="s">
         <v>23</v>
       </c>
     </row>
@@ -39310,12 +39304,15 @@
         <v>86</v>
       </c>
       <c r="D1349" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1349" t="s">
         <v>2657</v>
       </c>
       <c r="N1349" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1349" t="s">
         <v>23</v>
       </c>
       <c r="P1349" t="s">
@@ -39333,15 +39330,12 @@
         <v>86</v>
       </c>
       <c r="D1350" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1350" t="s">
         <v>2659</v>
       </c>
       <c r="N1350" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1350" t="s">
         <v>23</v>
       </c>
       <c r="P1350" t="s">
@@ -39359,10 +39353,13 @@
         <v>86</v>
       </c>
       <c r="D1351" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1351" t="s">
         <v>2661</v>
+      </c>
+      <c r="N1351" t="s">
+        <v>23</v>
       </c>
       <c r="O1351" t="s">
         <v>23</v>
@@ -39379,16 +39376,19 @@
         <v>19</v>
       </c>
       <c r="C1352" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D1352" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1352" t="s">
         <v>2663</v>
       </c>
       <c r="O1352" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1352" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1353">
@@ -39399,18 +39399,15 @@
         <v>19</v>
       </c>
       <c r="C1353" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1353" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1353" t="s">
         <v>2665</v>
       </c>
-      <c r="N1353" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1353" t="s">
+      <c r="O1353" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39425,12 +39422,15 @@
         <v>118</v>
       </c>
       <c r="D1354" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1354" t="s">
         <v>2667</v>
       </c>
       <c r="N1354" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1354" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39439,19 +39439,19 @@
         <v>2668</v>
       </c>
       <c r="B1355" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1355" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1355" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1355" t="s">
         <v>2669</v>
       </c>
       <c r="N1355" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1356">
@@ -39465,15 +39465,12 @@
         <v>20</v>
       </c>
       <c r="D1356" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1356" t="s">
         <v>2671</v>
       </c>
       <c r="N1356" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1356" t="s">
         <v>23</v>
       </c>
     </row>
@@ -39485,19 +39482,19 @@
         <v>128</v>
       </c>
       <c r="C1357" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1357" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1357" t="s">
         <v>2673</v>
       </c>
       <c r="N1357" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1357" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1358">
@@ -39508,10 +39505,10 @@
         <v>128</v>
       </c>
       <c r="C1358" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D1358" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1358" t="s">
         <v>2675</v>
@@ -39531,10 +39528,10 @@
         <v>128</v>
       </c>
       <c r="C1359" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1359" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1359" t="s">
         <v>2677</v>
@@ -39554,19 +39551,19 @@
         <v>128</v>
       </c>
       <c r="C1360" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1360" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1360" t="s">
         <v>2679</v>
       </c>
       <c r="N1360" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O1360" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1361">
@@ -39577,16 +39574,19 @@
         <v>128</v>
       </c>
       <c r="C1361" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D1361" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1361" t="s">
         <v>2681</v>
       </c>
+      <c r="N1361" t="s">
+        <v>23</v>
+      </c>
       <c r="O1361" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1362">
@@ -39600,7 +39600,7 @@
         <v>109</v>
       </c>
       <c r="D1362" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1362" t="s">
         <v>2683</v>
@@ -39620,7 +39620,7 @@
         <v>109</v>
       </c>
       <c r="D1363" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1363" t="s">
         <v>2685</v>
@@ -39637,16 +39637,13 @@
         <v>128</v>
       </c>
       <c r="C1364" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1364" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1364" t="s">
         <v>2687</v>
-      </c>
-      <c r="N1364" t="s">
-        <v>48</v>
       </c>
       <c r="O1364" t="s">
         <v>48</v>
@@ -39663,7 +39660,7 @@
         <v>118</v>
       </c>
       <c r="D1365" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1365" t="s">
         <v>2689</v>
@@ -39680,13 +39677,13 @@
         <v>2690</v>
       </c>
       <c r="B1366" t="s">
-        <v>2551</v>
+        <v>128</v>
       </c>
       <c r="C1366" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1366" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1366" t="s">
         <v>2691</v>
@@ -39694,7 +39691,7 @@
       <c r="N1366" t="s">
         <v>48</v>
       </c>
-      <c r="P1366" t="s">
+      <c r="O1366" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39703,16 +39700,16 @@
         <v>2692</v>
       </c>
       <c r="B1367" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1367" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1367" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1367" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="N1367" t="s">
         <v>48</v>
@@ -39723,24 +39720,21 @@
     </row>
     <row r="1368">
       <c r="A1368" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E1368" t="s">
         <v>2693</v>
       </c>
-      <c r="B1368" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C1368" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1368" t="s">
-        <v>2632</v>
-      </c>
-      <c r="E1368" t="s">
-        <v>2694</v>
-      </c>
       <c r="N1368" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1368" t="s">
         <v>48</v>
       </c>
       <c r="P1368" t="s">
@@ -39752,18 +39746,21 @@
         <v>2695</v>
       </c>
       <c r="B1369" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1369" t="s">
         <v>109</v>
       </c>
       <c r="D1369" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1369" t="s">
         <v>2696</v>
       </c>
       <c r="N1369" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1369" t="s">
         <v>48</v>
       </c>
       <c r="P1369" t="s">
@@ -39775,13 +39772,13 @@
         <v>2697</v>
       </c>
       <c r="B1370" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1370" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1370" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1370" t="s">
         <v>2698</v>
@@ -39798,45 +39795,42 @@
         <v>2699</v>
       </c>
       <c r="B1371" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1371" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1371" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E1371" t="s">
         <v>2700</v>
       </c>
-      <c r="E1371" t="s">
-        <v>2701</v>
-      </c>
-      <c r="O1371" t="s">
-        <v>23</v>
+      <c r="N1371" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1371" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1372" t="s">
         <v>2702</v>
-      </c>
-      <c r="B1372" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1372" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1372" t="s">
-        <v>2700</v>
       </c>
       <c r="E1372" t="s">
         <v>2703</v>
       </c>
-      <c r="N1372" t="s">
-        <v>48</v>
-      </c>
       <c r="O1372" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1372" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1373">
@@ -39847,10 +39841,10 @@
         <v>19</v>
       </c>
       <c r="C1373" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1373" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1373" t="s">
         <v>2705</v>
@@ -39876,12 +39870,18 @@
         <v>46</v>
       </c>
       <c r="D1374" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1374" t="s">
         <v>2707</v>
       </c>
+      <c r="N1374" t="s">
+        <v>48</v>
+      </c>
       <c r="O1374" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1374" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39896,7 +39896,7 @@
         <v>46</v>
       </c>
       <c r="D1375" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1375" t="s">
         <v>2709</v>
@@ -39913,21 +39913,15 @@
         <v>19</v>
       </c>
       <c r="C1376" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1376" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1376" t="s">
         <v>2711</v>
       </c>
-      <c r="N1376" t="s">
-        <v>48</v>
-      </c>
       <c r="O1376" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1376" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39942,10 +39936,13 @@
         <v>62</v>
       </c>
       <c r="D1377" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1377" t="s">
         <v>2713</v>
+      </c>
+      <c r="N1377" t="s">
+        <v>48</v>
       </c>
       <c r="O1377" t="s">
         <v>48</v>
@@ -39962,16 +39959,13 @@
         <v>19</v>
       </c>
       <c r="C1378" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1378" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1378" t="s">
         <v>2715</v>
-      </c>
-      <c r="N1378" t="s">
-        <v>48</v>
       </c>
       <c r="O1378" t="s">
         <v>48</v>
@@ -39991,10 +39985,13 @@
         <v>75</v>
       </c>
       <c r="D1379" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1379" t="s">
         <v>2717</v>
+      </c>
+      <c r="N1379" t="s">
+        <v>48</v>
       </c>
       <c r="O1379" t="s">
         <v>48</v>
@@ -40011,16 +40008,19 @@
         <v>19</v>
       </c>
       <c r="C1380" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1380" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1380" t="s">
         <v>2719</v>
       </c>
       <c r="O1380" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1380" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1381">
@@ -40031,16 +40031,16 @@
         <v>19</v>
       </c>
       <c r="C1381" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1381" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1381" t="s">
         <v>2721</v>
       </c>
       <c r="O1381" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1382">
@@ -40051,18 +40051,15 @@
         <v>19</v>
       </c>
       <c r="C1382" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1382" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1382" t="s">
         <v>2723</v>
       </c>
       <c r="O1382" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1382" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40074,15 +40071,18 @@
         <v>19</v>
       </c>
       <c r="C1383" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1383" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1383" t="s">
         <v>2725</v>
       </c>
-      <c r="N1383" t="s">
+      <c r="O1383" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1383" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40097,7 +40097,7 @@
         <v>118</v>
       </c>
       <c r="D1384" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1384" t="s">
         <v>2727</v>
@@ -40117,15 +40117,12 @@
         <v>118</v>
       </c>
       <c r="D1385" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1385" t="s">
         <v>2729</v>
       </c>
-      <c r="O1385" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1385" t="s">
+      <c r="N1385" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40134,19 +40131,22 @@
         <v>2730</v>
       </c>
       <c r="B1386" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1386" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1386" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1386" t="s">
         <v>2731</v>
       </c>
-      <c r="N1386" t="s">
-        <v>23</v>
+      <c r="O1386" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1386" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1387">
@@ -40157,16 +40157,16 @@
         <v>128</v>
       </c>
       <c r="C1387" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1387" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1387" t="s">
         <v>2733</v>
       </c>
-      <c r="O1387" t="s">
-        <v>48</v>
+      <c r="N1387" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1388">
@@ -40180,7 +40180,7 @@
         <v>29</v>
       </c>
       <c r="D1388" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1388" t="s">
         <v>2735</v>
@@ -40200,7 +40200,7 @@
         <v>29</v>
       </c>
       <c r="D1389" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1389" t="s">
         <v>2737</v>
@@ -40220,7 +40220,7 @@
         <v>29</v>
       </c>
       <c r="D1390" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1390" t="s">
         <v>2739</v>
@@ -40237,16 +40237,13 @@
         <v>128</v>
       </c>
       <c r="C1391" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1391" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1391" t="s">
         <v>2741</v>
-      </c>
-      <c r="N1391" t="s">
-        <v>48</v>
       </c>
       <c r="O1391" t="s">
         <v>48</v>
@@ -40263,10 +40260,13 @@
         <v>46</v>
       </c>
       <c r="D1392" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1392" t="s">
         <v>2743</v>
+      </c>
+      <c r="N1392" t="s">
+        <v>48</v>
       </c>
       <c r="O1392" t="s">
         <v>48</v>
@@ -40283,7 +40283,7 @@
         <v>46</v>
       </c>
       <c r="D1393" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1393" t="s">
         <v>2745</v>
@@ -40300,16 +40300,13 @@
         <v>128</v>
       </c>
       <c r="C1394" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1394" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1394" t="s">
         <v>2747</v>
-      </c>
-      <c r="N1394" t="s">
-        <v>48</v>
       </c>
       <c r="O1394" t="s">
         <v>48</v>
@@ -40326,10 +40323,13 @@
         <v>62</v>
       </c>
       <c r="D1395" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1395" t="s">
-        <v>2745</v>
+        <v>2749</v>
+      </c>
+      <c r="N1395" t="s">
+        <v>48</v>
       </c>
       <c r="O1395" t="s">
         <v>48</v>
@@ -40337,25 +40337,22 @@
     </row>
     <row r="1396">
       <c r="A1396" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="B1396" t="s">
         <v>128</v>
       </c>
       <c r="C1396" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D1396" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1396" t="s">
-        <v>2750</v>
-      </c>
-      <c r="N1396" t="s">
-        <v>23</v>
+        <v>2747</v>
       </c>
       <c r="O1396" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1397">
@@ -40369,7 +40366,7 @@
         <v>86</v>
       </c>
       <c r="D1397" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1397" t="s">
         <v>2752</v>
@@ -40392,10 +40389,13 @@
         <v>86</v>
       </c>
       <c r="D1398" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1398" t="s">
         <v>2754</v>
+      </c>
+      <c r="N1398" t="s">
+        <v>23</v>
       </c>
       <c r="O1398" t="s">
         <v>23</v>
@@ -40409,19 +40409,16 @@
         <v>128</v>
       </c>
       <c r="C1399" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1399" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1399" t="s">
         <v>2756</v>
       </c>
-      <c r="N1399" t="s">
-        <v>48</v>
-      </c>
       <c r="O1399" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1400">
@@ -40432,10 +40429,10 @@
         <v>128</v>
       </c>
       <c r="C1400" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1400" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1400" t="s">
         <v>2758</v>
@@ -40458,7 +40455,7 @@
         <v>109</v>
       </c>
       <c r="D1401" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1401" t="s">
         <v>2760</v>
@@ -40478,10 +40475,10 @@
         <v>128</v>
       </c>
       <c r="C1402" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1402" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1402" t="s">
         <v>2762</v>
@@ -40504,7 +40501,7 @@
         <v>118</v>
       </c>
       <c r="D1403" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1403" t="s">
         <v>2764</v>
@@ -40527,10 +40524,13 @@
         <v>118</v>
       </c>
       <c r="D1404" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1404" t="s">
         <v>2766</v>
+      </c>
+      <c r="N1404" t="s">
+        <v>48</v>
       </c>
       <c r="O1404" t="s">
         <v>48</v>
@@ -40547,7 +40547,7 @@
         <v>118</v>
       </c>
       <c r="D1405" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1405" t="s">
         <v>2768</v>
@@ -40567,7 +40567,7 @@
         <v>118</v>
       </c>
       <c r="D1406" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1406" t="s">
         <v>2770</v>
@@ -40587,7 +40587,7 @@
         <v>118</v>
       </c>
       <c r="D1407" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1407" t="s">
         <v>2772</v>
@@ -40601,24 +40601,18 @@
         <v>2773</v>
       </c>
       <c r="B1408" t="s">
-        <v>2551</v>
+        <v>128</v>
       </c>
       <c r="C1408" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1408" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1408" t="s">
         <v>2774</v>
       </c>
-      <c r="N1408" t="s">
-        <v>48</v>
-      </c>
       <c r="O1408" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1408" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40627,18 +40621,21 @@
         <v>2775</v>
       </c>
       <c r="B1409" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1409" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1409" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1409" t="s">
         <v>2776</v>
       </c>
       <c r="N1409" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1409" t="s">
         <v>48</v>
       </c>
       <c r="P1409" t="s">
@@ -40650,22 +40647,22 @@
         <v>2777</v>
       </c>
       <c r="B1410" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1410" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D1410" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1410" t="s">
         <v>2778</v>
       </c>
       <c r="N1410" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1410" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1411">
@@ -40673,39 +40670,42 @@
         <v>2779</v>
       </c>
       <c r="B1411" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1411" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D1411" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E1411" t="s">
         <v>2780</v>
       </c>
-      <c r="E1411" t="s">
-        <v>2781</v>
-      </c>
-      <c r="O1411" t="s">
+      <c r="N1411" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1411" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1412" t="s">
         <v>2782</v>
-      </c>
-      <c r="B1412" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1412" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1412" t="s">
-        <v>2780</v>
       </c>
       <c r="E1412" t="s">
         <v>2783</v>
       </c>
       <c r="O1412" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1413">
@@ -40716,18 +40716,15 @@
         <v>19</v>
       </c>
       <c r="C1413" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1413" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1413" t="s">
         <v>2785</v>
       </c>
       <c r="O1413" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1413" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40742,12 +40739,15 @@
         <v>46</v>
       </c>
       <c r="D1414" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1414" t="s">
         <v>2787</v>
       </c>
       <c r="O1414" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1414" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40762,7 +40762,7 @@
         <v>46</v>
       </c>
       <c r="D1415" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1415" t="s">
         <v>2789</v>
@@ -40779,22 +40779,16 @@
         <v>19</v>
       </c>
       <c r="C1416" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D1416" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1416" t="s">
         <v>2791</v>
       </c>
-      <c r="N1416" t="s">
-        <v>23</v>
-      </c>
       <c r="O1416" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1416" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1417">
@@ -40808,10 +40802,13 @@
         <v>86</v>
       </c>
       <c r="D1417" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1417" t="s">
         <v>2793</v>
+      </c>
+      <c r="N1417" t="s">
+        <v>23</v>
       </c>
       <c r="O1417" t="s">
         <v>23</v>
@@ -40831,12 +40828,15 @@
         <v>86</v>
       </c>
       <c r="D1418" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1418" t="s">
         <v>2795</v>
       </c>
       <c r="O1418" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1418" t="s">
         <v>23</v>
       </c>
     </row>
@@ -40848,19 +40848,16 @@
         <v>19</v>
       </c>
       <c r="C1419" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D1419" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1419" t="s">
         <v>2797</v>
       </c>
       <c r="O1419" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1419" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1420">
@@ -40874,7 +40871,7 @@
         <v>118</v>
       </c>
       <c r="D1420" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1420" t="s">
         <v>2799</v>
@@ -40891,19 +40888,22 @@
         <v>2800</v>
       </c>
       <c r="B1421" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1421" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1421" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1421" t="s">
         <v>2801</v>
       </c>
       <c r="O1421" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1421" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1422">
@@ -40917,7 +40917,7 @@
         <v>20</v>
       </c>
       <c r="D1422" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1422" t="s">
         <v>2803</v>
@@ -40934,16 +40934,16 @@
         <v>128</v>
       </c>
       <c r="C1423" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1423" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1423" t="s">
         <v>2805</v>
       </c>
       <c r="O1423" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1424">
@@ -40957,7 +40957,7 @@
         <v>29</v>
       </c>
       <c r="D1424" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1424" t="s">
         <v>2807</v>
@@ -40974,10 +40974,10 @@
         <v>128</v>
       </c>
       <c r="C1425" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1425" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1425" t="s">
         <v>2809</v>
@@ -40997,10 +40997,10 @@
         <v>46</v>
       </c>
       <c r="D1426" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1426" t="s">
-        <v>2805</v>
+        <v>2811</v>
       </c>
       <c r="O1426" t="s">
         <v>48</v>
@@ -41008,19 +41008,19 @@
     </row>
     <row r="1427">
       <c r="A1427" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="B1427" t="s">
         <v>128</v>
       </c>
       <c r="C1427" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1427" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1427" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="O1427" t="s">
         <v>48</v>
@@ -41028,19 +41028,19 @@
     </row>
     <row r="1428">
       <c r="A1428" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="B1428" t="s">
         <v>128</v>
       </c>
       <c r="C1428" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1428" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1428" t="s">
-        <v>2813</v>
+        <v>2807</v>
       </c>
       <c r="O1428" t="s">
         <v>48</v>
@@ -41057,7 +41057,7 @@
         <v>75</v>
       </c>
       <c r="D1429" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1429" t="s">
         <v>2815</v>
@@ -41074,10 +41074,10 @@
         <v>128</v>
       </c>
       <c r="C1430" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D1430" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1430" t="s">
         <v>2817</v>
@@ -41091,24 +41091,18 @@
         <v>2818</v>
       </c>
       <c r="B1431" t="s">
-        <v>2551</v>
+        <v>128</v>
       </c>
       <c r="C1431" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1431" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1431" t="s">
         <v>2819</v>
       </c>
-      <c r="N1431" t="s">
-        <v>48</v>
-      </c>
       <c r="O1431" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1431" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41117,18 +41111,24 @@
         <v>2820</v>
       </c>
       <c r="B1432" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1432" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D1432" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1432" t="s">
         <v>2821</v>
       </c>
+      <c r="N1432" t="s">
+        <v>48</v>
+      </c>
       <c r="O1432" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1432" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41137,22 +41137,19 @@
         <v>2822</v>
       </c>
       <c r="B1433" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1433" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1433" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1433" t="s">
         <v>2823</v>
       </c>
-      <c r="N1433" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1433" t="s">
-        <v>23</v>
+      <c r="O1433" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1434">
@@ -41160,25 +41157,22 @@
         <v>2824</v>
       </c>
       <c r="B1434" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1434" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D1434" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1434" t="s">
         <v>2825</v>
       </c>
       <c r="N1434" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1434" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1434" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1435">
@@ -41186,13 +41180,13 @@
         <v>2826</v>
       </c>
       <c r="B1435" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1435" t="s">
         <v>118</v>
       </c>
       <c r="D1435" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="E1435" t="s">
         <v>2827</v>
@@ -41212,42 +41206,45 @@
         <v>2828</v>
       </c>
       <c r="B1436" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1436" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1436" t="s">
+        <v>2782</v>
+      </c>
+      <c r="E1436" t="s">
         <v>2829</v>
       </c>
-      <c r="E1436" t="s">
-        <v>2830</v>
+      <c r="N1436" t="s">
+        <v>48</v>
       </c>
       <c r="O1436" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1436" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1437" t="s">
         <v>2831</v>
-      </c>
-      <c r="B1437" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1437" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1437" t="s">
-        <v>2829</v>
       </c>
       <c r="E1437" t="s">
         <v>2832</v>
       </c>
       <c r="O1437" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1437" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1438">
@@ -41261,7 +41258,7 @@
         <v>29</v>
       </c>
       <c r="D1438" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1438" t="s">
         <v>2834</v>
@@ -41281,10 +41278,10 @@
         <v>19</v>
       </c>
       <c r="C1439" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1439" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1439" t="s">
         <v>2836</v>
@@ -41307,7 +41304,7 @@
         <v>46</v>
       </c>
       <c r="D1440" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1440" t="s">
         <v>2838</v>
@@ -41327,10 +41324,10 @@
         <v>19</v>
       </c>
       <c r="C1441" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1441" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1441" t="s">
         <v>2840</v>
@@ -41350,15 +41347,18 @@
         <v>19</v>
       </c>
       <c r="C1442" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1442" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1442" t="s">
         <v>2842</v>
       </c>
       <c r="O1442" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1442" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41370,19 +41370,16 @@
         <v>19</v>
       </c>
       <c r="C1443" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1443" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1443" t="s">
         <v>2844</v>
       </c>
       <c r="O1443" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1443" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1444">
@@ -41396,12 +41393,15 @@
         <v>86</v>
       </c>
       <c r="D1444" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1444" t="s">
         <v>2846</v>
       </c>
       <c r="O1444" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1444" t="s">
         <v>23</v>
       </c>
     </row>
@@ -41416,7 +41416,7 @@
         <v>86</v>
       </c>
       <c r="D1445" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1445" t="s">
         <v>2848</v>
@@ -41433,16 +41433,16 @@
         <v>19</v>
       </c>
       <c r="C1446" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1446" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1446" t="s">
         <v>2850</v>
       </c>
       <c r="O1446" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1447">
@@ -41456,7 +41456,7 @@
         <v>102</v>
       </c>
       <c r="D1447" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1447" t="s">
         <v>2852</v>
@@ -41476,7 +41476,7 @@
         <v>102</v>
       </c>
       <c r="D1448" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1448" t="s">
         <v>2854</v>
@@ -41493,18 +41493,15 @@
         <v>19</v>
       </c>
       <c r="C1449" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1449" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1449" t="s">
         <v>2856</v>
       </c>
       <c r="O1449" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1449" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41519,7 +41516,7 @@
         <v>109</v>
       </c>
       <c r="D1450" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1450" t="s">
         <v>2858</v>
@@ -41542,7 +41539,7 @@
         <v>109</v>
       </c>
       <c r="D1451" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1451" t="s">
         <v>2860</v>
@@ -41565,7 +41562,7 @@
         <v>109</v>
       </c>
       <c r="D1452" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1452" t="s">
         <v>2862</v>
@@ -41585,15 +41582,18 @@
         <v>19</v>
       </c>
       <c r="C1453" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1453" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1453" t="s">
         <v>2864</v>
       </c>
       <c r="O1453" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1453" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41608,7 +41608,7 @@
         <v>118</v>
       </c>
       <c r="D1454" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1454" t="s">
         <v>2866</v>
@@ -41622,19 +41622,19 @@
         <v>2867</v>
       </c>
       <c r="B1455" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1455" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1455" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1455" t="s">
         <v>2868</v>
       </c>
       <c r="O1455" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1456">
@@ -41648,7 +41648,7 @@
         <v>20</v>
       </c>
       <c r="D1456" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1456" t="s">
         <v>2870</v>
@@ -41665,16 +41665,16 @@
         <v>128</v>
       </c>
       <c r="C1457" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1457" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1457" t="s">
         <v>2872</v>
       </c>
       <c r="O1457" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1458">
@@ -41688,7 +41688,7 @@
         <v>29</v>
       </c>
       <c r="D1458" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1458" t="s">
         <v>2874</v>
@@ -41705,10 +41705,10 @@
         <v>128</v>
       </c>
       <c r="C1459" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D1459" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1459" t="s">
         <v>2876</v>
@@ -41725,16 +41725,16 @@
         <v>128</v>
       </c>
       <c r="C1460" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D1460" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1460" t="s">
         <v>2878</v>
       </c>
       <c r="O1460" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1461">
@@ -41748,7 +41748,7 @@
         <v>86</v>
       </c>
       <c r="D1461" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1461" t="s">
         <v>2880</v>
@@ -41765,16 +41765,16 @@
         <v>128</v>
       </c>
       <c r="C1462" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1462" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1462" t="s">
         <v>2882</v>
       </c>
       <c r="O1462" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1463">
@@ -41785,10 +41785,10 @@
         <v>128</v>
       </c>
       <c r="C1463" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1463" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1463" t="s">
         <v>2884</v>
@@ -41808,7 +41808,7 @@
         <v>109</v>
       </c>
       <c r="D1464" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1464" t="s">
         <v>2886</v>
@@ -41828,7 +41828,7 @@
         <v>109</v>
       </c>
       <c r="D1465" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1465" t="s">
         <v>2888</v>
@@ -41848,7 +41848,7 @@
         <v>109</v>
       </c>
       <c r="D1466" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1466" t="s">
         <v>2890</v>
@@ -41865,13 +41865,13 @@
         <v>128</v>
       </c>
       <c r="C1467" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1467" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1467" t="s">
-        <v>2872</v>
+        <v>2892</v>
       </c>
       <c r="O1467" t="s">
         <v>48</v>
@@ -41879,7 +41879,7 @@
     </row>
     <row r="1468">
       <c r="A1468" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="B1468" t="s">
         <v>128</v>
@@ -41888,10 +41888,10 @@
         <v>118</v>
       </c>
       <c r="D1468" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1468" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="O1468" t="s">
         <v>48</v>
@@ -41899,7 +41899,7 @@
     </row>
     <row r="1469">
       <c r="A1469" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="B1469" t="s">
         <v>128</v>
@@ -41908,10 +41908,10 @@
         <v>118</v>
       </c>
       <c r="D1469" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1469" t="s">
-        <v>2894</v>
+        <v>2872</v>
       </c>
       <c r="O1469" t="s">
         <v>48</v>
@@ -41922,21 +41922,18 @@
         <v>2895</v>
       </c>
       <c r="B1470" t="s">
-        <v>2551</v>
+        <v>128</v>
       </c>
       <c r="C1470" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1470" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1470" t="s">
         <v>2896</v>
       </c>
       <c r="O1470" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1470" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41945,13 +41942,13 @@
         <v>2897</v>
       </c>
       <c r="B1471" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1471" t="s">
         <v>29</v>
       </c>
       <c r="D1471" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1471" t="s">
         <v>2898</v>
@@ -41968,19 +41965,16 @@
         <v>2899</v>
       </c>
       <c r="B1472" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1472" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1472" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1472" t="s">
         <v>2900</v>
-      </c>
-      <c r="N1472" t="s">
-        <v>48</v>
       </c>
       <c r="O1472" t="s">
         <v>48</v>
@@ -41994,16 +41988,19 @@
         <v>2901</v>
       </c>
       <c r="B1473" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1473" t="s">
         <v>46</v>
       </c>
       <c r="D1473" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1473" t="s">
         <v>2902</v>
+      </c>
+      <c r="N1473" t="s">
+        <v>48</v>
       </c>
       <c r="O1473" t="s">
         <v>48</v>
@@ -42017,13 +42014,13 @@
         <v>2903</v>
       </c>
       <c r="B1474" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1474" t="s">
         <v>46</v>
       </c>
       <c r="D1474" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1474" t="s">
         <v>2904</v>
@@ -42040,13 +42037,13 @@
         <v>2905</v>
       </c>
       <c r="B1475" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1475" t="s">
         <v>46</v>
       </c>
       <c r="D1475" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1475" t="s">
         <v>2906</v>
@@ -42063,13 +42060,13 @@
         <v>2907</v>
       </c>
       <c r="B1476" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1476" t="s">
         <v>46</v>
       </c>
       <c r="D1476" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1476" t="s">
         <v>2908</v>
@@ -42086,13 +42083,13 @@
         <v>2909</v>
       </c>
       <c r="B1477" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1477" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1477" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1477" t="s">
         <v>2910</v>
@@ -42109,13 +42106,13 @@
         <v>2911</v>
       </c>
       <c r="B1478" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1478" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1478" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1478" t="s">
         <v>2912</v>
@@ -42132,18 +42129,21 @@
         <v>2913</v>
       </c>
       <c r="B1479" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1479" t="s">
         <v>75</v>
       </c>
       <c r="D1479" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1479" t="s">
         <v>2914</v>
       </c>
       <c r="O1479" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1479" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42152,41 +42152,41 @@
         <v>2915</v>
       </c>
       <c r="B1480" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1480" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1480" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1480" t="s">
-        <v>2906</v>
+        <v>2916</v>
       </c>
       <c r="O1480" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1480" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="B1481" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1481" t="s">
         <v>86</v>
       </c>
       <c r="D1481" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1481" t="s">
-        <v>2917</v>
+        <v>2908</v>
       </c>
       <c r="O1481" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1481" t="s">
         <v>23</v>
       </c>
     </row>
@@ -42195,18 +42195,18 @@
         <v>2918</v>
       </c>
       <c r="B1482" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1482" t="s">
         <v>86</v>
       </c>
       <c r="D1482" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1482" t="s">
         <v>2919</v>
       </c>
-      <c r="P1482" t="s">
+      <c r="O1482" t="s">
         <v>23</v>
       </c>
     </row>
@@ -42215,19 +42215,19 @@
         <v>2920</v>
       </c>
       <c r="B1483" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1483" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D1483" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E1483" t="s">
         <v>2921</v>
       </c>
       <c r="P1483" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1484">
@@ -42235,19 +42235,16 @@
         <v>2922</v>
       </c>
       <c r="B1484" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1484" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1484" t="s">
+        <v>2831</v>
+      </c>
+      <c r="E1484" t="s">
         <v>2923</v>
-      </c>
-      <c r="E1484" t="s">
-        <v>2924</v>
-      </c>
-      <c r="O1484" t="s">
-        <v>48</v>
       </c>
       <c r="P1484" t="s">
         <v>48</v>
@@ -42255,16 +42252,16 @@
     </row>
     <row r="1485">
       <c r="A1485" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1485" t="s">
         <v>2925</v>
-      </c>
-      <c r="B1485" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1485" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1485" t="s">
-        <v>2923</v>
       </c>
       <c r="E1485" t="s">
         <v>2926</v>
@@ -42284,19 +42281,19 @@
         <v>19</v>
       </c>
       <c r="C1486" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D1486" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1486" t="s">
         <v>2928</v>
       </c>
       <c r="O1486" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1486" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1487">
@@ -42307,16 +42304,19 @@
         <v>19</v>
       </c>
       <c r="C1487" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1487" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1487" t="s">
         <v>2930</v>
       </c>
       <c r="O1487" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1487" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1488">
@@ -42330,7 +42330,7 @@
         <v>102</v>
       </c>
       <c r="D1488" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1488" t="s">
         <v>2932</v>
@@ -42347,18 +42347,15 @@
         <v>19</v>
       </c>
       <c r="C1489" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D1489" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1489" t="s">
         <v>2934</v>
       </c>
       <c r="O1489" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1489" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42373,7 +42370,7 @@
         <v>118</v>
       </c>
       <c r="D1490" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1490" t="s">
         <v>2936</v>
@@ -42390,19 +42387,22 @@
         <v>2937</v>
       </c>
       <c r="B1491" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1491" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1491" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1491" t="s">
         <v>2938</v>
       </c>
       <c r="O1491" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1491" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1492">
@@ -42413,16 +42413,16 @@
         <v>128</v>
       </c>
       <c r="C1492" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1492" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1492" t="s">
         <v>2940</v>
       </c>
       <c r="O1492" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1493">
@@ -42436,10 +42436,10 @@
         <v>46</v>
       </c>
       <c r="D1493" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1493" t="s">
-        <v>2938</v>
+        <v>2942</v>
       </c>
       <c r="O1493" t="s">
         <v>48</v>
@@ -42447,19 +42447,19 @@
     </row>
     <row r="1494">
       <c r="A1494" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="B1494" t="s">
         <v>128</v>
       </c>
       <c r="C1494" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1494" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1494" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="O1494" t="s">
         <v>48</v>
@@ -42473,10 +42473,10 @@
         <v>128</v>
       </c>
       <c r="C1495" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1495" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1495" t="s">
         <v>2945</v>
@@ -42490,21 +42490,18 @@
         <v>2946</v>
       </c>
       <c r="B1496" t="s">
-        <v>2551</v>
+        <v>128</v>
       </c>
       <c r="C1496" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D1496" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1496" t="s">
         <v>2947</v>
       </c>
       <c r="O1496" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1496" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42513,13 +42510,13 @@
         <v>2948</v>
       </c>
       <c r="B1497" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1497" t="s">
         <v>109</v>
       </c>
       <c r="D1497" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1497" t="s">
         <v>2949</v>
@@ -42536,13 +42533,13 @@
         <v>2950</v>
       </c>
       <c r="B1498" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1498" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1498" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="E1498" t="s">
         <v>2951</v>
@@ -42559,16 +42556,16 @@
         <v>2952</v>
       </c>
       <c r="B1499" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1499" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="D1499" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1499" t="s">
         <v>2953</v>
-      </c>
-      <c r="E1499" t="s">
-        <v>2954</v>
       </c>
       <c r="O1499" t="s">
         <v>48</v>
@@ -42579,7 +42576,7 @@
     </row>
     <row r="1500">
       <c r="A1500" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B1500" t="s">
         <v>19</v>
@@ -42588,7 +42585,7 @@
         <v>62</v>
       </c>
       <c r="D1500" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1500" t="s">
         <v>2956</v>
@@ -42611,12 +42608,15 @@
         <v>62</v>
       </c>
       <c r="D1501" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1501" t="s">
         <v>2958</v>
       </c>
       <c r="O1501" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1501" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42628,18 +42628,15 @@
         <v>19</v>
       </c>
       <c r="C1502" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1502" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1502" t="s">
         <v>2960</v>
       </c>
       <c r="O1502" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1502" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42654,12 +42651,15 @@
         <v>75</v>
       </c>
       <c r="D1503" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1503" t="s">
         <v>2962</v>
       </c>
       <c r="O1503" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1503" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42671,19 +42671,16 @@
         <v>19</v>
       </c>
       <c r="C1504" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1504" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1504" t="s">
         <v>2964</v>
       </c>
       <c r="O1504" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1504" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1505">
@@ -42694,16 +42691,19 @@
         <v>19</v>
       </c>
       <c r="C1505" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1505" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1505" t="s">
         <v>2966</v>
       </c>
       <c r="O1505" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1505" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1506">
@@ -42714,18 +42714,15 @@
         <v>19</v>
       </c>
       <c r="C1506" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1506" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1506" t="s">
         <v>2968</v>
       </c>
       <c r="O1506" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1506" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42737,10 +42734,10 @@
         <v>19</v>
       </c>
       <c r="C1507" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1507" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1507" t="s">
         <v>2970</v>
@@ -42763,7 +42760,7 @@
         <v>118</v>
       </c>
       <c r="D1508" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1508" t="s">
         <v>2972</v>
@@ -42786,12 +42783,15 @@
         <v>118</v>
       </c>
       <c r="D1509" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1509" t="s">
         <v>2974</v>
       </c>
       <c r="O1509" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1509" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42800,19 +42800,19 @@
         <v>2975</v>
       </c>
       <c r="B1510" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1510" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1510" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1510" t="s">
         <v>2976</v>
       </c>
       <c r="O1510" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1511">
@@ -42826,7 +42826,7 @@
         <v>20</v>
       </c>
       <c r="D1511" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1511" t="s">
         <v>2978</v>
@@ -42846,7 +42846,7 @@
         <v>20</v>
       </c>
       <c r="D1512" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1512" t="s">
         <v>2980</v>
@@ -42863,16 +42863,16 @@
         <v>128</v>
       </c>
       <c r="C1513" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1513" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1513" t="s">
         <v>2982</v>
       </c>
       <c r="O1513" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1514">
@@ -42883,10 +42883,10 @@
         <v>128</v>
       </c>
       <c r="C1514" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1514" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1514" t="s">
         <v>2984</v>
@@ -42903,10 +42903,10 @@
         <v>128</v>
       </c>
       <c r="C1515" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D1515" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1515" t="s">
         <v>2986</v>
@@ -42926,7 +42926,7 @@
         <v>75</v>
       </c>
       <c r="D1516" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1516" t="s">
         <v>2988</v>
@@ -42943,16 +42943,16 @@
         <v>128</v>
       </c>
       <c r="C1517" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1517" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1517" t="s">
         <v>2990</v>
       </c>
       <c r="O1517" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1518">
@@ -42966,7 +42966,7 @@
         <v>86</v>
       </c>
       <c r="D1518" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1518" t="s">
         <v>2992</v>
@@ -42986,7 +42986,7 @@
         <v>86</v>
       </c>
       <c r="D1519" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1519" t="s">
         <v>2994</v>
@@ -43003,16 +43003,16 @@
         <v>128</v>
       </c>
       <c r="C1520" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1520" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1520" t="s">
         <v>2996</v>
       </c>
       <c r="O1520" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1521">
@@ -43023,10 +43023,10 @@
         <v>128</v>
       </c>
       <c r="C1521" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1521" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1521" t="s">
         <v>2998</v>
@@ -43046,7 +43046,7 @@
         <v>109</v>
       </c>
       <c r="D1522" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1522" t="s">
         <v>3000</v>
@@ -43063,10 +43063,10 @@
         <v>128</v>
       </c>
       <c r="C1523" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1523" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1523" t="s">
         <v>3002</v>
@@ -43086,7 +43086,7 @@
         <v>118</v>
       </c>
       <c r="D1524" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1524" t="s">
         <v>3004</v>
@@ -43100,21 +43100,18 @@
         <v>3005</v>
       </c>
       <c r="B1525" t="s">
-        <v>2551</v>
+        <v>128</v>
       </c>
       <c r="C1525" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1525" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1525" t="s">
         <v>3006</v>
       </c>
       <c r="O1525" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1525" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43123,18 +43120,21 @@
         <v>3007</v>
       </c>
       <c r="B1526" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1526" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D1526" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1526" t="s">
         <v>3008</v>
       </c>
       <c r="O1526" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1526" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43143,22 +43143,19 @@
         <v>3009</v>
       </c>
       <c r="B1527" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1527" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1527" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1527" t="s">
         <v>3010</v>
       </c>
       <c r="O1527" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1527" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1528">
@@ -43166,13 +43163,13 @@
         <v>3011</v>
       </c>
       <c r="B1528" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1528" t="s">
         <v>86</v>
       </c>
       <c r="D1528" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1528" t="s">
         <v>3012</v>
@@ -43189,19 +43186,22 @@
         <v>3013</v>
       </c>
       <c r="B1529" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1529" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D1529" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1529" t="s">
         <v>3014</v>
       </c>
       <c r="O1529" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1529" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1530">
@@ -43209,13 +43209,13 @@
         <v>3015</v>
       </c>
       <c r="B1530" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1530" t="s">
         <v>118</v>
       </c>
       <c r="D1530" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E1530" t="s">
         <v>3016</v>
@@ -43229,36 +43229,33 @@
         <v>3017</v>
       </c>
       <c r="B1531" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1531" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1531" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E1531" t="s">
         <v>3018</v>
       </c>
-      <c r="E1531" t="s">
-        <v>3019</v>
-      </c>
       <c r="O1531" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1531" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1532" t="s">
         <v>3020</v>
-      </c>
-      <c r="B1532" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1532" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1532" t="s">
-        <v>3018</v>
       </c>
       <c r="E1532" t="s">
         <v>3021</v>
@@ -43278,10 +43275,10 @@
         <v>19</v>
       </c>
       <c r="C1533" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1533" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1533" t="s">
         <v>3023</v>
@@ -43301,19 +43298,19 @@
         <v>19</v>
       </c>
       <c r="C1534" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D1534" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1534" t="s">
         <v>3025</v>
       </c>
       <c r="O1534" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1534" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1535">
@@ -43327,12 +43324,15 @@
         <v>86</v>
       </c>
       <c r="D1535" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1535" t="s">
         <v>3027</v>
       </c>
       <c r="O1535" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1535" t="s">
         <v>23</v>
       </c>
     </row>
@@ -43344,16 +43344,16 @@
         <v>19</v>
       </c>
       <c r="C1536" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D1536" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1536" t="s">
         <v>3029</v>
       </c>
       <c r="O1536" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1537">
@@ -43364,10 +43364,10 @@
         <v>19</v>
       </c>
       <c r="C1537" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1537" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1537" t="s">
         <v>3031</v>
@@ -43384,18 +43384,15 @@
         <v>19</v>
       </c>
       <c r="C1538" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1538" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1538" t="s">
         <v>3033</v>
       </c>
       <c r="O1538" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1538" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43404,13 +43401,13 @@
         <v>3034</v>
       </c>
       <c r="B1539" t="s">
-        <v>2551</v>
+        <v>19</v>
       </c>
       <c r="C1539" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1539" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1539" t="s">
         <v>3035</v>
@@ -43427,13 +43424,13 @@
         <v>3036</v>
       </c>
       <c r="B1540" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1540" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1540" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1540" t="s">
         <v>3037</v>
@@ -43450,22 +43447,22 @@
         <v>3038</v>
       </c>
       <c r="B1541" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1541" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D1541" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1541" t="s">
         <v>3039</v>
       </c>
       <c r="O1541" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1541" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1542">
@@ -43473,18 +43470,21 @@
         <v>3040</v>
       </c>
       <c r="B1542" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1542" t="s">
         <v>86</v>
       </c>
       <c r="D1542" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1542" t="s">
         <v>3041</v>
       </c>
       <c r="O1542" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1542" t="s">
         <v>23</v>
       </c>
     </row>
@@ -43493,19 +43493,19 @@
         <v>3042</v>
       </c>
       <c r="B1543" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1543" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D1543" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1543" t="s">
         <v>3043</v>
       </c>
       <c r="O1543" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1544">
@@ -43513,13 +43513,13 @@
         <v>3044</v>
       </c>
       <c r="B1544" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C1544" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1544" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="E1544" t="s">
         <v>3045</v>
@@ -43533,21 +43533,24 @@
         <v>3046</v>
       </c>
       <c r="B1545" t="s">
-        <v>19</v>
+        <v>2553</v>
       </c>
       <c r="C1545" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1545" t="s">
-        <v>21</v>
+        <v>3020</v>
       </c>
       <c r="E1545" t="s">
-        <v>87</v>
+        <v>3047</v>
+      </c>
+      <c r="O1545" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="B1546" t="s">
         <v>19</v>
@@ -43559,24 +43562,24 @@
         <v>21</v>
       </c>
       <c r="E1546" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B1547" t="s">
         <v>19</v>
       </c>
       <c r="C1547" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D1547" t="s">
         <v>21</v>
       </c>
       <c r="E1547" t="s">
-        <v>3049</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1548">
@@ -43587,10 +43590,10 @@
         <v>19</v>
       </c>
       <c r="C1548" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D1548" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="E1548" t="s">
         <v>3051</v>
@@ -43604,10 +43607,10 @@
         <v>19</v>
       </c>
       <c r="C1549" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1549" t="s">
-        <v>604</v>
+        <v>204</v>
       </c>
       <c r="E1549" t="s">
         <v>3053</v>
@@ -43621,18 +43624,18 @@
         <v>19</v>
       </c>
       <c r="C1550" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D1550" t="s">
         <v>604</v>
       </c>
       <c r="E1550" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="B1551" t="s">
         <v>19</v>
@@ -43644,41 +43647,41 @@
         <v>604</v>
       </c>
       <c r="E1551" t="s">
-        <v>2192</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="B1552" t="s">
         <v>19</v>
       </c>
       <c r="C1552" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D1552" t="s">
         <v>604</v>
       </c>
       <c r="E1552" t="s">
-        <v>3053</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B1553" t="s">
         <v>19</v>
       </c>
       <c r="C1553" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1553" t="s">
-        <v>797</v>
+        <v>604</v>
       </c>
       <c r="E1553" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1554">
@@ -43689,10 +43692,10 @@
         <v>19</v>
       </c>
       <c r="C1554" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D1554" t="s">
-        <v>1210</v>
+        <v>797</v>
       </c>
       <c r="E1554" t="s">
         <v>3060</v>
@@ -43709,27 +43712,27 @@
         <v>109</v>
       </c>
       <c r="D1555" t="s">
-        <v>1703</v>
+        <v>1210</v>
       </c>
       <c r="E1555" t="s">
-        <v>1621</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="B1556" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1556" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D1556" t="s">
-        <v>2167</v>
+        <v>1703</v>
       </c>
       <c r="E1556" t="s">
-        <v>3063</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1557">
@@ -43740,7 +43743,7 @@
         <v>128</v>
       </c>
       <c r="C1557" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1557" t="s">
         <v>2167</v>
@@ -43777,7 +43780,7 @@
         <v>118</v>
       </c>
       <c r="D1559" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="E1559" t="s">
         <v>3069</v>
@@ -43794,7 +43797,7 @@
         <v>20</v>
       </c>
       <c r="D1560" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1560" t="s">
         <v>3071</v>
@@ -43811,7 +43814,7 @@
         <v>86</v>
       </c>
       <c r="D1561" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1561" t="s">
         <v>3071</v>
@@ -43828,7 +43831,7 @@
         <v>109</v>
       </c>
       <c r="D1562" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1562" t="s">
         <v>3074</v>
@@ -43845,7 +43848,7 @@
         <v>118</v>
       </c>
       <c r="D1563" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E1563" t="s">
         <v>3076</v>
@@ -43862,7 +43865,7 @@
         <v>20</v>
       </c>
       <c r="D1564" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1564" t="s">
         <v>3078</v>
@@ -43879,10 +43882,10 @@
         <v>46</v>
       </c>
       <c r="D1565" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E1565" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1566">
@@ -43896,7 +43899,7 @@
         <v>118</v>
       </c>
       <c r="D1566" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1566" t="s">
         <v>3081</v>
@@ -43913,10 +43916,10 @@
         <v>118</v>
       </c>
       <c r="D1567" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E1567" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
     </row>
   </sheetData>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10866" uniqueCount="3204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10868" uniqueCount="3204">
   <si>
     <t>Vehicles</t>
   </si>
@@ -7904,6 +7904,12 @@
     <t>T-55AM-1</t>
   </si>
   <si>
+    <t>ussr_zsu_37_2</t>
+  </si>
+  <si>
+    <t>ZSU-37-2</t>
+  </si>
+  <si>
     <t>sw_strv_103c</t>
   </si>
   <si>
@@ -8207,6 +8213,12 @@
     <t>F-84F</t>
   </si>
   <si>
+    <t>mig-15bis_nr23_german</t>
+  </si>
+  <si>
+    <t>MiG-15bis</t>
+  </si>
+  <si>
     <t>fiat_g91_r1</t>
   </si>
   <si>
@@ -8225,9 +8237,6 @@
     <t>mig-15</t>
   </si>
   <si>
-    <t>MiG-15bis</t>
-  </si>
-  <si>
     <t>mig-15bis_ish</t>
   </si>
   <si>
@@ -9606,15 +9615,6 @@
   </si>
   <si>
     <t>Type 69-IIa</t>
-  </si>
-  <si>
-    <t>ussr_zsu_37_2</t>
-  </si>
-  <si>
-    <t>ZSU-37-2</t>
-  </si>
-  <si>
-    <t>mig-15bis_nr23_german</t>
   </si>
   <si>
     <t>us_xm1_chrysler</t>
@@ -39382,7 +39382,7 @@
         <v>19</v>
       </c>
       <c r="C1337" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1337" t="s">
         <v>2596</v>
@@ -39391,7 +39391,7 @@
         <v>2631</v>
       </c>
       <c r="N1337" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1338">
@@ -39422,7 +39422,7 @@
         <v>19</v>
       </c>
       <c r="C1339" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1339" t="s">
         <v>2596</v>
@@ -39431,9 +39431,6 @@
         <v>2635</v>
       </c>
       <c r="N1339" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1339" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39456,6 +39453,9 @@
       <c r="N1340" t="s">
         <v>48</v>
       </c>
+      <c r="P1340" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" t="s">
@@ -39513,10 +39513,7 @@
       <c r="E1343" t="s">
         <v>2643</v>
       </c>
-      <c r="O1343" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1343" t="s">
+      <c r="N1343" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39528,7 +39525,7 @@
         <v>19</v>
       </c>
       <c r="C1344" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1344" t="s">
         <v>2596</v>
@@ -39536,7 +39533,7 @@
       <c r="E1344" t="s">
         <v>2645</v>
       </c>
-      <c r="N1344" t="s">
+      <c r="O1344" t="s">
         <v>48</v>
       </c>
       <c r="P1344" t="s">
@@ -39562,16 +39559,19 @@
       <c r="N1345" t="s">
         <v>48</v>
       </c>
+      <c r="P1345" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" t="s">
         <v>2648</v>
       </c>
       <c r="B1346" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1346" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1346" t="s">
         <v>2596</v>
@@ -39579,7 +39579,7 @@
       <c r="E1346" t="s">
         <v>2649</v>
       </c>
-      <c r="O1346" t="s">
+      <c r="N1346" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39591,7 +39591,7 @@
         <v>126</v>
       </c>
       <c r="C1347" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1347" t="s">
         <v>2596</v>
@@ -39599,10 +39599,7 @@
       <c r="E1347" t="s">
         <v>2651</v>
       </c>
-      <c r="M1347" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1347" t="s">
+      <c r="O1347" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39614,7 +39611,7 @@
         <v>126</v>
       </c>
       <c r="C1348" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1348" t="s">
         <v>2596</v>
@@ -39622,10 +39619,10 @@
       <c r="E1348" t="s">
         <v>2653</v>
       </c>
+      <c r="M1348" t="s">
+        <v>48</v>
+      </c>
       <c r="N1348" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1348" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39637,7 +39634,7 @@
         <v>126</v>
       </c>
       <c r="C1349" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1349" t="s">
         <v>2596</v>
@@ -39646,10 +39643,10 @@
         <v>2655</v>
       </c>
       <c r="N1349" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O1349" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1350">
@@ -39660,7 +39657,7 @@
         <v>126</v>
       </c>
       <c r="C1350" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1350" t="s">
         <v>2596</v>
@@ -39669,10 +39666,10 @@
         <v>2657</v>
       </c>
       <c r="N1350" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1350" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1351">
@@ -39714,6 +39711,9 @@
       <c r="E1352" t="s">
         <v>2661</v>
       </c>
+      <c r="N1352" t="s">
+        <v>48</v>
+      </c>
       <c r="O1352" t="s">
         <v>48</v>
       </c>
@@ -39766,16 +39766,13 @@
         <v>126</v>
       </c>
       <c r="C1355" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1355" t="s">
         <v>2596</v>
       </c>
       <c r="E1355" t="s">
         <v>2667</v>
-      </c>
-      <c r="N1355" t="s">
-        <v>48</v>
       </c>
       <c r="O1355" t="s">
         <v>48</v>
@@ -39789,7 +39786,7 @@
         <v>126</v>
       </c>
       <c r="C1356" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1356" t="s">
         <v>2596</v>
@@ -39798,6 +39795,9 @@
         <v>2669</v>
       </c>
       <c r="N1356" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1356" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39837,7 +39837,7 @@
       <c r="E1358" t="s">
         <v>2673</v>
       </c>
-      <c r="O1358" t="s">
+      <c r="N1358" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39846,10 +39846,10 @@
         <v>2674</v>
       </c>
       <c r="B1359" t="s">
-        <v>2589</v>
+        <v>126</v>
       </c>
       <c r="C1359" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1359" t="s">
         <v>2596</v>
@@ -39857,7 +39857,7 @@
       <c r="E1359" t="s">
         <v>2675</v>
       </c>
-      <c r="P1359" t="s">
+      <c r="O1359" t="s">
         <v>48</v>
       </c>
     </row>
@@ -39869,7 +39869,7 @@
         <v>2589</v>
       </c>
       <c r="C1360" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D1360" t="s">
         <v>2596</v>
@@ -39877,11 +39877,8 @@
       <c r="E1360" t="s">
         <v>2677</v>
       </c>
-      <c r="N1360" t="s">
-        <v>23</v>
-      </c>
       <c r="P1360" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1361">
@@ -39892,47 +39889,47 @@
         <v>2589</v>
       </c>
       <c r="C1361" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1361" t="s">
         <v>2596</v>
       </c>
       <c r="E1361" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="N1361" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1361" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="B1362" t="s">
-        <v>19</v>
+        <v>2589</v>
       </c>
       <c r="C1362" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1362" t="s">
-        <v>2680</v>
+        <v>2596</v>
       </c>
       <c r="E1362" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="N1362" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1362" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1362" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B1363" t="s">
         <v>19</v>
@@ -39941,7 +39938,7 @@
         <v>20</v>
       </c>
       <c r="D1363" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1363" t="s">
         <v>2683</v>
@@ -39964,7 +39961,7 @@
         <v>20</v>
       </c>
       <c r="D1364" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1364" t="s">
         <v>2685</v>
@@ -39987,10 +39984,13 @@
         <v>20</v>
       </c>
       <c r="D1365" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1365" t="s">
         <v>2687</v>
+      </c>
+      <c r="N1365" t="s">
+        <v>23</v>
       </c>
       <c r="O1365" t="s">
         <v>23</v>
@@ -40004,19 +40004,16 @@
         <v>19</v>
       </c>
       <c r="C1366" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1366" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1366" t="s">
         <v>2689</v>
       </c>
-      <c r="N1366" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1366" t="s">
-        <v>48</v>
+      <c r="O1366" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1367">
@@ -40027,10 +40024,10 @@
         <v>19</v>
       </c>
       <c r="C1367" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1367" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1367" t="s">
         <v>2691</v>
@@ -40053,7 +40050,7 @@
         <v>46</v>
       </c>
       <c r="D1368" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1368" t="s">
         <v>2693</v>
@@ -40076,12 +40073,15 @@
         <v>46</v>
       </c>
       <c r="D1369" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1369" t="s">
         <v>2695</v>
       </c>
-      <c r="O1369" t="s">
+      <c r="N1369" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1369" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40093,18 +40093,15 @@
         <v>19</v>
       </c>
       <c r="C1370" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1370" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1370" t="s">
         <v>2697</v>
       </c>
-      <c r="N1370" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1370" t="s">
+      <c r="O1370" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40116,10 +40113,10 @@
         <v>19</v>
       </c>
       <c r="C1371" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1371" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1371" t="s">
         <v>2699</v>
@@ -40142,12 +40139,15 @@
         <v>73</v>
       </c>
       <c r="D1372" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1372" t="s">
         <v>2701</v>
       </c>
       <c r="N1372" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1372" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40159,16 +40159,16 @@
         <v>19</v>
       </c>
       <c r="C1373" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1373" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1373" t="s">
         <v>2703</v>
       </c>
       <c r="N1373" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1374">
@@ -40182,18 +40182,12 @@
         <v>84</v>
       </c>
       <c r="D1374" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1374" t="s">
         <v>2705</v>
       </c>
       <c r="N1374" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1374" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1374" t="s">
         <v>23</v>
       </c>
     </row>
@@ -40208,12 +40202,15 @@
         <v>84</v>
       </c>
       <c r="D1375" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1375" t="s">
         <v>2707</v>
       </c>
       <c r="N1375" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1375" t="s">
         <v>23</v>
       </c>
       <c r="P1375" t="s">
@@ -40231,15 +40228,12 @@
         <v>84</v>
       </c>
       <c r="D1376" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1376" t="s">
         <v>2709</v>
       </c>
       <c r="N1376" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1376" t="s">
         <v>23</v>
       </c>
       <c r="P1376" t="s">
@@ -40257,10 +40251,13 @@
         <v>84</v>
       </c>
       <c r="D1377" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1377" t="s">
         <v>2711</v>
+      </c>
+      <c r="N1377" t="s">
+        <v>23</v>
       </c>
       <c r="O1377" t="s">
         <v>23</v>
@@ -40280,12 +40277,15 @@
         <v>84</v>
       </c>
       <c r="D1378" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1378" t="s">
         <v>2713</v>
       </c>
       <c r="O1378" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1378" t="s">
         <v>23</v>
       </c>
     </row>
@@ -40297,16 +40297,16 @@
         <v>19</v>
       </c>
       <c r="C1379" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D1379" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1379" t="s">
         <v>2715</v>
       </c>
       <c r="O1379" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1380">
@@ -40317,18 +40317,15 @@
         <v>19</v>
       </c>
       <c r="C1380" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1380" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1380" t="s">
         <v>2717</v>
       </c>
-      <c r="N1380" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1380" t="s">
+      <c r="O1380" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40343,12 +40340,15 @@
         <v>116</v>
       </c>
       <c r="D1381" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1381" t="s">
         <v>2719</v>
       </c>
       <c r="N1381" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1381" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40357,19 +40357,19 @@
         <v>2720</v>
       </c>
       <c r="B1382" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1382" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1382" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1382" t="s">
         <v>2721</v>
       </c>
       <c r="N1382" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1383">
@@ -40383,15 +40383,12 @@
         <v>20</v>
       </c>
       <c r="D1383" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1383" t="s">
         <v>2723</v>
       </c>
       <c r="N1383" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1383" t="s">
         <v>23</v>
       </c>
     </row>
@@ -40403,19 +40400,19 @@
         <v>126</v>
       </c>
       <c r="C1384" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1384" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1384" t="s">
         <v>2725</v>
       </c>
       <c r="N1384" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1384" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1385">
@@ -40429,12 +40426,15 @@
         <v>29</v>
       </c>
       <c r="D1385" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1385" t="s">
         <v>2727</v>
       </c>
       <c r="N1385" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1385" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40449,10 +40449,10 @@
         <v>29</v>
       </c>
       <c r="D1386" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1386" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="N1386" t="s">
         <v>48</v>
@@ -40460,19 +40460,19 @@
     </row>
     <row r="1387">
       <c r="A1387" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E1387" t="s">
         <v>2729</v>
-      </c>
-      <c r="B1387" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1387" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1387" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E1387" t="s">
-        <v>2730</v>
       </c>
       <c r="N1387" t="s">
         <v>48</v>
@@ -40486,18 +40486,15 @@
         <v>126</v>
       </c>
       <c r="C1388" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1388" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1388" t="s">
         <v>2732</v>
       </c>
       <c r="N1388" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1388" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40509,13 +40506,13 @@
         <v>126</v>
       </c>
       <c r="C1389" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1389" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1389" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="N1389" t="s">
         <v>48</v>
@@ -40523,19 +40520,19 @@
     </row>
     <row r="1390">
       <c r="A1390" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="B1390" t="s">
         <v>126</v>
       </c>
       <c r="C1390" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1390" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1390" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="N1390" t="s">
         <v>48</v>
@@ -40546,25 +40543,22 @@
     </row>
     <row r="1391">
       <c r="A1391" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="B1391" t="s">
         <v>126</v>
       </c>
       <c r="C1391" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1391" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1391" t="s">
-        <v>2737</v>
+        <v>2732</v>
       </c>
       <c r="N1391" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1391" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1392">
@@ -40575,19 +40569,19 @@
         <v>126</v>
       </c>
       <c r="C1392" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1392" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1392" t="s">
         <v>2739</v>
       </c>
       <c r="N1392" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O1392" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1393">
@@ -40598,41 +40592,47 @@
         <v>126</v>
       </c>
       <c r="C1393" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D1393" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1393" t="s">
-        <v>2741</v>
+        <v>2734</v>
+      </c>
+      <c r="N1393" t="s">
+        <v>23</v>
       </c>
       <c r="O1393" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E1394" t="s">
         <v>2742</v>
       </c>
-      <c r="B1394" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1394" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1394" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E1394" t="s">
-        <v>2743</v>
+      <c r="N1394" t="s">
+        <v>23</v>
       </c>
       <c r="O1394" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1395" t="s">
         <v>126</v>
@@ -40641,10 +40641,10 @@
         <v>107</v>
       </c>
       <c r="D1395" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1395" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="O1395" t="s">
         <v>48</v>
@@ -40652,22 +40652,19 @@
     </row>
     <row r="1396">
       <c r="A1396" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E1396" t="s">
         <v>2746</v>
-      </c>
-      <c r="B1396" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1396" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1396" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E1396" t="s">
-        <v>2747</v>
-      </c>
-      <c r="N1396" t="s">
-        <v>48</v>
       </c>
       <c r="O1396" t="s">
         <v>48</v>
@@ -40675,22 +40672,19 @@
     </row>
     <row r="1397">
       <c r="A1397" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E1397" t="s">
         <v>2748</v>
-      </c>
-      <c r="B1397" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1397" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1397" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E1397" t="s">
-        <v>2749</v>
-      </c>
-      <c r="N1397" t="s">
-        <v>48</v>
       </c>
       <c r="O1397" t="s">
         <v>48</v>
@@ -40698,7 +40692,7 @@
     </row>
     <row r="1398">
       <c r="A1398" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B1398" t="s">
         <v>126</v>
@@ -40707,12 +40701,15 @@
         <v>116</v>
       </c>
       <c r="D1398" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1398" t="s">
-        <v>2730</v>
+        <v>2750</v>
       </c>
       <c r="N1398" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1398" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40721,13 +40718,13 @@
         <v>2751</v>
       </c>
       <c r="B1399" t="s">
-        <v>2589</v>
+        <v>126</v>
       </c>
       <c r="C1399" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1399" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1399" t="s">
         <v>2752</v>
@@ -40735,7 +40732,7 @@
       <c r="N1399" t="s">
         <v>48</v>
       </c>
-      <c r="P1399" t="s">
+      <c r="O1399" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40744,21 +40741,18 @@
         <v>2753</v>
       </c>
       <c r="B1400" t="s">
-        <v>2589</v>
+        <v>126</v>
       </c>
       <c r="C1400" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1400" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1400" t="s">
-        <v>2752</v>
+        <v>2732</v>
       </c>
       <c r="N1400" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1400" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40770,18 +40764,15 @@
         <v>2589</v>
       </c>
       <c r="C1401" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D1401" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1401" t="s">
         <v>2755</v>
       </c>
       <c r="N1401" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1401" t="s">
         <v>48</v>
       </c>
       <c r="P1401" t="s">
@@ -40796,13 +40787,13 @@
         <v>2589</v>
       </c>
       <c r="C1402" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D1402" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1402" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="N1402" t="s">
         <v>48</v>
@@ -40813,21 +40804,24 @@
     </row>
     <row r="1403">
       <c r="A1403" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B1403" t="s">
         <v>2589</v>
       </c>
       <c r="C1403" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1403" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1403" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="N1403" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1403" t="s">
         <v>48</v>
       </c>
       <c r="P1403" t="s">
@@ -40836,44 +40830,44 @@
     </row>
     <row r="1404">
       <c r="A1404" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E1404" t="s">
         <v>2760</v>
       </c>
-      <c r="B1404" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1404" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1404" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1404" t="s">
-        <v>2762</v>
-      </c>
-      <c r="O1404" t="s">
-        <v>23</v>
+      <c r="N1404" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1404" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="B1405" t="s">
-        <v>19</v>
+        <v>2589</v>
       </c>
       <c r="C1405" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1405" t="s">
-        <v>2761</v>
+        <v>2682</v>
       </c>
       <c r="E1405" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="N1405" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1405" t="s">
         <v>48</v>
       </c>
       <c r="P1405" t="s">
@@ -40882,53 +40876,53 @@
     </row>
     <row r="1406">
       <c r="A1406" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1406" t="s">
         <v>2765</v>
       </c>
-      <c r="B1406" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1406" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1406" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1406" t="s">
-        <v>2766</v>
-      </c>
-      <c r="N1406" t="s">
-        <v>48</v>
-      </c>
       <c r="O1406" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1406" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1407" t="s">
         <v>2767</v>
       </c>
-      <c r="B1407" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1407" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1407" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1407" t="s">
-        <v>2768</v>
-      </c>
       <c r="N1407" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1407" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1407" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B1408" t="s">
         <v>19</v>
@@ -40937,18 +40931,24 @@
         <v>46</v>
       </c>
       <c r="D1408" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1408" t="s">
-        <v>2770</v>
+        <v>2769</v>
+      </c>
+      <c r="N1408" t="s">
+        <v>48</v>
       </c>
       <c r="O1408" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1408" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B1409" t="s">
         <v>19</v>
@@ -40957,58 +40957,52 @@
         <v>46</v>
       </c>
       <c r="D1409" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1409" t="s">
-        <v>2772</v>
-      </c>
-      <c r="O1409" t="s">
+        <v>2771</v>
+      </c>
+      <c r="N1409" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1410" t="s">
         <v>2773</v>
       </c>
-      <c r="B1410" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1410" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1410" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1410" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N1410" t="s">
-        <v>48</v>
-      </c>
       <c r="O1410" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1410" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1411" t="s">
         <v>2775</v>
       </c>
-      <c r="B1411" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1411" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1411" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1411" t="s">
-        <v>2768</v>
-      </c>
-      <c r="N1411" t="s">
+      <c r="O1411" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41023,10 +41017,13 @@
         <v>60</v>
       </c>
       <c r="D1412" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1412" t="s">
         <v>2777</v>
+      </c>
+      <c r="N1412" t="s">
+        <v>48</v>
       </c>
       <c r="O1412" t="s">
         <v>48</v>
@@ -41043,39 +41040,33 @@
         <v>19</v>
       </c>
       <c r="C1413" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1413" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1413" t="s">
-        <v>2779</v>
+        <v>2771</v>
       </c>
       <c r="N1413" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1413" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1413" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1414" t="s">
         <v>2780</v>
-      </c>
-      <c r="B1414" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1414" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1414" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1414" t="s">
-        <v>2781</v>
       </c>
       <c r="O1414" t="s">
         <v>48</v>
@@ -41086,39 +41077,45 @@
     </row>
     <row r="1415">
       <c r="A1415" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1415" t="s">
         <v>2782</v>
       </c>
-      <c r="B1415" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1415" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1415" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1415" t="s">
-        <v>2783</v>
+      <c r="N1415" t="s">
+        <v>48</v>
       </c>
       <c r="O1415" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1415" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1416" t="s">
         <v>2784</v>
-      </c>
-      <c r="B1416" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1416" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1416" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1416" t="s">
-        <v>2785</v>
       </c>
       <c r="O1416" t="s">
         <v>48</v>
@@ -41129,19 +41126,19 @@
     </row>
     <row r="1417">
       <c r="A1417" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1417" t="s">
         <v>2786</v>
-      </c>
-      <c r="B1417" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1417" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1417" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1417" t="s">
-        <v>2787</v>
       </c>
       <c r="O1417" t="s">
         <v>48</v>
@@ -41149,47 +41146,50 @@
     </row>
     <row r="1418">
       <c r="A1418" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1418" t="s">
         <v>2788</v>
       </c>
-      <c r="B1418" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1418" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1418" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1418" t="s">
-        <v>2789</v>
-      </c>
-      <c r="N1418" t="s">
+      <c r="O1418" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1418" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1419" t="s">
         <v>2790</v>
       </c>
-      <c r="B1419" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1419" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1419" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1419" t="s">
-        <v>2791</v>
-      </c>
-      <c r="N1419" t="s">
+      <c r="O1419" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B1420" t="s">
         <v>19</v>
@@ -41198,21 +41198,18 @@
         <v>116</v>
       </c>
       <c r="D1420" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1420" t="s">
-        <v>2793</v>
-      </c>
-      <c r="O1420" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1420" t="s">
+        <v>2792</v>
+      </c>
+      <c r="N1420" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1421" t="s">
         <v>19</v>
@@ -41221,50 +41218,53 @@
         <v>116</v>
       </c>
       <c r="D1421" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1421" t="s">
-        <v>2795</v>
-      </c>
-      <c r="O1421" t="s">
+        <v>2794</v>
+      </c>
+      <c r="N1421" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1422" t="s">
         <v>2796</v>
       </c>
-      <c r="B1422" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1422" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1422" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1422" t="s">
-        <v>2797</v>
-      </c>
-      <c r="N1422" t="s">
-        <v>23</v>
+      <c r="O1422" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1422" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1423" t="s">
         <v>2798</v>
-      </c>
-      <c r="B1423" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1423" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1423" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1423" t="s">
-        <v>2799</v>
       </c>
       <c r="O1423" t="s">
         <v>48</v>
@@ -41272,27 +41272,27 @@
     </row>
     <row r="1424">
       <c r="A1424" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1424" t="s">
         <v>2800</v>
       </c>
-      <c r="B1424" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1424" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1424" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1424" t="s">
-        <v>2801</v>
-      </c>
-      <c r="O1424" t="s">
-        <v>48</v>
+      <c r="N1424" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B1425" t="s">
         <v>126</v>
@@ -41301,10 +41301,10 @@
         <v>29</v>
       </c>
       <c r="D1425" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1425" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="O1425" t="s">
         <v>48</v>
@@ -41312,7 +41312,7 @@
     </row>
     <row r="1426">
       <c r="A1426" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B1426" t="s">
         <v>126</v>
@@ -41321,10 +41321,10 @@
         <v>29</v>
       </c>
       <c r="D1426" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1426" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="O1426" t="s">
         <v>48</v>
@@ -41332,22 +41332,19 @@
     </row>
     <row r="1427">
       <c r="A1427" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1427" t="s">
         <v>2806</v>
-      </c>
-      <c r="B1427" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1427" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1427" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1427" t="s">
-        <v>2807</v>
-      </c>
-      <c r="N1427" t="s">
-        <v>48</v>
       </c>
       <c r="O1427" t="s">
         <v>48</v>
@@ -41355,19 +41352,19 @@
     </row>
     <row r="1428">
       <c r="A1428" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1428" t="s">
         <v>2808</v>
-      </c>
-      <c r="B1428" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1428" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1428" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1428" t="s">
-        <v>2809</v>
       </c>
       <c r="O1428" t="s">
         <v>48</v>
@@ -41375,7 +41372,7 @@
     </row>
     <row r="1429">
       <c r="A1429" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B1429" t="s">
         <v>126</v>
@@ -41384,10 +41381,13 @@
         <v>46</v>
       </c>
       <c r="D1429" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1429" t="s">
-        <v>2811</v>
+        <v>2810</v>
+      </c>
+      <c r="N1429" t="s">
+        <v>48</v>
       </c>
       <c r="O1429" t="s">
         <v>48</v>
@@ -41395,22 +41395,19 @@
     </row>
     <row r="1430">
       <c r="A1430" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1430" t="s">
         <v>2812</v>
-      </c>
-      <c r="B1430" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1430" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1430" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1430" t="s">
-        <v>2813</v>
-      </c>
-      <c r="N1430" t="s">
-        <v>48</v>
       </c>
       <c r="O1430" t="s">
         <v>48</v>
@@ -41418,19 +41415,19 @@
     </row>
     <row r="1431">
       <c r="A1431" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1431" t="s">
         <v>2814</v>
-      </c>
-      <c r="B1431" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1431" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1431" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1431" t="s">
-        <v>2811</v>
       </c>
       <c r="O1431" t="s">
         <v>48</v>
@@ -41444,19 +41441,19 @@
         <v>126</v>
       </c>
       <c r="C1432" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1432" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1432" t="s">
         <v>2816</v>
       </c>
       <c r="N1432" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O1432" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1433">
@@ -41467,79 +41464,76 @@
         <v>126</v>
       </c>
       <c r="C1433" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1433" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1433" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="O1433" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1434" t="s">
         <v>2819</v>
       </c>
-      <c r="B1434" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1434" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1434" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1434" t="s">
-        <v>2820</v>
-      </c>
       <c r="N1434" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1434" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1435" t="s">
         <v>2821</v>
       </c>
-      <c r="B1435" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1435" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1435" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1435" t="s">
-        <v>2822</v>
-      </c>
-      <c r="N1435" t="s">
-        <v>48</v>
-      </c>
       <c r="O1435" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1436" t="s">
         <v>2823</v>
-      </c>
-      <c r="B1436" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1436" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1436" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1436" t="s">
-        <v>2824</v>
       </c>
       <c r="N1436" t="s">
         <v>48</v>
@@ -41550,19 +41544,19 @@
     </row>
     <row r="1437">
       <c r="A1437" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1437" t="s">
         <v>2825</v>
-      </c>
-      <c r="B1437" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1437" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1437" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1437" t="s">
-        <v>2826</v>
       </c>
       <c r="N1437" t="s">
         <v>48</v>
@@ -41573,19 +41567,19 @@
     </row>
     <row r="1438">
       <c r="A1438" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1438" t="s">
         <v>2827</v>
-      </c>
-      <c r="B1438" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1438" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1438" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1438" t="s">
-        <v>2828</v>
       </c>
       <c r="N1438" t="s">
         <v>48</v>
@@ -41596,7 +41590,7 @@
     </row>
     <row r="1439">
       <c r="A1439" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B1439" t="s">
         <v>126</v>
@@ -41605,10 +41599,13 @@
         <v>116</v>
       </c>
       <c r="D1439" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1439" t="s">
-        <v>2830</v>
+        <v>2829</v>
+      </c>
+      <c r="N1439" t="s">
+        <v>48</v>
       </c>
       <c r="O1439" t="s">
         <v>48</v>
@@ -41616,7 +41613,7 @@
     </row>
     <row r="1440">
       <c r="A1440" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B1440" t="s">
         <v>126</v>
@@ -41625,10 +41622,13 @@
         <v>116</v>
       </c>
       <c r="D1440" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1440" t="s">
-        <v>2832</v>
+        <v>2831</v>
+      </c>
+      <c r="N1440" t="s">
+        <v>48</v>
       </c>
       <c r="O1440" t="s">
         <v>48</v>
@@ -41636,7 +41636,7 @@
     </row>
     <row r="1441">
       <c r="A1441" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B1441" t="s">
         <v>126</v>
@@ -41645,10 +41645,10 @@
         <v>116</v>
       </c>
       <c r="D1441" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1441" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="O1441" t="s">
         <v>48</v>
@@ -41656,7 +41656,7 @@
     </row>
     <row r="1442">
       <c r="A1442" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B1442" t="s">
         <v>126</v>
@@ -41665,10 +41665,10 @@
         <v>116</v>
       </c>
       <c r="D1442" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1442" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="O1442" t="s">
         <v>48</v>
@@ -41676,154 +41676,151 @@
     </row>
     <row r="1443">
       <c r="A1443" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1443" t="s">
         <v>2837</v>
       </c>
-      <c r="B1443" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1443" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1443" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1443" t="s">
-        <v>2838</v>
-      </c>
-      <c r="N1443" t="s">
-        <v>48</v>
-      </c>
       <c r="O1443" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1443" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1444" t="s">
         <v>2839</v>
       </c>
-      <c r="B1444" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1444" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1444" t="s">
-        <v>2761</v>
-      </c>
-      <c r="E1444" t="s">
-        <v>2840</v>
-      </c>
-      <c r="N1444" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1444" t="s">
+      <c r="O1444" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B1445" t="s">
         <v>2589</v>
       </c>
       <c r="C1445" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D1445" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1445" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="N1445" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="O1445" t="s">
+        <v>48</v>
       </c>
       <c r="P1445" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1446" t="s">
         <v>2843</v>
       </c>
-      <c r="B1446" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1446" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1446" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1446" t="s">
-        <v>2845</v>
-      </c>
-      <c r="O1446" t="s">
-        <v>23</v>
+      <c r="N1446" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1446" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="B1447" t="s">
-        <v>19</v>
+        <v>2589</v>
       </c>
       <c r="C1447" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D1447" t="s">
-        <v>2844</v>
+        <v>2764</v>
       </c>
       <c r="E1447" t="s">
-        <v>2847</v>
-      </c>
-      <c r="O1447" t="s">
-        <v>48</v>
+        <v>2845</v>
+      </c>
+      <c r="N1447" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1447" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1448" t="s">
         <v>2848</v>
       </c>
-      <c r="B1448" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1448" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1448" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1448" t="s">
-        <v>2849</v>
-      </c>
       <c r="O1448" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1448" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1449" t="s">
         <v>2850</v>
-      </c>
-      <c r="B1449" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1449" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1449" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1449" t="s">
-        <v>2851</v>
       </c>
       <c r="O1449" t="s">
         <v>48</v>
@@ -41831,7 +41828,7 @@
     </row>
     <row r="1450">
       <c r="A1450" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1450" t="s">
         <v>19</v>
@@ -41840,67 +41837,61 @@
         <v>46</v>
       </c>
       <c r="D1450" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1450" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="O1450" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1450" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1451" t="s">
         <v>2854</v>
       </c>
-      <c r="B1451" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1451" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1451" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1451" t="s">
-        <v>2855</v>
-      </c>
-      <c r="N1451" t="s">
-        <v>23</v>
-      </c>
       <c r="O1451" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1451" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1452" t="s">
         <v>2856</v>
       </c>
-      <c r="B1452" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1452" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1452" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1452" t="s">
-        <v>2857</v>
-      </c>
       <c r="O1452" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1452" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1453" t="s">
         <v>19</v>
@@ -41909,156 +41900,165 @@
         <v>84</v>
       </c>
       <c r="D1453" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1453" t="s">
-        <v>2859</v>
+        <v>2858</v>
+      </c>
+      <c r="N1453" t="s">
+        <v>23</v>
       </c>
       <c r="O1453" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1453" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1454" t="s">
         <v>2860</v>
       </c>
-      <c r="B1454" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1454" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1454" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1454" t="s">
-        <v>2861</v>
-      </c>
       <c r="O1454" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1454" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1455" t="s">
         <v>2862</v>
       </c>
-      <c r="B1455" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1455" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1455" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1455" t="s">
-        <v>2863</v>
-      </c>
       <c r="O1455" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1455" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1456" t="s">
         <v>2864</v>
       </c>
-      <c r="B1456" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1456" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1456" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1456" t="s">
-        <v>2865</v>
-      </c>
       <c r="O1456" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1456" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1457" t="s">
         <v>2866</v>
       </c>
-      <c r="B1457" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1457" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1457" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1457" t="s">
-        <v>2867</v>
-      </c>
       <c r="O1457" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1457" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1458" t="s">
         <v>2868</v>
       </c>
-      <c r="B1458" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1458" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1458" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1458" t="s">
-        <v>2869</v>
-      </c>
       <c r="O1458" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1459" t="s">
         <v>2870</v>
       </c>
-      <c r="B1459" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1459" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1459" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1459" t="s">
-        <v>2871</v>
-      </c>
       <c r="O1459" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1460" t="s">
         <v>2872</v>
-      </c>
-      <c r="B1460" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1460" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1460" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1460" t="s">
-        <v>2873</v>
       </c>
       <c r="O1460" t="s">
         <v>48</v>
@@ -42066,19 +42066,19 @@
     </row>
     <row r="1461">
       <c r="A1461" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1461" t="s">
         <v>2874</v>
-      </c>
-      <c r="B1461" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1461" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1461" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1461" t="s">
-        <v>2869</v>
       </c>
       <c r="O1461" t="s">
         <v>48</v>
@@ -42092,13 +42092,13 @@
         <v>126</v>
       </c>
       <c r="C1462" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1462" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1462" t="s">
-        <v>2869</v>
+        <v>2876</v>
       </c>
       <c r="O1462" t="s">
         <v>48</v>
@@ -42106,19 +42106,19 @@
     </row>
     <row r="1463">
       <c r="A1463" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="B1463" t="s">
         <v>126</v>
       </c>
       <c r="C1463" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1463" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1463" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="O1463" t="s">
         <v>48</v>
@@ -42132,13 +42132,13 @@
         <v>126</v>
       </c>
       <c r="C1464" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1464" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1464" t="s">
-        <v>2879</v>
+        <v>2872</v>
       </c>
       <c r="O1464" t="s">
         <v>48</v>
@@ -42146,39 +42146,39 @@
     </row>
     <row r="1465">
       <c r="A1465" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1465" t="s">
         <v>2880</v>
       </c>
-      <c r="B1465" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1465" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1465" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1465" t="s">
-        <v>2881</v>
-      </c>
       <c r="O1465" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1466" t="s">
         <v>2882</v>
-      </c>
-      <c r="B1466" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1466" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1466" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1466" t="s">
-        <v>2883</v>
       </c>
       <c r="O1466" t="s">
         <v>48</v>
@@ -42186,39 +42186,39 @@
     </row>
     <row r="1467">
       <c r="A1467" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1467" t="s">
         <v>2884</v>
       </c>
-      <c r="B1467" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1467" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1467" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1467" t="s">
-        <v>2885</v>
-      </c>
       <c r="O1467" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1468" t="s">
         <v>2886</v>
-      </c>
-      <c r="B1468" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1468" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1468" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1468" t="s">
-        <v>2887</v>
       </c>
       <c r="O1468" t="s">
         <v>48</v>
@@ -42226,7 +42226,7 @@
     </row>
     <row r="1469">
       <c r="A1469" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B1469" t="s">
         <v>126</v>
@@ -42235,10 +42235,10 @@
         <v>116</v>
       </c>
       <c r="D1469" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1469" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="O1469" t="s">
         <v>48</v>
@@ -42246,7 +42246,7 @@
     </row>
     <row r="1470">
       <c r="A1470" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B1470" t="s">
         <v>126</v>
@@ -42255,10 +42255,10 @@
         <v>116</v>
       </c>
       <c r="D1470" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1470" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="O1470" t="s">
         <v>48</v>
@@ -42266,45 +42266,39 @@
     </row>
     <row r="1471">
       <c r="A1471" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1471" t="s">
         <v>2892</v>
       </c>
-      <c r="B1471" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1471" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1471" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1471" t="s">
-        <v>2893</v>
-      </c>
-      <c r="N1471" t="s">
-        <v>48</v>
-      </c>
       <c r="O1471" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1471" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1472" t="s">
         <v>2894</v>
-      </c>
-      <c r="B1472" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1472" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1472" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E1472" t="s">
-        <v>2895</v>
       </c>
       <c r="O1472" t="s">
         <v>48</v>
@@ -42312,134 +42306,137 @@
     </row>
     <row r="1473">
       <c r="A1473" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B1473" t="s">
         <v>2589</v>
       </c>
       <c r="C1473" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D1473" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1473" t="s">
-        <v>2897</v>
+        <v>2896</v>
+      </c>
+      <c r="N1473" t="s">
+        <v>48</v>
       </c>
       <c r="O1473" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1473" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B1474" t="s">
         <v>2589</v>
       </c>
       <c r="C1474" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1474" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1474" t="s">
-        <v>2899</v>
-      </c>
-      <c r="N1474" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1474" t="s">
-        <v>23</v>
+        <v>2898</v>
+      </c>
+      <c r="O1474" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B1475" t="s">
         <v>2589</v>
       </c>
       <c r="C1475" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D1475" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1475" t="s">
-        <v>2901</v>
-      </c>
-      <c r="N1475" t="s">
-        <v>48</v>
+        <v>2900</v>
       </c>
       <c r="O1475" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1475" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B1476" t="s">
         <v>2589</v>
       </c>
       <c r="C1476" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1476" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E1476" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="N1476" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1476" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1476" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E1477" t="s">
         <v>2904</v>
       </c>
-      <c r="B1477" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1477" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1477" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1477" t="s">
-        <v>2906</v>
+      <c r="N1477" t="s">
+        <v>48</v>
       </c>
       <c r="O1477" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1477" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="B1478" t="s">
-        <v>19</v>
+        <v>2589</v>
       </c>
       <c r="C1478" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1478" t="s">
-        <v>2905</v>
+        <v>2847</v>
       </c>
       <c r="E1478" t="s">
-        <v>2908</v>
+        <v>2906</v>
+      </c>
+      <c r="N1478" t="s">
+        <v>48</v>
       </c>
       <c r="O1478" t="s">
         <v>48</v>
@@ -42450,42 +42447,39 @@
     </row>
     <row r="1479">
       <c r="A1479" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1479" t="s">
         <v>2909</v>
       </c>
-      <c r="B1479" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1479" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1479" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1479" t="s">
-        <v>2910</v>
-      </c>
       <c r="O1479" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1479" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1480" t="s">
         <v>2911</v>
-      </c>
-      <c r="B1480" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1480" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1480" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1480" t="s">
-        <v>2912</v>
       </c>
       <c r="O1480" t="s">
         <v>48</v>
@@ -42496,19 +42490,19 @@
     </row>
     <row r="1481">
       <c r="A1481" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1481" t="s">
         <v>2913</v>
-      </c>
-      <c r="B1481" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1481" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1481" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1481" t="s">
-        <v>2914</v>
       </c>
       <c r="O1481" t="s">
         <v>48</v>
@@ -42519,19 +42513,19 @@
     </row>
     <row r="1482">
       <c r="A1482" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1482" t="s">
         <v>2915</v>
-      </c>
-      <c r="B1482" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1482" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1482" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1482" t="s">
-        <v>2916</v>
       </c>
       <c r="O1482" t="s">
         <v>48</v>
@@ -42542,70 +42536,73 @@
     </row>
     <row r="1483">
       <c r="A1483" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1483" t="s">
         <v>2917</v>
       </c>
-      <c r="B1483" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1483" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1483" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1483" t="s">
-        <v>2918</v>
-      </c>
       <c r="O1483" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1483" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1484" t="s">
         <v>2919</v>
       </c>
-      <c r="B1484" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1484" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1484" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1484" t="s">
-        <v>2920</v>
-      </c>
       <c r="O1484" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1484" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1485" t="s">
         <v>2921</v>
       </c>
-      <c r="B1485" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1485" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1485" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1485" t="s">
-        <v>2922</v>
-      </c>
       <c r="O1485" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B1486" t="s">
         <v>19</v>
@@ -42614,58 +42611,61 @@
         <v>84</v>
       </c>
       <c r="D1486" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1486" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="O1486" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1486" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1487" t="s">
         <v>2925</v>
       </c>
-      <c r="B1487" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1487" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1487" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1487" t="s">
-        <v>2926</v>
-      </c>
       <c r="O1487" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1488" t="s">
         <v>2927</v>
       </c>
-      <c r="B1488" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1488" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1488" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1488" t="s">
-        <v>2928</v>
-      </c>
       <c r="O1488" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B1489" t="s">
         <v>19</v>
@@ -42674,10 +42674,10 @@
         <v>100</v>
       </c>
       <c r="D1489" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1489" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="O1489" t="s">
         <v>48</v>
@@ -42685,53 +42685,47 @@
     </row>
     <row r="1490">
       <c r="A1490" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1490" t="s">
         <v>2931</v>
       </c>
-      <c r="B1490" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1490" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1490" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1490" t="s">
-        <v>2932</v>
-      </c>
       <c r="O1490" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1490" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1491" t="s">
         <v>2933</v>
       </c>
-      <c r="B1491" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1491" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1491" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1491" t="s">
-        <v>2934</v>
-      </c>
       <c r="O1491" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1491" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1492" t="s">
         <v>19</v>
@@ -42740,10 +42734,10 @@
         <v>107</v>
       </c>
       <c r="D1492" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1492" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="O1492" t="s">
         <v>48</v>
@@ -42754,7 +42748,7 @@
     </row>
     <row r="1493">
       <c r="A1493" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B1493" t="s">
         <v>19</v>
@@ -42763,10 +42757,10 @@
         <v>107</v>
       </c>
       <c r="D1493" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1493" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="O1493" t="s">
         <v>48</v>
@@ -42777,139 +42771,145 @@
     </row>
     <row r="1494">
       <c r="A1494" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1494" t="s">
         <v>2939</v>
       </c>
-      <c r="B1494" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1494" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1494" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1494" t="s">
-        <v>2940</v>
-      </c>
       <c r="O1494" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1494" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1495" t="s">
         <v>2941</v>
       </c>
-      <c r="B1495" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1495" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1495" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1495" t="s">
-        <v>2942</v>
-      </c>
       <c r="O1495" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1495" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1496" t="s">
         <v>2943</v>
       </c>
-      <c r="B1496" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1496" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1496" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1496" t="s">
-        <v>2944</v>
-      </c>
       <c r="O1496" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1497" t="s">
         <v>2945</v>
       </c>
-      <c r="B1497" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1497" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1497" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1497" t="s">
-        <v>2946</v>
-      </c>
       <c r="O1497" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1498" t="s">
         <v>2947</v>
       </c>
-      <c r="B1498" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1498" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1498" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1498" t="s">
-        <v>2948</v>
-      </c>
       <c r="O1498" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1499" t="s">
         <v>2949</v>
       </c>
-      <c r="B1499" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1499" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1499" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1499" t="s">
-        <v>2950</v>
-      </c>
       <c r="O1499" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1500" t="s">
         <v>2951</v>
-      </c>
-      <c r="B1500" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1500" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1500" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1500" t="s">
-        <v>2952</v>
       </c>
       <c r="O1500" t="s">
         <v>48</v>
@@ -42917,47 +42917,47 @@
     </row>
     <row r="1501">
       <c r="A1501" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1501" t="s">
         <v>2953</v>
       </c>
-      <c r="B1501" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1501" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1501" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1501" t="s">
-        <v>2954</v>
-      </c>
       <c r="O1501" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1502" t="s">
         <v>2955</v>
       </c>
-      <c r="B1502" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1502" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1502" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1502" t="s">
-        <v>2956</v>
-      </c>
       <c r="O1502" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B1503" t="s">
         <v>126</v>
@@ -42966,10 +42966,10 @@
         <v>84</v>
       </c>
       <c r="D1503" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1503" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="O1503" t="s">
         <v>23</v>
@@ -42977,59 +42977,59 @@
     </row>
     <row r="1504">
       <c r="A1504" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1504" t="s">
         <v>2959</v>
       </c>
-      <c r="B1504" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1504" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1504" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1504" t="s">
-        <v>2960</v>
-      </c>
       <c r="O1504" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1505" t="s">
         <v>2961</v>
       </c>
-      <c r="B1505" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1505" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1505" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1505" t="s">
-        <v>2962</v>
-      </c>
       <c r="O1505" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1506" t="s">
         <v>2963</v>
-      </c>
-      <c r="B1506" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1506" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1506" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1506" t="s">
-        <v>2964</v>
       </c>
       <c r="O1506" t="s">
         <v>48</v>
@@ -43037,7 +43037,7 @@
     </row>
     <row r="1507">
       <c r="A1507" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B1507" t="s">
         <v>126</v>
@@ -43046,10 +43046,10 @@
         <v>107</v>
       </c>
       <c r="D1507" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1507" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="O1507" t="s">
         <v>48</v>
@@ -43057,7 +43057,7 @@
     </row>
     <row r="1508">
       <c r="A1508" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B1508" t="s">
         <v>126</v>
@@ -43066,10 +43066,10 @@
         <v>107</v>
       </c>
       <c r="D1508" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1508" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="O1508" t="s">
         <v>48</v>
@@ -43077,7 +43077,7 @@
     </row>
     <row r="1509">
       <c r="A1509" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B1509" t="s">
         <v>126</v>
@@ -43086,10 +43086,10 @@
         <v>107</v>
       </c>
       <c r="D1509" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1509" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="O1509" t="s">
         <v>48</v>
@@ -43097,7 +43097,7 @@
     </row>
     <row r="1510">
       <c r="A1510" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B1510" t="s">
         <v>126</v>
@@ -43106,10 +43106,10 @@
         <v>107</v>
       </c>
       <c r="D1510" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1510" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="O1510" t="s">
         <v>48</v>
@@ -43117,19 +43117,19 @@
     </row>
     <row r="1511">
       <c r="A1511" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1511" t="s">
         <v>2973</v>
-      </c>
-      <c r="B1511" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1511" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1511" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1511" t="s">
-        <v>2948</v>
       </c>
       <c r="O1511" t="s">
         <v>48</v>
@@ -43143,10 +43143,10 @@
         <v>126</v>
       </c>
       <c r="C1512" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1512" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1512" t="s">
         <v>2975</v>
@@ -43166,10 +43166,10 @@
         <v>116</v>
       </c>
       <c r="D1513" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1513" t="s">
-        <v>2977</v>
+        <v>2951</v>
       </c>
       <c r="O1513" t="s">
         <v>48</v>
@@ -43177,7 +43177,7 @@
     </row>
     <row r="1514">
       <c r="A1514" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B1514" t="s">
         <v>126</v>
@@ -43186,10 +43186,10 @@
         <v>116</v>
       </c>
       <c r="D1514" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1514" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="O1514" t="s">
         <v>48</v>
@@ -43197,68 +43197,59 @@
     </row>
     <row r="1515">
       <c r="A1515" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1515" t="s">
         <v>2980</v>
       </c>
-      <c r="B1515" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1515" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1515" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1515" t="s">
-        <v>2981</v>
-      </c>
       <c r="O1515" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1515" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1516" t="s">
         <v>2982</v>
       </c>
-      <c r="B1516" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1516" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1516" t="s">
-        <v>2905</v>
-      </c>
-      <c r="E1516" t="s">
-        <v>2983</v>
-      </c>
       <c r="O1516" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1516" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1517" t="s">
         <v>2589</v>
       </c>
       <c r="C1517" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1517" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1517" t="s">
-        <v>2985</v>
-      </c>
-      <c r="N1517" t="s">
-        <v>48</v>
+        <v>2984</v>
       </c>
       <c r="O1517" t="s">
         <v>48</v>
@@ -43269,19 +43260,19 @@
     </row>
     <row r="1518">
       <c r="A1518" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1518" t="s">
         <v>2589</v>
       </c>
       <c r="C1518" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1518" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1518" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="O1518" t="s">
         <v>48</v>
@@ -43292,7 +43283,7 @@
     </row>
     <row r="1519">
       <c r="A1519" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1519" t="s">
         <v>2589</v>
@@ -43301,10 +43292,13 @@
         <v>46</v>
       </c>
       <c r="D1519" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1519" t="s">
-        <v>2989</v>
+        <v>2988</v>
+      </c>
+      <c r="N1519" t="s">
+        <v>48</v>
       </c>
       <c r="O1519" t="s">
         <v>48</v>
@@ -43315,7 +43309,7 @@
     </row>
     <row r="1520">
       <c r="A1520" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1520" t="s">
         <v>2589</v>
@@ -43324,10 +43318,10 @@
         <v>46</v>
       </c>
       <c r="D1520" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1520" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="O1520" t="s">
         <v>48</v>
@@ -43338,7 +43332,7 @@
     </row>
     <row r="1521">
       <c r="A1521" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1521" t="s">
         <v>2589</v>
@@ -43347,10 +43341,10 @@
         <v>46</v>
       </c>
       <c r="D1521" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1521" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="O1521" t="s">
         <v>48</v>
@@ -43361,19 +43355,19 @@
     </row>
     <row r="1522">
       <c r="A1522" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B1522" t="s">
         <v>2589</v>
       </c>
       <c r="C1522" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1522" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1522" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="O1522" t="s">
         <v>48</v>
@@ -43384,39 +43378,42 @@
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B1523" t="s">
         <v>2589</v>
       </c>
       <c r="C1523" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1523" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1523" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="O1523" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1523" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B1524" t="s">
         <v>2589</v>
       </c>
       <c r="C1524" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1524" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1524" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="O1524" t="s">
         <v>48</v>
@@ -43427,19 +43424,19 @@
     </row>
     <row r="1525">
       <c r="A1525" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B1525" t="s">
         <v>2589</v>
       </c>
       <c r="C1525" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1525" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1525" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="O1525" t="s">
         <v>48</v>
@@ -43447,25 +43444,25 @@
     </row>
     <row r="1526">
       <c r="A1526" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1526" t="s">
         <v>2589</v>
       </c>
       <c r="C1526" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1526" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1526" t="s">
-        <v>2991</v>
+        <v>3002</v>
       </c>
       <c r="O1526" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1526" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1527">
@@ -43476,16 +43473,16 @@
         <v>2589</v>
       </c>
       <c r="C1527" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1527" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1527" t="s">
         <v>3004</v>
       </c>
       <c r="O1527" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1528">
@@ -43499,10 +43496,13 @@
         <v>84</v>
       </c>
       <c r="D1528" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1528" t="s">
-        <v>3006</v>
+        <v>2994</v>
+      </c>
+      <c r="O1528" t="s">
+        <v>23</v>
       </c>
       <c r="P1528" t="s">
         <v>23</v>
@@ -43510,82 +43510,79 @@
     </row>
     <row r="1529">
       <c r="A1529" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B1529" t="s">
         <v>2589</v>
       </c>
       <c r="C1529" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1529" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="E1529" t="s">
-        <v>3008</v>
-      </c>
-      <c r="P1529" t="s">
-        <v>48</v>
+        <v>3007</v>
+      </c>
+      <c r="O1529" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1530" t="s">
         <v>3009</v>
       </c>
-      <c r="B1530" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1530" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1530" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1530" t="s">
-        <v>3011</v>
-      </c>
-      <c r="O1530" t="s">
-        <v>48</v>
-      </c>
       <c r="P1530" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B1531" t="s">
-        <v>19</v>
+        <v>2589</v>
       </c>
       <c r="C1531" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1531" t="s">
-        <v>3010</v>
+        <v>2908</v>
       </c>
       <c r="E1531" t="s">
-        <v>3013</v>
-      </c>
-      <c r="O1531" t="s">
+        <v>3011</v>
+      </c>
+      <c r="P1531" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1532" t="s">
         <v>3014</v>
-      </c>
-      <c r="B1532" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1532" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1532" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1532" t="s">
-        <v>3015</v>
       </c>
       <c r="O1532" t="s">
         <v>48</v>
@@ -43596,90 +43593,93 @@
     </row>
     <row r="1533">
       <c r="A1533" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1533" t="s">
         <v>3016</v>
       </c>
-      <c r="B1533" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1533" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1533" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1533" t="s">
-        <v>3017</v>
-      </c>
       <c r="O1533" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1534" t="s">
         <v>3018</v>
       </c>
-      <c r="B1534" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1534" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1534" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1534" t="s">
-        <v>3019</v>
-      </c>
       <c r="O1534" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1534" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1535" t="s">
         <v>3020</v>
       </c>
-      <c r="B1535" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1535" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1535" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1535" t="s">
-        <v>3021</v>
-      </c>
       <c r="O1535" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1536" t="s">
         <v>3022</v>
       </c>
-      <c r="B1536" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1536" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1536" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1536" t="s">
-        <v>3023</v>
-      </c>
       <c r="O1536" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1536" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B1537" t="s">
         <v>19</v>
@@ -43688,10 +43688,10 @@
         <v>100</v>
       </c>
       <c r="D1537" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="E1537" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="O1537" t="s">
         <v>48</v>
@@ -43699,53 +43699,47 @@
     </row>
     <row r="1538">
       <c r="A1538" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1538" t="s">
         <v>3026</v>
       </c>
-      <c r="B1538" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1538" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1538" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1538" t="s">
-        <v>3027</v>
-      </c>
       <c r="O1538" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1538" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1539" t="s">
         <v>3028</v>
       </c>
-      <c r="B1539" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1539" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1539" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1539" t="s">
-        <v>3029</v>
-      </c>
       <c r="O1539" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1539" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B1540" t="s">
         <v>19</v>
@@ -43754,33 +43748,39 @@
         <v>116</v>
       </c>
       <c r="D1540" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="E1540" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="O1540" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1540" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1541" t="s">
         <v>3032</v>
       </c>
-      <c r="B1541" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1541" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1541" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1541" t="s">
-        <v>2975</v>
-      </c>
       <c r="O1541" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1541" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1542">
@@ -43788,13 +43788,13 @@
         <v>3033</v>
       </c>
       <c r="B1542" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1542" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1542" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="E1542" t="s">
         <v>3034</v>
@@ -43811,33 +43811,33 @@
         <v>126</v>
       </c>
       <c r="C1543" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1543" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="E1543" t="s">
-        <v>3036</v>
+        <v>2978</v>
       </c>
       <c r="O1543" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1544" t="s">
         <v>3037</v>
-      </c>
-      <c r="B1544" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1544" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1544" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1544" t="s">
-        <v>3038</v>
       </c>
       <c r="O1544" t="s">
         <v>48</v>
@@ -43845,19 +43845,19 @@
     </row>
     <row r="1545">
       <c r="A1545" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1545" t="s">
         <v>3039</v>
-      </c>
-      <c r="B1545" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1545" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1545" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1545" t="s">
-        <v>3040</v>
       </c>
       <c r="O1545" t="s">
         <v>48</v>
@@ -43865,105 +43865,99 @@
     </row>
     <row r="1546">
       <c r="A1546" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1546" t="s">
         <v>3041</v>
       </c>
-      <c r="B1546" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1546" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1546" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1546" t="s">
-        <v>3042</v>
-      </c>
       <c r="O1546" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1547" t="s">
         <v>3043</v>
       </c>
-      <c r="B1547" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1547" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1547" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1547" t="s">
-        <v>3044</v>
-      </c>
       <c r="O1547" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1548" t="s">
         <v>3045</v>
       </c>
-      <c r="B1548" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1548" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1548" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1548" t="s">
-        <v>3046</v>
-      </c>
       <c r="O1548" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1548" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1549" t="s">
         <v>3047</v>
       </c>
-      <c r="B1549" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1549" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1549" t="s">
-        <v>3010</v>
-      </c>
-      <c r="E1549" t="s">
-        <v>3048</v>
-      </c>
       <c r="O1549" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1549" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B1550" t="s">
         <v>2589</v>
       </c>
       <c r="C1550" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1550" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="E1550" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="O1550" t="s">
         <v>48</v>
@@ -43974,19 +43968,19 @@
     </row>
     <row r="1551">
       <c r="A1551" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E1551" t="s">
         <v>3051</v>
-      </c>
-      <c r="B1551" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1551" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1551" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1551" t="s">
-        <v>3053</v>
       </c>
       <c r="O1551" t="s">
         <v>48</v>
@@ -43997,19 +43991,19 @@
     </row>
     <row r="1552">
       <c r="A1552" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="B1552" t="s">
-        <v>19</v>
+        <v>2589</v>
       </c>
       <c r="C1552" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D1552" t="s">
-        <v>3052</v>
+        <v>3013</v>
       </c>
       <c r="E1552" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="O1552" t="s">
         <v>48</v>
@@ -44020,7 +44014,7 @@
     </row>
     <row r="1553">
       <c r="A1553" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="B1553" t="s">
         <v>19</v>
@@ -44029,30 +44023,33 @@
         <v>60</v>
       </c>
       <c r="D1553" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E1553" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="O1553" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1553" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1554" t="s">
         <v>3058</v>
-      </c>
-      <c r="B1554" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1554" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1554" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1554" t="s">
-        <v>3059</v>
       </c>
       <c r="O1554" t="s">
         <v>48</v>
@@ -44063,19 +44060,19 @@
     </row>
     <row r="1555">
       <c r="A1555" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1555" t="s">
         <v>3060</v>
-      </c>
-      <c r="B1555" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1555" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1555" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1555" t="s">
-        <v>3061</v>
       </c>
       <c r="O1555" t="s">
         <v>48</v>
@@ -44083,105 +44080,105 @@
     </row>
     <row r="1556">
       <c r="A1556" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1556" t="s">
         <v>3062</v>
       </c>
-      <c r="B1556" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1556" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1556" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1556" t="s">
-        <v>3063</v>
-      </c>
       <c r="O1556" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1556" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1557" t="s">
         <v>3064</v>
       </c>
-      <c r="B1557" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1557" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1557" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1557" t="s">
-        <v>3065</v>
-      </c>
       <c r="O1557" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1558" t="s">
         <v>3066</v>
       </c>
-      <c r="B1558" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1558" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1558" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1558" t="s">
-        <v>3067</v>
-      </c>
       <c r="O1558" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1558" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1559" t="s">
         <v>3068</v>
       </c>
-      <c r="B1559" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1559" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1559" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1559" t="s">
-        <v>3069</v>
-      </c>
       <c r="O1559" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1559" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1560" t="s">
         <v>3070</v>
-      </c>
-      <c r="B1560" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1560" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1560" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1560" t="s">
-        <v>3071</v>
       </c>
       <c r="O1560" t="s">
         <v>48</v>
@@ -44189,19 +44186,19 @@
     </row>
     <row r="1561">
       <c r="A1561" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1561" t="s">
         <v>3072</v>
-      </c>
-      <c r="B1561" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1561" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1561" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1561" t="s">
-        <v>3073</v>
       </c>
       <c r="O1561" t="s">
         <v>48</v>
@@ -44212,45 +44209,45 @@
     </row>
     <row r="1562">
       <c r="A1562" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1562" t="s">
         <v>3074</v>
       </c>
-      <c r="B1562" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1562" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1562" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1562" t="s">
-        <v>3075</v>
-      </c>
       <c r="O1562" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1562" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1563" t="s">
         <v>3076</v>
       </c>
-      <c r="B1563" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1563" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1563" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1563" t="s">
-        <v>3036</v>
-      </c>
       <c r="O1563" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1563" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1564">
@@ -44258,19 +44255,22 @@
         <v>3077</v>
       </c>
       <c r="B1564" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1564" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1564" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E1564" t="s">
         <v>3078</v>
       </c>
       <c r="O1564" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1564" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1565">
@@ -44284,10 +44284,10 @@
         <v>20</v>
       </c>
       <c r="D1565" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E1565" t="s">
-        <v>3080</v>
+        <v>3039</v>
       </c>
       <c r="O1565" t="s">
         <v>23</v>
@@ -44295,7 +44295,7 @@
     </row>
     <row r="1566">
       <c r="A1566" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="B1566" t="s">
         <v>126</v>
@@ -44304,10 +44304,10 @@
         <v>20</v>
       </c>
       <c r="D1566" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E1566" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="O1566" t="s">
         <v>23</v>
@@ -44315,271 +44315,268 @@
     </row>
     <row r="1567">
       <c r="A1567" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1567" t="s">
         <v>3083</v>
       </c>
-      <c r="B1567" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1567" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1567" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1567" t="s">
-        <v>3084</v>
-      </c>
       <c r="O1567" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1568" t="s">
         <v>3085</v>
       </c>
-      <c r="B1568" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1568" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1568" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1568" t="s">
-        <v>3086</v>
-      </c>
       <c r="O1568" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1569" t="s">
         <v>3087</v>
       </c>
-      <c r="B1569" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1569" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1569" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1569" t="s">
-        <v>3088</v>
-      </c>
       <c r="O1569" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1570" t="s">
         <v>3089</v>
       </c>
-      <c r="B1570" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1570" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1570" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1570" t="s">
-        <v>3090</v>
-      </c>
       <c r="O1570" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1570" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1571" t="s">
         <v>3091</v>
       </c>
-      <c r="B1571" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1571" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1571" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1571" t="s">
-        <v>3092</v>
-      </c>
       <c r="O1571" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="B1572" t="s">
         <v>2589</v>
       </c>
       <c r="C1572" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D1572" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E1572" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="O1572" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1572" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="B1573" t="s">
         <v>2589</v>
       </c>
       <c r="C1573" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1573" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E1573" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="O1573" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1573" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="B1574" t="s">
         <v>2589</v>
       </c>
       <c r="C1574" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1574" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E1574" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="O1574" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1574" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="B1575" t="s">
         <v>2589</v>
       </c>
       <c r="C1575" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1575" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E1575" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="O1575" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1575" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1576" t="s">
         <v>3101</v>
       </c>
-      <c r="B1576" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1576" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1576" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1576" t="s">
-        <v>3103</v>
-      </c>
       <c r="O1576" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="B1577" t="s">
-        <v>19</v>
+        <v>2589</v>
       </c>
       <c r="C1577" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D1577" t="s">
-        <v>3102</v>
+        <v>3055</v>
       </c>
       <c r="E1577" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="O1577" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1577" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1578" t="s">
         <v>3106</v>
       </c>
-      <c r="B1578" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1578" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1578" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1578" t="s">
-        <v>3107</v>
-      </c>
       <c r="O1578" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1579" t="s">
         <v>3108</v>
-      </c>
-      <c r="B1579" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1579" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1579" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1579" t="s">
-        <v>3109</v>
       </c>
       <c r="O1579" t="s">
         <v>48</v>
@@ -44590,19 +44587,19 @@
     </row>
     <row r="1580">
       <c r="A1580" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1580" t="s">
         <v>3110</v>
-      </c>
-      <c r="B1580" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1580" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1580" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1580" t="s">
-        <v>3111</v>
       </c>
       <c r="O1580" t="s">
         <v>48</v>
@@ -44610,19 +44607,19 @@
     </row>
     <row r="1581">
       <c r="A1581" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1581" t="s">
         <v>3112</v>
-      </c>
-      <c r="B1581" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1581" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1581" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1581" t="s">
-        <v>3113</v>
       </c>
       <c r="O1581" t="s">
         <v>48</v>
@@ -44633,102 +44630,105 @@
     </row>
     <row r="1582">
       <c r="A1582" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1582" t="s">
         <v>3114</v>
       </c>
-      <c r="B1582" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1582" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1582" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1582" t="s">
-        <v>3115</v>
-      </c>
       <c r="O1582" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1582" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1583" t="s">
         <v>3116</v>
       </c>
-      <c r="B1583" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1583" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1583" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1583" t="s">
-        <v>3117</v>
-      </c>
       <c r="O1583" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1583" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1584" t="s">
         <v>3118</v>
       </c>
-      <c r="B1584" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1584" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1584" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1584" t="s">
-        <v>3119</v>
-      </c>
       <c r="O1584" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1584" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1585" t="s">
         <v>3120</v>
       </c>
-      <c r="B1585" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1585" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1585" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1585" t="s">
-        <v>3121</v>
-      </c>
       <c r="O1585" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1586" t="s">
         <v>3122</v>
-      </c>
-      <c r="B1586" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1586" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1586" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1586" t="s">
-        <v>3123</v>
       </c>
       <c r="O1586" t="s">
         <v>48</v>
@@ -44736,42 +44736,39 @@
     </row>
     <row r="1587">
       <c r="A1587" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1587" t="s">
         <v>3124</v>
       </c>
-      <c r="B1587" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1587" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1587" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1587" t="s">
-        <v>3125</v>
-      </c>
       <c r="O1587" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1587" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1588" t="s">
         <v>3126</v>
-      </c>
-      <c r="B1588" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1588" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1588" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1588" t="s">
-        <v>3127</v>
       </c>
       <c r="O1588" t="s">
         <v>48</v>
@@ -44779,39 +44776,42 @@
     </row>
     <row r="1589">
       <c r="A1589" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1589" t="s">
         <v>3128</v>
       </c>
-      <c r="B1589" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1589" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1589" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1589" t="s">
-        <v>3129</v>
-      </c>
       <c r="O1589" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1589" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1590" t="s">
         <v>3130</v>
-      </c>
-      <c r="B1590" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1590" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1590" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1590" t="s">
-        <v>3131</v>
       </c>
       <c r="O1590" t="s">
         <v>48</v>
@@ -44819,99 +44819,99 @@
     </row>
     <row r="1591">
       <c r="A1591" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1591" t="s">
         <v>3132</v>
       </c>
-      <c r="B1591" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1591" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1591" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1591" t="s">
-        <v>3133</v>
-      </c>
       <c r="O1591" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1592" t="s">
         <v>3134</v>
       </c>
-      <c r="B1592" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1592" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1592" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1592" t="s">
-        <v>3135</v>
-      </c>
       <c r="O1592" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1593" t="s">
         <v>3136</v>
       </c>
-      <c r="B1593" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1593" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1593" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1593" t="s">
-        <v>3137</v>
-      </c>
       <c r="O1593" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1594" t="s">
         <v>3138</v>
       </c>
-      <c r="B1594" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1594" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1594" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1594" t="s">
-        <v>3139</v>
-      </c>
       <c r="O1594" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1595" t="s">
         <v>3140</v>
-      </c>
-      <c r="B1595" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1595" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1595" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1595" t="s">
-        <v>3141</v>
       </c>
       <c r="O1595" t="s">
         <v>48</v>
@@ -44919,19 +44919,19 @@
     </row>
     <row r="1596">
       <c r="A1596" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1596" t="s">
         <v>3142</v>
-      </c>
-      <c r="B1596" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1596" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1596" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1596" t="s">
-        <v>3143</v>
       </c>
       <c r="O1596" t="s">
         <v>48</v>
@@ -44939,19 +44939,19 @@
     </row>
     <row r="1597">
       <c r="A1597" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1597" t="s">
         <v>3144</v>
-      </c>
-      <c r="B1597" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1597" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1597" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1597" t="s">
-        <v>3145</v>
       </c>
       <c r="O1597" t="s">
         <v>48</v>
@@ -44959,148 +44959,151 @@
     </row>
     <row r="1598">
       <c r="A1598" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1598" t="s">
         <v>3146</v>
       </c>
-      <c r="B1598" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1598" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1598" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1598" t="s">
-        <v>3147</v>
-      </c>
       <c r="O1598" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1598" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1599" t="s">
         <v>3148</v>
       </c>
-      <c r="B1599" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C1599" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1599" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E1599" t="s">
-        <v>3149</v>
-      </c>
       <c r="O1599" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1599" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="B1600" t="s">
         <v>2589</v>
       </c>
       <c r="C1600" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D1600" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="E1600" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="O1600" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1600" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B1601" t="s">
         <v>2589</v>
       </c>
       <c r="C1601" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1601" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="E1601" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="O1601" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1601" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B1602" t="s">
         <v>2589</v>
       </c>
       <c r="C1602" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D1602" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="E1602" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="O1602" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1602" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="B1603" t="s">
         <v>2589</v>
       </c>
       <c r="C1603" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1603" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="E1603" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="O1603" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E1604" t="s">
         <v>3158</v>
       </c>
-      <c r="B1604" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1604" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1604" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1604" t="s">
-        <v>85</v>
+      <c r="O1604" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1605">
@@ -45108,33 +45111,36 @@
         <v>3159</v>
       </c>
       <c r="B1605" t="s">
-        <v>19</v>
+        <v>2589</v>
       </c>
       <c r="C1605" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1605" t="s">
-        <v>21</v>
+        <v>3105</v>
       </c>
       <c r="E1605" t="s">
-        <v>76</v>
+        <v>3160</v>
+      </c>
+      <c r="O1605" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="B1606" t="s">
         <v>19</v>
       </c>
       <c r="C1606" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D1606" t="s">
         <v>21</v>
       </c>
       <c r="E1606" t="s">
-        <v>3161</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1607">
@@ -45145,64 +45151,64 @@
         <v>19</v>
       </c>
       <c r="C1607" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1607" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="E1607" t="s">
-        <v>3163</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1608" t="s">
         <v>3164</v>
-      </c>
-      <c r="B1608" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1608" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1608" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1608" t="s">
-        <v>3165</v>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1609" t="s">
         <v>3166</v>
-      </c>
-      <c r="B1609" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1609" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1609" t="s">
-        <v>614</v>
-      </c>
-      <c r="E1609" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1610" t="s">
         <v>3168</v>
-      </c>
-      <c r="B1610" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1610" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1610" t="s">
-        <v>614</v>
-      </c>
-      <c r="E1610" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="1611">
@@ -45213,47 +45219,47 @@
         <v>19</v>
       </c>
       <c r="C1611" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1611" t="s">
         <v>614</v>
       </c>
       <c r="E1611" t="s">
-        <v>2216</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="B1612" t="s">
         <v>19</v>
       </c>
       <c r="C1612" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1612" t="s">
         <v>614</v>
       </c>
       <c r="E1612" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="B1613" t="s">
         <v>19</v>
       </c>
       <c r="C1613" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D1613" t="s">
-        <v>822</v>
+        <v>614</v>
       </c>
       <c r="E1613" t="s">
-        <v>3172</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1614">
@@ -45264,47 +45270,47 @@
         <v>19</v>
       </c>
       <c r="C1614" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D1614" t="s">
-        <v>822</v>
+        <v>614</v>
       </c>
       <c r="E1614" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>822</v>
+      </c>
+      <c r="E1615" t="s">
         <v>3175</v>
-      </c>
-      <c r="B1615" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1615" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1615" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E1615" t="s">
-        <v>3176</v>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>822</v>
+      </c>
+      <c r="E1616" t="s">
         <v>3177</v>
-      </c>
-      <c r="B1616" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1616" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1616" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E1616" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="1617">
@@ -45312,13 +45318,13 @@
         <v>3178</v>
       </c>
       <c r="B1617" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1617" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D1617" t="s">
-        <v>2193</v>
+        <v>1236</v>
       </c>
       <c r="E1617" t="s">
         <v>3179</v>
@@ -45329,50 +45335,50 @@
         <v>3180</v>
       </c>
       <c r="B1618" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1618" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1618" t="s">
-        <v>2193</v>
+        <v>1736</v>
       </c>
       <c r="E1618" t="s">
-        <v>3181</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B1619" t="s">
         <v>126</v>
       </c>
       <c r="C1619" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D1619" t="s">
         <v>2193</v>
       </c>
       <c r="E1619" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E1620" t="s">
         <v>3184</v>
-      </c>
-      <c r="B1620" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1620" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1620" t="s">
-        <v>2298</v>
-      </c>
-      <c r="E1620" t="s">
-        <v>2323</v>
       </c>
     </row>
     <row r="1621">
@@ -45386,7 +45392,7 @@
         <v>116</v>
       </c>
       <c r="D1621" t="s">
-        <v>2298</v>
+        <v>2193</v>
       </c>
       <c r="E1621" t="s">
         <v>3186</v>
@@ -45397,16 +45403,16 @@
         <v>3187</v>
       </c>
       <c r="B1622" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C1622" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D1622" t="s">
         <v>2298</v>
       </c>
       <c r="E1622" t="s">
-        <v>3186</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1623">
@@ -45417,10 +45423,10 @@
         <v>126</v>
       </c>
       <c r="C1623" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1623" t="s">
-        <v>2400</v>
+        <v>2298</v>
       </c>
       <c r="E1623" t="s">
         <v>3189</v>
@@ -45434,10 +45440,10 @@
         <v>126</v>
       </c>
       <c r="C1624" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D1624" t="s">
-        <v>2400</v>
+        <v>2298</v>
       </c>
       <c r="E1624" t="s">
         <v>3189</v>
@@ -45451,7 +45457,7 @@
         <v>126</v>
       </c>
       <c r="C1625" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D1625" t="s">
         <v>2400</v>
@@ -45468,30 +45474,30 @@
         <v>126</v>
       </c>
       <c r="C1626" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D1626" t="s">
         <v>2400</v>
       </c>
       <c r="E1626" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E1627" t="s">
         <v>3195</v>
-      </c>
-      <c r="B1627" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1627" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1627" t="s">
-        <v>2489</v>
-      </c>
-      <c r="E1627" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="1628">
@@ -45499,13 +45505,13 @@
         <v>3196</v>
       </c>
       <c r="B1628" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1628" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D1628" t="s">
-        <v>2596</v>
+        <v>2400</v>
       </c>
       <c r="E1628" t="s">
         <v>3197</v>
@@ -45516,33 +45522,33 @@
         <v>3198</v>
       </c>
       <c r="B1629" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C1629" t="s">
         <v>84</v>
       </c>
       <c r="D1629" t="s">
-        <v>2596</v>
+        <v>2489</v>
       </c>
       <c r="E1629" t="s">
-        <v>3199</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E1630" t="s">
         <v>3200</v>
-      </c>
-      <c r="B1630" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1630" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1630" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E1630" t="s">
-        <v>2737</v>
       </c>
     </row>
     <row r="1631">
@@ -45556,7 +45562,7 @@
         <v>116</v>
       </c>
       <c r="D1631" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1631" t="s">
         <v>3202</v>
@@ -45573,10 +45579,10 @@
         <v>116</v>
       </c>
       <c r="D1632" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E1632" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
     </row>
   </sheetData>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10875" uniqueCount="3204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10874" uniqueCount="3204">
   <si>
     <t>Vehicles</t>
   </si>
@@ -4244,16 +4244,16 @@
     <t>Pz.Kpfw. IV Ausf. H</t>
   </si>
   <si>
+    <t>it_semovente_breda_501</t>
+  </si>
+  <si>
+    <t>Semovente Ruotato da 90/52 Breda 501</t>
+  </si>
+  <si>
     <t>it_oto_r3_t20_fa</t>
   </si>
   <si>
     <t>OTO R3 T20 FA-HS</t>
-  </si>
-  <si>
-    <t>it_semovente_breda_501</t>
-  </si>
-  <si>
-    <t>Semovente Ruotato da 90/52 Breda 501</t>
   </si>
   <si>
     <t>jp_type_3_chi_nu_75cm_type_5</t>
@@ -25302,13 +25302,10 @@
       <c r="H713" t="s">
         <v>48</v>
       </c>
+      <c r="I713" t="s">
+        <v>48</v>
+      </c>
       <c r="J713" t="s">
-        <v>48</v>
-      </c>
-      <c r="K713" t="s">
-        <v>48</v>
-      </c>
-      <c r="L713" t="s">
         <v>48</v>
       </c>
     </row>
@@ -25328,13 +25325,13 @@
       <c r="E714" t="s">
         <v>1413</v>
       </c>
-      <c r="H714" t="s">
-        <v>48</v>
-      </c>
-      <c r="I714" t="s">
-        <v>48</v>
-      </c>
       <c r="J714" t="s">
+        <v>48</v>
+      </c>
+      <c r="K714" t="s">
+        <v>48</v>
+      </c>
+      <c r="L714" t="s">
         <v>48</v>
       </c>
     </row>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11248" uniqueCount="3311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11250" uniqueCount="3311">
   <si>
     <t>Vehicles</t>
   </si>
@@ -25861,6 +25861,9 @@
       <c r="H724" t="s">
         <v>48</v>
       </c>
+      <c r="I724" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="s">
@@ -27765,6 +27768,9 @@
         <v>1597</v>
       </c>
       <c r="H807" t="s">
+        <v>23</v>
+      </c>
+      <c r="I807" t="s">
         <v>23</v>
       </c>
     </row>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11351" uniqueCount="3348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11353" uniqueCount="3348">
   <si>
     <t>Vehicles</t>
   </si>
@@ -1523,6 +1523,12 @@
     <t>jp_type_97_kai</t>
   </si>
   <si>
+    <t>jp_type_97_kai_td</t>
+  </si>
+  <si>
+    <t>Type 97 Chi-Ha Kai TD</t>
+  </si>
+  <si>
     <t>jp_type_2_ho_i</t>
   </si>
   <si>
@@ -1535,12 +1541,6 @@
     <t>Type 1 Ho-Ni I</t>
   </si>
   <si>
-    <t>jp_type_97_kai_td</t>
-  </si>
-  <si>
-    <t>Type 97 Chi-Ha Kai TD</t>
-  </si>
-  <si>
     <t>ussr_t_28</t>
   </si>
   <si>
@@ -2570,6 +2570,9 @@
     <t>s.Pz.Sp.Wg. (5 cm 39/1 L60)</t>
   </si>
   <si>
+    <t>germ_sdkfz_234_2_td</t>
+  </si>
+  <si>
     <t>germ_pzkpfw_III_ausf_J</t>
   </si>
   <si>
@@ -2580,9 +2583,6 @@
   </si>
   <si>
     <t>Pz.III J1 TD</t>
-  </si>
-  <si>
-    <t>germ_sdkfz_234_2_td</t>
   </si>
   <si>
     <t>jp_navy_120mm_spg</t>
@@ -15206,6 +15206,9 @@
       <c r="E243" t="s">
         <v>504</v>
       </c>
+      <c r="F243" t="s">
+        <v>48</v>
+      </c>
       <c r="G243" t="s">
         <v>48</v>
       </c>
@@ -19300,7 +19303,10 @@
         <v>848</v>
       </c>
       <c r="E425" t="s">
-        <v>853</v>
+        <v>851</v>
+      </c>
+      <c r="F425" t="s">
+        <v>48</v>
       </c>
       <c r="G425" t="s">
         <v>48</v>
@@ -19308,7 +19314,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B426" t="s">
         <v>19</v>
@@ -19320,7 +19326,7 @@
         <v>848</v>
       </c>
       <c r="E426" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G426" t="s">
         <v>48</v>
@@ -19328,7 +19334,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B427" t="s">
         <v>19</v>
@@ -19340,7 +19346,7 @@
         <v>848</v>
       </c>
       <c r="E427" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="G427" t="s">
         <v>48</v>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11353" uniqueCount="3348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11354" uniqueCount="3348">
   <si>
     <t>Vehicles</t>
   </si>
@@ -17304,6 +17304,9 @@
       <c r="G338" t="s">
         <v>23</v>
       </c>
+      <c r="H338" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11491" uniqueCount="3398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11504" uniqueCount="3398">
   <si>
     <t>Vehicles</t>
   </si>
@@ -8048,6 +8048,12 @@
     <t>CM25</t>
   </si>
   <si>
+    <t>cn_pgz_09</t>
+  </si>
+  <si>
+    <t>PGZ09</t>
+  </si>
+  <si>
     <t>fr_amx_30_dca</t>
   </si>
   <si>
@@ -8276,6 +8282,12 @@
     <t>Swift F.1</t>
   </si>
   <si>
+    <t>dh_110_sea_vixen</t>
+  </si>
+  <si>
+    <t>DH.110 Sea Vixen F.A.W. Mk.2</t>
+  </si>
+  <si>
     <t>f9f-2</t>
   </si>
   <si>
@@ -8471,6 +8483,12 @@
     <t>f-84f_iaf</t>
   </si>
   <si>
+    <t>md_454_mystere_4a</t>
+  </si>
+  <si>
+    <t>M.D.454 Mystere IVA</t>
+  </si>
+  <si>
     <t>f-84f_germany</t>
   </si>
   <si>
@@ -8951,6 +8969,12 @@
     <t>Yak-38</t>
   </si>
   <si>
+    <t>yak-28b</t>
+  </si>
+  <si>
+    <t>Yak-28B</t>
+  </si>
+  <si>
     <t>buccaneer_s2</t>
   </si>
   <si>
@@ -9188,6 +9212,12 @@
     <t>Yak-38M</t>
   </si>
   <si>
+    <t>su-7bmk</t>
+  </si>
+  <si>
+    <t>Su-7BMK</t>
+  </si>
+  <si>
     <t>saab_j32b</t>
   </si>
   <si>
@@ -9344,12 +9374,18 @@
     <t>AH-1F</t>
   </si>
   <si>
+    <t>cn_pgz_04a</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>PGZ04A</t>
+  </si>
+  <si>
     <t>germ_leopard_2a4</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
     <t>Leopard 2A4</t>
   </si>
   <si>
@@ -9578,6 +9614,12 @@
     <t>Su-17M2</t>
   </si>
   <si>
+    <t>f-5c</t>
+  </si>
+  <si>
+    <t>F-5C Freedom Fighter</t>
+  </si>
+  <si>
     <t>tiger_hap_france</t>
   </si>
   <si>
@@ -9623,6 +9665,12 @@
     <t>ZTZ99</t>
   </si>
   <si>
+    <t>fr_crotale_ng</t>
+  </si>
+  <si>
+    <t>Ilmatorjuntaohjus 90M</t>
+  </si>
+  <si>
     <t>ussr_t_90a</t>
   </si>
   <si>
@@ -9641,6 +9689,9 @@
     <t>T-72B3</t>
   </si>
   <si>
+    <t>sw_crotale_ng</t>
+  </si>
+  <si>
     <t>uk_adats_m113a3</t>
   </si>
   <si>
@@ -9770,6 +9821,12 @@
     <t>Type 90 (B)</t>
   </si>
   <si>
+    <t>ussr_t_80bvm</t>
+  </si>
+  <si>
+    <t>T-80BVM</t>
+  </si>
+  <si>
     <t>sw_strv_122</t>
   </si>
   <si>
@@ -9794,12 +9851,24 @@
     <t>Tank, Combat, Full Tracked, 120-mm Gun M1A2</t>
   </si>
   <si>
+    <t>j_7e</t>
+  </si>
+  <si>
+    <t>J-7E</t>
+  </si>
+  <si>
     <t>mirage_3e</t>
   </si>
   <si>
     <t>Mirage IIIE</t>
   </si>
   <si>
+    <t>f-4f_late</t>
+  </si>
+  <si>
+    <t>F-4F Phantom II</t>
+  </si>
+  <si>
     <t>f-4ej</t>
   </si>
   <si>
@@ -9812,6 +9881,12 @@
     <t>MiG-21bis</t>
   </si>
   <si>
+    <t>mig_23m</t>
+  </si>
+  <si>
+    <t>MiG-23M</t>
+  </si>
+  <si>
     <t>f-4m_fgr2</t>
   </si>
   <si>
@@ -9830,6 +9905,12 @@
     <t>F-4E Phantom II</t>
   </si>
   <si>
+    <t>f-5e</t>
+  </si>
+  <si>
+    <t>F-5E Freedom Fighter</t>
+  </si>
+  <si>
     <t>cn_bt_5</t>
   </si>
   <si>
@@ -10007,12 +10088,6 @@
     <t>Type 69-IIa</t>
   </si>
   <si>
-    <t>cn_pgz_09</t>
-  </si>
-  <si>
-    <t>PGZ09</t>
-  </si>
-  <si>
     <t>cn_wma_301</t>
   </si>
   <si>
@@ -10025,12 +10100,6 @@
     <t>Olifant Mk.1A</t>
   </si>
   <si>
-    <t>dh_110_sea_vixen</t>
-  </si>
-  <si>
-    <t>DH.110 Sea Vixen F.A.W. Mk.2</t>
-  </si>
-  <si>
     <t>toon_mb_3</t>
   </si>
   <si>
@@ -10049,12 +10118,6 @@
     <t>Tanque Argentino Mediano 2IP</t>
   </si>
   <si>
-    <t>md_454_mystere_4a</t>
-  </si>
-  <si>
-    <t>M.D.454 Mystere IVA</t>
-  </si>
-  <si>
     <t>it_dardo_vcc</t>
   </si>
   <si>
@@ -10064,12 +10127,6 @@
     <t>md_460_usa</t>
   </si>
   <si>
-    <t>yak-28b</t>
-  </si>
-  <si>
-    <t>Yak-28B</t>
-  </si>
-  <si>
     <t>toon_pbl_161</t>
   </si>
   <si>
@@ -10109,12 +10166,6 @@
     <t>jaguar_a_japan_killstreak</t>
   </si>
   <si>
-    <t>su-7bmk</t>
-  </si>
-  <si>
-    <t>Su-7BMK</t>
-  </si>
-  <si>
     <t>jaguar_a_sweden_killstreak</t>
   </si>
   <si>
@@ -10124,12 +10175,6 @@
     <t>jaguar_a_usa_killstreak</t>
   </si>
   <si>
-    <t>cn_pgz_04a</t>
-  </si>
-  <si>
-    <t>PGZ04A</t>
-  </si>
-  <si>
     <t>su-7bkl_killstreak</t>
   </si>
   <si>
@@ -10151,21 +10196,6 @@
     <t>Fighting Vehicle, Assault Tank Minotaur</t>
   </si>
   <si>
-    <t>f-5c</t>
-  </si>
-  <si>
-    <t>F-5C Freedom Fighter</t>
-  </si>
-  <si>
-    <t>fr_crotale_ng</t>
-  </si>
-  <si>
-    <t>Ilmatorjuntaohjus 90M</t>
-  </si>
-  <si>
-    <t>sw_crotale_ng</t>
-  </si>
-  <si>
     <t>ucav_assault</t>
   </si>
   <si>
@@ -10176,36 +10206,6 @@
   </si>
   <si>
     <t>Light UCAV Griggon-3</t>
-  </si>
-  <si>
-    <t>ussr_t_80bvm</t>
-  </si>
-  <si>
-    <t>T-80BVM</t>
-  </si>
-  <si>
-    <t>j_7e</t>
-  </si>
-  <si>
-    <t>J-7E</t>
-  </si>
-  <si>
-    <t>f-4f_late</t>
-  </si>
-  <si>
-    <t>F-4F Phantom II</t>
-  </si>
-  <si>
-    <t>mig_23m</t>
-  </si>
-  <si>
-    <t>MiG-23M</t>
-  </si>
-  <si>
-    <t>f-5e</t>
-  </si>
-  <si>
-    <t>F-5E Freedom Fighter</t>
   </si>
 </sst>
 </file>
@@ -39191,9 +39191,6 @@
       <c r="N1305" t="s">
         <v>23</v>
       </c>
-      <c r="O1305" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="1306">
       <c r="A1306" t="s">
@@ -40499,7 +40496,7 @@
         <v>19</v>
       </c>
       <c r="C1363" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1363" t="s">
         <v>2674</v>
@@ -40507,14 +40504,8 @@
       <c r="E1363" t="s">
         <v>2679</v>
       </c>
-      <c r="N1363" t="s">
-        <v>48</v>
-      </c>
       <c r="O1363" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1363" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1364">
@@ -40536,6 +40527,9 @@
       <c r="N1364" t="s">
         <v>48</v>
       </c>
+      <c r="O1364" t="s">
+        <v>48</v>
+      </c>
       <c r="P1364" t="s">
         <v>48</v>
       </c>
@@ -40582,6 +40576,9 @@
       <c r="N1366" t="s">
         <v>48</v>
       </c>
+      <c r="P1366" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" t="s">
@@ -40591,7 +40588,7 @@
         <v>19</v>
       </c>
       <c r="C1367" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1367" t="s">
         <v>2674</v>
@@ -40622,9 +40619,6 @@
       <c r="N1368" t="s">
         <v>48</v>
       </c>
-      <c r="P1368" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="1369">
       <c r="A1369" t="s">
@@ -40645,6 +40639,9 @@
       <c r="N1369" t="s">
         <v>48</v>
       </c>
+      <c r="P1369" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" t="s">
@@ -40674,7 +40671,7 @@
         <v>19</v>
       </c>
       <c r="C1371" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1371" t="s">
         <v>2674</v>
@@ -40682,13 +40679,7 @@
       <c r="E1371" t="s">
         <v>2695</v>
       </c>
-      <c r="M1371" t="s">
-        <v>48</v>
-      </c>
       <c r="N1371" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1371" t="s">
         <v>48</v>
       </c>
     </row>
@@ -40700,7 +40691,7 @@
         <v>19</v>
       </c>
       <c r="C1372" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1372" t="s">
         <v>2674</v>
@@ -40708,10 +40699,10 @@
       <c r="E1372" t="s">
         <v>2697</v>
       </c>
+      <c r="M1372" t="s">
+        <v>48</v>
+      </c>
       <c r="N1372" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1372" t="s">
         <v>48</v>
       </c>
       <c r="P1372" t="s">
@@ -40726,7 +40717,7 @@
         <v>19</v>
       </c>
       <c r="C1373" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1373" t="s">
         <v>2674</v>
@@ -40734,11 +40725,14 @@
       <c r="E1373" t="s">
         <v>2699</v>
       </c>
-      <c r="M1373" t="s">
-        <v>23</v>
-      </c>
       <c r="N1373" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="O1373" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1373" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1374">
@@ -40757,6 +40751,9 @@
       <c r="E1374" t="s">
         <v>2701</v>
       </c>
+      <c r="M1374" t="s">
+        <v>23</v>
+      </c>
       <c r="N1374" t="s">
         <v>23</v>
       </c>
@@ -40780,12 +40777,6 @@
       <c r="N1375" t="s">
         <v>23</v>
       </c>
-      <c r="O1375" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1375" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="1376">
       <c r="A1376" t="s">
@@ -40806,6 +40797,12 @@
       <c r="N1376" t="s">
         <v>23</v>
       </c>
+      <c r="O1376" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1376" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" t="s">
@@ -40846,9 +40843,6 @@
       <c r="N1378" t="s">
         <v>23</v>
       </c>
-      <c r="P1378" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="1379">
       <c r="A1379" t="s">
@@ -40892,6 +40886,9 @@
       <c r="N1380" t="s">
         <v>23</v>
       </c>
+      <c r="P1380" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" t="s">
@@ -40909,10 +40906,7 @@
       <c r="E1381" t="s">
         <v>2715</v>
       </c>
-      <c r="O1381" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1381" t="s">
+      <c r="N1381" t="s">
         <v>23</v>
       </c>
     </row>
@@ -40924,7 +40918,7 @@
         <v>19</v>
       </c>
       <c r="C1382" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1382" t="s">
         <v>2674</v>
@@ -40932,11 +40926,11 @@
       <c r="E1382" t="s">
         <v>2717</v>
       </c>
-      <c r="M1382" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1382" t="s">
-        <v>48</v>
+      <c r="O1382" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1382" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1383">
@@ -40955,6 +40949,9 @@
       <c r="E1383" t="s">
         <v>2719</v>
       </c>
+      <c r="M1383" t="s">
+        <v>48</v>
+      </c>
       <c r="N1383" t="s">
         <v>48</v>
       </c>
@@ -40987,7 +40984,7 @@
         <v>19</v>
       </c>
       <c r="C1385" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D1385" t="s">
         <v>2674</v>
@@ -40996,9 +40993,6 @@
         <v>2723</v>
       </c>
       <c r="N1385" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1385" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41021,6 +41015,9 @@
       <c r="N1386" t="s">
         <v>48</v>
       </c>
+      <c r="P1386" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" t="s">
@@ -41081,9 +41078,6 @@
       <c r="N1389" t="s">
         <v>48</v>
       </c>
-      <c r="O1389" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="1390">
       <c r="A1390" t="s">
@@ -41093,7 +41087,7 @@
         <v>19</v>
       </c>
       <c r="C1390" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1390" t="s">
         <v>2674</v>
@@ -41102,6 +41096,9 @@
         <v>2733</v>
       </c>
       <c r="N1390" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1390" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41110,10 +41107,10 @@
         <v>2734</v>
       </c>
       <c r="B1391" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1391" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1391" t="s">
         <v>2674</v>
@@ -41121,7 +41118,7 @@
       <c r="E1391" t="s">
         <v>2735</v>
       </c>
-      <c r="O1391" t="s">
+      <c r="N1391" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41133,7 +41130,7 @@
         <v>128</v>
       </c>
       <c r="C1392" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1392" t="s">
         <v>2674</v>
@@ -41141,10 +41138,7 @@
       <c r="E1392" t="s">
         <v>2737</v>
       </c>
-      <c r="M1392" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1392" t="s">
+      <c r="O1392" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41156,7 +41150,7 @@
         <v>128</v>
       </c>
       <c r="C1393" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1393" t="s">
         <v>2674</v>
@@ -41164,10 +41158,10 @@
       <c r="E1393" t="s">
         <v>2739</v>
       </c>
+      <c r="M1393" t="s">
+        <v>48</v>
+      </c>
       <c r="N1393" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1393" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41179,7 +41173,7 @@
         <v>128</v>
       </c>
       <c r="C1394" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1394" t="s">
         <v>2674</v>
@@ -41188,10 +41182,10 @@
         <v>2741</v>
       </c>
       <c r="N1394" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O1394" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1395">
@@ -41202,7 +41196,7 @@
         <v>128</v>
       </c>
       <c r="C1395" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1395" t="s">
         <v>2674</v>
@@ -41211,10 +41205,10 @@
         <v>2743</v>
       </c>
       <c r="N1395" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1395" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1396">
@@ -41256,6 +41250,9 @@
       <c r="E1397" t="s">
         <v>2747</v>
       </c>
+      <c r="N1397" t="s">
+        <v>48</v>
+      </c>
       <c r="O1397" t="s">
         <v>48</v>
       </c>
@@ -41308,16 +41305,13 @@
         <v>128</v>
       </c>
       <c r="C1400" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D1400" t="s">
         <v>2674</v>
       </c>
       <c r="E1400" t="s">
         <v>2753</v>
-      </c>
-      <c r="N1400" t="s">
-        <v>48</v>
       </c>
       <c r="O1400" t="s">
         <v>48</v>
@@ -41331,7 +41325,7 @@
         <v>128</v>
       </c>
       <c r="C1401" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1401" t="s">
         <v>2674</v>
@@ -41340,6 +41334,9 @@
         <v>2755</v>
       </c>
       <c r="N1401" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1401" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41351,7 +41348,7 @@
         <v>128</v>
       </c>
       <c r="C1402" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1402" t="s">
         <v>2674</v>
@@ -41359,7 +41356,7 @@
       <c r="E1402" t="s">
         <v>2757</v>
       </c>
-      <c r="N1402" t="s">
+      <c r="O1402" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41379,7 +41376,7 @@
       <c r="E1403" t="s">
         <v>2759</v>
       </c>
-      <c r="O1403" t="s">
+      <c r="N1403" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41388,10 +41385,10 @@
         <v>2760</v>
       </c>
       <c r="B1404" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1404" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1404" t="s">
         <v>2674</v>
@@ -41400,9 +41397,6 @@
         <v>2761</v>
       </c>
       <c r="N1404" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1404" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41411,10 +41405,10 @@
         <v>2762</v>
       </c>
       <c r="B1405" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1405" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1405" t="s">
         <v>2674</v>
@@ -41422,11 +41416,8 @@
       <c r="E1405" t="s">
         <v>2763</v>
       </c>
-      <c r="N1405" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1405" t="s">
-        <v>23</v>
+      <c r="O1405" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1406">
@@ -41437,13 +41428,13 @@
         <v>2667</v>
       </c>
       <c r="C1406" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="D1406" t="s">
         <v>2674</v>
       </c>
       <c r="E1406" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="N1406" t="s">
         <v>48</v>
@@ -41454,16 +41445,16 @@
     </row>
     <row r="1407">
       <c r="A1407" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="B1407" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1407" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D1407" t="s">
-        <v>2766</v>
+        <v>2674</v>
       </c>
       <c r="E1407" t="s">
         <v>2767</v>
@@ -41471,7 +41462,7 @@
       <c r="N1407" t="s">
         <v>23</v>
       </c>
-      <c r="O1407" t="s">
+      <c r="P1407" t="s">
         <v>23</v>
       </c>
     </row>
@@ -41480,27 +41471,27 @@
         <v>2768</v>
       </c>
       <c r="B1408" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1408" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1408" t="s">
-        <v>2766</v>
+        <v>2674</v>
       </c>
       <c r="E1408" t="s">
-        <v>2769</v>
+        <v>2765</v>
       </c>
       <c r="N1408" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1408" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1408" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B1409" t="s">
         <v>19</v>
@@ -41509,7 +41500,7 @@
         <v>20</v>
       </c>
       <c r="D1409" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1409" t="s">
         <v>2771</v>
@@ -41532,10 +41523,13 @@
         <v>20</v>
       </c>
       <c r="D1410" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1410" t="s">
         <v>2773</v>
+      </c>
+      <c r="N1410" t="s">
+        <v>23</v>
       </c>
       <c r="O1410" t="s">
         <v>23</v>
@@ -41549,19 +41543,19 @@
         <v>19</v>
       </c>
       <c r="C1411" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1411" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1411" t="s">
         <v>2775</v>
       </c>
       <c r="N1411" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1411" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="O1411" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1412">
@@ -41572,19 +41566,16 @@
         <v>19</v>
       </c>
       <c r="C1412" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1412" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1412" t="s">
         <v>2777</v>
       </c>
-      <c r="N1412" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1412" t="s">
-        <v>48</v>
+      <c r="O1412" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1413">
@@ -41595,10 +41586,10 @@
         <v>19</v>
       </c>
       <c r="C1413" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1413" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1413" t="s">
         <v>2779</v>
@@ -41621,12 +41612,15 @@
         <v>46</v>
       </c>
       <c r="D1414" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1414" t="s">
         <v>2781</v>
       </c>
-      <c r="O1414" t="s">
+      <c r="N1414" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1414" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41638,10 +41632,10 @@
         <v>19</v>
       </c>
       <c r="C1415" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1415" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1415" t="s">
         <v>2783</v>
@@ -41661,18 +41655,15 @@
         <v>19</v>
       </c>
       <c r="C1416" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1416" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1416" t="s">
         <v>2785</v>
       </c>
-      <c r="N1416" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1416" t="s">
+      <c r="O1416" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41684,15 +41675,18 @@
         <v>19</v>
       </c>
       <c r="C1417" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1417" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1417" t="s">
         <v>2787</v>
       </c>
       <c r="N1417" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1417" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41704,16 +41698,19 @@
         <v>19</v>
       </c>
       <c r="C1418" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1418" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1418" t="s">
         <v>2789</v>
       </c>
       <c r="N1418" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1418" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1419">
@@ -41724,22 +41721,16 @@
         <v>19</v>
       </c>
       <c r="C1419" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1419" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1419" t="s">
         <v>2791</v>
       </c>
       <c r="N1419" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1419" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1419" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1420">
@@ -41753,15 +41744,12 @@
         <v>84</v>
       </c>
       <c r="D1420" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1420" t="s">
         <v>2793</v>
       </c>
       <c r="N1420" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1420" t="s">
         <v>23</v>
       </c>
     </row>
@@ -41776,7 +41764,7 @@
         <v>84</v>
       </c>
       <c r="D1421" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1421" t="s">
         <v>2795</v>
@@ -41802,12 +41790,15 @@
         <v>84</v>
       </c>
       <c r="D1422" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1422" t="s">
         <v>2797</v>
       </c>
-      <c r="O1422" t="s">
+      <c r="N1422" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1422" t="s">
         <v>23</v>
       </c>
     </row>
@@ -41819,16 +41810,22 @@
         <v>19</v>
       </c>
       <c r="C1423" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1423" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1423" t="s">
         <v>2799</v>
       </c>
       <c r="N1423" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="O1423" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1423" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1424">
@@ -41839,19 +41836,16 @@
         <v>19</v>
       </c>
       <c r="C1424" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1424" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1424" t="s">
         <v>2801</v>
       </c>
-      <c r="N1424" t="s">
-        <v>48</v>
-      </c>
       <c r="O1424" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1425">
@@ -41865,12 +41859,12 @@
         <v>109</v>
       </c>
       <c r="D1425" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1425" t="s">
         <v>2803</v>
       </c>
-      <c r="O1425" t="s">
+      <c r="N1425" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41882,10 +41876,10 @@
         <v>19</v>
       </c>
       <c r="C1426" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1426" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1426" t="s">
         <v>2805</v>
@@ -41893,7 +41887,7 @@
       <c r="N1426" t="s">
         <v>48</v>
       </c>
-      <c r="P1426" t="s">
+      <c r="O1426" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41905,18 +41899,15 @@
         <v>19</v>
       </c>
       <c r="C1427" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1427" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1427" t="s">
         <v>2807</v>
       </c>
-      <c r="N1427" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1427" t="s">
+      <c r="O1427" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41931,12 +41922,15 @@
         <v>118</v>
       </c>
       <c r="D1428" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1428" t="s">
         <v>2809</v>
       </c>
       <c r="N1428" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1428" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41945,19 +41939,22 @@
         <v>2810</v>
       </c>
       <c r="B1429" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1429" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1429" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1429" t="s">
         <v>2811</v>
       </c>
       <c r="N1429" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1429" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1430">
@@ -41965,22 +41962,19 @@
         <v>2812</v>
       </c>
       <c r="B1430" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1430" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1430" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1430" t="s">
         <v>2813</v>
       </c>
       <c r="N1430" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1430" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1431">
@@ -41991,19 +41985,16 @@
         <v>128</v>
       </c>
       <c r="C1431" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1431" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1431" t="s">
         <v>2815</v>
       </c>
       <c r="N1431" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1431" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1432">
@@ -42014,16 +42005,19 @@
         <v>128</v>
       </c>
       <c r="C1432" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1432" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1432" t="s">
         <v>2817</v>
       </c>
       <c r="N1432" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="O1432" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1433">
@@ -42037,30 +42031,33 @@
         <v>29</v>
       </c>
       <c r="D1433" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1433" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="N1433" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1433" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="B1434" t="s">
         <v>128</v>
       </c>
       <c r="C1434" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1434" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1434" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="N1434" t="s">
         <v>48</v>
@@ -42068,19 +42065,19 @@
     </row>
     <row r="1435">
       <c r="A1435" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E1435" t="s">
         <v>2821</v>
-      </c>
-      <c r="B1435" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1435" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1435" t="s">
-        <v>2766</v>
-      </c>
-      <c r="E1435" t="s">
-        <v>2822</v>
       </c>
       <c r="N1435" t="s">
         <v>48</v>
@@ -42094,16 +42091,13 @@
         <v>128</v>
       </c>
       <c r="C1436" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D1436" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1436" t="s">
         <v>2824</v>
-      </c>
-      <c r="N1436" t="s">
-        <v>48</v>
       </c>
       <c r="O1436" t="s">
         <v>48</v>
@@ -42117,13 +42111,13 @@
         <v>128</v>
       </c>
       <c r="C1437" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1437" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1437" t="s">
-        <v>2820</v>
+        <v>2826</v>
       </c>
       <c r="N1437" t="s">
         <v>48</v>
@@ -42131,88 +42125,85 @@
     </row>
     <row r="1438">
       <c r="A1438" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="B1438" t="s">
         <v>128</v>
       </c>
       <c r="C1438" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1438" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1438" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="N1438" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1438" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="B1439" t="s">
         <v>128</v>
       </c>
       <c r="C1439" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1439" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1439" t="s">
-        <v>2822</v>
+        <v>2830</v>
       </c>
       <c r="N1439" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O1439" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="B1440" t="s">
         <v>128</v>
       </c>
       <c r="C1440" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1440" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1440" t="s">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="N1440" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1440" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="B1441" t="s">
         <v>128</v>
       </c>
       <c r="C1441" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D1441" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1441" t="s">
-        <v>2832</v>
+        <v>2833</v>
+      </c>
+      <c r="N1441" t="s">
+        <v>48</v>
       </c>
       <c r="O1441" t="s">
         <v>48</v>
@@ -42220,22 +42211,25 @@
     </row>
     <row r="1442">
       <c r="A1442" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="B1442" t="s">
         <v>128</v>
       </c>
       <c r="C1442" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1442" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1442" t="s">
-        <v>2834</v>
+        <v>2828</v>
+      </c>
+      <c r="N1442" t="s">
+        <v>23</v>
       </c>
       <c r="O1442" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1443">
@@ -42246,16 +42240,19 @@
         <v>128</v>
       </c>
       <c r="C1443" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1443" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1443" t="s">
         <v>2836</v>
       </c>
+      <c r="N1443" t="s">
+        <v>23</v>
+      </c>
       <c r="O1443" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1444">
@@ -42266,16 +42263,13 @@
         <v>128</v>
       </c>
       <c r="C1444" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1444" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1444" t="s">
         <v>2838</v>
-      </c>
-      <c r="N1444" t="s">
-        <v>48</v>
       </c>
       <c r="O1444" t="s">
         <v>48</v>
@@ -42289,16 +42283,13 @@
         <v>128</v>
       </c>
       <c r="C1445" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1445" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1445" t="s">
         <v>2840</v>
-      </c>
-      <c r="N1445" t="s">
-        <v>48</v>
       </c>
       <c r="O1445" t="s">
         <v>48</v>
@@ -42312,105 +42303,99 @@
         <v>128</v>
       </c>
       <c r="C1446" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1446" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1446" t="s">
-        <v>2820</v>
-      </c>
-      <c r="N1446" t="s">
+        <v>2842</v>
+      </c>
+      <c r="O1446" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="B1447" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1447" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1447" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1447" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="N1447" t="s">
         <v>48</v>
       </c>
-      <c r="P1447" t="s">
+      <c r="O1447" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="B1448" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1448" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1448" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1448" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="N1448" t="s">
         <v>48</v>
       </c>
-      <c r="P1448" t="s">
+      <c r="O1448" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="B1449" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1449" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D1449" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1449" t="s">
-        <v>2846</v>
+        <v>2826</v>
       </c>
       <c r="N1449" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1449" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1449" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="B1450" t="s">
         <v>2667</v>
       </c>
       <c r="C1450" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="D1450" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1450" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="N1450" t="s">
         <v>48</v>
@@ -42421,19 +42406,19 @@
     </row>
     <row r="1451">
       <c r="A1451" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="B1451" t="s">
         <v>2667</v>
       </c>
       <c r="C1451" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D1451" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="E1451" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="N1451" t="s">
         <v>48</v>
@@ -42447,41 +42432,44 @@
         <v>2851</v>
       </c>
       <c r="B1452" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1452" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D1452" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E1452" t="s">
         <v>2852</v>
       </c>
-      <c r="E1452" t="s">
-        <v>2853</v>
+      <c r="N1452" t="s">
+        <v>48</v>
       </c>
       <c r="O1452" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1452" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E1453" t="s">
         <v>2854</v>
       </c>
-      <c r="B1453" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1453" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1453" t="s">
-        <v>2852</v>
-      </c>
-      <c r="E1453" t="s">
-        <v>2855</v>
-      </c>
       <c r="N1453" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1453" t="s">
         <v>48</v>
       </c>
       <c r="P1453" t="s">
@@ -42490,24 +42478,21 @@
     </row>
     <row r="1454">
       <c r="A1454" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E1454" t="s">
         <v>2856</v>
       </c>
-      <c r="B1454" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1454" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1454" t="s">
-        <v>2852</v>
-      </c>
-      <c r="E1454" t="s">
-        <v>2857</v>
-      </c>
       <c r="N1454" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1454" t="s">
         <v>48</v>
       </c>
       <c r="P1454" t="s">
@@ -42516,22 +42501,22 @@
     </row>
     <row r="1455">
       <c r="A1455" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1455" t="s">
         <v>2858</v>
-      </c>
-      <c r="B1455" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1455" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1455" t="s">
-        <v>2852</v>
       </c>
       <c r="E1455" t="s">
         <v>2859</v>
       </c>
-      <c r="N1455" t="s">
-        <v>48</v>
+      <c r="O1455" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1456">
@@ -42542,15 +42527,21 @@
         <v>19</v>
       </c>
       <c r="C1456" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1456" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1456" t="s">
         <v>2861</v>
       </c>
+      <c r="N1456" t="s">
+        <v>48</v>
+      </c>
       <c r="O1456" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1456" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42562,10 +42553,10 @@
         <v>19</v>
       </c>
       <c r="C1457" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1457" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1457" t="s">
         <v>2863</v>
@@ -42588,13 +42579,13 @@
         <v>19</v>
       </c>
       <c r="C1458" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1458" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1458" t="s">
-        <v>2859</v>
+        <v>2865</v>
       </c>
       <c r="N1458" t="s">
         <v>48</v>
@@ -42602,42 +42593,39 @@
     </row>
     <row r="1459">
       <c r="A1459" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="B1459" t="s">
         <v>19</v>
       </c>
       <c r="C1459" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1459" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1459" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="O1459" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1459" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="B1460" t="s">
         <v>19</v>
       </c>
       <c r="C1460" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1460" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1460" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="N1460" t="s">
         <v>48</v>
@@ -42651,24 +42639,21 @@
     </row>
     <row r="1461">
       <c r="A1461" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="B1461" t="s">
         <v>19</v>
       </c>
       <c r="C1461" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1461" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1461" t="s">
-        <v>2870</v>
-      </c>
-      <c r="O1461" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1461" t="s">
+        <v>2865</v>
+      </c>
+      <c r="N1461" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42680,18 +42665,18 @@
         <v>19</v>
       </c>
       <c r="C1462" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D1462" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1462" t="s">
         <v>2872</v>
       </c>
-      <c r="N1462" t="s">
-        <v>48</v>
-      </c>
       <c r="O1462" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1462" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42703,13 +42688,16 @@
         <v>19</v>
       </c>
       <c r="C1463" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D1463" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1463" t="s">
         <v>2874</v>
+      </c>
+      <c r="N1463" t="s">
+        <v>48</v>
       </c>
       <c r="O1463" t="s">
         <v>48</v>
@@ -42726,18 +42714,18 @@
         <v>19</v>
       </c>
       <c r="C1464" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D1464" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1464" t="s">
         <v>2876</v>
       </c>
-      <c r="N1464" t="s">
-        <v>48</v>
-      </c>
       <c r="O1464" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1464" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42749,15 +42737,18 @@
         <v>19</v>
       </c>
       <c r="C1465" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D1465" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1465" t="s">
         <v>2878</v>
       </c>
       <c r="N1465" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1465" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42769,15 +42760,18 @@
         <v>19</v>
       </c>
       <c r="C1466" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1466" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1466" t="s">
         <v>2880</v>
       </c>
-      <c r="N1466" t="s">
+      <c r="O1466" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1466" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42792,15 +42786,15 @@
         <v>118</v>
       </c>
       <c r="D1467" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1467" t="s">
         <v>2882</v>
       </c>
+      <c r="N1467" t="s">
+        <v>48</v>
+      </c>
       <c r="O1467" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1467" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42815,12 +42809,12 @@
         <v>118</v>
       </c>
       <c r="D1468" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1468" t="s">
         <v>2884</v>
       </c>
-      <c r="O1468" t="s">
+      <c r="N1468" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42835,12 +42829,12 @@
         <v>118</v>
       </c>
       <c r="D1469" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1469" t="s">
         <v>2886</v>
       </c>
-      <c r="O1469" t="s">
+      <c r="N1469" t="s">
         <v>48</v>
       </c>
     </row>
@@ -42849,19 +42843,22 @@
         <v>2887</v>
       </c>
       <c r="B1470" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1470" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1470" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1470" t="s">
         <v>2888</v>
       </c>
-      <c r="N1470" t="s">
-        <v>23</v>
+      <c r="O1470" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1470" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1471">
@@ -42869,13 +42866,13 @@
         <v>2889</v>
       </c>
       <c r="B1471" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1471" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1471" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1471" t="s">
         <v>2890</v>
@@ -42889,13 +42886,13 @@
         <v>2891</v>
       </c>
       <c r="B1472" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1472" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1472" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1472" t="s">
         <v>2892</v>
@@ -42912,16 +42909,16 @@
         <v>128</v>
       </c>
       <c r="C1473" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1473" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1473" t="s">
         <v>2894</v>
       </c>
-      <c r="O1473" t="s">
-        <v>48</v>
+      <c r="N1473" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1474">
@@ -42935,7 +42932,7 @@
         <v>29</v>
       </c>
       <c r="D1474" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1474" t="s">
         <v>2896</v>
@@ -42952,16 +42949,13 @@
         <v>128</v>
       </c>
       <c r="C1475" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1475" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1475" t="s">
         <v>2898</v>
-      </c>
-      <c r="N1475" t="s">
-        <v>48</v>
       </c>
       <c r="O1475" t="s">
         <v>48</v>
@@ -42975,10 +42969,10 @@
         <v>128</v>
       </c>
       <c r="C1476" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1476" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1476" t="s">
         <v>2900</v>
@@ -42995,10 +42989,10 @@
         <v>128</v>
       </c>
       <c r="C1477" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1477" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1477" t="s">
         <v>2902</v>
@@ -43015,10 +43009,10 @@
         <v>128</v>
       </c>
       <c r="C1478" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1478" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1478" t="s">
         <v>2904</v>
@@ -43038,13 +43032,13 @@
         <v>128</v>
       </c>
       <c r="C1479" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1479" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1479" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="O1479" t="s">
         <v>48</v>
@@ -43052,65 +43046,62 @@
     </row>
     <row r="1480">
       <c r="A1480" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="B1480" t="s">
         <v>128</v>
       </c>
       <c r="C1480" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1480" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1480" t="s">
-        <v>2907</v>
-      </c>
-      <c r="N1480" t="s">
-        <v>23</v>
+        <v>2908</v>
       </c>
       <c r="O1480" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="B1481" t="s">
         <v>128</v>
       </c>
       <c r="C1481" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1481" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1481" t="s">
-        <v>2909</v>
+        <v>2910</v>
+      </c>
+      <c r="N1481" t="s">
+        <v>48</v>
       </c>
       <c r="O1481" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="B1482" t="s">
         <v>128</v>
       </c>
       <c r="C1482" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D1482" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1482" t="s">
-        <v>2911</v>
-      </c>
-      <c r="N1482" t="s">
-        <v>48</v>
+        <v>2908</v>
       </c>
       <c r="O1482" t="s">
         <v>48</v>
@@ -43124,19 +43115,19 @@
         <v>128</v>
       </c>
       <c r="C1483" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1483" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1483" t="s">
         <v>2913</v>
       </c>
       <c r="N1483" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O1483" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1484">
@@ -43147,19 +43138,16 @@
         <v>128</v>
       </c>
       <c r="C1484" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1484" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1484" t="s">
         <v>2915</v>
       </c>
-      <c r="N1484" t="s">
-        <v>48</v>
-      </c>
       <c r="O1484" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1485">
@@ -43170,10 +43158,10 @@
         <v>128</v>
       </c>
       <c r="C1485" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D1485" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1485" t="s">
         <v>2917</v>
@@ -43193,10 +43181,10 @@
         <v>128</v>
       </c>
       <c r="C1486" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1486" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1486" t="s">
         <v>2919</v>
@@ -43216,13 +43204,16 @@
         <v>128</v>
       </c>
       <c r="C1487" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1487" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1487" t="s">
         <v>2921</v>
+      </c>
+      <c r="N1487" t="s">
+        <v>48</v>
       </c>
       <c r="O1487" t="s">
         <v>48</v>
@@ -43239,10 +43230,13 @@
         <v>118</v>
       </c>
       <c r="D1488" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1488" t="s">
         <v>2923</v>
+      </c>
+      <c r="N1488" t="s">
+        <v>48</v>
       </c>
       <c r="O1488" t="s">
         <v>48</v>
@@ -43259,10 +43253,13 @@
         <v>118</v>
       </c>
       <c r="D1489" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1489" t="s">
         <v>2925</v>
+      </c>
+      <c r="N1489" t="s">
+        <v>48</v>
       </c>
       <c r="O1489" t="s">
         <v>48</v>
@@ -43279,7 +43276,7 @@
         <v>118</v>
       </c>
       <c r="D1490" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1490" t="s">
         <v>2927</v>
@@ -43293,24 +43290,18 @@
         <v>2928</v>
       </c>
       <c r="B1491" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1491" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1491" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1491" t="s">
         <v>2929</v>
       </c>
-      <c r="N1491" t="s">
-        <v>48</v>
-      </c>
       <c r="O1491" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1491" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43319,21 +43310,18 @@
         <v>2930</v>
       </c>
       <c r="B1492" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1492" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1492" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1492" t="s">
         <v>2931</v>
       </c>
-      <c r="N1492" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1492" t="s">
+      <c r="O1492" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43342,22 +43330,19 @@
         <v>2932</v>
       </c>
       <c r="B1493" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1493" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1493" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E1493" t="s">
         <v>2933</v>
       </c>
-      <c r="N1493" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1493" t="s">
-        <v>23</v>
+      <c r="O1493" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1494">
@@ -43365,82 +43350,91 @@
         <v>2934</v>
       </c>
       <c r="B1494" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1494" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1494" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E1494" t="s">
         <v>2935</v>
       </c>
-      <c r="E1494" t="s">
-        <v>2936</v>
+      <c r="N1494" t="s">
+        <v>48</v>
       </c>
       <c r="O1494" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1494" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E1495" t="s">
         <v>2937</v>
       </c>
-      <c r="B1495" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1495" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1495" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E1495" t="s">
-        <v>2938</v>
-      </c>
-      <c r="O1495" t="s">
+      <c r="N1495" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1495" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E1496" t="s">
         <v>2939</v>
       </c>
-      <c r="B1496" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1496" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1496" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E1496" t="s">
-        <v>2940</v>
-      </c>
-      <c r="O1496" t="s">
-        <v>48</v>
+      <c r="N1496" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1496" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1497" t="s">
         <v>2941</v>
-      </c>
-      <c r="B1497" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1497" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1497" t="s">
-        <v>2935</v>
       </c>
       <c r="E1497" t="s">
         <v>2942</v>
       </c>
       <c r="O1497" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1497" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1498">
@@ -43451,10 +43445,10 @@
         <v>19</v>
       </c>
       <c r="C1498" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1498" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1498" t="s">
         <v>2944</v>
@@ -43471,22 +43465,16 @@
         <v>19</v>
       </c>
       <c r="C1499" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1499" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1499" t="s">
         <v>2946</v>
       </c>
-      <c r="N1499" t="s">
-        <v>23</v>
-      </c>
       <c r="O1499" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1499" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1500">
@@ -43497,19 +43485,19 @@
         <v>19</v>
       </c>
       <c r="C1500" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1500" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1500" t="s">
         <v>2948</v>
       </c>
       <c r="O1500" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1500" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1501">
@@ -43520,16 +43508,16 @@
         <v>19</v>
       </c>
       <c r="C1501" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1501" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1501" t="s">
         <v>2950</v>
       </c>
       <c r="O1501" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1502">
@@ -43540,16 +43528,22 @@
         <v>19</v>
       </c>
       <c r="C1502" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1502" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1502" t="s">
         <v>2952</v>
       </c>
       <c r="N1502" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="O1502" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1502" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1503">
@@ -43560,16 +43554,19 @@
         <v>19</v>
       </c>
       <c r="C1503" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1503" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1503" t="s">
         <v>2954</v>
       </c>
       <c r="O1503" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1503" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1504">
@@ -43580,19 +43577,16 @@
         <v>19</v>
       </c>
       <c r="C1504" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1504" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1504" t="s">
         <v>2956</v>
       </c>
       <c r="O1504" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1504" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1505">
@@ -43603,18 +43597,15 @@
         <v>19</v>
       </c>
       <c r="C1505" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1505" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1505" t="s">
         <v>2958</v>
       </c>
-      <c r="O1505" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1505" t="s">
+      <c r="N1505" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43626,10 +43617,10 @@
         <v>19</v>
       </c>
       <c r="C1506" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1506" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1506" t="s">
         <v>2960</v>
@@ -43643,19 +43634,22 @@
         <v>2961</v>
       </c>
       <c r="B1507" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1507" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1507" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1507" t="s">
         <v>2962</v>
       </c>
       <c r="O1507" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1507" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1508">
@@ -43663,19 +43657,22 @@
         <v>2963</v>
       </c>
       <c r="B1508" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1508" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1508" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1508" t="s">
         <v>2964</v>
       </c>
       <c r="O1508" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1508" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1509">
@@ -43683,13 +43680,13 @@
         <v>2965</v>
       </c>
       <c r="B1509" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1509" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1509" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1509" t="s">
         <v>2966</v>
@@ -43706,16 +43703,16 @@
         <v>128</v>
       </c>
       <c r="C1510" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1510" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1510" t="s">
         <v>2968</v>
       </c>
       <c r="O1510" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1511">
@@ -43726,16 +43723,16 @@
         <v>128</v>
       </c>
       <c r="C1511" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1511" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1511" t="s">
         <v>2970</v>
       </c>
       <c r="O1511" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1512">
@@ -43746,13 +43743,13 @@
         <v>128</v>
       </c>
       <c r="C1512" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1512" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1512" t="s">
-        <v>2966</v>
+        <v>2972</v>
       </c>
       <c r="O1512" t="s">
         <v>48</v>
@@ -43760,19 +43757,19 @@
     </row>
     <row r="1513">
       <c r="A1513" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="B1513" t="s">
         <v>128</v>
       </c>
       <c r="C1513" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D1513" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1513" t="s">
-        <v>2966</v>
+        <v>2974</v>
       </c>
       <c r="O1513" t="s">
         <v>48</v>
@@ -43780,19 +43777,19 @@
     </row>
     <row r="1514">
       <c r="A1514" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="B1514" t="s">
         <v>128</v>
       </c>
       <c r="C1514" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1514" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1514" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="O1514" t="s">
         <v>48</v>
@@ -43800,19 +43797,19 @@
     </row>
     <row r="1515">
       <c r="A1515" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="B1515" t="s">
         <v>128</v>
       </c>
       <c r="C1515" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1515" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1515" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
       <c r="O1515" t="s">
         <v>48</v>
@@ -43820,22 +43817,22 @@
     </row>
     <row r="1516">
       <c r="A1516" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="B1516" t="s">
         <v>128</v>
       </c>
       <c r="C1516" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1516" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1516" t="s">
-        <v>2978</v>
+        <v>2972</v>
       </c>
       <c r="O1516" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1517">
@@ -43846,10 +43843,10 @@
         <v>128</v>
       </c>
       <c r="C1517" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D1517" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1517" t="s">
         <v>2980</v>
@@ -43866,10 +43863,10 @@
         <v>128</v>
       </c>
       <c r="C1518" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D1518" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1518" t="s">
         <v>2982</v>
@@ -43886,16 +43883,16 @@
         <v>128</v>
       </c>
       <c r="C1519" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1519" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1519" t="s">
         <v>2984</v>
       </c>
       <c r="O1519" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1520">
@@ -43906,16 +43903,16 @@
         <v>128</v>
       </c>
       <c r="C1520" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1520" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1520" t="s">
         <v>2986</v>
       </c>
       <c r="O1520" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1521">
@@ -43923,24 +43920,18 @@
         <v>2987</v>
       </c>
       <c r="B1521" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1521" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D1521" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1521" t="s">
         <v>2988</v>
       </c>
-      <c r="N1521" t="s">
-        <v>48</v>
-      </c>
       <c r="O1521" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1521" t="s">
         <v>48</v>
       </c>
     </row>
@@ -43949,13 +43940,13 @@
         <v>2989</v>
       </c>
       <c r="B1522" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1522" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D1522" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1522" t="s">
         <v>2990</v>
@@ -43969,13 +43960,13 @@
         <v>2991</v>
       </c>
       <c r="B1523" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1523" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D1523" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1523" t="s">
         <v>2992</v>
@@ -43989,22 +43980,19 @@
         <v>2993</v>
       </c>
       <c r="B1524" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1524" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1524" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1524" t="s">
         <v>2994</v>
       </c>
-      <c r="N1524" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1524" t="s">
-        <v>23</v>
+      <c r="O1524" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1525">
@@ -44015,10 +44003,10 @@
         <v>2667</v>
       </c>
       <c r="C1525" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="D1525" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1525" t="s">
         <v>2996</v>
@@ -44041,21 +44029,15 @@
         <v>2667</v>
       </c>
       <c r="C1526" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D1526" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E1526" t="s">
         <v>2998</v>
       </c>
-      <c r="N1526" t="s">
-        <v>48</v>
-      </c>
       <c r="O1526" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1526" t="s">
         <v>48</v>
       </c>
     </row>
@@ -44064,59 +44046,62 @@
         <v>2999</v>
       </c>
       <c r="B1527" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1527" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D1527" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E1527" t="s">
         <v>3000</v>
       </c>
-      <c r="E1527" t="s">
-        <v>3001</v>
-      </c>
       <c r="O1527" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E1528" t="s">
         <v>3002</v>
       </c>
-      <c r="B1528" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1528" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1528" t="s">
-        <v>3000</v>
-      </c>
-      <c r="E1528" t="s">
-        <v>3003</v>
-      </c>
-      <c r="O1528" t="s">
-        <v>48</v>
+      <c r="N1528" t="s">
+        <v>23</v>
       </c>
       <c r="P1528" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E1529" t="s">
         <v>3004</v>
       </c>
-      <c r="B1529" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1529" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1529" t="s">
-        <v>3000</v>
-      </c>
-      <c r="E1529" t="s">
-        <v>3005</v>
+      <c r="N1529" t="s">
+        <v>48</v>
       </c>
       <c r="O1529" t="s">
         <v>48</v>
@@ -44127,45 +44112,48 @@
     </row>
     <row r="1530">
       <c r="A1530" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E1530" t="s">
         <v>3006</v>
       </c>
-      <c r="B1530" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1530" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1530" t="s">
-        <v>3000</v>
-      </c>
-      <c r="E1530" t="s">
-        <v>3007</v>
+      <c r="N1530" t="s">
+        <v>48</v>
       </c>
       <c r="O1530" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1530" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1531" t="s">
         <v>3008</v>
-      </c>
-      <c r="B1531" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1531" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1531" t="s">
-        <v>3000</v>
       </c>
       <c r="E1531" t="s">
         <v>3009</v>
       </c>
       <c r="O1531" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1531" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1532">
@@ -44176,10 +44164,10 @@
         <v>19</v>
       </c>
       <c r="C1532" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1532" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1532" t="s">
         <v>3011</v>
@@ -44199,10 +44187,10 @@
         <v>19</v>
       </c>
       <c r="C1533" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D1533" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1533" t="s">
         <v>3013</v>
@@ -44222,10 +44210,10 @@
         <v>19</v>
       </c>
       <c r="C1534" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1534" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1534" t="s">
         <v>3015</v>
@@ -44242,19 +44230,19 @@
         <v>19</v>
       </c>
       <c r="C1535" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1535" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1535" t="s">
         <v>3017</v>
       </c>
       <c r="O1535" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1535" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1536">
@@ -44265,16 +44253,19 @@
         <v>19</v>
       </c>
       <c r="C1536" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1536" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1536" t="s">
         <v>3019</v>
       </c>
       <c r="O1536" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1536" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1537">
@@ -44285,16 +44276,19 @@
         <v>19</v>
       </c>
       <c r="C1537" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1537" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1537" t="s">
         <v>3021</v>
       </c>
       <c r="O1537" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1537" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1538">
@@ -44305,10 +44299,10 @@
         <v>19</v>
       </c>
       <c r="C1538" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D1538" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1538" t="s">
         <v>3023</v>
@@ -44325,16 +44319,19 @@
         <v>19</v>
       </c>
       <c r="C1539" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1539" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1539" t="s">
         <v>3025</v>
       </c>
       <c r="O1539" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1539" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1540">
@@ -44345,19 +44342,16 @@
         <v>19</v>
       </c>
       <c r="C1540" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1540" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1540" t="s">
         <v>3027</v>
       </c>
       <c r="O1540" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1540" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1541">
@@ -44368,19 +44362,16 @@
         <v>19</v>
       </c>
       <c r="C1541" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1541" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1541" t="s">
         <v>3029</v>
       </c>
       <c r="O1541" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1541" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1542">
@@ -44391,18 +44382,15 @@
         <v>19</v>
       </c>
       <c r="C1542" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D1542" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1542" t="s">
         <v>3031</v>
       </c>
       <c r="O1542" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1542" t="s">
         <v>48</v>
       </c>
     </row>
@@ -44414,10 +44402,10 @@
         <v>19</v>
       </c>
       <c r="C1543" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D1543" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1543" t="s">
         <v>3033</v>
@@ -44434,15 +44422,18 @@
         <v>19</v>
       </c>
       <c r="C1544" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1544" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1544" t="s">
         <v>3035</v>
       </c>
       <c r="O1544" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1544" t="s">
         <v>48</v>
       </c>
     </row>
@@ -44454,15 +44445,18 @@
         <v>19</v>
       </c>
       <c r="C1545" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1545" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1545" t="s">
         <v>3037</v>
       </c>
       <c r="O1545" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1545" t="s">
         <v>48</v>
       </c>
     </row>
@@ -44471,19 +44465,22 @@
         <v>3038</v>
       </c>
       <c r="B1546" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1546" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D1546" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1546" t="s">
         <v>3039</v>
       </c>
       <c r="O1546" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1546" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1547">
@@ -44491,19 +44488,19 @@
         <v>3040</v>
       </c>
       <c r="B1547" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1547" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D1547" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1547" t="s">
         <v>3041</v>
       </c>
       <c r="O1547" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1548">
@@ -44511,13 +44508,13 @@
         <v>3042</v>
       </c>
       <c r="B1548" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1548" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1548" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1548" t="s">
         <v>3043</v>
@@ -44531,13 +44528,13 @@
         <v>3044</v>
       </c>
       <c r="B1549" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1549" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1549" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1549" t="s">
         <v>3045</v>
@@ -44554,16 +44551,16 @@
         <v>128</v>
       </c>
       <c r="C1550" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1550" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1550" t="s">
         <v>3047</v>
       </c>
       <c r="O1550" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1551">
@@ -44574,16 +44571,16 @@
         <v>128</v>
       </c>
       <c r="C1551" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D1551" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1551" t="s">
         <v>3049</v>
       </c>
       <c r="O1551" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1552">
@@ -44594,10 +44591,10 @@
         <v>128</v>
       </c>
       <c r="C1552" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D1552" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1552" t="s">
         <v>3051</v>
@@ -44614,16 +44611,16 @@
         <v>128</v>
       </c>
       <c r="C1553" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D1553" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1553" t="s">
         <v>3053</v>
       </c>
       <c r="O1553" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1554">
@@ -44634,16 +44631,16 @@
         <v>128</v>
       </c>
       <c r="C1554" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1554" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1554" t="s">
         <v>3055</v>
       </c>
       <c r="O1554" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1555">
@@ -44654,16 +44651,16 @@
         <v>128</v>
       </c>
       <c r="C1555" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1555" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1555" t="s">
         <v>3057</v>
       </c>
       <c r="O1555" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1556">
@@ -44674,10 +44671,10 @@
         <v>128</v>
       </c>
       <c r="C1556" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D1556" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1556" t="s">
         <v>3059</v>
@@ -44694,16 +44691,16 @@
         <v>128</v>
       </c>
       <c r="C1557" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1557" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1557" t="s">
         <v>3061</v>
       </c>
       <c r="O1557" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1558">
@@ -44714,16 +44711,16 @@
         <v>128</v>
       </c>
       <c r="C1558" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1558" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1558" t="s">
         <v>3063</v>
       </c>
       <c r="O1558" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1559">
@@ -44734,16 +44731,16 @@
         <v>128</v>
       </c>
       <c r="C1559" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1559" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1559" t="s">
         <v>3065</v>
       </c>
       <c r="O1559" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1560">
@@ -44754,16 +44751,16 @@
         <v>128</v>
       </c>
       <c r="C1560" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1560" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1560" t="s">
         <v>3067</v>
       </c>
       <c r="O1560" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1561">
@@ -44774,10 +44771,10 @@
         <v>128</v>
       </c>
       <c r="C1561" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D1561" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1561" t="s">
         <v>3069</v>
@@ -44794,10 +44791,10 @@
         <v>128</v>
       </c>
       <c r="C1562" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1562" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1562" t="s">
         <v>3071</v>
@@ -44814,13 +44811,13 @@
         <v>128</v>
       </c>
       <c r="C1563" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1563" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1563" t="s">
-        <v>3043</v>
+        <v>3073</v>
       </c>
       <c r="O1563" t="s">
         <v>48</v>
@@ -44828,19 +44825,19 @@
     </row>
     <row r="1564">
       <c r="A1564" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="B1564" t="s">
         <v>128</v>
       </c>
       <c r="C1564" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1564" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1564" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="O1564" t="s">
         <v>48</v>
@@ -44848,19 +44845,19 @@
     </row>
     <row r="1565">
       <c r="A1565" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="B1565" t="s">
         <v>128</v>
       </c>
       <c r="C1565" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1565" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1565" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="O1565" t="s">
         <v>48</v>
@@ -44868,19 +44865,19 @@
     </row>
     <row r="1566">
       <c r="A1566" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="B1566" t="s">
         <v>128</v>
       </c>
       <c r="C1566" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1566" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1566" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="O1566" t="s">
         <v>48</v>
@@ -44888,7 +44885,7 @@
     </row>
     <row r="1567">
       <c r="A1567" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="B1567" t="s">
         <v>128</v>
@@ -44897,10 +44894,10 @@
         <v>118</v>
       </c>
       <c r="D1567" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1567" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="O1567" t="s">
         <v>48</v>
@@ -44908,24 +44905,21 @@
     </row>
     <row r="1568">
       <c r="A1568" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="B1568" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1568" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1568" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1568" t="s">
-        <v>3082</v>
+        <v>3051</v>
       </c>
       <c r="O1568" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1568" t="s">
         <v>48</v>
       </c>
     </row>
@@ -44934,21 +44928,18 @@
         <v>3083</v>
       </c>
       <c r="B1569" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1569" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D1569" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1569" t="s">
         <v>3084</v>
       </c>
       <c r="O1569" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1569" t="s">
         <v>48</v>
       </c>
     </row>
@@ -44957,24 +44948,18 @@
         <v>3085</v>
       </c>
       <c r="B1570" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1570" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1570" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1570" t="s">
         <v>3086</v>
       </c>
-      <c r="N1570" t="s">
-        <v>48</v>
-      </c>
       <c r="O1570" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1570" t="s">
         <v>48</v>
       </c>
     </row>
@@ -44983,21 +44968,18 @@
         <v>3087</v>
       </c>
       <c r="B1571" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1571" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1571" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1571" t="s">
         <v>3088</v>
       </c>
       <c r="O1571" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1571" t="s">
         <v>48</v>
       </c>
     </row>
@@ -45006,21 +44988,18 @@
         <v>3089</v>
       </c>
       <c r="B1572" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1572" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1572" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1572" t="s">
         <v>3090</v>
       </c>
       <c r="O1572" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1572" t="s">
         <v>48</v>
       </c>
     </row>
@@ -45032,10 +45011,10 @@
         <v>2667</v>
       </c>
       <c r="C1573" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1573" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1573" t="s">
         <v>3092</v>
@@ -45055,10 +45034,10 @@
         <v>2667</v>
       </c>
       <c r="C1574" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1574" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1574" t="s">
         <v>3094</v>
@@ -45078,13 +45057,16 @@
         <v>2667</v>
       </c>
       <c r="C1575" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1575" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1575" t="s">
         <v>3096</v>
+      </c>
+      <c r="N1575" t="s">
+        <v>48</v>
       </c>
       <c r="O1575" t="s">
         <v>48</v>
@@ -45101,15 +45083,18 @@
         <v>2667</v>
       </c>
       <c r="C1576" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1576" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1576" t="s">
         <v>3098</v>
       </c>
       <c r="O1576" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1576" t="s">
         <v>48</v>
       </c>
     </row>
@@ -45121,10 +45106,10 @@
         <v>2667</v>
       </c>
       <c r="C1577" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1577" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1577" t="s">
         <v>3100</v>
@@ -45144,15 +45129,18 @@
         <v>2667</v>
       </c>
       <c r="C1578" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1578" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1578" t="s">
         <v>3102</v>
       </c>
       <c r="O1578" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1578" t="s">
         <v>48</v>
       </c>
     </row>
@@ -45164,79 +45152,79 @@
         <v>2667</v>
       </c>
       <c r="C1579" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D1579" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1579" t="s">
-        <v>3092</v>
+        <v>3104</v>
       </c>
       <c r="O1579" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1579" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B1580" t="s">
         <v>2667</v>
       </c>
       <c r="C1580" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1580" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1580" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="O1580" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1580" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="B1581" t="s">
         <v>2667</v>
       </c>
       <c r="C1581" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1581" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1581" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="O1581" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1581" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="B1582" t="s">
         <v>2667</v>
       </c>
       <c r="C1582" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D1582" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E1582" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="O1582" t="s">
         <v>48</v>
@@ -45247,24 +45235,21 @@
     </row>
     <row r="1583">
       <c r="A1583" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="B1583" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1583" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D1583" t="s">
-        <v>3111</v>
+        <v>3008</v>
       </c>
       <c r="E1583" t="s">
         <v>3112</v>
       </c>
       <c r="O1583" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1583" t="s">
         <v>48</v>
       </c>
     </row>
@@ -45273,39 +45258,39 @@
         <v>3113</v>
       </c>
       <c r="B1584" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1584" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D1584" t="s">
-        <v>3111</v>
+        <v>3008</v>
       </c>
       <c r="E1584" t="s">
-        <v>3114</v>
+        <v>3102</v>
       </c>
       <c r="O1584" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1584" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B1585" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1585" t="s">
         <v>84</v>
       </c>
       <c r="D1585" t="s">
-        <v>3111</v>
+        <v>3008</v>
       </c>
       <c r="E1585" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="O1585" t="s">
         <v>23</v>
@@ -45313,19 +45298,19 @@
     </row>
     <row r="1586">
       <c r="A1586" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B1586" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1586" t="s">
         <v>84</v>
       </c>
       <c r="D1586" t="s">
-        <v>3111</v>
+        <v>3008</v>
       </c>
       <c r="E1586" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="O1586" t="s">
         <v>23</v>
@@ -45336,42 +45321,45 @@
     </row>
     <row r="1587">
       <c r="A1587" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E1587" t="s">
         <v>3119</v>
       </c>
-      <c r="B1587" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1587" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1587" t="s">
-        <v>3111</v>
-      </c>
-      <c r="E1587" t="s">
-        <v>3120</v>
-      </c>
       <c r="O1587" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1587" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1588" t="s">
         <v>3121</v>
-      </c>
-      <c r="B1588" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1588" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1588" t="s">
-        <v>3111</v>
       </c>
       <c r="E1588" t="s">
         <v>3122</v>
       </c>
       <c r="O1588" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1589">
@@ -45382,15 +45370,18 @@
         <v>19</v>
       </c>
       <c r="C1589" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D1589" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1589" t="s">
         <v>3124</v>
       </c>
       <c r="O1589" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1589" t="s">
         <v>48</v>
       </c>
     </row>
@@ -45402,10 +45393,10 @@
         <v>19</v>
       </c>
       <c r="C1590" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D1590" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1590" t="s">
         <v>3126</v>
@@ -45425,19 +45416,16 @@
         <v>19</v>
       </c>
       <c r="C1591" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1591" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1591" t="s">
         <v>3128</v>
       </c>
       <c r="O1591" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1591" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1592">
@@ -45448,19 +45436,19 @@
         <v>19</v>
       </c>
       <c r="C1592" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1592" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1592" t="s">
         <v>3130</v>
       </c>
       <c r="O1592" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1592" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1593">
@@ -45471,10 +45459,10 @@
         <v>19</v>
       </c>
       <c r="C1593" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D1593" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1593" t="s">
         <v>3132</v>
@@ -45488,36 +45476,36 @@
         <v>3133</v>
       </c>
       <c r="B1594" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1594" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D1594" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1594" t="s">
-        <v>3074</v>
+        <v>3134</v>
       </c>
       <c r="O1594" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="B1595" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1595" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D1595" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1595" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="O1595" t="s">
         <v>48</v>
@@ -45525,79 +45513,88 @@
     </row>
     <row r="1596">
       <c r="A1596" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="B1596" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1596" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D1596" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1596" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="O1596" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1596" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="B1597" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1597" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1597" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1597" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="O1597" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1597" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="B1598" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1598" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1598" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1598" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="O1598" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1598" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="B1599" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1599" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D1599" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1599" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="O1599" t="s">
         <v>48</v>
@@ -45605,25 +45602,22 @@
     </row>
     <row r="1600">
       <c r="A1600" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="B1600" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1600" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="D1600" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1600" t="s">
-        <v>3145</v>
+        <v>3084</v>
       </c>
       <c r="O1600" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1600" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1601">
@@ -45631,21 +45625,18 @@
         <v>3146</v>
       </c>
       <c r="B1601" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1601" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D1601" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1601" t="s">
         <v>3147</v>
       </c>
       <c r="O1601" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1601" t="s">
         <v>48</v>
       </c>
     </row>
@@ -45654,21 +45645,18 @@
         <v>3148</v>
       </c>
       <c r="B1602" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1602" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D1602" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="E1602" t="s">
         <v>3149</v>
       </c>
       <c r="O1602" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1602" t="s">
         <v>48</v>
       </c>
     </row>
@@ -45677,79 +45665,76 @@
         <v>3150</v>
       </c>
       <c r="B1603" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1603" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D1603" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1603" t="s">
         <v>3151</v>
       </c>
-      <c r="E1603" t="s">
-        <v>3152</v>
-      </c>
       <c r="O1603" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1604" t="s">
         <v>3153</v>
       </c>
-      <c r="B1604" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1604" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1604" t="s">
-        <v>3151</v>
-      </c>
-      <c r="E1604" t="s">
-        <v>3154</v>
-      </c>
       <c r="O1604" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1605" t="s">
         <v>3155</v>
       </c>
-      <c r="B1605" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1605" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1605" t="s">
-        <v>3151</v>
-      </c>
-      <c r="E1605" t="s">
-        <v>3156</v>
-      </c>
       <c r="O1605" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1605" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1606" t="s">
         <v>3157</v>
-      </c>
-      <c r="B1606" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1606" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1606" t="s">
-        <v>3151</v>
-      </c>
-      <c r="E1606" t="s">
-        <v>3158</v>
       </c>
       <c r="O1606" t="s">
         <v>48</v>
@@ -45760,59 +45745,62 @@
     </row>
     <row r="1607">
       <c r="A1607" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1607" t="s">
         <v>3159</v>
       </c>
-      <c r="B1607" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1607" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1607" t="s">
-        <v>3151</v>
-      </c>
-      <c r="E1607" t="s">
-        <v>3160</v>
-      </c>
       <c r="O1607" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1607" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1608" t="s">
         <v>3161</v>
       </c>
-      <c r="B1608" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1608" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1608" t="s">
-        <v>3151</v>
-      </c>
-      <c r="E1608" t="s">
-        <v>3162</v>
-      </c>
       <c r="O1608" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1608" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1609" t="s">
         <v>3163</v>
-      </c>
-      <c r="B1609" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1609" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1609" t="s">
-        <v>3151</v>
       </c>
       <c r="E1609" t="s">
         <v>3164</v>
@@ -45829,10 +45817,10 @@
         <v>19</v>
       </c>
       <c r="C1610" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D1610" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1610" t="s">
         <v>3166</v>
@@ -45849,10 +45837,10 @@
         <v>19</v>
       </c>
       <c r="C1611" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D1611" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1611" t="s">
         <v>3168</v>
@@ -45872,10 +45860,10 @@
         <v>19</v>
       </c>
       <c r="C1612" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D1612" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1612" t="s">
         <v>3170</v>
@@ -45892,139 +45880,148 @@
         <v>3171</v>
       </c>
       <c r="B1613" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1613" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D1613" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1613" t="s">
-        <v>3135</v>
+        <v>3172</v>
       </c>
       <c r="O1613" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="B1614" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1614" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D1614" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1614" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="O1614" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1614" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="B1615" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1615" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D1615" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1615" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="O1615" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="B1616" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1616" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D1616" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1616" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="O1616" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="B1617" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1617" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D1617" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1617" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="O1617" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1617" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B1618" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1618" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D1618" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1618" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="O1618" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1618" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="B1619" t="s">
         <v>128</v>
       </c>
       <c r="C1619" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D1619" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1619" t="s">
-        <v>3183</v>
+        <v>3147</v>
       </c>
       <c r="O1619" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1620">
@@ -46035,10 +46032,10 @@
         <v>128</v>
       </c>
       <c r="C1620" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1620" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1620" t="s">
         <v>3185</v>
@@ -46055,10 +46052,10 @@
         <v>128</v>
       </c>
       <c r="C1621" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1621" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1621" t="s">
         <v>3187</v>
@@ -46072,22 +46069,19 @@
         <v>3188</v>
       </c>
       <c r="B1622" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1622" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1622" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1622" t="s">
         <v>3189</v>
       </c>
       <c r="O1622" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1622" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1623">
@@ -46095,19 +46089,19 @@
         <v>3190</v>
       </c>
       <c r="B1623" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1623" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D1623" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1623" t="s">
         <v>3191</v>
       </c>
       <c r="O1623" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1624">
@@ -46115,22 +46109,19 @@
         <v>3192</v>
       </c>
       <c r="B1624" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1624" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1624" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1624" t="s">
         <v>3193</v>
       </c>
       <c r="O1624" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1624" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1625">
@@ -46138,22 +46129,19 @@
         <v>3194</v>
       </c>
       <c r="B1625" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1625" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1625" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1625" t="s">
         <v>3195</v>
       </c>
       <c r="O1625" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1625" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1626">
@@ -46161,19 +46149,19 @@
         <v>3196</v>
       </c>
       <c r="B1626" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1626" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1626" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1626" t="s">
         <v>3197</v>
       </c>
       <c r="O1626" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1627">
@@ -46181,19 +46169,19 @@
         <v>3198</v>
       </c>
       <c r="B1627" t="s">
-        <v>2667</v>
+        <v>128</v>
       </c>
       <c r="C1627" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1627" t="s">
-        <v>3151</v>
+        <v>3163</v>
       </c>
       <c r="E1627" t="s">
         <v>3199</v>
       </c>
       <c r="O1627" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1628">
@@ -46201,142 +46189,145 @@
         <v>3200</v>
       </c>
       <c r="B1628" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1628" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1628" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E1628" t="s">
         <v>3201</v>
       </c>
-      <c r="E1628" t="s">
-        <v>3202</v>
-      </c>
       <c r="O1628" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E1629" t="s">
         <v>3203</v>
       </c>
-      <c r="B1629" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1629" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1629" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1629" t="s">
-        <v>3204</v>
-      </c>
       <c r="O1629" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1629" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E1630" t="s">
         <v>3205</v>
       </c>
-      <c r="B1630" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1630" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1630" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1630" t="s">
-        <v>3206</v>
-      </c>
       <c r="O1630" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1630" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B1631" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1631" t="s">
         <v>84</v>
       </c>
       <c r="D1631" t="s">
-        <v>3201</v>
+        <v>3163</v>
       </c>
       <c r="E1631" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="O1631" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1631" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E1632" t="s">
         <v>3209</v>
       </c>
-      <c r="B1632" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1632" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1632" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1632" t="s">
-        <v>3210</v>
-      </c>
       <c r="O1632" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1632" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B1633" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1633" t="s">
         <v>118</v>
       </c>
       <c r="D1633" t="s">
-        <v>3201</v>
+        <v>3163</v>
       </c>
       <c r="E1633" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="O1633" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1633" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E1634" t="s">
         <v>3213</v>
-      </c>
-      <c r="B1634" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1634" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1634" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1634" t="s">
-        <v>3214</v>
       </c>
       <c r="O1634" t="s">
         <v>48</v>
@@ -46344,22 +46335,22 @@
     </row>
     <row r="1635">
       <c r="A1635" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1635" t="s">
         <v>3215</v>
-      </c>
-      <c r="B1635" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1635" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1635" t="s">
-        <v>3201</v>
       </c>
       <c r="E1635" t="s">
         <v>3216</v>
       </c>
       <c r="O1635" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1636">
@@ -46367,13 +46358,13 @@
         <v>3217</v>
       </c>
       <c r="B1636" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1636" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1636" t="s">
-        <v>3201</v>
+        <v>3215</v>
       </c>
       <c r="E1636" t="s">
         <v>3218</v>
@@ -46387,13 +46378,13 @@
         <v>3219</v>
       </c>
       <c r="B1637" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1637" t="s">
         <v>84</v>
       </c>
       <c r="D1637" t="s">
-        <v>3201</v>
+        <v>3215</v>
       </c>
       <c r="E1637" t="s">
         <v>3220</v>
@@ -46407,19 +46398,22 @@
         <v>3221</v>
       </c>
       <c r="B1638" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1638" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1638" t="s">
-        <v>3201</v>
+        <v>3215</v>
       </c>
       <c r="E1638" t="s">
         <v>3222</v>
       </c>
       <c r="O1638" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="P1638" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1639">
@@ -46427,19 +46421,19 @@
         <v>3223</v>
       </c>
       <c r="B1639" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1639" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1639" t="s">
-        <v>3201</v>
+        <v>3215</v>
       </c>
       <c r="E1639" t="s">
         <v>3224</v>
       </c>
       <c r="O1639" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1640">
@@ -46447,105 +46441,99 @@
         <v>3225</v>
       </c>
       <c r="B1640" t="s">
-        <v>2667</v>
+        <v>19</v>
       </c>
       <c r="C1640" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D1640" t="s">
-        <v>3201</v>
+        <v>3215</v>
       </c>
       <c r="E1640" t="s">
-        <v>3226</v>
+        <v>3218</v>
       </c>
       <c r="O1640" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1640" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1641" t="s">
         <v>3227</v>
       </c>
-      <c r="B1641" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C1641" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1641" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1641" t="s">
-        <v>3228</v>
-      </c>
       <c r="O1641" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1641" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1642" t="s">
         <v>3229</v>
       </c>
-      <c r="B1642" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C1642" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1642" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1642" t="s">
-        <v>3230</v>
-      </c>
       <c r="O1642" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P1642" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1643" t="s">
         <v>3231</v>
       </c>
-      <c r="B1643" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C1643" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1643" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1643" t="s">
-        <v>3232</v>
-      </c>
       <c r="O1643" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1644" t="s">
         <v>3233</v>
-      </c>
-      <c r="B1644" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C1644" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1644" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1644" t="s">
-        <v>3234</v>
       </c>
       <c r="O1644" t="s">
         <v>48</v>
@@ -46553,19 +46541,19 @@
     </row>
     <row r="1645">
       <c r="A1645" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1645" t="s">
         <v>3235</v>
-      </c>
-      <c r="B1645" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C1645" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1645" t="s">
-        <v>3201</v>
-      </c>
-      <c r="E1645" t="s">
-        <v>3236</v>
       </c>
       <c r="O1645" t="s">
         <v>48</v>
@@ -46573,42 +46561,39 @@
     </row>
     <row r="1646">
       <c r="A1646" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1646" t="s">
         <v>3237</v>
       </c>
-      <c r="B1646" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1646" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1646" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1646" t="s">
-        <v>3239</v>
-      </c>
       <c r="O1646" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1646" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="B1647" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1647" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D1647" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1647" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="O1647" t="s">
         <v>48</v>
@@ -46616,62 +46601,62 @@
     </row>
     <row r="1648">
       <c r="A1648" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="B1648" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1648" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1648" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1648" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="O1648" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1648" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="B1649" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1649" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D1649" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1649" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="O1649" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1649" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="B1650" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1650" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1650" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1650" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="O1650" t="s">
         <v>48</v>
@@ -46682,62 +46667,62 @@
     </row>
     <row r="1651">
       <c r="A1651" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="B1651" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1651" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D1651" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1651" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="O1651" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P1651" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="B1652" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1652" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D1652" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1652" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="O1652" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="B1653" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1653" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D1653" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1653" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="O1653" t="s">
         <v>48</v>
@@ -46745,19 +46730,19 @@
     </row>
     <row r="1654">
       <c r="A1654" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="B1654" t="s">
-        <v>19</v>
+        <v>2667</v>
       </c>
       <c r="C1654" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D1654" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1654" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="O1654" t="s">
         <v>48</v>
@@ -46765,82 +46750,85 @@
     </row>
     <row r="1655">
       <c r="A1655" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1655" t="s">
         <v>3256</v>
       </c>
-      <c r="B1655" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1655" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1655" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1655" t="s">
-        <v>3257</v>
-      </c>
       <c r="O1655" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1655" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1656" t="s">
         <v>3258</v>
       </c>
-      <c r="B1656" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1656" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1656" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1656" t="s">
-        <v>3259</v>
-      </c>
       <c r="O1656" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1656" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1657" t="s">
         <v>3260</v>
       </c>
-      <c r="B1657" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1657" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1657" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1657" t="s">
-        <v>3261</v>
-      </c>
       <c r="O1657" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1657" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1658" t="s">
         <v>3262</v>
-      </c>
-      <c r="B1658" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1658" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1658" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1658" t="s">
-        <v>3263</v>
       </c>
       <c r="O1658" t="s">
         <v>48</v>
@@ -46848,59 +46836,65 @@
     </row>
     <row r="1659">
       <c r="A1659" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1659" t="s">
         <v>3264</v>
       </c>
-      <c r="B1659" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1659" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1659" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1659" t="s">
-        <v>3265</v>
-      </c>
       <c r="O1659" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="P1659" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1660" t="s">
         <v>3266</v>
       </c>
-      <c r="B1660" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1660" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1660" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1660" t="s">
-        <v>3267</v>
-      </c>
       <c r="O1660" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1660" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1661" t="s">
         <v>3268</v>
-      </c>
-      <c r="B1661" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1661" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1661" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1661" t="s">
-        <v>3269</v>
       </c>
       <c r="O1661" t="s">
         <v>48</v>
@@ -46908,39 +46902,42 @@
     </row>
     <row r="1662">
       <c r="A1662" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1662" t="s">
         <v>3270</v>
       </c>
-      <c r="B1662" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1662" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1662" t="s">
-        <v>3238</v>
-      </c>
-      <c r="E1662" t="s">
-        <v>3271</v>
-      </c>
       <c r="O1662" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E1663" t="s">
         <v>3272</v>
       </c>
-      <c r="B1663" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1663" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1663" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1663" t="s">
-        <v>85</v>
+      <c r="O1663" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1664">
@@ -46951,188 +46948,224 @@
         <v>19</v>
       </c>
       <c r="C1664" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D1664" t="s">
-        <v>21</v>
+        <v>3255</v>
       </c>
       <c r="E1664" t="s">
-        <v>76</v>
+        <v>3274</v>
+      </c>
+      <c r="O1664" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="B1665" t="s">
         <v>19</v>
       </c>
       <c r="C1665" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D1665" t="s">
-        <v>204</v>
+        <v>3255</v>
       </c>
       <c r="E1665" t="s">
-        <v>3275</v>
+        <v>3276</v>
+      </c>
+      <c r="O1665" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="B1666" t="s">
         <v>19</v>
       </c>
       <c r="C1666" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1666" t="s">
-        <v>636</v>
+        <v>3255</v>
       </c>
       <c r="E1666" t="s">
-        <v>3277</v>
+        <v>3278</v>
+      </c>
+      <c r="O1666" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1666" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="B1667" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1667" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1667" t="s">
-        <v>636</v>
+        <v>3255</v>
       </c>
       <c r="E1667" t="s">
-        <v>3277</v>
+        <v>3280</v>
+      </c>
+      <c r="O1667" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="s">
-        <v>3279</v>
+        <v>3281</v>
       </c>
       <c r="B1668" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1668" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D1668" t="s">
-        <v>636</v>
+        <v>3255</v>
       </c>
       <c r="E1668" t="s">
-        <v>2262</v>
+        <v>3282</v>
+      </c>
+      <c r="O1668" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="s">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="B1669" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1669" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D1669" t="s">
-        <v>636</v>
+        <v>3255</v>
       </c>
       <c r="E1669" t="s">
-        <v>3277</v>
+        <v>3284</v>
+      </c>
+      <c r="O1669" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="B1670" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1670" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D1670" t="s">
-        <v>850</v>
+        <v>3255</v>
       </c>
       <c r="E1670" t="s">
-        <v>3282</v>
+        <v>3286</v>
+      </c>
+      <c r="O1670" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="s">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="B1671" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1671" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1671" t="s">
-        <v>1275</v>
+        <v>3255</v>
       </c>
       <c r="E1671" t="s">
-        <v>3284</v>
+        <v>3288</v>
+      </c>
+      <c r="O1671" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="B1672" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1672" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1672" t="s">
-        <v>1579</v>
+        <v>3255</v>
       </c>
       <c r="E1672" t="s">
-        <v>3286</v>
+        <v>3290</v>
+      </c>
+      <c r="O1672" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="s">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="B1673" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1673" t="s">
         <v>109</v>
       </c>
       <c r="D1673" t="s">
-        <v>1778</v>
+        <v>3255</v>
       </c>
       <c r="E1673" t="s">
-        <v>1468</v>
+        <v>3292</v>
+      </c>
+      <c r="O1673" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="B1674" t="s">
         <v>128</v>
       </c>
       <c r="C1674" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D1674" t="s">
-        <v>2245</v>
+        <v>3255</v>
       </c>
       <c r="E1674" t="s">
-        <v>3289</v>
+        <v>3294</v>
+      </c>
+      <c r="O1674" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="s">
-        <v>3290</v>
+        <v>3295</v>
       </c>
       <c r="B1675" t="s">
         <v>128</v>
@@ -47141,15 +47174,18 @@
         <v>118</v>
       </c>
       <c r="D1675" t="s">
-        <v>2245</v>
+        <v>3255</v>
       </c>
       <c r="E1675" t="s">
-        <v>3291</v>
+        <v>3296</v>
+      </c>
+      <c r="O1675" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="s">
-        <v>3292</v>
+        <v>3297</v>
       </c>
       <c r="B1676" t="s">
         <v>128</v>
@@ -47158,287 +47194,290 @@
         <v>118</v>
       </c>
       <c r="D1676" t="s">
-        <v>2245</v>
+        <v>3255</v>
       </c>
       <c r="E1676" t="s">
-        <v>3293</v>
+        <v>3298</v>
+      </c>
+      <c r="O1676" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="s">
-        <v>3294</v>
+        <v>3299</v>
       </c>
       <c r="B1677" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1677" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="D1677" t="s">
-        <v>2245</v>
+        <v>21</v>
       </c>
       <c r="E1677" t="s">
-        <v>3295</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="B1678" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1678" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="D1678" t="s">
-        <v>2245</v>
+        <v>21</v>
       </c>
       <c r="E1678" t="s">
-        <v>3297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="B1679" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1679" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D1679" t="s">
-        <v>2344</v>
+        <v>204</v>
       </c>
       <c r="E1679" t="s">
-        <v>3299</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" t="s">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="B1680" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1680" t="s">
         <v>46</v>
       </c>
       <c r="D1680" t="s">
-        <v>2344</v>
+        <v>636</v>
       </c>
       <c r="E1680" t="s">
-        <v>3299</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="B1681" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1681" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D1681" t="s">
-        <v>2344</v>
+        <v>636</v>
       </c>
       <c r="E1681" t="s">
-        <v>3299</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
       <c r="B1682" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1682" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D1682" t="s">
-        <v>2344</v>
+        <v>636</v>
       </c>
       <c r="E1682" t="s">
-        <v>3299</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="s">
-        <v>3303</v>
+        <v>3307</v>
       </c>
       <c r="B1683" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1683" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D1683" t="s">
-        <v>2344</v>
+        <v>636</v>
       </c>
       <c r="E1683" t="s">
-        <v>3299</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="B1684" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1684" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D1684" t="s">
-        <v>2344</v>
+        <v>850</v>
       </c>
       <c r="E1684" t="s">
-        <v>3299</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" t="s">
-        <v>3305</v>
+        <v>3310</v>
       </c>
       <c r="B1685" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1685" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1685" t="s">
-        <v>2344</v>
+        <v>1275</v>
       </c>
       <c r="E1685" t="s">
-        <v>3306</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="s">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="B1686" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1686" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1686" t="s">
-        <v>2344</v>
+        <v>1579</v>
       </c>
       <c r="E1686" t="s">
-        <v>3299</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1687">
       <c r="A1687" t="s">
-        <v>3308</v>
+        <v>3314</v>
       </c>
       <c r="B1687" t="s">
         <v>19</v>
       </c>
       <c r="C1687" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D1687" t="s">
-        <v>2403</v>
+        <v>1778</v>
       </c>
       <c r="E1687" t="s">
-        <v>3309</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1688">
       <c r="A1688" t="s">
-        <v>3310</v>
+        <v>3315</v>
       </c>
       <c r="B1688" t="s">
         <v>128</v>
       </c>
       <c r="C1688" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D1688" t="s">
-        <v>2480</v>
+        <v>2245</v>
       </c>
       <c r="E1688" t="s">
-        <v>3311</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1689">
       <c r="A1689" t="s">
-        <v>3312</v>
+        <v>3317</v>
       </c>
       <c r="B1689" t="s">
         <v>128</v>
       </c>
       <c r="C1689" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1689" t="s">
-        <v>2480</v>
+        <v>2245</v>
       </c>
       <c r="E1689" t="s">
-        <v>3313</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1690">
       <c r="A1690" t="s">
-        <v>3314</v>
+        <v>3319</v>
       </c>
       <c r="B1690" t="s">
         <v>128</v>
       </c>
       <c r="C1690" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1690" t="s">
-        <v>2480</v>
+        <v>2245</v>
       </c>
       <c r="E1690" t="s">
-        <v>3311</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" t="s">
-        <v>3315</v>
+        <v>3321</v>
       </c>
       <c r="B1691" t="s">
         <v>128</v>
       </c>
       <c r="C1691" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1691" t="s">
-        <v>2480</v>
+        <v>2245</v>
       </c>
       <c r="E1691" t="s">
-        <v>3313</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" t="s">
-        <v>3316</v>
+        <v>3323</v>
       </c>
       <c r="B1692" t="s">
         <v>128</v>
       </c>
       <c r="C1692" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1692" t="s">
-        <v>2561</v>
+        <v>2245</v>
       </c>
       <c r="E1692" t="s">
-        <v>3317</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1693">
       <c r="A1693" t="s">
-        <v>3318</v>
+        <v>3325</v>
       </c>
       <c r="B1693" t="s">
         <v>128</v>
@@ -47447,15 +47486,15 @@
         <v>29</v>
       </c>
       <c r="D1693" t="s">
-        <v>2561</v>
+        <v>2344</v>
       </c>
       <c r="E1693" t="s">
-        <v>3319</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1694">
       <c r="A1694" t="s">
-        <v>3320</v>
+        <v>3327</v>
       </c>
       <c r="B1694" t="s">
         <v>128</v>
@@ -47464,15 +47503,15 @@
         <v>46</v>
       </c>
       <c r="D1694" t="s">
-        <v>2561</v>
+        <v>2344</v>
       </c>
       <c r="E1694" t="s">
-        <v>3319</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" t="s">
-        <v>3321</v>
+        <v>3328</v>
       </c>
       <c r="B1695" t="s">
         <v>128</v>
@@ -47481,338 +47520,338 @@
         <v>60</v>
       </c>
       <c r="D1695" t="s">
-        <v>2561</v>
+        <v>2344</v>
       </c>
       <c r="E1695" t="s">
-        <v>3319</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1696">
       <c r="A1696" t="s">
-        <v>3322</v>
+        <v>3329</v>
       </c>
       <c r="B1696" t="s">
         <v>128</v>
       </c>
       <c r="C1696" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D1696" t="s">
-        <v>2561</v>
+        <v>2344</v>
       </c>
       <c r="E1696" t="s">
-        <v>3323</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1697">
       <c r="A1697" t="s">
-        <v>3324</v>
+        <v>3330</v>
       </c>
       <c r="B1697" t="s">
         <v>128</v>
       </c>
       <c r="C1697" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D1697" t="s">
-        <v>2561</v>
+        <v>2344</v>
       </c>
       <c r="E1697" t="s">
-        <v>3319</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1698">
       <c r="A1698" t="s">
-        <v>3325</v>
+        <v>3331</v>
       </c>
       <c r="B1698" t="s">
         <v>128</v>
       </c>
       <c r="C1698" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D1698" t="s">
-        <v>2561</v>
+        <v>2344</v>
       </c>
       <c r="E1698" t="s">
-        <v>3317</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1699">
       <c r="A1699" t="s">
-        <v>3326</v>
+        <v>3332</v>
       </c>
       <c r="B1699" t="s">
         <v>128</v>
       </c>
       <c r="C1699" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D1699" t="s">
-        <v>2561</v>
+        <v>2344</v>
       </c>
       <c r="E1699" t="s">
-        <v>3319</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1700">
       <c r="A1700" t="s">
-        <v>3327</v>
+        <v>3334</v>
       </c>
       <c r="B1700" t="s">
         <v>128</v>
       </c>
       <c r="C1700" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D1700" t="s">
-        <v>2561</v>
+        <v>2344</v>
       </c>
       <c r="E1700" t="s">
-        <v>3319</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1701">
       <c r="A1701" t="s">
-        <v>3328</v>
+        <v>3335</v>
       </c>
       <c r="B1701" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1701" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D1701" t="s">
-        <v>2561</v>
+        <v>2403</v>
       </c>
       <c r="E1701" t="s">
-        <v>3319</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1702">
       <c r="A1702" t="s">
-        <v>3329</v>
+        <v>3337</v>
       </c>
       <c r="B1702" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1702" t="s">
         <v>20</v>
       </c>
       <c r="D1702" t="s">
-        <v>2674</v>
+        <v>2480</v>
       </c>
       <c r="E1702" t="s">
-        <v>3330</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1703">
       <c r="A1703" t="s">
-        <v>3331</v>
+        <v>3339</v>
       </c>
       <c r="B1703" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1703" t="s">
         <v>20</v>
       </c>
       <c r="D1703" t="s">
-        <v>2674</v>
+        <v>2480</v>
       </c>
       <c r="E1703" t="s">
-        <v>3332</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1704">
       <c r="A1704" t="s">
-        <v>3333</v>
+        <v>3341</v>
       </c>
       <c r="B1704" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1704" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D1704" t="s">
-        <v>2674</v>
+        <v>2480</v>
       </c>
       <c r="E1704" t="s">
-        <v>3334</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1705">
       <c r="A1705" t="s">
-        <v>3335</v>
+        <v>3342</v>
       </c>
       <c r="B1705" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1705" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1705" t="s">
-        <v>2674</v>
+        <v>2480</v>
       </c>
       <c r="E1705" t="s">
-        <v>3336</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1706">
       <c r="A1706" t="s">
-        <v>3337</v>
+        <v>3343</v>
       </c>
       <c r="B1706" t="s">
         <v>128</v>
       </c>
       <c r="C1706" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="D1706" t="s">
-        <v>2674</v>
+        <v>2561</v>
       </c>
       <c r="E1706" t="s">
-        <v>3338</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" t="s">
-        <v>3339</v>
+        <v>3345</v>
       </c>
       <c r="B1707" t="s">
         <v>128</v>
       </c>
       <c r="C1707" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="D1707" t="s">
-        <v>2674</v>
+        <v>2561</v>
       </c>
       <c r="E1707" t="s">
-        <v>3340</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1708">
       <c r="A1708" t="s">
-        <v>3341</v>
+        <v>3347</v>
       </c>
       <c r="B1708" t="s">
         <v>128</v>
       </c>
       <c r="C1708" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D1708" t="s">
-        <v>2674</v>
+        <v>2561</v>
       </c>
       <c r="E1708" t="s">
-        <v>3342</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1709">
       <c r="A1709" t="s">
-        <v>3343</v>
+        <v>3348</v>
       </c>
       <c r="B1709" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1709" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D1709" t="s">
-        <v>2766</v>
+        <v>2561</v>
       </c>
       <c r="E1709" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1710">
       <c r="A1710" t="s">
-        <v>3345</v>
+        <v>3349</v>
       </c>
       <c r="B1710" t="s">
         <v>128</v>
       </c>
       <c r="C1710" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D1710" t="s">
-        <v>2766</v>
+        <v>2561</v>
       </c>
       <c r="E1710" t="s">
-        <v>3346</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1711">
       <c r="A1711" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="B1711" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1711" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D1711" t="s">
-        <v>2852</v>
+        <v>2561</v>
       </c>
       <c r="E1711" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1712">
       <c r="A1712" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
       <c r="B1712" t="s">
         <v>128</v>
       </c>
       <c r="C1712" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1712" t="s">
-        <v>2852</v>
+        <v>2561</v>
       </c>
       <c r="E1712" t="s">
-        <v>2890</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1713">
       <c r="A1713" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="B1713" t="s">
         <v>128</v>
       </c>
       <c r="C1713" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D1713" t="s">
-        <v>2935</v>
+        <v>2561</v>
       </c>
       <c r="E1713" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1714">
       <c r="A1714" t="s">
-        <v>3352</v>
+        <v>3354</v>
       </c>
       <c r="B1714" t="s">
         <v>128</v>
       </c>
       <c r="C1714" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1714" t="s">
-        <v>2935</v>
+        <v>2561</v>
       </c>
       <c r="E1714" t="s">
-        <v>3353</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1715">
       <c r="A1715" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="B1715" t="s">
         <v>128</v>
@@ -47821,10 +47860,10 @@
         <v>118</v>
       </c>
       <c r="D1715" t="s">
-        <v>2935</v>
+        <v>2561</v>
       </c>
       <c r="E1715" t="s">
-        <v>3355</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1716">
@@ -47832,13 +47871,13 @@
         <v>3356</v>
       </c>
       <c r="B1716" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1716" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="D1716" t="s">
-        <v>2935</v>
+        <v>2674</v>
       </c>
       <c r="E1716" t="s">
         <v>3357</v>
@@ -47849,13 +47888,13 @@
         <v>3358</v>
       </c>
       <c r="B1717" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1717" t="s">
         <v>20</v>
       </c>
       <c r="D1717" t="s">
-        <v>3000</v>
+        <v>2674</v>
       </c>
       <c r="E1717" t="s">
         <v>3359</v>
@@ -47866,13 +47905,13 @@
         <v>3360</v>
       </c>
       <c r="B1718" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1718" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D1718" t="s">
-        <v>3000</v>
+        <v>2674</v>
       </c>
       <c r="E1718" t="s">
         <v>3361</v>
@@ -47886,103 +47925,103 @@
         <v>128</v>
       </c>
       <c r="C1719" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1719" t="s">
-        <v>3000</v>
+        <v>2674</v>
       </c>
       <c r="E1719" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1720">
       <c r="A1720" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="B1720" t="s">
         <v>128</v>
       </c>
       <c r="C1720" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D1720" t="s">
-        <v>3000</v>
+        <v>2674</v>
       </c>
       <c r="E1720" t="s">
-        <v>3361</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1721">
       <c r="A1721" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="B1721" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1721" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D1721" t="s">
-        <v>3000</v>
+        <v>2770</v>
       </c>
       <c r="E1721" t="s">
-        <v>3361</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1722">
       <c r="A1722" t="s">
-        <v>3365</v>
+        <v>3368</v>
       </c>
       <c r="B1722" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1722" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D1722" t="s">
-        <v>3000</v>
+        <v>2858</v>
       </c>
       <c r="E1722" t="s">
-        <v>3366</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1723">
       <c r="A1723" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
       <c r="B1723" t="s">
         <v>128</v>
       </c>
       <c r="C1723" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D1723" t="s">
-        <v>3000</v>
+        <v>2858</v>
       </c>
       <c r="E1723" t="s">
-        <v>3361</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1724">
       <c r="A1724" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
       <c r="B1724" t="s">
         <v>128</v>
       </c>
       <c r="C1724" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D1724" t="s">
-        <v>3000</v>
+        <v>2941</v>
       </c>
       <c r="E1724" t="s">
-        <v>3361</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="1725">
       <c r="A1725" t="s">
-        <v>3369</v>
+        <v>3373</v>
       </c>
       <c r="B1725" t="s">
         <v>128</v>
@@ -47991,109 +48030,109 @@
         <v>118</v>
       </c>
       <c r="D1725" t="s">
-        <v>3000</v>
+        <v>2941</v>
       </c>
       <c r="E1725" t="s">
-        <v>3361</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" t="s">
-        <v>3370</v>
+        <v>3375</v>
       </c>
       <c r="B1726" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1726" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1726" t="s">
-        <v>3111</v>
+        <v>2941</v>
       </c>
       <c r="E1726" t="s">
-        <v>3371</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="s">
-        <v>3372</v>
+        <v>3377</v>
       </c>
       <c r="B1727" t="s">
         <v>128</v>
       </c>
       <c r="C1727" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1727" t="s">
-        <v>3111</v>
+        <v>3008</v>
       </c>
       <c r="E1727" t="s">
-        <v>3359</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" t="s">
-        <v>3373</v>
+        <v>3379</v>
       </c>
       <c r="B1728" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1728" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="D1728" t="s">
-        <v>3151</v>
+        <v>3008</v>
       </c>
       <c r="E1728" t="s">
-        <v>3374</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1729">
       <c r="A1729" t="s">
-        <v>3375</v>
+        <v>3381</v>
       </c>
       <c r="B1729" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1729" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D1729" t="s">
-        <v>3151</v>
+        <v>3008</v>
       </c>
       <c r="E1729" t="s">
-        <v>3376</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="s">
-        <v>3377</v>
+        <v>3382</v>
       </c>
       <c r="B1730" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1730" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D1730" t="s">
-        <v>3151</v>
+        <v>3008</v>
       </c>
       <c r="E1730" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" t="s">
-        <v>3379</v>
+        <v>3383</v>
       </c>
       <c r="B1731" t="s">
         <v>128</v>
       </c>
       <c r="C1731" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D1731" t="s">
-        <v>3151</v>
+        <v>3008</v>
       </c>
       <c r="E1731" t="s">
         <v>3380</v>
@@ -48101,41 +48140,41 @@
     </row>
     <row r="1732">
       <c r="A1732" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="B1732" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1732" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D1732" t="s">
-        <v>3201</v>
+        <v>3008</v>
       </c>
       <c r="E1732" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1733">
       <c r="A1733" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="B1733" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C1733" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D1733" t="s">
-        <v>3201</v>
+        <v>3008</v>
       </c>
       <c r="E1733" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1734">
       <c r="A1734" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="B1734" t="s">
         <v>128</v>
@@ -48144,27 +48183,27 @@
         <v>118</v>
       </c>
       <c r="D1734" t="s">
-        <v>3201</v>
+        <v>3008</v>
       </c>
       <c r="E1734" t="s">
-        <v>3385</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1735">
       <c r="A1735" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="B1735" t="s">
         <v>128</v>
       </c>
       <c r="C1735" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1735" t="s">
-        <v>3201</v>
+        <v>3121</v>
       </c>
       <c r="E1735" t="s">
-        <v>3387</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="1736">
@@ -48175,10 +48214,10 @@
         <v>19</v>
       </c>
       <c r="C1736" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1736" t="s">
-        <v>3238</v>
+        <v>3163</v>
       </c>
       <c r="E1736" t="s">
         <v>3389</v>
@@ -48189,13 +48228,13 @@
         <v>3390</v>
       </c>
       <c r="B1737" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1737" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D1737" t="s">
-        <v>3238</v>
+        <v>3163</v>
       </c>
       <c r="E1737" t="s">
         <v>3391</v>
@@ -48206,13 +48245,13 @@
         <v>3392</v>
       </c>
       <c r="B1738" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C1738" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D1738" t="s">
-        <v>3238</v>
+        <v>3163</v>
       </c>
       <c r="E1738" t="s">
         <v>3393</v>
@@ -48226,10 +48265,10 @@
         <v>128</v>
       </c>
       <c r="C1739" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D1739" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1739" t="s">
         <v>3395</v>
@@ -48246,7 +48285,7 @@
         <v>118</v>
       </c>
       <c r="D1740" t="s">
-        <v>3238</v>
+        <v>3215</v>
       </c>
       <c r="E1740" t="s">
         <v>3397</v>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11883" uniqueCount="3510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11884" uniqueCount="3510">
   <si>
     <t>Vehicles</t>
   </si>
@@ -6782,18 +6782,18 @@
     <t>Medium Tank M26E1</t>
   </si>
   <si>
+    <t>us_t26e5</t>
+  </si>
+  <si>
+    <t>Assault tank T26E5</t>
+  </si>
+  <si>
     <t>us_m26_t99</t>
   </si>
   <si>
     <t>Medium Tank M26 T99</t>
   </si>
   <si>
-    <t>us_t26e5</t>
-  </si>
-  <si>
-    <t>Assault tank T26E5</t>
-  </si>
-  <si>
     <t>la-9_china</t>
   </si>
   <si>
@@ -7226,16 +7226,16 @@
     <t>Type 60 ATM</t>
   </si>
   <si>
+    <t>ussr_pt_76_57</t>
+  </si>
+  <si>
+    <t>PT-76-57</t>
+  </si>
+  <si>
     <t>ussr_t_44_100</t>
   </si>
   <si>
     <t>T-44-100</t>
-  </si>
-  <si>
-    <t>ussr_pt_76_57</t>
-  </si>
-  <si>
-    <t>PT-76-57</t>
   </si>
   <si>
     <t>ussr_is_3</t>
@@ -22121,9 +22121,6 @@
       <c r="I528" t="s">
         <v>48</v>
       </c>
-      <c r="J528" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -28901,6 +28898,9 @@
       <c r="I831" t="s">
         <v>23</v>
       </c>
+      <c r="J831" t="s">
+        <v>23</v>
+      </c>
       <c r="K831" t="s">
         <v>23</v>
       </c>
@@ -36078,6 +36078,9 @@
       <c r="E1151" t="s">
         <v>2257</v>
       </c>
+      <c r="J1151" t="s">
+        <v>23</v>
+      </c>
       <c r="K1151" t="s">
         <v>23</v>
       </c>
@@ -37743,6 +37746,9 @@
       <c r="E1226" t="s">
         <v>2405</v>
       </c>
+      <c r="J1226" t="s">
+        <v>23</v>
+      </c>
       <c r="K1226" t="s">
         <v>23</v>
       </c>
@@ -40466,9 +40472,6 @@
         <v>2648</v>
       </c>
       <c r="M1348" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1348" t="s">
         <v>48</v>
       </c>
     </row>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12245" uniqueCount="3625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12244" uniqueCount="3625">
   <si>
     <t>Vehicles</t>
   </si>
@@ -39368,9 +39368,6 @@
       <c r="E1284" t="s">
         <v>2520</v>
       </c>
-      <c r="J1284" t="s">
-        <v>23</v>
-      </c>
       <c r="K1284" t="s">
         <v>23</v>
       </c>

--- a/actual_lineups.xlsx
+++ b/actual_lineups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12626" uniqueCount="3744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12627" uniqueCount="3744">
   <si>
     <t>Vehicles</t>
   </si>
@@ -30444,6 +30444,9 @@
       <c r="H872" t="s">
         <v>23</v>
       </c>
+      <c r="J872" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="s">
